--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9272AE64-0474-A54B-AF29-0DFB09F42423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE94030-A074-5B46-8E42-85AF2C2E6F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="520" windowWidth="32900" windowHeight="19240" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="3580" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C39"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
@@ -1216,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="58">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
@@ -1239,7 +1239,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1527,10 +1527,10 @@
         <v>69951</v>
       </c>
       <c r="B15" s="58">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C15" s="58">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D15" s="48"/>
       <c r="E15" s="48"/>
@@ -1553,7 +1553,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1947,10 +1947,10 @@
         <v>70734</v>
       </c>
       <c r="B27" s="58">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C27" s="58">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D27" s="48"/>
       <c r="E27" s="48"/>
@@ -1973,7 +1973,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="X27"/>
     </row>
@@ -3164,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V64"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:J39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4099,8 +4099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4743,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4924,7 +4924,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="C6" s="51">
         <f>Homework!J6</f>
@@ -4940,7 +4940,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="C15" s="51">
         <f>Homework!J15</f>
@@ -5237,11 +5237,11 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="52">
         <f t="shared" si="2"/>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="C27" s="51">
         <f>Homework!J27</f>
@@ -5633,11 +5633,11 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="52">
         <f t="shared" si="7"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE94030-A074-5B46-8E42-85AF2C2E6F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9348F52E-6E9A-574C-A96A-EE82794998BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="3580" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -983,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -1079,7 +1079,9 @@
         <v>3</v>
       </c>
       <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="E2" s="58">
+        <v>12</v>
+      </c>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
@@ -1099,7 +1101,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1114,7 +1116,9 @@
         <v>0</v>
       </c>
       <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="E3" s="58">
+        <v>0</v>
+      </c>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
@@ -1149,7 +1153,9 @@
         <v>15</v>
       </c>
       <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="E4" s="58">
+        <v>14</v>
+      </c>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
@@ -1169,7 +1175,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1184,7 +1190,9 @@
         <v>9</v>
       </c>
       <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="E5" s="58">
+        <v>7</v>
+      </c>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
@@ -1204,7 +1212,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1219,7 +1227,9 @@
         <v>15</v>
       </c>
       <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="E6" s="58">
+        <v>14</v>
+      </c>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
@@ -1239,7 +1249,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1254,7 +1264,9 @@
         <v>15</v>
       </c>
       <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="E7" s="58">
+        <v>12</v>
+      </c>
       <c r="F7" s="44"/>
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
@@ -1274,7 +1286,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1289,7 +1301,9 @@
         <v>9</v>
       </c>
       <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="E8" s="58">
+        <v>15</v>
+      </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
@@ -1309,7 +1323,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1324,7 +1338,9 @@
         <v>15</v>
       </c>
       <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="E9" s="58">
+        <v>7</v>
+      </c>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
@@ -1344,7 +1360,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1359,7 +1375,9 @@
         <v>15</v>
       </c>
       <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
+      <c r="E10" s="58">
+        <v>7</v>
+      </c>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
@@ -1379,7 +1397,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1394,7 +1412,9 @@
         <v>0</v>
       </c>
       <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="E11" s="58">
+        <v>8</v>
+      </c>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
@@ -1414,7 +1434,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1429,7 +1449,9 @@
         <v>15</v>
       </c>
       <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="E12" s="58">
+        <v>14</v>
+      </c>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
@@ -1449,7 +1471,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1464,7 +1486,9 @@
         <v>15</v>
       </c>
       <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="E13" s="58">
+        <v>15</v>
+      </c>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
@@ -1499,7 +1523,9 @@
         <v>15</v>
       </c>
       <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
+      <c r="E14" s="58">
+        <v>12</v>
+      </c>
       <c r="F14" s="44"/>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
@@ -1519,7 +1545,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1533,7 +1559,9 @@
         <v>3</v>
       </c>
       <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
+      <c r="E15" s="58">
+        <v>7</v>
+      </c>
       <c r="F15" s="44"/>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
@@ -1553,7 +1581,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1568,7 +1596,9 @@
         <v>15</v>
       </c>
       <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
+      <c r="E16" s="58">
+        <v>15</v>
+      </c>
       <c r="F16" s="44"/>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
@@ -1603,7 +1633,9 @@
         <v>0</v>
       </c>
       <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="E17" s="58">
+        <v>9</v>
+      </c>
       <c r="F17" s="44"/>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
@@ -1623,7 +1655,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="X17"/>
     </row>
@@ -1638,7 +1670,9 @@
         <v>9</v>
       </c>
       <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
+      <c r="E18" s="58">
+        <v>12</v>
+      </c>
       <c r="F18" s="44"/>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
@@ -1673,7 +1707,9 @@
         <v>15</v>
       </c>
       <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
+      <c r="E19" s="58">
+        <v>12</v>
+      </c>
       <c r="F19" s="44"/>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
@@ -1693,7 +1729,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.76666666666666672</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="X19"/>
     </row>
@@ -1708,7 +1744,9 @@
         <v>9</v>
       </c>
       <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
+      <c r="E20" s="58">
+        <v>15</v>
+      </c>
       <c r="F20" s="44"/>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
@@ -1728,7 +1766,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="X20"/>
     </row>
@@ -1743,7 +1781,9 @@
         <v>0</v>
       </c>
       <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
+      <c r="E21" s="58">
+        <v>12</v>
+      </c>
       <c r="F21" s="44"/>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
@@ -1763,7 +1803,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X21"/>
     </row>
@@ -1778,7 +1818,9 @@
         <v>15</v>
       </c>
       <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
+      <c r="E22" s="58">
+        <v>15</v>
+      </c>
       <c r="F22" s="44"/>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
@@ -1813,7 +1855,9 @@
         <v>15</v>
       </c>
       <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
+      <c r="E23" s="58">
+        <v>12</v>
+      </c>
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
@@ -1833,7 +1877,7 @@
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="X23"/>
     </row>
@@ -1848,7 +1892,9 @@
         <v>9</v>
       </c>
       <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
+      <c r="E24" s="58">
+        <v>8</v>
+      </c>
       <c r="F24" s="44"/>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
@@ -1868,7 +1914,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="X24"/>
     </row>
@@ -1883,7 +1929,9 @@
         <v>15</v>
       </c>
       <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
+      <c r="E25" s="58">
+        <v>15</v>
+      </c>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
@@ -1903,7 +1951,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="X25"/>
     </row>
@@ -1918,7 +1966,9 @@
         <v>15</v>
       </c>
       <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
+      <c r="E26" s="58">
+        <v>15</v>
+      </c>
       <c r="F26" s="44"/>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
@@ -1938,7 +1988,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.76666666666666672</v>
+        <v>0.84444444444444444</v>
       </c>
       <c r="X26"/>
     </row>
@@ -1953,7 +2003,9 @@
         <v>9</v>
       </c>
       <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
+      <c r="E27" s="58">
+        <v>12</v>
+      </c>
       <c r="F27" s="44"/>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
@@ -1988,7 +2040,9 @@
         <v>9</v>
       </c>
       <c r="D28" s="48"/>
-      <c r="E28" s="48"/>
+      <c r="E28" s="58">
+        <v>0</v>
+      </c>
       <c r="F28" s="44"/>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
@@ -2008,7 +2062,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2023,7 +2077,9 @@
         <v>9</v>
       </c>
       <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
+      <c r="E29" s="58">
+        <v>9</v>
+      </c>
       <c r="F29" s="44"/>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
@@ -2043,7 +2099,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2058,7 +2114,9 @@
         <v>9</v>
       </c>
       <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
+      <c r="E30" s="58">
+        <v>7</v>
+      </c>
       <c r="F30" s="44"/>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
@@ -2078,7 +2136,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2093,7 +2151,9 @@
         <v>9</v>
       </c>
       <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
+      <c r="E31" s="58">
+        <v>12</v>
+      </c>
       <c r="F31" s="44"/>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
@@ -2113,7 +2173,7 @@
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="X31"/>
     </row>
@@ -2128,7 +2188,9 @@
         <v>15</v>
       </c>
       <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
+      <c r="E32" s="58">
+        <v>14</v>
+      </c>
       <c r="F32" s="44"/>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
@@ -2148,7 +2210,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="X32"/>
     </row>
@@ -2163,7 +2225,9 @@
         <v>9</v>
       </c>
       <c r="D33" s="48"/>
-      <c r="E33" s="48"/>
+      <c r="E33" s="58">
+        <v>7</v>
+      </c>
       <c r="F33" s="44"/>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
@@ -2183,7 +2247,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="X33"/>
     </row>
@@ -2198,7 +2262,9 @@
         <v>15</v>
       </c>
       <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
+      <c r="E34" s="58">
+        <v>9</v>
+      </c>
       <c r="F34" s="44"/>
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
@@ -2218,7 +2284,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X34"/>
     </row>
@@ -2233,7 +2299,9 @@
         <v>15</v>
       </c>
       <c r="D35" s="48"/>
-      <c r="E35" s="48"/>
+      <c r="E35" s="58">
+        <v>15</v>
+      </c>
       <c r="F35" s="44"/>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
@@ -2268,7 +2336,9 @@
         <v>15</v>
       </c>
       <c r="D36" s="48"/>
-      <c r="E36" s="48"/>
+      <c r="E36" s="58">
+        <v>12</v>
+      </c>
       <c r="F36" s="44"/>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
@@ -2288,7 +2358,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="X36"/>
     </row>
@@ -2303,7 +2373,9 @@
         <v>15</v>
       </c>
       <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
+      <c r="E37" s="58">
+        <v>3</v>
+      </c>
       <c r="F37" s="44"/>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
@@ -2323,7 +2395,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="X37"/>
     </row>
@@ -2338,7 +2410,9 @@
         <v>9</v>
       </c>
       <c r="D38" s="48"/>
-      <c r="E38" s="48"/>
+      <c r="E38" s="58">
+        <v>0</v>
+      </c>
       <c r="F38" s="44"/>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
@@ -2358,7 +2432,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="X38"/>
     </row>
@@ -2373,7 +2447,9 @@
         <v>9</v>
       </c>
       <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
+      <c r="E39" s="58">
+        <v>12</v>
+      </c>
       <c r="F39" s="44"/>
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
@@ -2511,9 +2587,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="30" t="e">
+      <c r="E42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>10.421052631578947</v>
       </c>
       <c r="F42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -2585,7 +2661,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.73596491228070171</v>
+        <v>0.72222222222222243</v>
       </c>
       <c r="X42"/>
     </row>
@@ -2605,9 +2681,9 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="30" t="e">
+      <c r="E43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.3967529723487706</v>
       </c>
       <c r="F43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -2679,7 +2755,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.2811795808616544</v>
+        <v>0.25055161033762191</v>
       </c>
       <c r="X43"/>
     </row>
@@ -2699,9 +2775,9 @@
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="E44" s="30" t="e">
+      <c r="E44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>12</v>
       </c>
       <c r="F44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -2773,7 +2849,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.78888888888888897</v>
       </c>
       <c r="X44"/>
     </row>
@@ -2795,7 +2871,7 @@
       </c>
       <c r="E45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="33">
         <f t="shared" si="4"/>
@@ -4791,7 +4867,7 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C2" s="51">
         <f>Homework!J2</f>
@@ -4807,7 +4883,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4858,7 +4934,7 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="C4" s="51">
         <f>Homework!J4</f>
@@ -4874,7 +4950,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -4891,7 +4967,7 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.8</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="C5" s="51">
         <f>Homework!J5</f>
@@ -4907,11 +4983,11 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.68888888888888888</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H5" s="52">
         <f t="shared" si="2"/>
@@ -4924,7 +5000,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="C6" s="51">
         <f>Homework!J6</f>
@@ -4940,7 +5016,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -4957,7 +5033,7 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="C7" s="51">
         <f>Homework!J7</f>
@@ -4973,7 +5049,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -4990,7 +5066,7 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C8" s="51">
         <f>Homework!J8</f>
@@ -5006,7 +5082,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -5023,7 +5099,7 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.6</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C9" s="51">
         <f>Homework!J9</f>
@@ -5039,7 +5115,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -5056,7 +5132,7 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>1</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="C10" s="51">
         <f>Homework!J10</f>
@@ -5072,7 +5148,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -5089,7 +5165,7 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.26666666666666666</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="C11" s="51">
         <f>Homework!J11</f>
@@ -5105,7 +5181,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0.35555555555555557</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -5122,7 +5198,7 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="C12" s="51">
         <f>Homework!J12</f>
@@ -5138,7 +5214,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -5188,7 +5264,7 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="C14" s="51">
         <f>Homework!J14</f>
@@ -5204,7 +5280,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -5221,7 +5297,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>0.2</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="C15" s="51">
         <f>Homework!J15</f>
@@ -5237,11 +5313,11 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H15" s="52">
         <f t="shared" si="2"/>
@@ -5287,7 +5363,7 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.5</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C17" s="51">
         <f>Homework!J17</f>
@@ -5303,7 +5379,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -5353,7 +5429,7 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.76666666666666672</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C19" s="51">
         <f>Homework!J19</f>
@@ -5369,7 +5445,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>0.76666666666666672</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -5386,7 +5462,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C20" s="51">
         <f>Homework!J20</f>
@@ -5402,7 +5478,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -5419,7 +5495,7 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C21" s="51">
         <f>Homework!J21</f>
@@ -5435,11 +5511,11 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="52">
         <f t="shared" si="5"/>
@@ -5485,7 +5561,7 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="C23" s="51">
         <f>Homework!J23</f>
@@ -5501,7 +5577,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -5518,7 +5594,7 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.8</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="C24" s="51">
         <f>Homework!J24</f>
@@ -5534,11 +5610,11 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H24" s="52">
         <f t="shared" si="5"/>
@@ -5551,7 +5627,7 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.6</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C25" s="51">
         <f>Homework!J25</f>
@@ -5567,7 +5643,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>0.6</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -5584,7 +5660,7 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.76666666666666672</v>
+        <v>0.84444444444444444</v>
       </c>
       <c r="C26" s="51">
         <f>Homework!J26</f>
@@ -5600,7 +5676,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>0.76666666666666672</v>
+        <v>0.84444444444444444</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -5650,7 +5726,7 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.8</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C28" s="51">
         <f>Homework!J28</f>
@@ -5666,11 +5742,11 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H28" s="52">
         <f t="shared" si="7"/>
@@ -5683,7 +5759,7 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.56666666666666665</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="C29" s="51">
         <f>Homework!J29</f>
@@ -5699,7 +5775,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>0.56666666666666665</v>
+        <v>0.57777777777777772</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -5716,7 +5792,7 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.5</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="C30" s="51">
         <f>Homework!J30</f>
@@ -5732,7 +5808,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -5749,7 +5825,7 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.7</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C31" s="51">
         <f>Homework!J31</f>
@@ -5765,7 +5841,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>0.7</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -5782,7 +5858,7 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="C32" s="51">
         <f>Homework!J32</f>
@@ -5798,7 +5874,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.97777777777777775</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -5815,7 +5891,7 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.4</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C33" s="51">
         <f>Homework!J33</f>
@@ -5831,7 +5907,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -5848,7 +5924,7 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.7</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C34" s="51">
         <f>Homework!J34</f>
@@ -5864,7 +5940,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>0.7</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -5914,7 +5990,7 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="C36" s="51">
         <f>Homework!J36</f>
@@ -5930,7 +6006,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -5947,7 +6023,7 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>1</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C37" s="51">
         <f>Homework!J37</f>
@@ -5963,11 +6039,11 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H37" s="52">
         <f t="shared" si="8"/>
@@ -5980,7 +6056,7 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.4</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="C38" s="51">
         <f>Homework!J38</f>
@@ -5996,7 +6072,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -6086,7 +6162,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.73596491228070171</v>
+        <v>0.72222222222222243</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
@@ -6102,11 +6178,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>0.73596491228070171</v>
+        <v>0.72222222222222243</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>0.77631578947368418</v>
+        <v>0.75</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -6119,7 +6195,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.2811795808616544</v>
+        <v>0.25055161033762191</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
@@ -6135,11 +6211,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>0.2811795808616544</v>
+        <v>0.25055161033762191</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>0.32251897955994296</v>
+        <v>0.27875204519913876</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -6152,7 +6228,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.8</v>
+        <v>0.78888888888888897</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
@@ -6168,7 +6244,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>0.8</v>
+        <v>0.78888888888888897</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9348F52E-6E9A-574C-A96A-EE82794998BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17737C8E-6F3B-1E49-866D-A7AB3D647173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="3580" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1260" yWindow="3140" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -983,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -1082,7 +1082,9 @@
       <c r="E2" s="58">
         <v>12</v>
       </c>
-      <c r="F2" s="44"/>
+      <c r="F2" s="18">
+        <v>7</v>
+      </c>
       <c r="G2" s="44"/>
       <c r="H2" s="44"/>
       <c r="I2" s="18"/>
@@ -1101,7 +1103,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.6</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1119,7 +1121,9 @@
       <c r="E3" s="58">
         <v>0</v>
       </c>
-      <c r="F3" s="44"/>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
       <c r="G3" s="44"/>
       <c r="H3" s="44"/>
       <c r="I3" s="18"/>
@@ -1156,7 +1160,9 @@
       <c r="E4" s="58">
         <v>14</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="18">
+        <v>15</v>
+      </c>
       <c r="G4" s="44"/>
       <c r="H4" s="44"/>
       <c r="I4" s="18"/>
@@ -1175,7 +1181,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.97777777777777775</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1193,7 +1199,9 @@
       <c r="E5" s="58">
         <v>7</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="18">
+        <v>11</v>
+      </c>
       <c r="G5" s="44"/>
       <c r="H5" s="44"/>
       <c r="I5" s="18"/>
@@ -1212,7 +1220,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.68888888888888888</v>
+        <v>0.7</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1230,7 +1238,9 @@
       <c r="E6" s="58">
         <v>14</v>
       </c>
-      <c r="F6" s="44"/>
+      <c r="F6" s="18">
+        <v>15</v>
+      </c>
       <c r="G6" s="44"/>
       <c r="H6" s="44"/>
       <c r="I6" s="18"/>
@@ -1249,7 +1259,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.97777777777777775</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1267,7 +1277,9 @@
       <c r="E7" s="58">
         <v>12</v>
       </c>
-      <c r="F7" s="44"/>
+      <c r="F7" s="18">
+        <v>15</v>
+      </c>
       <c r="G7" s="44"/>
       <c r="H7" s="44"/>
       <c r="I7" s="18"/>
@@ -1286,7 +1298,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.95</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1304,7 +1316,9 @@
       <c r="E8" s="58">
         <v>15</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="18">
+        <v>15</v>
+      </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="18"/>
@@ -1323,7 +1337,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1341,7 +1355,9 @@
       <c r="E9" s="58">
         <v>7</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="18">
+        <v>15</v>
+      </c>
       <c r="G9" s="44"/>
       <c r="H9" s="44"/>
       <c r="I9" s="18"/>
@@ -1360,7 +1376,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1378,7 +1394,9 @@
       <c r="E10" s="58">
         <v>7</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="18">
+        <v>11</v>
+      </c>
       <c r="G10" s="44"/>
       <c r="H10" s="44"/>
       <c r="I10" s="18"/>
@@ -1397,7 +1415,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.82222222222222219</v>
+        <v>0.8</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1415,7 +1433,9 @@
       <c r="E11" s="58">
         <v>8</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="18">
+        <v>13</v>
+      </c>
       <c r="G11" s="44"/>
       <c r="H11" s="44"/>
       <c r="I11" s="18"/>
@@ -1434,7 +1454,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.35555555555555557</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1452,7 +1472,9 @@
       <c r="E12" s="58">
         <v>14</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="18">
+        <v>13</v>
+      </c>
       <c r="G12" s="44"/>
       <c r="H12" s="44"/>
       <c r="I12" s="18"/>
@@ -1471,7 +1493,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.97777777777777775</v>
+        <v>0.95</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1489,7 +1511,9 @@
       <c r="E13" s="58">
         <v>15</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="18">
+        <v>15</v>
+      </c>
       <c r="G13" s="44"/>
       <c r="H13" s="44"/>
       <c r="I13" s="18"/>
@@ -1526,7 +1550,9 @@
       <c r="E14" s="58">
         <v>12</v>
       </c>
-      <c r="F14" s="44"/>
+      <c r="F14" s="18">
+        <v>15</v>
+      </c>
       <c r="G14" s="44"/>
       <c r="H14" s="44"/>
       <c r="I14" s="18"/>
@@ -1545,7 +1571,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1562,7 +1588,9 @@
       <c r="E15" s="58">
         <v>7</v>
       </c>
-      <c r="F15" s="44"/>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
       <c r="G15" s="44"/>
       <c r="H15" s="44"/>
       <c r="I15" s="18"/>
@@ -1581,7 +1609,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>0.28888888888888886</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1599,7 +1627,9 @@
       <c r="E16" s="58">
         <v>15</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="18">
+        <v>15</v>
+      </c>
       <c r="G16" s="44"/>
       <c r="H16" s="44"/>
       <c r="I16" s="18"/>
@@ -1636,7 +1666,9 @@
       <c r="E17" s="58">
         <v>9</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="18">
+        <v>15</v>
+      </c>
       <c r="G17" s="44"/>
       <c r="H17" s="44"/>
       <c r="I17" s="18"/>
@@ -1655,7 +1687,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="X17"/>
     </row>
@@ -1673,7 +1705,9 @@
       <c r="E18" s="58">
         <v>12</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="18">
+        <v>11</v>
+      </c>
       <c r="G18" s="44"/>
       <c r="H18" s="44"/>
       <c r="I18" s="18"/>
@@ -1692,7 +1726,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="X18"/>
     </row>
@@ -1710,7 +1744,9 @@
       <c r="E19" s="58">
         <v>12</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="18">
+        <v>15</v>
+      </c>
       <c r="G19" s="44"/>
       <c r="H19" s="44"/>
       <c r="I19" s="18"/>
@@ -1729,7 +1765,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.77777777777777779</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="X19"/>
     </row>
@@ -1747,7 +1783,9 @@
       <c r="E20" s="58">
         <v>15</v>
       </c>
-      <c r="F20" s="44"/>
+      <c r="F20" s="18">
+        <v>15</v>
+      </c>
       <c r="G20" s="44"/>
       <c r="H20" s="44"/>
       <c r="I20" s="18"/>
@@ -1766,7 +1804,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="X20"/>
     </row>
@@ -1784,7 +1822,9 @@
       <c r="E21" s="58">
         <v>12</v>
       </c>
-      <c r="F21" s="44"/>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
       <c r="G21" s="44"/>
       <c r="H21" s="44"/>
       <c r="I21" s="18"/>
@@ -1803,7 +1843,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="X21"/>
     </row>
@@ -1821,7 +1861,9 @@
       <c r="E22" s="58">
         <v>15</v>
       </c>
-      <c r="F22" s="44"/>
+      <c r="F22" s="18">
+        <v>15</v>
+      </c>
       <c r="G22" s="44"/>
       <c r="H22" s="44"/>
       <c r="I22" s="18"/>
@@ -1858,7 +1900,9 @@
       <c r="E23" s="58">
         <v>12</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="18">
+        <v>15</v>
+      </c>
       <c r="G23" s="44"/>
       <c r="H23" s="44"/>
       <c r="I23" s="18"/>
@@ -1877,7 +1921,7 @@
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.95</v>
       </c>
       <c r="X23"/>
     </row>
@@ -1895,7 +1939,9 @@
       <c r="E24" s="58">
         <v>8</v>
       </c>
-      <c r="F24" s="44"/>
+      <c r="F24" s="18">
+        <v>15</v>
+      </c>
       <c r="G24" s="44"/>
       <c r="H24" s="44"/>
       <c r="I24" s="18"/>
@@ -1914,7 +1960,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.71111111111111114</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="X24"/>
     </row>
@@ -1932,7 +1978,9 @@
       <c r="E25" s="58">
         <v>15</v>
       </c>
-      <c r="F25" s="44"/>
+      <c r="F25" s="18">
+        <v>15</v>
+      </c>
       <c r="G25" s="44"/>
       <c r="H25" s="44"/>
       <c r="I25" s="18"/>
@@ -1951,7 +1999,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.8</v>
       </c>
       <c r="X25"/>
     </row>
@@ -1969,7 +2017,9 @@
       <c r="E26" s="58">
         <v>15</v>
       </c>
-      <c r="F26" s="44"/>
+      <c r="F26" s="18">
+        <v>15</v>
+      </c>
       <c r="G26" s="44"/>
       <c r="H26" s="44"/>
       <c r="I26" s="18"/>
@@ -1988,7 +2038,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.84444444444444444</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2006,7 +2056,9 @@
       <c r="E27" s="58">
         <v>12</v>
       </c>
-      <c r="F27" s="44"/>
+      <c r="F27" s="18">
+        <v>15</v>
+      </c>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
       <c r="I27" s="18"/>
@@ -2025,7 +2077,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2043,7 +2095,9 @@
       <c r="E28" s="58">
         <v>0</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="18">
+        <v>15</v>
+      </c>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
       <c r="I28" s="18"/>
@@ -2062,7 +2116,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2080,7 +2134,9 @@
       <c r="E29" s="58">
         <v>9</v>
       </c>
-      <c r="F29" s="44"/>
+      <c r="F29" s="18">
+        <v>11</v>
+      </c>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="18"/>
@@ -2099,7 +2155,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.57777777777777772</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2117,7 +2173,9 @@
       <c r="E30" s="58">
         <v>7</v>
       </c>
-      <c r="F30" s="44"/>
+      <c r="F30" s="18">
+        <v>15</v>
+      </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="18"/>
@@ -2136,7 +2194,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.48888888888888887</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2154,7 +2212,9 @@
       <c r="E31" s="58">
         <v>12</v>
       </c>
-      <c r="F31" s="44"/>
+      <c r="F31" s="18">
+        <v>11</v>
+      </c>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
       <c r="I31" s="18"/>
@@ -2191,7 +2251,9 @@
       <c r="E32" s="58">
         <v>14</v>
       </c>
-      <c r="F32" s="44"/>
+      <c r="F32" s="18">
+        <v>7</v>
+      </c>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
       <c r="I32" s="18"/>
@@ -2210,7 +2272,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.97777777777777775</v>
+        <v>0.85</v>
       </c>
       <c r="X32"/>
     </row>
@@ -2228,7 +2290,9 @@
       <c r="E33" s="58">
         <v>7</v>
       </c>
-      <c r="F33" s="44"/>
+      <c r="F33" s="18">
+        <v>15</v>
+      </c>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
       <c r="I33" s="18"/>
@@ -2247,7 +2311,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.42222222222222222</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="X33"/>
     </row>
@@ -2265,7 +2329,9 @@
       <c r="E34" s="58">
         <v>9</v>
       </c>
-      <c r="F34" s="44"/>
+      <c r="F34" s="18">
+        <v>15</v>
+      </c>
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
       <c r="I34" s="18"/>
@@ -2284,7 +2350,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="X34"/>
     </row>
@@ -2302,7 +2368,9 @@
       <c r="E35" s="58">
         <v>15</v>
       </c>
-      <c r="F35" s="44"/>
+      <c r="F35" s="18">
+        <v>15</v>
+      </c>
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
       <c r="I35" s="18"/>
@@ -2339,7 +2407,9 @@
       <c r="E36" s="58">
         <v>12</v>
       </c>
-      <c r="F36" s="44"/>
+      <c r="F36" s="18">
+        <v>15</v>
+      </c>
       <c r="G36" s="44"/>
       <c r="H36" s="44"/>
       <c r="I36" s="18"/>
@@ -2358,7 +2428,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.95</v>
       </c>
       <c r="X36"/>
     </row>
@@ -2376,7 +2446,9 @@
       <c r="E37" s="58">
         <v>3</v>
       </c>
-      <c r="F37" s="44"/>
+      <c r="F37" s="18">
+        <v>15</v>
+      </c>
       <c r="G37" s="44"/>
       <c r="H37" s="44"/>
       <c r="I37" s="18"/>
@@ -2395,7 +2467,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.8</v>
       </c>
       <c r="X37"/>
     </row>
@@ -2413,7 +2485,9 @@
       <c r="E38" s="58">
         <v>0</v>
       </c>
-      <c r="F38" s="44"/>
+      <c r="F38" s="18">
+        <v>15</v>
+      </c>
       <c r="G38" s="44"/>
       <c r="H38" s="44"/>
       <c r="I38" s="18"/>
@@ -2432,7 +2506,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.26666666666666666</v>
+        <v>0.45</v>
       </c>
       <c r="X38"/>
     </row>
@@ -2450,7 +2524,9 @@
       <c r="E39" s="58">
         <v>12</v>
       </c>
-      <c r="F39" s="44"/>
+      <c r="F39" s="18">
+        <v>10</v>
+      </c>
       <c r="G39" s="44"/>
       <c r="H39" s="44"/>
       <c r="I39" s="18"/>
@@ -2469,7 +2545,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="X39"/>
     </row>
@@ -2591,9 +2667,9 @@
         <f t="shared" si="1"/>
         <v>10.421052631578947</v>
       </c>
-      <c r="F42" s="30" t="e">
+      <c r="F42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>12.631578947368421</v>
       </c>
       <c r="G42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -2661,7 +2737,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.72222222222222243</v>
+        <v>0.75219298245614052</v>
       </c>
       <c r="X42"/>
     </row>
@@ -2685,9 +2761,9 @@
         <f t="shared" si="2"/>
         <v>4.3967529723487706</v>
       </c>
-      <c r="F43" s="30" t="e">
+      <c r="F43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.3584094087958203</v>
       </c>
       <c r="G43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -2755,7 +2831,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.25055161033762191</v>
+        <v>0.23532518720529391</v>
       </c>
       <c r="X43"/>
     </row>
@@ -2779,9 +2855,9 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="F44" s="30" t="e">
+      <c r="F44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>15</v>
       </c>
       <c r="G44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -2849,7 +2925,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.78888888888888897</v>
+        <v>0.8</v>
       </c>
       <c r="X44"/>
     </row>
@@ -2875,7 +2951,7 @@
       </c>
       <c r="F45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="33">
         <f t="shared" si="4"/>
@@ -4867,7 +4943,7 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.6</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="C2" s="51">
         <f>Homework!J2</f>
@@ -4883,7 +4959,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>0.6</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -4934,7 +5010,7 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.97777777777777775</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="C4" s="51">
         <f>Homework!J4</f>
@@ -4950,7 +5026,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>0.97777777777777775</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -4967,7 +5043,7 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.68888888888888888</v>
+        <v>0.7</v>
       </c>
       <c r="C5" s="51">
         <f>Homework!J5</f>
@@ -4983,7 +5059,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>0.68888888888888888</v>
+        <v>0.7</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -5000,7 +5076,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.97777777777777775</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="C6" s="51">
         <f>Homework!J6</f>
@@ -5016,7 +5092,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>0.97777777777777775</v>
+        <v>0.98333333333333328</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -5033,7 +5109,7 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.93333333333333335</v>
+        <v>0.95</v>
       </c>
       <c r="C7" s="51">
         <f>Homework!J7</f>
@@ -5049,7 +5125,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.95</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -5066,7 +5142,7 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C8" s="51">
         <f>Homework!J8</f>
@@ -5082,7 +5158,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -5099,7 +5175,7 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.55555555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C9" s="51">
         <f>Homework!J9</f>
@@ -5115,7 +5191,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -5132,7 +5208,7 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.82222222222222219</v>
+        <v>0.8</v>
       </c>
       <c r="C10" s="51">
         <f>Homework!J10</f>
@@ -5148,7 +5224,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>0.82222222222222219</v>
+        <v>0.8</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -5165,7 +5241,7 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.35555555555555557</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="C11" s="51">
         <f>Homework!J11</f>
@@ -5181,7 +5257,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>0.35555555555555557</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -5198,7 +5274,7 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.97777777777777775</v>
+        <v>0.95</v>
       </c>
       <c r="C12" s="51">
         <f>Homework!J12</f>
@@ -5214,7 +5290,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>0.97777777777777775</v>
+        <v>0.95</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -5264,7 +5340,7 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.93333333333333335</v>
+        <v>0.95</v>
       </c>
       <c r="C14" s="51">
         <f>Homework!J14</f>
@@ -5280,7 +5356,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.95</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -5297,7 +5373,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>0.28888888888888886</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="C15" s="51">
         <f>Homework!J15</f>
@@ -5313,11 +5389,11 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.28888888888888886</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="52">
         <f t="shared" si="2"/>
@@ -5363,7 +5439,7 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.53333333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="C17" s="51">
         <f>Homework!J17</f>
@@ -5379,7 +5455,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -5396,7 +5472,7 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.8</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="C18" s="51">
         <f>Homework!J18</f>
@@ -5412,7 +5488,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>0.8</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -5429,7 +5505,7 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.77777777777777779</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C19" s="51">
         <f>Homework!J19</f>
@@ -5445,7 +5521,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>0.77777777777777779</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -5462,7 +5538,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C20" s="51">
         <f>Homework!J20</f>
@@ -5478,7 +5554,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -5495,7 +5571,7 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="C21" s="51">
         <f>Homework!J21</f>
@@ -5511,7 +5587,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -5561,7 +5637,7 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.93333333333333335</v>
+        <v>0.95</v>
       </c>
       <c r="C23" s="51">
         <f>Homework!J23</f>
@@ -5577,7 +5653,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>0.93333333333333335</v>
+        <v>0.95</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -5594,7 +5670,7 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.71111111111111114</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="C24" s="51">
         <f>Homework!J24</f>
@@ -5610,11 +5686,11 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>0.71111111111111114</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H24" s="52">
         <f t="shared" si="5"/>
@@ -5627,7 +5703,7 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.73333333333333328</v>
+        <v>0.8</v>
       </c>
       <c r="C25" s="51">
         <f>Homework!J25</f>
@@ -5643,11 +5719,11 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>0.73333333333333328</v>
+        <v>0.8</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H25" s="52">
         <f t="shared" si="5"/>
@@ -5660,7 +5736,7 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.84444444444444444</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="C26" s="51">
         <f>Homework!J26</f>
@@ -5676,7 +5752,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>0.84444444444444444</v>
+        <v>0.8833333333333333</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -5693,7 +5769,7 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="C27" s="51">
         <f>Homework!J27</f>
@@ -5709,7 +5785,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -5726,7 +5802,7 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.53333333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="C28" s="51">
         <f>Homework!J28</f>
@@ -5742,7 +5818,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>0.53333333333333333</v>
+        <v>0.65</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -5759,7 +5835,7 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.57777777777777772</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C29" s="51">
         <f>Homework!J29</f>
@@ -5775,7 +5851,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>0.57777777777777772</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -5792,7 +5868,7 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.48888888888888887</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C30" s="51">
         <f>Homework!J30</f>
@@ -5808,7 +5884,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>0.48888888888888887</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -5858,7 +5934,7 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.97777777777777775</v>
+        <v>0.85</v>
       </c>
       <c r="C32" s="51">
         <f>Homework!J32</f>
@@ -5874,7 +5950,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>0.97777777777777775</v>
+        <v>0.85</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -5891,7 +5967,7 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.42222222222222222</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="C33" s="51">
         <f>Homework!J33</f>
@@ -5907,7 +5983,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>0.42222222222222222</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -5924,7 +6000,7 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="C34" s="51">
         <f>Homework!J34</f>
@@ -5940,11 +6016,11 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="52">
         <f t="shared" ref="H34:H39" si="8">IF(G34&gt;4.75,1,0)</f>
@@ -5990,7 +6066,7 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.93333333333333335</v>
+        <v>0.95</v>
       </c>
       <c r="C36" s="51">
         <f>Homework!J36</f>
@@ -6006,7 +6082,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>0.93333333333333335</v>
+        <v>0.95</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -6023,7 +6099,7 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.73333333333333328</v>
+        <v>0.8</v>
       </c>
       <c r="C37" s="51">
         <f>Homework!J37</f>
@@ -6039,11 +6115,11 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>0.73333333333333328</v>
+        <v>0.8</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H37" s="52">
         <f t="shared" si="8"/>
@@ -6056,7 +6132,7 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.26666666666666666</v>
+        <v>0.45</v>
       </c>
       <c r="C38" s="51">
         <f>Homework!J38</f>
@@ -6072,7 +6148,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.26666666666666666</v>
+        <v>0.45</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -6089,7 +6165,7 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.8</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="C39" s="51">
         <f>Homework!J39</f>
@@ -6105,7 +6181,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -6162,7 +6238,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.72222222222222243</v>
+        <v>0.75219298245614052</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
@@ -6178,11 +6254,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>0.72222222222222243</v>
+        <v>0.75219298245614052</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>0.75</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -6195,7 +6271,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.25055161033762191</v>
+        <v>0.23532518720529391</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
@@ -6211,11 +6287,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>0.25055161033762191</v>
+        <v>0.23532518720529391</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>0.27875204519913876</v>
+        <v>0.2993592018315035</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -6228,7 +6304,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.78888888888888897</v>
+        <v>0.8</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
@@ -6244,7 +6320,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>0.78888888888888897</v>
+        <v>0.8</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17737C8E-6F3B-1E49-866D-A7AB3D647173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F8F5D6-D829-4C4C-8D34-8368B5B09B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="3140" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Quiz Total</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>Quiz 21</t>
+  </si>
+  <si>
+    <t>Hm 9</t>
+  </si>
+  <si>
+    <t>Hm 10</t>
   </si>
 </sst>
 </file>
@@ -397,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -529,9 +535,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1072,14 +1075,14 @@
       <c r="A2" s="25">
         <v>49156</v>
       </c>
-      <c r="B2" s="58">
+      <c r="B2" s="57">
         <v>12</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="57">
         <v>3</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="58">
+      <c r="D2" s="47"/>
+      <c r="E2" s="57">
         <v>12</v>
       </c>
       <c r="F2" s="18">
@@ -1111,14 +1114,14 @@
       <c r="A3" s="25">
         <v>54695</v>
       </c>
-      <c r="B3" s="58">
-        <v>0</v>
-      </c>
-      <c r="C3" s="58">
-        <v>0</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="58">
+      <c r="B3" s="57">
+        <v>0</v>
+      </c>
+      <c r="C3" s="57">
+        <v>0</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="57">
         <v>0</v>
       </c>
       <c r="F3" s="18">
@@ -1150,14 +1153,14 @@
       <c r="A4" s="25">
         <v>54699</v>
       </c>
-      <c r="B4" s="58">
-        <v>15</v>
-      </c>
-      <c r="C4" s="58">
-        <v>15</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="58">
+      <c r="B4" s="57">
+        <v>15</v>
+      </c>
+      <c r="C4" s="57">
+        <v>15</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="57">
         <v>14</v>
       </c>
       <c r="F4" s="18">
@@ -1189,14 +1192,14 @@
       <c r="A5" s="25">
         <v>56054</v>
       </c>
-      <c r="B5" s="58">
-        <v>15</v>
-      </c>
-      <c r="C5" s="58">
+      <c r="B5" s="57">
+        <v>15</v>
+      </c>
+      <c r="C5" s="57">
         <v>9</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="58">
+      <c r="D5" s="47"/>
+      <c r="E5" s="57">
         <v>7</v>
       </c>
       <c r="F5" s="18">
@@ -1228,14 +1231,14 @@
       <c r="A6" s="25">
         <v>56196</v>
       </c>
-      <c r="B6" s="58">
-        <v>15</v>
-      </c>
-      <c r="C6" s="58">
-        <v>15</v>
-      </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="58">
+      <c r="B6" s="57">
+        <v>15</v>
+      </c>
+      <c r="C6" s="57">
+        <v>15</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="57">
         <v>14</v>
       </c>
       <c r="F6" s="18">
@@ -1267,14 +1270,14 @@
       <c r="A7" s="25">
         <v>58426</v>
       </c>
-      <c r="B7" s="58">
-        <v>15</v>
-      </c>
-      <c r="C7" s="58">
-        <v>15</v>
-      </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="58">
+      <c r="B7" s="57">
+        <v>15</v>
+      </c>
+      <c r="C7" s="57">
+        <v>15</v>
+      </c>
+      <c r="D7" s="47"/>
+      <c r="E7" s="57">
         <v>12</v>
       </c>
       <c r="F7" s="18">
@@ -1306,14 +1309,14 @@
       <c r="A8" s="25">
         <v>63795</v>
       </c>
-      <c r="B8" s="58">
-        <v>15</v>
-      </c>
-      <c r="C8" s="58">
+      <c r="B8" s="57">
+        <v>15</v>
+      </c>
+      <c r="C8" s="57">
         <v>9</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="58">
+      <c r="D8" s="47"/>
+      <c r="E8" s="57">
         <v>15</v>
       </c>
       <c r="F8" s="18">
@@ -1345,14 +1348,14 @@
       <c r="A9" s="25">
         <v>66015</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="57">
         <v>3</v>
       </c>
-      <c r="C9" s="58">
-        <v>15</v>
-      </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="58">
+      <c r="C9" s="57">
+        <v>15</v>
+      </c>
+      <c r="D9" s="47"/>
+      <c r="E9" s="57">
         <v>7</v>
       </c>
       <c r="F9" s="18">
@@ -1384,14 +1387,14 @@
       <c r="A10" s="25">
         <v>67210</v>
       </c>
-      <c r="B10" s="58">
-        <v>15</v>
-      </c>
-      <c r="C10" s="58">
-        <v>15</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="58">
+      <c r="B10" s="57">
+        <v>15</v>
+      </c>
+      <c r="C10" s="57">
+        <v>15</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="57">
         <v>7</v>
       </c>
       <c r="F10" s="18">
@@ -1423,14 +1426,14 @@
       <c r="A11" s="25">
         <v>68473</v>
       </c>
-      <c r="B11" s="58">
+      <c r="B11" s="57">
         <v>8</v>
       </c>
-      <c r="C11" s="58">
-        <v>0</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="58">
+      <c r="C11" s="57">
+        <v>0</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="57">
         <v>8</v>
       </c>
       <c r="F11" s="18">
@@ -1462,14 +1465,14 @@
       <c r="A12" s="25">
         <v>69408</v>
       </c>
-      <c r="B12" s="58">
-        <v>15</v>
-      </c>
-      <c r="C12" s="58">
-        <v>15</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="58">
+      <c r="B12" s="57">
+        <v>15</v>
+      </c>
+      <c r="C12" s="57">
+        <v>15</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="57">
         <v>14</v>
       </c>
       <c r="F12" s="18">
@@ -1501,14 +1504,14 @@
       <c r="A13" s="25">
         <v>69764</v>
       </c>
-      <c r="B13" s="58">
-        <v>15</v>
-      </c>
-      <c r="C13" s="58">
-        <v>15</v>
-      </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="58">
+      <c r="B13" s="57">
+        <v>15</v>
+      </c>
+      <c r="C13" s="57">
+        <v>15</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="57">
         <v>15</v>
       </c>
       <c r="F13" s="18">
@@ -1540,14 +1543,14 @@
       <c r="A14" s="25">
         <v>69810</v>
       </c>
-      <c r="B14" s="58">
-        <v>15</v>
-      </c>
-      <c r="C14" s="58">
-        <v>15</v>
-      </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="58">
+      <c r="B14" s="57">
+        <v>15</v>
+      </c>
+      <c r="C14" s="57">
+        <v>15</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="57">
         <v>12</v>
       </c>
       <c r="F14" s="18">
@@ -1578,14 +1581,14 @@
       <c r="A15" s="25">
         <v>69951</v>
       </c>
-      <c r="B15" s="58">
+      <c r="B15" s="57">
         <v>3</v>
       </c>
-      <c r="C15" s="58">
+      <c r="C15" s="57">
         <v>3</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="58">
+      <c r="D15" s="47"/>
+      <c r="E15" s="57">
         <v>7</v>
       </c>
       <c r="F15" s="18">
@@ -1617,14 +1620,14 @@
       <c r="A16" s="25">
         <v>69999</v>
       </c>
-      <c r="B16" s="58">
-        <v>15</v>
-      </c>
-      <c r="C16" s="58">
-        <v>15</v>
-      </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="58">
+      <c r="B16" s="57">
+        <v>15</v>
+      </c>
+      <c r="C16" s="57">
+        <v>15</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="57">
         <v>15</v>
       </c>
       <c r="F16" s="18">
@@ -1656,14 +1659,14 @@
       <c r="A17" s="25">
         <v>70050</v>
       </c>
-      <c r="B17" s="58">
-        <v>15</v>
-      </c>
-      <c r="C17" s="58">
-        <v>0</v>
-      </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="58">
+      <c r="B17" s="57">
+        <v>15</v>
+      </c>
+      <c r="C17" s="57">
+        <v>0</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="57">
         <v>9</v>
       </c>
       <c r="F17" s="18">
@@ -1695,14 +1698,14 @@
       <c r="A18" s="25">
         <v>70065</v>
       </c>
-      <c r="B18" s="58">
-        <v>15</v>
-      </c>
-      <c r="C18" s="58">
+      <c r="B18" s="57">
+        <v>15</v>
+      </c>
+      <c r="C18" s="57">
         <v>9</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="58">
+      <c r="D18" s="47"/>
+      <c r="E18" s="57">
         <v>12</v>
       </c>
       <c r="F18" s="18">
@@ -1734,14 +1737,14 @@
       <c r="A19" s="25">
         <v>70173</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="57">
         <v>8</v>
       </c>
-      <c r="C19" s="58">
-        <v>15</v>
-      </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="58">
+      <c r="C19" s="57">
+        <v>15</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="57">
         <v>12</v>
       </c>
       <c r="F19" s="18">
@@ -1773,14 +1776,14 @@
       <c r="A20" s="25">
         <v>70179</v>
       </c>
-      <c r="B20" s="58">
-        <v>15</v>
-      </c>
-      <c r="C20" s="58">
+      <c r="B20" s="57">
+        <v>15</v>
+      </c>
+      <c r="C20" s="57">
         <v>9</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="58">
+      <c r="D20" s="47"/>
+      <c r="E20" s="57">
         <v>15</v>
       </c>
       <c r="F20" s="18">
@@ -1812,14 +1815,14 @@
       <c r="A21" s="25">
         <v>70267</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="57">
         <v>3</v>
       </c>
-      <c r="C21" s="58">
-        <v>0</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="58">
+      <c r="C21" s="57">
+        <v>0</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="57">
         <v>12</v>
       </c>
       <c r="F21" s="18">
@@ -1851,14 +1854,14 @@
       <c r="A22" s="25">
         <v>70299</v>
       </c>
-      <c r="B22" s="58">
-        <v>15</v>
-      </c>
-      <c r="C22" s="58">
-        <v>15</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="58">
+      <c r="B22" s="57">
+        <v>15</v>
+      </c>
+      <c r="C22" s="57">
+        <v>15</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="57">
         <v>15</v>
       </c>
       <c r="F22" s="18">
@@ -1890,14 +1893,14 @@
       <c r="A23" s="25">
         <v>70339</v>
       </c>
-      <c r="B23" s="58">
-        <v>15</v>
-      </c>
-      <c r="C23" s="58">
-        <v>15</v>
-      </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="58">
+      <c r="B23" s="57">
+        <v>15</v>
+      </c>
+      <c r="C23" s="57">
+        <v>15</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="57">
         <v>12</v>
       </c>
       <c r="F23" s="18">
@@ -1929,14 +1932,14 @@
       <c r="A24" s="25">
         <v>70503</v>
       </c>
-      <c r="B24" s="58">
-        <v>15</v>
-      </c>
-      <c r="C24" s="58">
+      <c r="B24" s="57">
+        <v>15</v>
+      </c>
+      <c r="C24" s="57">
         <v>9</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="58">
+      <c r="D24" s="47"/>
+      <c r="E24" s="57">
         <v>8</v>
       </c>
       <c r="F24" s="18">
@@ -1968,14 +1971,14 @@
       <c r="A25" s="25">
         <v>70556</v>
       </c>
-      <c r="B25" s="58">
+      <c r="B25" s="57">
         <v>3</v>
       </c>
-      <c r="C25" s="58">
-        <v>15</v>
-      </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="58">
+      <c r="C25" s="57">
+        <v>15</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="57">
         <v>15</v>
       </c>
       <c r="F25" s="18">
@@ -2007,14 +2010,14 @@
       <c r="A26" s="25">
         <v>70632</v>
       </c>
-      <c r="B26" s="58">
+      <c r="B26" s="57">
         <v>8</v>
       </c>
-      <c r="C26" s="58">
-        <v>15</v>
-      </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="58">
+      <c r="C26" s="57">
+        <v>15</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="57">
         <v>15</v>
       </c>
       <c r="F26" s="18">
@@ -2046,14 +2049,14 @@
       <c r="A27" s="25">
         <v>70734</v>
       </c>
-      <c r="B27" s="58">
-        <v>15</v>
-      </c>
-      <c r="C27" s="58">
+      <c r="B27" s="57">
+        <v>15</v>
+      </c>
+      <c r="C27" s="57">
         <v>9</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="58">
+      <c r="D27" s="47"/>
+      <c r="E27" s="57">
         <v>12</v>
       </c>
       <c r="F27" s="18">
@@ -2085,14 +2088,14 @@
       <c r="A28" s="25">
         <v>70896</v>
       </c>
-      <c r="B28" s="58">
-        <v>15</v>
-      </c>
-      <c r="C28" s="58">
+      <c r="B28" s="57">
+        <v>15</v>
+      </c>
+      <c r="C28" s="57">
         <v>9</v>
       </c>
-      <c r="D28" s="48"/>
-      <c r="E28" s="58">
+      <c r="D28" s="47"/>
+      <c r="E28" s="57">
         <v>0</v>
       </c>
       <c r="F28" s="18">
@@ -2124,14 +2127,14 @@
       <c r="A29" s="25">
         <v>71032</v>
       </c>
-      <c r="B29" s="58">
+      <c r="B29" s="57">
         <v>8</v>
       </c>
-      <c r="C29" s="58">
+      <c r="C29" s="57">
         <v>9</v>
       </c>
-      <c r="D29" s="48"/>
-      <c r="E29" s="58">
+      <c r="D29" s="47"/>
+      <c r="E29" s="57">
         <v>9</v>
       </c>
       <c r="F29" s="18">
@@ -2163,14 +2166,14 @@
       <c r="A30" s="25">
         <v>71099</v>
       </c>
-      <c r="B30" s="58">
+      <c r="B30" s="57">
         <v>6</v>
       </c>
-      <c r="C30" s="58">
+      <c r="C30" s="57">
         <v>9</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="58">
+      <c r="D30" s="47"/>
+      <c r="E30" s="57">
         <v>7</v>
       </c>
       <c r="F30" s="18">
@@ -2202,14 +2205,14 @@
       <c r="A31" s="25">
         <v>71304</v>
       </c>
-      <c r="B31" s="58">
+      <c r="B31" s="57">
         <v>12</v>
       </c>
-      <c r="C31" s="58">
+      <c r="C31" s="57">
         <v>9</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="58">
+      <c r="D31" s="47"/>
+      <c r="E31" s="57">
         <v>12</v>
       </c>
       <c r="F31" s="18">
@@ -2241,14 +2244,14 @@
       <c r="A32" s="25">
         <v>71308</v>
       </c>
-      <c r="B32" s="58">
-        <v>15</v>
-      </c>
-      <c r="C32" s="58">
-        <v>15</v>
-      </c>
-      <c r="D32" s="48"/>
-      <c r="E32" s="58">
+      <c r="B32" s="57">
+        <v>15</v>
+      </c>
+      <c r="C32" s="57">
+        <v>15</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="57">
         <v>14</v>
       </c>
       <c r="F32" s="18">
@@ -2280,14 +2283,14 @@
       <c r="A33" s="25">
         <v>71312</v>
       </c>
-      <c r="B33" s="58">
+      <c r="B33" s="57">
         <v>3</v>
       </c>
-      <c r="C33" s="58">
+      <c r="C33" s="57">
         <v>9</v>
       </c>
-      <c r="D33" s="48"/>
-      <c r="E33" s="58">
+      <c r="D33" s="47"/>
+      <c r="E33" s="57">
         <v>7</v>
       </c>
       <c r="F33" s="18">
@@ -2319,14 +2322,14 @@
       <c r="A34" s="25">
         <v>71340</v>
       </c>
-      <c r="B34" s="58">
+      <c r="B34" s="57">
         <v>6</v>
       </c>
-      <c r="C34" s="58">
-        <v>15</v>
-      </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="58">
+      <c r="C34" s="57">
+        <v>15</v>
+      </c>
+      <c r="D34" s="47"/>
+      <c r="E34" s="57">
         <v>9</v>
       </c>
       <c r="F34" s="18">
@@ -2358,14 +2361,14 @@
       <c r="A35" s="25">
         <v>71428</v>
       </c>
-      <c r="B35" s="58">
-        <v>15</v>
-      </c>
-      <c r="C35" s="58">
-        <v>15</v>
-      </c>
-      <c r="D35" s="48"/>
-      <c r="E35" s="58">
+      <c r="B35" s="57">
+        <v>15</v>
+      </c>
+      <c r="C35" s="57">
+        <v>15</v>
+      </c>
+      <c r="D35" s="47"/>
+      <c r="E35" s="57">
         <v>15</v>
       </c>
       <c r="F35" s="18">
@@ -2397,14 +2400,14 @@
       <c r="A36" s="25">
         <v>71431</v>
       </c>
-      <c r="B36" s="58">
-        <v>15</v>
-      </c>
-      <c r="C36" s="58">
-        <v>15</v>
-      </c>
-      <c r="D36" s="48"/>
-      <c r="E36" s="58">
+      <c r="B36" s="57">
+        <v>15</v>
+      </c>
+      <c r="C36" s="57">
+        <v>15</v>
+      </c>
+      <c r="D36" s="47"/>
+      <c r="E36" s="57">
         <v>12</v>
       </c>
       <c r="F36" s="18">
@@ -2436,14 +2439,14 @@
       <c r="A37" s="25">
         <v>71474</v>
       </c>
-      <c r="B37" s="58">
-        <v>15</v>
-      </c>
-      <c r="C37" s="58">
-        <v>15</v>
-      </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="58">
+      <c r="B37" s="57">
+        <v>15</v>
+      </c>
+      <c r="C37" s="57">
+        <v>15</v>
+      </c>
+      <c r="D37" s="47"/>
+      <c r="E37" s="57">
         <v>3</v>
       </c>
       <c r="F37" s="18">
@@ -2475,14 +2478,14 @@
       <c r="A38" s="25">
         <v>71553</v>
       </c>
-      <c r="B38" s="58">
+      <c r="B38" s="57">
         <v>3</v>
       </c>
-      <c r="C38" s="58">
+      <c r="C38" s="57">
         <v>9</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="58">
+      <c r="D38" s="47"/>
+      <c r="E38" s="57">
         <v>0</v>
       </c>
       <c r="F38" s="18">
@@ -2514,14 +2517,14 @@
       <c r="A39" s="25">
         <v>71671</v>
       </c>
-      <c r="B39" s="58">
-        <v>15</v>
-      </c>
-      <c r="C39" s="58">
+      <c r="B39" s="57">
+        <v>15</v>
+      </c>
+      <c r="C39" s="57">
         <v>9</v>
       </c>
-      <c r="D39" s="48"/>
-      <c r="E39" s="58">
+      <c r="D39" s="47"/>
+      <c r="E39" s="57">
         <v>12</v>
       </c>
       <c r="F39" s="18">
@@ -3314,20 +3317,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:V64"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="10" width="13.83203125" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="2" max="12" width="13.83203125" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -3355,657 +3358,815 @@
       <c r="I1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59">
+    <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="58">
         <v>49156</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="34">
-        <f>IF(SUM($B$45:$I$45)&gt;0,1.5*(B2/$B$41+C2/$C$41+D2/$D$41+E2/$E$41+F2/$F$41+G2/$G$41+H2/$H$41+I2/$I$41)/SUM($B$45:$I$45),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60">
+      <c r="B2" s="57">
+        <v>0</v>
+      </c>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="34">
+        <f>IF(SUM($B$45:$I$45)&gt;0,1.5*(B2/$B$41+C2/$C$41+D2/$D$41+E2/$E$41+F2/$F$41+G2/$G$41+H2/$H$41+I2/$I$41+J2/$J$41+K2/$K$41)/SUM($B$45:$K$45),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="59">
         <v>54695</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="34">
-        <f t="shared" ref="J3:J39" si="0">IF(SUM($B$45:$I$45)&gt;0,1.5*(B3/$B$41+C3/$C$41+D3/$D$41+E3/$E$41+F3/$F$41+G3/$G$41+H3/$H$41+I3/$I$41)/SUM($B$45:$I$45),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="60">
+      <c r="B3" s="57">
+        <v>71.5</v>
+      </c>
+      <c r="C3" s="52"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="34">
+        <f t="shared" ref="L3:L39" si="0">IF(SUM($B$45:$I$45)&gt;0,1.5*(B3/$B$41+C3/$C$41+D3/$D$41+E3/$E$41+F3/$F$41+G3/$G$41+H3/$H$41+I3/$I$41+J3/$J$41+K3/$K$41)/SUM($B$45:$K$45),0)</f>
+        <v>1.0725</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="59">
         <v>54699</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="60">
+      <c r="B4" s="57">
+        <v>96.5</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="34">
+        <f t="shared" si="0"/>
+        <v>1.4475</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="59">
         <v>56054</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60">
+      <c r="B5" s="57">
+        <v>68</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="34">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="59">
         <v>56196</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60">
+      <c r="B6" s="57">
+        <v>76</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="34">
+        <f t="shared" si="0"/>
+        <v>1.1400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="59">
         <v>58426</v>
       </c>
-      <c r="B7" s="47"/>
-      <c r="C7" s="53"/>
+      <c r="B7" s="57">
+        <v>0</v>
+      </c>
+      <c r="C7" s="52"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="60">
+      <c r="E7" s="57"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="59">
         <v>63795</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="60">
+      <c r="B8" s="57">
+        <v>97.5</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="34">
+        <f t="shared" si="0"/>
+        <v>1.4624999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="59">
         <v>66015</v>
       </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60">
+      <c r="B9" s="57">
+        <v>99</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="34">
+        <f t="shared" si="0"/>
+        <v>1.4849999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="59">
         <v>67210</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="55"/>
+      <c r="B10" s="57">
+        <v>89</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60">
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="34">
+        <f t="shared" si="0"/>
+        <v>1.335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="59">
         <v>68473</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="53"/>
+      <c r="B11" s="57">
+        <v>39</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60">
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="34">
+        <f t="shared" si="0"/>
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="59">
         <v>69408</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="60">
+      <c r="B12" s="57">
+        <v>69.5</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="34">
+        <f t="shared" si="0"/>
+        <v>1.0425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="59">
         <v>69764</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60">
+      <c r="B13" s="57">
+        <v>98.5</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="34">
+        <f t="shared" si="0"/>
+        <v>1.4775</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="59">
         <v>69810</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="60">
+      <c r="B14" s="57">
+        <v>93.5</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="34">
+        <f t="shared" si="0"/>
+        <v>1.4025000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="59">
         <v>69951</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="60">
+      <c r="B15" s="57">
+        <v>35.5</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="34">
+        <f t="shared" si="0"/>
+        <v>0.53249999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="59">
         <v>69999</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="53"/>
-      <c r="J16" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="60">
+      <c r="B16" s="57">
+        <v>99</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="34">
+        <f t="shared" si="0"/>
+        <v>1.4849999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="59">
         <v>70050</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="60">
+      <c r="B17" s="57">
+        <v>88.5</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="34">
+        <f t="shared" si="0"/>
+        <v>1.3275000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="59">
         <v>70065</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="60">
+      <c r="B18" s="57">
+        <v>69.5</v>
+      </c>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="34">
+        <f t="shared" si="0"/>
+        <v>1.0425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="59">
         <v>70173</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="60">
+      <c r="B19" s="57">
+        <v>86</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="34">
+        <f t="shared" si="0"/>
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="59">
         <v>70179</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="60">
+      <c r="B20" s="57">
+        <v>91</v>
+      </c>
+      <c r="C20" s="52"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="34">
+        <f t="shared" si="0"/>
+        <v>1.365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="59">
         <v>70267</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="60">
+      <c r="B21" s="57">
+        <v>68.5</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="34">
+        <f t="shared" si="0"/>
+        <v>1.0275000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="59">
         <v>70299</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="60">
+      <c r="B22" s="57">
+        <v>95.5</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="34">
+        <f t="shared" si="0"/>
+        <v>1.4324999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="59">
         <v>70339</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="60">
+      <c r="B23" s="57">
+        <v>88</v>
+      </c>
+      <c r="C23" s="52"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="34">
+        <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="59">
         <v>70503</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="60">
+      <c r="B24" s="57">
+        <v>78</v>
+      </c>
+      <c r="C24" s="52"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="34">
+        <f t="shared" si="0"/>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="59">
         <v>70556</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="60">
+      <c r="B25" s="57">
+        <v>68</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="34">
+        <f t="shared" si="0"/>
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="59">
         <v>70632</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="55"/>
+      <c r="B26" s="57">
+        <v>56</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="18"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="60">
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="34">
+        <f t="shared" si="0"/>
+        <v>0.84000000000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="59">
         <v>70734</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="60">
+      <c r="B27" s="57">
+        <v>61</v>
+      </c>
+      <c r="C27" s="52"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+      <c r="L27" s="34">
+        <f t="shared" si="0"/>
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="59">
         <v>70896</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="60">
+      <c r="B28" s="57">
+        <v>41.5</v>
+      </c>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="34">
+        <f t="shared" si="0"/>
+        <v>0.62249999999999994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="59">
         <v>71032</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="53"/>
+      <c r="B29" s="57">
+        <v>53</v>
+      </c>
+      <c r="C29" s="52"/>
       <c r="D29" s="18"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="53"/>
-      <c r="J29" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="60">
+      <c r="E29" s="57"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="34">
+        <f t="shared" si="0"/>
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="59">
         <v>71099</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="60">
+      <c r="B30" s="57">
+        <v>72</v>
+      </c>
+      <c r="C30" s="52"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="34">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="59">
         <v>71304</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="60">
+      <c r="B31" s="57">
+        <v>88</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="34">
+        <f t="shared" si="0"/>
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="59">
         <v>71308</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="60">
+      <c r="B32" s="57">
+        <v>87</v>
+      </c>
+      <c r="C32" s="52"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="34">
+        <f t="shared" si="0"/>
+        <v>1.3049999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="59">
         <v>71312</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="53"/>
+      <c r="B33" s="57">
+        <v>62</v>
+      </c>
+      <c r="C33" s="52"/>
       <c r="D33" s="18"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="60">
+      <c r="E33" s="57"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="52"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="52"/>
+      <c r="L33" s="34">
+        <f t="shared" si="0"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="59">
         <v>71340</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="60">
+      <c r="B34" s="57">
+        <v>99</v>
+      </c>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="34">
+        <f t="shared" si="0"/>
+        <v>1.4849999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="59">
         <v>71428</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="53"/>
+      <c r="B35" s="57">
+        <v>99</v>
+      </c>
+      <c r="C35" s="52"/>
       <c r="D35" s="18"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="60">
+      <c r="E35" s="57"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="34">
+        <f t="shared" si="0"/>
+        <v>1.4849999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="59">
         <v>71431</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="60">
+      <c r="B36" s="57">
+        <v>64</v>
+      </c>
+      <c r="C36" s="52"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="34">
+        <f t="shared" si="0"/>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="59">
         <v>71474</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="60">
+      <c r="B37" s="57">
+        <v>72.5</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="52"/>
+      <c r="K37" s="52"/>
+      <c r="L37" s="34">
+        <f t="shared" si="0"/>
+        <v>1.0874999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="59">
         <v>71553</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="60">
+      <c r="B38" s="57">
+        <v>0</v>
+      </c>
+      <c r="C38" s="52"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="59">
         <v>71671</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="53"/>
+      <c r="B39" s="57">
+        <v>45</v>
+      </c>
+      <c r="C39" s="52"/>
       <c r="D39" s="18"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
-      <c r="I39" s="53"/>
-      <c r="J39" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="57"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="34">
+        <f t="shared" si="0"/>
+        <v>0.67500000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="10"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4015,8 +4176,10 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+    </row>
+    <row r="41" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
         <v>32</v>
       </c>
@@ -4044,20 +4207,26 @@
       <c r="I41" s="40">
         <v>100</v>
       </c>
-      <c r="J41" s="28">
+      <c r="J41" s="40">
+        <v>100</v>
+      </c>
+      <c r="K41" s="40">
+        <v>100</v>
+      </c>
+      <c r="L41" s="28">
         <v>1.5</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="30" t="e">
+      <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>#DIV/0!</v>
+        <v>70.14473684210526</v>
       </c>
       <c r="C42" s="30" t="e">
-        <f t="shared" ref="C42:J42" si="1">AVERAGE(C$2:C$39)</f>
+        <f t="shared" ref="C42:L42" si="1">AVERAGE(C$2:C$39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D42" s="30" t="e">
@@ -4084,21 +4253,29 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J42" s="30">
+      <c r="J42" s="30" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" s="30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L42" s="30">
+        <f t="shared" si="1"/>
+        <v>1.0521710526315788</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="30" t="e">
+      <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>#DIV/0!</v>
+        <v>27.632459343828515</v>
       </c>
       <c r="C43" s="30" t="e">
-        <f t="shared" ref="C43:J43" si="2">STDEV(C$2:C$39)</f>
+        <f t="shared" ref="C43:L43" si="2">STDEV(C$2:C$39)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D43" s="30" t="e">
@@ -4125,21 +4302,29 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J43" s="30">
+      <c r="J43" s="30" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" s="30" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L43" s="30">
+        <f t="shared" si="2"/>
+        <v>0.41448689015742751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="30" t="e">
+      <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>#NUM!</v>
+        <v>72.25</v>
       </c>
       <c r="C44" s="30" t="e">
-        <f t="shared" ref="C44:J44" si="3">MEDIAN(C$2:C$39)</f>
+        <f t="shared" ref="C44:L44" si="3">MEDIAN(C$2:C$39)</f>
         <v>#NUM!</v>
       </c>
       <c r="D44" s="30" t="e">
@@ -4166,18 +4351,26 @@
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="J44" s="30">
+      <c r="J44" s="30" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+        <v>#NUM!</v>
+      </c>
+      <c r="K44" s="30" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L44" s="30">
+        <f t="shared" si="3"/>
+        <v>1.08375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B45" s="33">
         <f>IF(SUM(B2:B39)&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="33">
         <f t="shared" ref="C45:I45" si="4">IF(SUM(C2:C39)&gt;0,1,0)</f>
@@ -4207,9 +4400,15 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="J45" s="40"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
+      <c r="J45" s="33">
+        <f t="shared" ref="J45:K45" si="5">IF(SUM(J2:J39)&gt;0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="33">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="40"/>
       <c r="M45" s="16"/>
       <c r="N45" s="16"/>
       <c r="O45" s="16"/>
@@ -4219,11 +4418,13 @@
       <c r="S45" s="16"/>
       <c r="T45" s="16"/>
       <c r="U45" s="16"/>
-      <c r="V45" s="17"/>
-    </row>
-    <row r="46" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="17"/>
+    </row>
+    <row r="46" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4278,7 +4479,7 @@
       <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="59">
+      <c r="A2" s="58">
         <v>49156</v>
       </c>
       <c r="B2" s="43"/>
@@ -4288,7 +4489,7 @@
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="60">
+      <c r="A3" s="59">
         <v>54695</v>
       </c>
       <c r="B3" s="43"/>
@@ -4298,7 +4499,7 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="60">
+      <c r="A4" s="59">
         <v>54699</v>
       </c>
       <c r="B4" s="43"/>
@@ -4308,7 +4509,7 @@
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="60">
+      <c r="A5" s="59">
         <v>56054</v>
       </c>
       <c r="B5" s="43"/>
@@ -4318,7 +4519,7 @@
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="60">
+      <c r="A6" s="59">
         <v>56196</v>
       </c>
       <c r="B6" s="43"/>
@@ -4328,7 +4529,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="60">
+      <c r="A7" s="59">
         <v>58426</v>
       </c>
       <c r="B7" s="43"/>
@@ -4338,7 +4539,7 @@
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="60">
+      <c r="A8" s="59">
         <v>63795</v>
       </c>
       <c r="B8" s="43"/>
@@ -4348,7 +4549,7 @@
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="60">
+      <c r="A9" s="59">
         <v>66015</v>
       </c>
       <c r="B9" s="43"/>
@@ -4358,7 +4559,7 @@
       <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="60">
+      <c r="A10" s="59">
         <v>67210</v>
       </c>
       <c r="B10" s="43"/>
@@ -4368,7 +4569,7 @@
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="60">
+      <c r="A11" s="59">
         <v>68473</v>
       </c>
       <c r="B11" s="43"/>
@@ -4378,7 +4579,7 @@
       <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="60">
+      <c r="A12" s="59">
         <v>69408</v>
       </c>
       <c r="B12" s="43"/>
@@ -4388,7 +4589,7 @@
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="60">
+      <c r="A13" s="59">
         <v>69764</v>
       </c>
       <c r="B13" s="43"/>
@@ -4398,7 +4599,7 @@
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="60">
+      <c r="A14" s="59">
         <v>69810</v>
       </c>
       <c r="B14" s="43"/>
@@ -4408,7 +4609,7 @@
       <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="60">
+      <c r="A15" s="59">
         <v>69951</v>
       </c>
       <c r="B15" s="43"/>
@@ -4421,7 +4622,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="60">
+      <c r="A16" s="59">
         <v>69999</v>
       </c>
       <c r="B16" s="43"/>
@@ -4431,7 +4632,7 @@
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="60">
+      <c r="A17" s="59">
         <v>70050</v>
       </c>
       <c r="B17" s="43"/>
@@ -4441,7 +4642,7 @@
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="60">
+      <c r="A18" s="59">
         <v>70065</v>
       </c>
       <c r="B18" s="43"/>
@@ -4449,7 +4650,7 @@
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="60">
+      <c r="A19" s="59">
         <v>70173</v>
       </c>
       <c r="B19" s="43"/>
@@ -4457,7 +4658,7 @@
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="60">
+      <c r="A20" s="59">
         <v>70179</v>
       </c>
       <c r="B20" s="43"/>
@@ -4465,7 +4666,7 @@
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="60">
+      <c r="A21" s="59">
         <v>70267</v>
       </c>
       <c r="B21" s="43"/>
@@ -4473,7 +4674,7 @@
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="60">
+      <c r="A22" s="59">
         <v>70299</v>
       </c>
       <c r="B22" s="43"/>
@@ -4481,7 +4682,7 @@
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="60">
+      <c r="A23" s="59">
         <v>70339</v>
       </c>
       <c r="B23" s="43"/>
@@ -4489,7 +4690,7 @@
       <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="60">
+      <c r="A24" s="59">
         <v>70503</v>
       </c>
       <c r="B24" s="43"/>
@@ -4497,7 +4698,7 @@
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="60">
+      <c r="A25" s="59">
         <v>70556</v>
       </c>
       <c r="B25" s="43"/>
@@ -4505,7 +4706,7 @@
       <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="60">
+      <c r="A26" s="59">
         <v>70632</v>
       </c>
       <c r="B26" s="43"/>
@@ -4513,7 +4714,7 @@
       <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="60">
+      <c r="A27" s="59">
         <v>70734</v>
       </c>
       <c r="B27" s="43"/>
@@ -4521,7 +4722,7 @@
       <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="60">
+      <c r="A28" s="59">
         <v>70896</v>
       </c>
       <c r="B28" s="43"/>
@@ -4529,7 +4730,7 @@
       <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="60">
+      <c r="A29" s="59">
         <v>71032</v>
       </c>
       <c r="B29" s="43"/>
@@ -4537,7 +4738,7 @@
       <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="60">
+      <c r="A30" s="59">
         <v>71099</v>
       </c>
       <c r="B30" s="43"/>
@@ -4545,7 +4746,7 @@
       <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="60">
+      <c r="A31" s="59">
         <v>71304</v>
       </c>
       <c r="B31" s="43"/>
@@ -4553,7 +4754,7 @@
       <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="60">
+      <c r="A32" s="59">
         <v>71308</v>
       </c>
       <c r="B32" s="43"/>
@@ -4561,7 +4762,7 @@
       <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="60">
+      <c r="A33" s="59">
         <v>71312</v>
       </c>
       <c r="B33" s="43"/>
@@ -4569,7 +4770,7 @@
       <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="60">
+      <c r="A34" s="59">
         <v>71340</v>
       </c>
       <c r="B34" s="43"/>
@@ -4577,7 +4778,7 @@
       <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="60">
+      <c r="A35" s="59">
         <v>71428</v>
       </c>
       <c r="B35" s="43"/>
@@ -4585,7 +4786,7 @@
       <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="60">
+      <c r="A36" s="59">
         <v>71431</v>
       </c>
       <c r="B36" s="43"/>
@@ -4593,7 +4794,7 @@
       <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="60">
+      <c r="A37" s="59">
         <v>71474</v>
       </c>
       <c r="B37" s="43"/>
@@ -4601,7 +4802,7 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="60">
+      <c r="A38" s="59">
         <v>71553</v>
       </c>
       <c r="B38" s="43"/>
@@ -4609,7 +4810,7 @@
       <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="60">
+      <c r="A39" s="59">
         <v>71671</v>
       </c>
       <c r="B39" s="43"/>
@@ -4617,9 +4818,9 @@
       <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="49"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="19"/>
     </row>
     <row r="41" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4935,7 +5136,7 @@
       <c r="H1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="57"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
@@ -4945,8 +5146,8 @@
         <f>Quiz!W2</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="C2" s="51">
-        <f>Homework!J2</f>
+      <c r="C2" s="50">
+        <f>Homework!L2</f>
         <v>0</v>
       </c>
       <c r="D2" s="43">
@@ -4965,7 +5166,7 @@
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="H2" s="52">
+      <c r="H2" s="51">
         <f>IF(G2&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -4979,9 +5180,9 @@
         <f>Quiz!W3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="51">
-        <f>Homework!J3</f>
-        <v>0</v>
+      <c r="C3" s="50">
+        <f>Homework!L3</f>
+        <v>1.0725</v>
       </c>
       <c r="D3" s="43">
         <f>Exams!B3</f>
@@ -4993,13 +5194,13 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0725</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="52">
+        <v>1</v>
+      </c>
+      <c r="H3" s="51">
         <f t="shared" ref="H3:H19" si="2">IF(G3&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -5012,9 +5213,9 @@
         <f>Quiz!W4</f>
         <v>0.98333333333333328</v>
       </c>
-      <c r="C4" s="51">
-        <f>Homework!J4</f>
-        <v>0</v>
+      <c r="C4" s="50">
+        <f>Homework!L4</f>
+        <v>1.4475</v>
       </c>
       <c r="D4" s="43">
         <f>Exams!B4</f>
@@ -5026,13 +5227,13 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>0.98333333333333328</v>
+        <v>2.4308333333333332</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H4" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5045,9 +5246,9 @@
         <f>Quiz!W5</f>
         <v>0.7</v>
       </c>
-      <c r="C5" s="51">
-        <f>Homework!J5</f>
-        <v>0</v>
+      <c r="C5" s="50">
+        <f>Homework!L5</f>
+        <v>1.02</v>
       </c>
       <c r="D5" s="43">
         <f>Exams!B5</f>
@@ -5059,13 +5260,13 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>1.72</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5078,9 +5279,9 @@
         <f>Quiz!W6</f>
         <v>0.98333333333333328</v>
       </c>
-      <c r="C6" s="51">
-        <f>Homework!J6</f>
-        <v>0</v>
+      <c r="C6" s="50">
+        <f>Homework!L6</f>
+        <v>1.1400000000000001</v>
       </c>
       <c r="D6" s="43">
         <f>Exams!B6</f>
@@ -5092,13 +5293,13 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>0.98333333333333328</v>
+        <v>2.1233333333333335</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="52">
+        <v>2</v>
+      </c>
+      <c r="H6" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5111,8 +5312,8 @@
         <f>Quiz!W7</f>
         <v>0.95</v>
       </c>
-      <c r="C7" s="51">
-        <f>Homework!J7</f>
+      <c r="C7" s="50">
+        <f>Homework!L7</f>
         <v>0</v>
       </c>
       <c r="D7" s="43">
@@ -5131,7 +5332,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H7" s="52">
+      <c r="H7" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5144,9 +5345,9 @@
         <f>Quiz!W8</f>
         <v>0.9</v>
       </c>
-      <c r="C8" s="51">
-        <f>Homework!J8</f>
-        <v>0</v>
+      <c r="C8" s="50">
+        <f>Homework!L8</f>
+        <v>1.4624999999999999</v>
       </c>
       <c r="D8" s="43">
         <f>Exams!B8</f>
@@ -5158,13 +5359,13 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>2.3624999999999998</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5177,9 +5378,9 @@
         <f>Quiz!W9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="C9" s="51">
-        <f>Homework!J9</f>
-        <v>0</v>
+      <c r="C9" s="50">
+        <f>Homework!L9</f>
+        <v>1.4849999999999999</v>
       </c>
       <c r="D9" s="43">
         <f>Exams!B9</f>
@@ -5191,13 +5392,13 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>2.1516666666666664</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="52">
+        <v>2</v>
+      </c>
+      <c r="H9" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5210,9 +5411,9 @@
         <f>Quiz!W10</f>
         <v>0.8</v>
       </c>
-      <c r="C10" s="51">
-        <f>Homework!J10</f>
-        <v>0</v>
+      <c r="C10" s="50">
+        <f>Homework!L10</f>
+        <v>1.335</v>
       </c>
       <c r="D10" s="43">
         <f>Exams!B10</f>
@@ -5224,13 +5425,13 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>2.1349999999999998</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H10" s="52">
+        <v>2</v>
+      </c>
+      <c r="H10" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5243,9 +5444,9 @@
         <f>Quiz!W11</f>
         <v>0.48333333333333334</v>
       </c>
-      <c r="C11" s="51">
-        <f>Homework!J11</f>
-        <v>0</v>
+      <c r="C11" s="50">
+        <f>Homework!L11</f>
+        <v>0.58499999999999996</v>
       </c>
       <c r="D11" s="43">
         <f>Exams!B11</f>
@@ -5257,13 +5458,13 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>0.48333333333333334</v>
+        <v>1.0683333333333334</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="52">
+        <v>1</v>
+      </c>
+      <c r="H11" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5276,9 +5477,9 @@
         <f>Quiz!W12</f>
         <v>0.95</v>
       </c>
-      <c r="C12" s="51">
-        <f>Homework!J12</f>
-        <v>0</v>
+      <c r="C12" s="50">
+        <f>Homework!L12</f>
+        <v>1.0425</v>
       </c>
       <c r="D12" s="43">
         <f>Exams!B12</f>
@@ -5290,13 +5491,13 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>1.9924999999999999</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H12" s="52">
+        <v>2</v>
+      </c>
+      <c r="H12" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5309,9 +5510,9 @@
         <f>Quiz!W13</f>
         <v>1</v>
       </c>
-      <c r="C13" s="51">
-        <f>Homework!J13</f>
-        <v>0</v>
+      <c r="C13" s="50">
+        <f>Homework!L13</f>
+        <v>1.4775</v>
       </c>
       <c r="D13" s="43">
         <f>Exams!B13</f>
@@ -5323,13 +5524,13 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.4775</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H13" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="H13" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5342,9 +5543,9 @@
         <f>Quiz!W14</f>
         <v>0.95</v>
       </c>
-      <c r="C14" s="51">
-        <f>Homework!J14</f>
-        <v>0</v>
+      <c r="C14" s="50">
+        <f>Homework!L14</f>
+        <v>1.4025000000000001</v>
       </c>
       <c r="D14" s="43">
         <f>Exams!B14</f>
@@ -5356,13 +5557,13 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>2.3525</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5375,9 +5576,9 @@
         <f>Quiz!W15</f>
         <v>0.21666666666666667</v>
       </c>
-      <c r="C15" s="51">
-        <f>Homework!J15</f>
-        <v>0</v>
+      <c r="C15" s="50">
+        <f>Homework!L15</f>
+        <v>0.53249999999999997</v>
       </c>
       <c r="D15" s="43">
         <f>Exams!B15</f>
@@ -5389,13 +5590,13 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
+        <v>0.74916666666666665</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5408,9 +5609,9 @@
         <f>Quiz!W16</f>
         <v>1</v>
       </c>
-      <c r="C16" s="51">
-        <f>Homework!J16</f>
-        <v>0</v>
+      <c r="C16" s="50">
+        <f>Homework!L16</f>
+        <v>1.4849999999999999</v>
       </c>
       <c r="D16" s="43">
         <f>Exams!B16</f>
@@ -5422,13 +5623,13 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2.4849999999999999</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H16" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5441,9 +5642,9 @@
         <f>Quiz!W17</f>
         <v>0.65</v>
       </c>
-      <c r="C17" s="51">
-        <f>Homework!J17</f>
-        <v>0</v>
+      <c r="C17" s="50">
+        <f>Homework!L17</f>
+        <v>1.3275000000000001</v>
       </c>
       <c r="D17" s="43">
         <f>Exams!B17</f>
@@ -5455,13 +5656,13 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>1.9775</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="52">
+        <v>2</v>
+      </c>
+      <c r="H17" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5474,9 +5675,9 @@
         <f>Quiz!W18</f>
         <v>0.78333333333333333</v>
       </c>
-      <c r="C18" s="51">
-        <f>Homework!J18</f>
-        <v>0</v>
+      <c r="C18" s="50">
+        <f>Homework!L18</f>
+        <v>1.0425</v>
       </c>
       <c r="D18" s="43">
         <f>Exams!B18</f>
@@ -5488,13 +5689,13 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>0.78333333333333333</v>
+        <v>1.8258333333333332</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H18" s="52">
+        <v>2</v>
+      </c>
+      <c r="H18" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5507,9 +5708,9 @@
         <f>Quiz!W19</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="C19" s="51">
-        <f>Homework!J19</f>
-        <v>0</v>
+      <c r="C19" s="50">
+        <f>Homework!L19</f>
+        <v>1.29</v>
       </c>
       <c r="D19" s="43">
         <f>Exams!B19</f>
@@ -5521,13 +5722,13 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>0.83333333333333337</v>
+        <v>2.1233333333333335</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H19" s="52">
+        <v>2</v>
+      </c>
+      <c r="H19" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5540,9 +5741,9 @@
         <f>Quiz!W20</f>
         <v>0.9</v>
       </c>
-      <c r="C20" s="51">
-        <f>Homework!J20</f>
-        <v>0</v>
+      <c r="C20" s="50">
+        <f>Homework!L20</f>
+        <v>1.365</v>
       </c>
       <c r="D20" s="43">
         <f>Exams!B20</f>
@@ -5554,13 +5755,13 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>0.9</v>
+        <v>2.2650000000000001</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
-        <v>1</v>
-      </c>
-      <c r="H20" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="H20" s="51">
         <f t="shared" ref="H20:H25" si="5">IF(G20&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -5573,9 +5774,9 @@
         <f>Quiz!W21</f>
         <v>0.25</v>
       </c>
-      <c r="C21" s="51">
-        <f>Homework!J21</f>
-        <v>0</v>
+      <c r="C21" s="50">
+        <f>Homework!L21</f>
+        <v>1.0275000000000001</v>
       </c>
       <c r="D21" s="43">
         <f>Exams!B21</f>
@@ -5587,13 +5788,13 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>0.25</v>
+        <v>1.2775000000000001</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5606,9 +5807,9 @@
         <f>Quiz!W22</f>
         <v>1</v>
       </c>
-      <c r="C22" s="51">
-        <f>Homework!J22</f>
-        <v>0</v>
+      <c r="C22" s="50">
+        <f>Homework!L22</f>
+        <v>1.4324999999999999</v>
       </c>
       <c r="D22" s="43">
         <f>Exams!B22</f>
@@ -5620,13 +5821,13 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.4325000000000001</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H22" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="H22" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5639,9 +5840,9 @@
         <f>Quiz!W23</f>
         <v>0.95</v>
       </c>
-      <c r="C23" s="51">
-        <f>Homework!J23</f>
-        <v>0</v>
+      <c r="C23" s="50">
+        <f>Homework!L23</f>
+        <v>1.32</v>
       </c>
       <c r="D23" s="43">
         <f>Exams!B23</f>
@@ -5653,13 +5854,13 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>0.95</v>
+        <v>2.27</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H23" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="H23" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5672,9 +5873,9 @@
         <f>Quiz!W24</f>
         <v>0.78333333333333333</v>
       </c>
-      <c r="C24" s="51">
-        <f>Homework!J24</f>
-        <v>0</v>
+      <c r="C24" s="50">
+        <f>Homework!L24</f>
+        <v>1.17</v>
       </c>
       <c r="D24" s="43">
         <f>Exams!B24</f>
@@ -5686,13 +5887,13 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>0.78333333333333333</v>
+        <v>1.9533333333333331</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H24" s="52">
+        <v>2</v>
+      </c>
+      <c r="H24" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5705,9 +5906,9 @@
         <f>Quiz!W25</f>
         <v>0.8</v>
       </c>
-      <c r="C25" s="51">
-        <f>Homework!J25</f>
-        <v>0</v>
+      <c r="C25" s="50">
+        <f>Homework!L25</f>
+        <v>1.02</v>
       </c>
       <c r="D25" s="43">
         <f>Exams!B25</f>
@@ -5719,13 +5920,13 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>1.82</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H25" s="52">
+        <v>2</v>
+      </c>
+      <c r="H25" s="51">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5738,9 +5939,9 @@
         <f>Quiz!W26</f>
         <v>0.8833333333333333</v>
       </c>
-      <c r="C26" s="51">
-        <f>Homework!J26</f>
-        <v>0</v>
+      <c r="C26" s="50">
+        <f>Homework!L26</f>
+        <v>0.84000000000000008</v>
       </c>
       <c r="D26" s="43">
         <f>Exams!B26</f>
@@ -5752,13 +5953,13 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>0.8833333333333333</v>
+        <v>1.7233333333333334</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
-        <v>1</v>
-      </c>
-      <c r="H26" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="H26" s="51">
         <f t="shared" ref="H26:H32" si="7">IF(G26&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -5771,9 +5972,9 @@
         <f>Quiz!W27</f>
         <v>0.85</v>
       </c>
-      <c r="C27" s="51">
-        <f>Homework!J27</f>
-        <v>0</v>
+      <c r="C27" s="50">
+        <f>Homework!L27</f>
+        <v>0.91500000000000004</v>
       </c>
       <c r="D27" s="43">
         <f>Exams!B27</f>
@@ -5785,13 +5986,13 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>0.85</v>
+        <v>1.7650000000000001</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H27" s="52">
+        <v>2</v>
+      </c>
+      <c r="H27" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5804,9 +6005,9 @@
         <f>Quiz!W28</f>
         <v>0.65</v>
       </c>
-      <c r="C28" s="51">
-        <f>Homework!J28</f>
-        <v>0</v>
+      <c r="C28" s="50">
+        <f>Homework!L28</f>
+        <v>0.62249999999999994</v>
       </c>
       <c r="D28" s="43">
         <f>Exams!B28</f>
@@ -5818,13 +6019,13 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>0.65</v>
+        <v>1.2725</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="H28" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5837,9 +6038,9 @@
         <f>Quiz!W29</f>
         <v>0.6166666666666667</v>
       </c>
-      <c r="C29" s="51">
-        <f>Homework!J29</f>
-        <v>0</v>
+      <c r="C29" s="50">
+        <f>Homework!L29</f>
+        <v>0.79500000000000004</v>
       </c>
       <c r="D29" s="43">
         <f>Exams!B29</f>
@@ -5851,13 +6052,13 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>0.6166666666666667</v>
+        <v>1.4116666666666666</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="H29" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5870,9 +6071,9 @@
         <f>Quiz!W30</f>
         <v>0.6166666666666667</v>
       </c>
-      <c r="C30" s="51">
-        <f>Homework!J30</f>
-        <v>0</v>
+      <c r="C30" s="50">
+        <f>Homework!L30</f>
+        <v>1.08</v>
       </c>
       <c r="D30" s="43">
         <f>Exams!B30</f>
@@ -5884,13 +6085,13 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>0.6166666666666667</v>
+        <v>1.6966666666666668</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="H30" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5903,9 +6104,9 @@
         <f>Quiz!W31</f>
         <v>0.73333333333333328</v>
       </c>
-      <c r="C31" s="51">
-        <f>Homework!J31</f>
-        <v>0</v>
+      <c r="C31" s="50">
+        <f>Homework!L31</f>
+        <v>1.32</v>
       </c>
       <c r="D31" s="43">
         <f>Exams!B31</f>
@@ -5917,13 +6118,13 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>0.73333333333333328</v>
+        <v>2.0533333333333332</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="52">
+        <v>2</v>
+      </c>
+      <c r="H31" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5936,9 +6137,9 @@
         <f>Quiz!W32</f>
         <v>0.85</v>
       </c>
-      <c r="C32" s="51">
-        <f>Homework!J32</f>
-        <v>0</v>
+      <c r="C32" s="50">
+        <f>Homework!L32</f>
+        <v>1.3049999999999999</v>
       </c>
       <c r="D32" s="43">
         <f>Exams!B32</f>
@@ -5950,13 +6151,13 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>0.85</v>
+        <v>2.1549999999999998</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H32" s="52">
+        <v>2</v>
+      </c>
+      <c r="H32" s="51">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -5969,9 +6170,9 @@
         <f>Quiz!W33</f>
         <v>0.56666666666666665</v>
       </c>
-      <c r="C33" s="51">
-        <f>Homework!J33</f>
-        <v>0</v>
+      <c r="C33" s="50">
+        <f>Homework!L33</f>
+        <v>0.92999999999999994</v>
       </c>
       <c r="D33" s="43">
         <f>Exams!B33</f>
@@ -5983,13 +6184,13 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>0.56666666666666665</v>
+        <v>1.4966666666666666</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="H33" s="51">
         <f>IF(G33&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -6002,9 +6203,9 @@
         <f>Quiz!W34</f>
         <v>0.75</v>
       </c>
-      <c r="C34" s="51">
-        <f>Homework!J34</f>
-        <v>0</v>
+      <c r="C34" s="50">
+        <f>Homework!L34</f>
+        <v>1.4849999999999999</v>
       </c>
       <c r="D34" s="43">
         <f>Exams!B34</f>
@@ -6016,13 +6217,13 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>0.75</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H34" s="52">
+        <v>2</v>
+      </c>
+      <c r="H34" s="51">
         <f t="shared" ref="H34:H39" si="8">IF(G34&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
@@ -6035,9 +6236,9 @@
         <f>Quiz!W35</f>
         <v>1</v>
       </c>
-      <c r="C35" s="51">
-        <f>Homework!J35</f>
-        <v>0</v>
+      <c r="C35" s="50">
+        <f>Homework!L35</f>
+        <v>1.4849999999999999</v>
       </c>
       <c r="D35" s="43">
         <f>Exams!B35</f>
@@ -6049,13 +6250,13 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>2.4849999999999999</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H35" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="H35" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6068,9 +6269,9 @@
         <f>Quiz!W36</f>
         <v>0.95</v>
       </c>
-      <c r="C36" s="51">
-        <f>Homework!J36</f>
-        <v>0</v>
+      <c r="C36" s="50">
+        <f>Homework!L36</f>
+        <v>0.96</v>
       </c>
       <c r="D36" s="43">
         <f>Exams!B36</f>
@@ -6082,13 +6283,13 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>0.95</v>
+        <v>1.91</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H36" s="52">
+        <v>2</v>
+      </c>
+      <c r="H36" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6101,9 +6302,9 @@
         <f>Quiz!W37</f>
         <v>0.8</v>
       </c>
-      <c r="C37" s="51">
-        <f>Homework!J37</f>
-        <v>0</v>
+      <c r="C37" s="50">
+        <f>Homework!L37</f>
+        <v>1.0874999999999999</v>
       </c>
       <c r="D37" s="43">
         <f>Exams!B37</f>
@@ -6115,13 +6316,13 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>1.8875</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H37" s="52">
+        <v>2</v>
+      </c>
+      <c r="H37" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6134,8 +6335,8 @@
         <f>Quiz!W38</f>
         <v>0.45</v>
       </c>
-      <c r="C38" s="51">
-        <f>Homework!J38</f>
+      <c r="C38" s="50">
+        <f>Homework!L38</f>
         <v>0</v>
       </c>
       <c r="D38" s="43">
@@ -6154,7 +6355,7 @@
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="H38" s="52">
+      <c r="H38" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6167,9 +6368,9 @@
         <f>Quiz!W39</f>
         <v>0.76666666666666672</v>
       </c>
-      <c r="C39" s="51">
-        <f>Homework!J39</f>
-        <v>0</v>
+      <c r="C39" s="50">
+        <f>Homework!L39</f>
+        <v>0.67500000000000004</v>
       </c>
       <c r="D39" s="43">
         <f>Exams!B39</f>
@@ -6181,13 +6382,13 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>0.76666666666666672</v>
+        <v>1.4416666666666669</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H39" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="H39" s="51">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -6211,7 +6412,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="45">
-        <f>Homework!J41</f>
+        <f>Homework!L41</f>
         <v>1.5</v>
       </c>
       <c r="D41" s="27">
@@ -6242,7 +6443,7 @@
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
-        <v>0</v>
+        <v>1.0521710526315788</v>
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
@@ -6254,11 +6455,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>0.75219298245614052</v>
+        <v>1.8043640350877197</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>0.78947368421052633</v>
+        <v>1.8157894736842106</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -6275,7 +6476,7 @@
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
-        <v>0</v>
+        <v>0.41448689015742751</v>
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
@@ -6287,11 +6488,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>0.23532518720529391</v>
+        <v>0.55440372678686856</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>0.2993592018315035</v>
+        <v>0.58611239388412573</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -6308,7 +6509,7 @@
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
-        <v>0</v>
+        <v>1.08375</v>
       </c>
       <c r="D44" s="30">
         <f t="shared" si="11"/>
@@ -6320,11 +6521,11 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>0.8</v>
+        <v>1.9316666666666666</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F8F5D6-D829-4C4C-8D34-8368B5B09B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664375C6-B2F1-1349-9E66-C7B07F702E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="3140" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9860" yWindow="2360" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -986,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -3373,7 +3373,7 @@
         <v>49156</v>
       </c>
       <c r="B2" s="57">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="C2" s="52"/>
       <c r="D2" s="53"/>
@@ -3386,7 +3386,7 @@
       <c r="K2" s="52"/>
       <c r="L2" s="34">
         <f>IF(SUM($B$45:$I$45)&gt;0,1.5*(B2/$B$41+C2/$C$41+D2/$D$41+E2/$E$41+F2/$F$41+G2/$G$41+H2/$H$41+I2/$I$41+J2/$J$41+K2/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>0</v>
+        <v>1.3800000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4223,7 +4223,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>70.14473684210526</v>
+        <v>72.565789473684205</v>
       </c>
       <c r="C42" s="30" t="e">
         <f t="shared" ref="C42:L42" si="1">AVERAGE(C$2:C$39)</f>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="L42" s="30">
         <f t="shared" si="1"/>
-        <v>1.0521710526315788</v>
+        <v>1.0884868421052631</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>27.632459343828515</v>
+        <v>25.24800528718076</v>
       </c>
       <c r="C43" s="30" t="e">
         <f t="shared" ref="C43:L43" si="2">STDEV(C$2:C$39)</f>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="L43" s="30">
         <f t="shared" si="2"/>
-        <v>0.41448689015742751</v>
+        <v>0.37872007930771101</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>72.25</v>
+        <v>74.25</v>
       </c>
       <c r="C44" s="30" t="e">
         <f t="shared" ref="C44:L44" si="3">MEDIAN(C$2:C$39)</f>
@@ -4361,7 +4361,7 @@
       </c>
       <c r="L44" s="30">
         <f t="shared" si="3"/>
-        <v>1.08375</v>
+        <v>1.11375</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5148,7 +5148,7 @@
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
-        <v>0</v>
+        <v>1.3800000000000001</v>
       </c>
       <c r="D2" s="43">
         <f>Exams!B2</f>
@@ -5160,11 +5160,11 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>0.56666666666666665</v>
+        <v>1.9466666666666668</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H2" s="51">
         <f>IF(G2&gt;4.75,1,0)</f>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
-        <v>1.0521710526315788</v>
+        <v>1.0884868421052631</v>
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
@@ -6455,11 +6455,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>1.8043640350877197</v>
+        <v>1.8406798245614038</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>1.8157894736842106</v>
+        <v>1.8552631578947369</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -6476,7 +6476,7 @@
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
-        <v>0.41448689015742751</v>
+        <v>0.37872007930771101</v>
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
@@ -6488,11 +6488,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>0.55440372678686856</v>
+        <v>0.51493081896570059</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>0.58611239388412573</v>
+        <v>0.54410718758250842</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -6509,7 +6509,7 @@
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
-        <v>1.08375</v>
+        <v>1.11375</v>
       </c>
       <c r="D44" s="30">
         <f t="shared" si="11"/>
@@ -6521,7 +6521,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>1.9316666666666666</v>
+        <v>1.95</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{664375C6-B2F1-1349-9E66-C7B07F702E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD2D207-CEA7-AC44-8007-895283D349EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9860" yWindow="2360" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="2360" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -986,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -1088,7 +1088,9 @@
       <c r="F2" s="18">
         <v>7</v>
       </c>
-      <c r="G2" s="44"/>
+      <c r="G2" s="18">
+        <v>15</v>
+      </c>
       <c r="H2" s="44"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
@@ -1106,7 +1108,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.56666666666666665</v>
+        <v>0.65333333333333332</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1127,7 +1129,9 @@
       <c r="F3" s="18">
         <v>0</v>
       </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
       <c r="H3" s="44"/>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
@@ -1166,7 +1170,9 @@
       <c r="F4" s="18">
         <v>15</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="18">
+        <v>3</v>
+      </c>
       <c r="H4" s="44"/>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
@@ -1184,7 +1190,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.98333333333333328</v>
+        <v>0.82666666666666666</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1205,7 +1211,9 @@
       <c r="F5" s="18">
         <v>11</v>
       </c>
-      <c r="G5" s="44"/>
+      <c r="G5" s="18">
+        <v>3</v>
+      </c>
       <c r="H5" s="44"/>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
@@ -1223,7 +1231,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1244,7 +1252,9 @@
       <c r="F6" s="18">
         <v>15</v>
       </c>
-      <c r="G6" s="44"/>
+      <c r="G6" s="18">
+        <v>3</v>
+      </c>
       <c r="H6" s="44"/>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
@@ -1262,7 +1272,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.98333333333333328</v>
+        <v>0.82666666666666666</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1283,7 +1293,9 @@
       <c r="F7" s="18">
         <v>15</v>
       </c>
-      <c r="G7" s="44"/>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
       <c r="H7" s="44"/>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
@@ -1301,7 +1313,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1322,7 +1334,9 @@
       <c r="F8" s="18">
         <v>15</v>
       </c>
-      <c r="G8" s="44"/>
+      <c r="G8" s="18">
+        <v>12</v>
+      </c>
       <c r="H8" s="44"/>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
@@ -1340,7 +1354,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1361,7 +1375,9 @@
       <c r="F9" s="18">
         <v>15</v>
       </c>
-      <c r="G9" s="44"/>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
       <c r="H9" s="44"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
@@ -1379,7 +1395,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1400,7 +1416,9 @@
       <c r="F10" s="18">
         <v>11</v>
       </c>
-      <c r="G10" s="44"/>
+      <c r="G10" s="18">
+        <v>3</v>
+      </c>
       <c r="H10" s="44"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
@@ -1418,7 +1436,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1439,7 +1457,9 @@
       <c r="F11" s="18">
         <v>13</v>
       </c>
-      <c r="G11" s="44"/>
+      <c r="G11" s="18">
+        <v>3</v>
+      </c>
       <c r="H11" s="44"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
@@ -1457,7 +1477,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.48333333333333334</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1478,7 +1498,9 @@
       <c r="F12" s="18">
         <v>13</v>
       </c>
-      <c r="G12" s="44"/>
+      <c r="G12" s="18">
+        <v>12</v>
+      </c>
       <c r="H12" s="44"/>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
@@ -1496,7 +1518,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1517,7 +1539,9 @@
       <c r="F13" s="18">
         <v>15</v>
       </c>
-      <c r="G13" s="44"/>
+      <c r="G13" s="18">
+        <v>12</v>
+      </c>
       <c r="H13" s="44"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
@@ -1535,7 +1559,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1556,7 +1580,9 @@
       <c r="F14" s="18">
         <v>15</v>
       </c>
-      <c r="G14" s="44"/>
+      <c r="G14" s="18">
+        <v>12</v>
+      </c>
       <c r="H14" s="44"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -1574,7 +1600,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1594,7 +1620,9 @@
       <c r="F15" s="18">
         <v>0</v>
       </c>
-      <c r="G15" s="44"/>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
       <c r="H15" s="44"/>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
@@ -1612,7 +1640,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>0.21666666666666667</v>
+        <v>0.17333333333333334</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1633,7 +1661,9 @@
       <c r="F16" s="18">
         <v>15</v>
       </c>
-      <c r="G16" s="44"/>
+      <c r="G16" s="18">
+        <v>3</v>
+      </c>
       <c r="H16" s="44"/>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
@@ -1651,7 +1681,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="X16"/>
     </row>
@@ -1672,7 +1702,9 @@
       <c r="F17" s="18">
         <v>15</v>
       </c>
-      <c r="G17" s="44"/>
+      <c r="G17" s="18">
+        <v>3</v>
+      </c>
       <c r="H17" s="44"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
@@ -1690,7 +1722,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="X17"/>
     </row>
@@ -1711,7 +1743,9 @@
       <c r="F18" s="18">
         <v>11</v>
       </c>
-      <c r="G18" s="44"/>
+      <c r="G18" s="18">
+        <v>3</v>
+      </c>
       <c r="H18" s="44"/>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
@@ -1729,7 +1763,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.78333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X18"/>
     </row>
@@ -1750,7 +1784,9 @@
       <c r="F19" s="18">
         <v>15</v>
       </c>
-      <c r="G19" s="44"/>
+      <c r="G19" s="18">
+        <v>12</v>
+      </c>
       <c r="H19" s="44"/>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
@@ -1768,7 +1804,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.82666666666666666</v>
       </c>
       <c r="X19"/>
     </row>
@@ -1789,7 +1825,9 @@
       <c r="F20" s="18">
         <v>15</v>
       </c>
-      <c r="G20" s="44"/>
+      <c r="G20" s="18">
+        <v>12</v>
+      </c>
       <c r="H20" s="44"/>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
@@ -1807,7 +1845,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="X20"/>
     </row>
@@ -1828,7 +1866,9 @@
       <c r="F21" s="18">
         <v>0</v>
       </c>
-      <c r="G21" s="44"/>
+      <c r="G21" s="18">
+        <v>3</v>
+      </c>
       <c r="H21" s="44"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
@@ -1846,7 +1886,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="X21"/>
     </row>
@@ -1867,7 +1907,9 @@
       <c r="F22" s="18">
         <v>15</v>
       </c>
-      <c r="G22" s="44"/>
+      <c r="G22" s="18">
+        <v>15</v>
+      </c>
       <c r="H22" s="44"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
@@ -1906,7 +1948,9 @@
       <c r="F23" s="18">
         <v>15</v>
       </c>
-      <c r="G23" s="44"/>
+      <c r="G23" s="18">
+        <v>12</v>
+      </c>
       <c r="H23" s="44"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
@@ -1924,7 +1968,7 @@
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="X23"/>
     </row>
@@ -1945,7 +1989,9 @@
       <c r="F24" s="18">
         <v>15</v>
       </c>
-      <c r="G24" s="44"/>
+      <c r="G24" s="18">
+        <v>3</v>
+      </c>
       <c r="H24" s="44"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
@@ -1963,7 +2009,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.78333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X24"/>
     </row>
@@ -1984,7 +2030,9 @@
       <c r="F25" s="18">
         <v>15</v>
       </c>
-      <c r="G25" s="44"/>
+      <c r="G25" s="18">
+        <v>12</v>
+      </c>
       <c r="H25" s="44"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
@@ -2023,7 +2071,9 @@
       <c r="F26" s="18">
         <v>15</v>
       </c>
-      <c r="G26" s="44"/>
+      <c r="G26" s="18">
+        <v>3</v>
+      </c>
       <c r="H26" s="44"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
@@ -2041,7 +2091,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.8833333333333333</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2062,7 +2112,9 @@
       <c r="F27" s="18">
         <v>15</v>
       </c>
-      <c r="G27" s="44"/>
+      <c r="G27" s="18">
+        <v>3</v>
+      </c>
       <c r="H27" s="44"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
@@ -2080,7 +2132,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2101,7 +2153,9 @@
       <c r="F28" s="18">
         <v>15</v>
       </c>
-      <c r="G28" s="44"/>
+      <c r="G28" s="18">
+        <v>3</v>
+      </c>
       <c r="H28" s="44"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -2119,7 +2173,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2140,7 +2194,9 @@
       <c r="F29" s="18">
         <v>11</v>
       </c>
-      <c r="G29" s="44"/>
+      <c r="G29" s="18">
+        <v>3</v>
+      </c>
       <c r="H29" s="44"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
@@ -2158,7 +2214,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.6166666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2179,7 +2235,9 @@
       <c r="F30" s="18">
         <v>15</v>
       </c>
-      <c r="G30" s="44"/>
+      <c r="G30" s="18">
+        <v>3</v>
+      </c>
       <c r="H30" s="44"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
@@ -2197,7 +2255,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.6166666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2218,7 +2276,9 @@
       <c r="F31" s="18">
         <v>11</v>
       </c>
-      <c r="G31" s="44"/>
+      <c r="G31" s="18">
+        <v>3</v>
+      </c>
       <c r="H31" s="44"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
@@ -2236,7 +2296,7 @@
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.62666666666666671</v>
       </c>
       <c r="X31"/>
     </row>
@@ -2257,7 +2317,9 @@
       <c r="F32" s="18">
         <v>7</v>
       </c>
-      <c r="G32" s="44"/>
+      <c r="G32" s="18">
+        <v>3</v>
+      </c>
       <c r="H32" s="44"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
@@ -2275,7 +2337,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="X32"/>
     </row>
@@ -2296,7 +2358,9 @@
       <c r="F33" s="18">
         <v>15</v>
       </c>
-      <c r="G33" s="44"/>
+      <c r="G33" s="18">
+        <v>3</v>
+      </c>
       <c r="H33" s="44"/>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
@@ -2314,7 +2378,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <v>0.49333333333333335</v>
       </c>
       <c r="X33"/>
     </row>
@@ -2335,7 +2399,9 @@
       <c r="F34" s="18">
         <v>15</v>
       </c>
-      <c r="G34" s="44"/>
+      <c r="G34" s="18">
+        <v>12</v>
+      </c>
       <c r="H34" s="44"/>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
@@ -2353,7 +2419,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="X34"/>
     </row>
@@ -2374,7 +2440,9 @@
       <c r="F35" s="18">
         <v>15</v>
       </c>
-      <c r="G35" s="44"/>
+      <c r="G35" s="18">
+        <v>15</v>
+      </c>
       <c r="H35" s="44"/>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
@@ -2413,7 +2481,9 @@
       <c r="F36" s="18">
         <v>15</v>
       </c>
-      <c r="G36" s="44"/>
+      <c r="G36" s="18">
+        <v>0</v>
+      </c>
       <c r="H36" s="44"/>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
@@ -2431,7 +2501,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="X36"/>
     </row>
@@ -2452,7 +2522,9 @@
       <c r="F37" s="18">
         <v>15</v>
       </c>
-      <c r="G37" s="44"/>
+      <c r="G37" s="18">
+        <v>3</v>
+      </c>
       <c r="H37" s="44"/>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
@@ -2470,7 +2542,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="X37"/>
     </row>
@@ -2491,7 +2563,9 @@
       <c r="F38" s="18">
         <v>15</v>
       </c>
-      <c r="G38" s="44"/>
+      <c r="G38" s="18">
+        <v>3</v>
+      </c>
       <c r="H38" s="44"/>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
@@ -2509,7 +2583,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="X38"/>
     </row>
@@ -2530,7 +2604,9 @@
       <c r="F39" s="18">
         <v>10</v>
       </c>
-      <c r="G39" s="44"/>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
       <c r="H39" s="44"/>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
@@ -2548,7 +2624,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.76666666666666672</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="X39"/>
     </row>
@@ -2674,9 +2750,9 @@
         <f t="shared" si="1"/>
         <v>12.631578947368421</v>
       </c>
-      <c r="G42" s="30" t="e">
+      <c r="G42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.6052631578947372</v>
       </c>
       <c r="H42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -2740,7 +2816,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.75219298245614052</v>
+        <v>0.67649122807017537</v>
       </c>
       <c r="X42"/>
     </row>
@@ -2768,9 +2844,9 @@
         <f t="shared" si="2"/>
         <v>4.3584094087958203</v>
       </c>
-      <c r="G43" s="30" t="e">
+      <c r="G43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.0859609296105388</v>
       </c>
       <c r="H43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -2834,7 +2910,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.23532518720529391</v>
+        <v>0.2245194365716498</v>
       </c>
       <c r="X43"/>
     </row>
@@ -2862,9 +2938,9 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="G44" s="30" t="e">
+      <c r="G44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="H44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -2928,7 +3004,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="X44"/>
     </row>
@@ -2958,7 +3034,7 @@
       </c>
       <c r="G45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="33">
         <f t="shared" si="4"/>
@@ -5144,7 +5220,7 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.56666666666666665</v>
+        <v>0.65333333333333332</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
@@ -5160,7 +5236,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>1.9466666666666668</v>
+        <v>2.0333333333333332</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5211,7 +5287,7 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.98333333333333328</v>
+        <v>0.82666666666666666</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
@@ -5227,7 +5303,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.4308333333333332</v>
+        <v>2.2741666666666669</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -5244,7 +5320,7 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
@@ -5260,7 +5336,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -5277,7 +5353,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.98333333333333328</v>
+        <v>0.82666666666666666</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
@@ -5293,7 +5369,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>2.1233333333333335</v>
+        <v>1.9666666666666668</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -5310,7 +5386,7 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
@@ -5326,7 +5402,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -5343,7 +5419,7 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
@@ -5359,7 +5435,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>2.3624999999999998</v>
+        <v>2.3424999999999998</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -5376,7 +5452,7 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.66666666666666663</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
@@ -5392,7 +5468,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>2.1516666666666664</v>
+        <v>2.0183333333333331</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -5409,7 +5485,7 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
@@ -5425,7 +5501,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>2.1349999999999998</v>
+        <v>2.0150000000000001</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -5442,7 +5518,7 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.48333333333333334</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
@@ -5458,7 +5534,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.0683333333333334</v>
+        <v>1.0116666666666667</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -5475,7 +5551,7 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
@@ -5491,7 +5567,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>1.9924999999999999</v>
+        <v>1.9624999999999999</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -5508,7 +5584,7 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
@@ -5524,7 +5600,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>2.4775</v>
+        <v>2.4375</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -5541,7 +5617,7 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
@@ -5557,7 +5633,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>2.3525</v>
+        <v>2.3225000000000002</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -5574,7 +5650,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>0.21666666666666667</v>
+        <v>0.17333333333333334</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
@@ -5590,7 +5666,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.74916666666666665</v>
+        <v>0.70583333333333331</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -5607,7 +5683,7 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
@@ -5623,7 +5699,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>2.4849999999999999</v>
+        <v>2.3249999999999997</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -5640,7 +5716,7 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.65</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
@@ -5656,7 +5732,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>1.9775</v>
+        <v>1.8875000000000002</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -5673,7 +5749,7 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.78333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
@@ -5689,11 +5765,11 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>1.8258333333333332</v>
+        <v>1.7091666666666665</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H18" s="51">
         <f t="shared" si="2"/>
@@ -5706,7 +5782,7 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.83333333333333337</v>
+        <v>0.82666666666666666</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
@@ -5722,7 +5798,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>2.1233333333333335</v>
+        <v>2.1166666666666667</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -5739,7 +5815,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
@@ -5755,11 +5831,11 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>2.2650000000000001</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H20" s="51">
         <f t="shared" ref="H20:H25" si="5">IF(G20&gt;4.75,1,0)</f>
@@ -5772,7 +5848,7 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
@@ -5788,7 +5864,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.2775000000000001</v>
+        <v>1.2675000000000001</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -5838,7 +5914,7 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
@@ -5854,11 +5930,11 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.27</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H23" s="51">
         <f t="shared" si="5"/>
@@ -5871,7 +5947,7 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.78333333333333333</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
@@ -5887,7 +5963,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>1.9533333333333331</v>
+        <v>1.8366666666666664</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -5937,7 +6013,7 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.8833333333333333</v>
+        <v>0.7466666666666667</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
@@ -5953,7 +6029,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>1.7233333333333334</v>
+        <v>1.5866666666666669</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -5970,7 +6046,7 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
@@ -5986,11 +6062,11 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>1.7650000000000001</v>
+        <v>1.635</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H27" s="51">
         <f t="shared" si="7"/>
@@ -6003,7 +6079,7 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.65</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
@@ -6019,11 +6095,11 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.2725</v>
+        <v>1.1825000000000001</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H28" s="51">
         <f t="shared" si="7"/>
@@ -6036,7 +6112,7 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.6166666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
@@ -6052,7 +6128,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.4116666666666666</v>
+        <v>1.3283333333333334</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -6069,7 +6145,7 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.6166666666666667</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
@@ -6085,7 +6161,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>1.6966666666666668</v>
+        <v>1.6133333333333333</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -6102,7 +6178,7 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.73333333333333328</v>
+        <v>0.62666666666666671</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
@@ -6118,7 +6194,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>2.0533333333333332</v>
+        <v>1.9466666666666668</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -6135,7 +6211,7 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
@@ -6151,7 +6227,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>2.1549999999999998</v>
+        <v>2.0249999999999999</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -6168,7 +6244,7 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.56666666666666665</v>
+        <v>0.49333333333333335</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
@@ -6184,7 +6260,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>1.4966666666666666</v>
+        <v>1.4233333333333333</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -6201,7 +6277,7 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
@@ -6217,7 +6293,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>2.2349999999999999</v>
+        <v>2.2450000000000001</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -6267,7 +6343,7 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.95</v>
+        <v>0.76</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
@@ -6283,11 +6359,11 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H36" s="51">
         <f t="shared" si="8"/>
@@ -6300,7 +6376,7 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
@@ -6316,7 +6392,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>1.8875</v>
+        <v>1.7675000000000001</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -6333,7 +6409,7 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
@@ -6349,7 +6425,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -6366,7 +6442,7 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.76666666666666672</v>
+        <v>0.61333333333333329</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
@@ -6382,7 +6458,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.4416666666666669</v>
+        <v>1.2883333333333333</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -6439,7 +6515,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.75219298245614052</v>
+        <v>0.67649122807017537</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
@@ -6455,11 +6531,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>1.8406798245614038</v>
+        <v>1.7649780701754381</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>1.8552631578947369</v>
+        <v>1.7763157894736843</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -6472,7 +6548,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.23532518720529391</v>
+        <v>0.2245194365716498</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
@@ -6488,11 +6564,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>0.51493081896570059</v>
+        <v>0.52265084632452685</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>0.54410718758250842</v>
+        <v>0.54148654772355709</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -6505,7 +6581,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
@@ -6521,7 +6597,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>1.95</v>
+        <v>1.8620833333333333</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD2D207-CEA7-AC44-8007-895283D349EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E4FD6B-96FF-7749-8040-56F497A4BEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2360" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="2360" windowWidth="32920" windowHeight="19260" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -986,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -3395,7 +3395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -3451,7 +3451,9 @@
       <c r="B2" s="57">
         <v>92</v>
       </c>
-      <c r="C2" s="52"/>
+      <c r="C2" s="57">
+        <v>78</v>
+      </c>
       <c r="D2" s="53"/>
       <c r="E2" s="57"/>
       <c r="F2" s="52"/>
@@ -3462,7 +3464,7 @@
       <c r="K2" s="52"/>
       <c r="L2" s="34">
         <f>IF(SUM($B$45:$I$45)&gt;0,1.5*(B2/$B$41+C2/$C$41+D2/$D$41+E2/$E$41+F2/$F$41+G2/$G$41+H2/$H$41+I2/$I$41+J2/$J$41+K2/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>1.3800000000000001</v>
+        <v>1.2750000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3472,7 +3474,9 @@
       <c r="B3" s="57">
         <v>71.5</v>
       </c>
-      <c r="C3" s="52"/>
+      <c r="C3" s="57">
+        <v>66</v>
+      </c>
       <c r="D3" s="54"/>
       <c r="E3" s="57"/>
       <c r="F3" s="52"/>
@@ -3483,7 +3487,7 @@
       <c r="K3" s="52"/>
       <c r="L3" s="34">
         <f t="shared" ref="L3:L39" si="0">IF(SUM($B$45:$I$45)&gt;0,1.5*(B3/$B$41+C3/$C$41+D3/$D$41+E3/$E$41+F3/$F$41+G3/$G$41+H3/$H$41+I3/$I$41+J3/$J$41+K3/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>1.0725</v>
+        <v>1.03125</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3493,7 +3497,9 @@
       <c r="B4" s="57">
         <v>96.5</v>
       </c>
-      <c r="C4" s="52"/>
+      <c r="C4" s="57">
+        <v>97</v>
+      </c>
       <c r="D4" s="53"/>
       <c r="E4" s="57"/>
       <c r="F4" s="52"/>
@@ -3504,7 +3510,7 @@
       <c r="K4" s="52"/>
       <c r="L4" s="34">
         <f t="shared" si="0"/>
-        <v>1.4475</v>
+        <v>1.4512499999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3514,7 +3520,9 @@
       <c r="B5" s="57">
         <v>68</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="57">
+        <v>34</v>
+      </c>
       <c r="D5" s="55"/>
       <c r="E5" s="57"/>
       <c r="F5" s="52"/>
@@ -3525,7 +3533,7 @@
       <c r="K5" s="52"/>
       <c r="L5" s="34">
         <f t="shared" si="0"/>
-        <v>1.02</v>
+        <v>0.76500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3535,7 +3543,9 @@
       <c r="B6" s="57">
         <v>76</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="57">
+        <v>72</v>
+      </c>
       <c r="D6" s="54"/>
       <c r="E6" s="57"/>
       <c r="F6" s="52"/>
@@ -3546,7 +3556,7 @@
       <c r="K6" s="52"/>
       <c r="L6" s="34">
         <f t="shared" si="0"/>
-        <v>1.1400000000000001</v>
+        <v>1.1099999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3556,7 +3566,9 @@
       <c r="B7" s="57">
         <v>0</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="57">
+        <v>0</v>
+      </c>
       <c r="D7" s="18"/>
       <c r="E7" s="57"/>
       <c r="F7" s="52"/>
@@ -3577,7 +3589,9 @@
       <c r="B8" s="57">
         <v>97.5</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="57">
+        <v>67</v>
+      </c>
       <c r="D8" s="53"/>
       <c r="E8" s="57"/>
       <c r="F8" s="52"/>
@@ -3588,7 +3602,7 @@
       <c r="K8" s="52"/>
       <c r="L8" s="34">
         <f t="shared" si="0"/>
-        <v>1.4624999999999999</v>
+        <v>1.2337500000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3598,7 +3612,9 @@
       <c r="B9" s="57">
         <v>99</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="57">
+        <v>100</v>
+      </c>
       <c r="D9" s="54"/>
       <c r="E9" s="57"/>
       <c r="F9" s="52"/>
@@ -3609,7 +3625,7 @@
       <c r="K9" s="52"/>
       <c r="L9" s="34">
         <f t="shared" si="0"/>
-        <v>1.4849999999999999</v>
+        <v>1.4924999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3619,7 +3635,9 @@
       <c r="B10" s="57">
         <v>89</v>
       </c>
-      <c r="C10" s="52"/>
+      <c r="C10" s="57">
+        <v>75</v>
+      </c>
       <c r="D10" s="54"/>
       <c r="E10" s="18"/>
       <c r="F10" s="52"/>
@@ -3630,7 +3648,7 @@
       <c r="K10" s="52"/>
       <c r="L10" s="34">
         <f t="shared" si="0"/>
-        <v>1.335</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3640,7 +3658,9 @@
       <c r="B11" s="57">
         <v>39</v>
       </c>
-      <c r="C11" s="52"/>
+      <c r="C11" s="57">
+        <v>10</v>
+      </c>
       <c r="D11" s="53"/>
       <c r="E11" s="57"/>
       <c r="F11" s="52"/>
@@ -3651,7 +3671,7 @@
       <c r="K11" s="52"/>
       <c r="L11" s="34">
         <f t="shared" si="0"/>
-        <v>0.58499999999999996</v>
+        <v>0.36749999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3661,7 +3681,9 @@
       <c r="B12" s="57">
         <v>69.5</v>
       </c>
-      <c r="C12" s="52"/>
+      <c r="C12" s="57">
+        <v>0</v>
+      </c>
       <c r="D12" s="53"/>
       <c r="E12" s="57"/>
       <c r="F12" s="52"/>
@@ -3672,7 +3694,7 @@
       <c r="K12" s="52"/>
       <c r="L12" s="34">
         <f t="shared" si="0"/>
-        <v>1.0425</v>
+        <v>0.52124999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3682,7 +3704,9 @@
       <c r="B13" s="57">
         <v>98.5</v>
       </c>
-      <c r="C13" s="52"/>
+      <c r="C13" s="57">
+        <v>95</v>
+      </c>
       <c r="D13" s="54"/>
       <c r="E13" s="57"/>
       <c r="F13" s="52"/>
@@ -3693,7 +3717,7 @@
       <c r="K13" s="52"/>
       <c r="L13" s="34">
         <f t="shared" si="0"/>
-        <v>1.4775</v>
+        <v>1.4512499999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3703,7 +3727,9 @@
       <c r="B14" s="57">
         <v>93.5</v>
       </c>
-      <c r="C14" s="52"/>
+      <c r="C14" s="57">
+        <v>77</v>
+      </c>
       <c r="D14" s="54"/>
       <c r="E14" s="57"/>
       <c r="F14" s="52"/>
@@ -3714,7 +3740,7 @@
       <c r="K14" s="52"/>
       <c r="L14" s="34">
         <f t="shared" si="0"/>
-        <v>1.4025000000000001</v>
+        <v>1.2787500000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3724,7 +3750,9 @@
       <c r="B15" s="57">
         <v>35.5</v>
       </c>
-      <c r="C15" s="52"/>
+      <c r="C15" s="57">
+        <v>0</v>
+      </c>
       <c r="D15" s="54"/>
       <c r="E15" s="57"/>
       <c r="F15" s="52"/>
@@ -3735,7 +3763,7 @@
       <c r="K15" s="52"/>
       <c r="L15" s="34">
         <f t="shared" si="0"/>
-        <v>0.53249999999999997</v>
+        <v>0.26624999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3745,7 +3773,9 @@
       <c r="B16" s="57">
         <v>99</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="57">
+        <v>95</v>
+      </c>
       <c r="D16" s="53"/>
       <c r="E16" s="57"/>
       <c r="F16" s="52"/>
@@ -3756,7 +3786,7 @@
       <c r="K16" s="52"/>
       <c r="L16" s="34">
         <f t="shared" si="0"/>
-        <v>1.4849999999999999</v>
+        <v>1.4550000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3766,7 +3796,9 @@
       <c r="B17" s="57">
         <v>88.5</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="57">
+        <v>72</v>
+      </c>
       <c r="D17" s="54"/>
       <c r="E17" s="57"/>
       <c r="F17" s="52"/>
@@ -3777,7 +3809,7 @@
       <c r="K17" s="52"/>
       <c r="L17" s="34">
         <f t="shared" si="0"/>
-        <v>1.3275000000000001</v>
+        <v>1.2037499999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3787,7 +3819,9 @@
       <c r="B18" s="57">
         <v>69.5</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="57">
+        <v>58</v>
+      </c>
       <c r="D18" s="53"/>
       <c r="E18" s="57"/>
       <c r="F18" s="52"/>
@@ -3798,7 +3832,7 @@
       <c r="K18" s="52"/>
       <c r="L18" s="34">
         <f t="shared" si="0"/>
-        <v>1.0425</v>
+        <v>0.95624999999999993</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3808,7 +3842,9 @@
       <c r="B19" s="57">
         <v>86</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="57">
+        <v>82</v>
+      </c>
       <c r="D19" s="54"/>
       <c r="E19" s="57"/>
       <c r="F19" s="52"/>
@@ -3819,7 +3855,7 @@
       <c r="K19" s="52"/>
       <c r="L19" s="34">
         <f t="shared" si="0"/>
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3829,7 +3865,9 @@
       <c r="B20" s="57">
         <v>91</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="57">
+        <v>82</v>
+      </c>
       <c r="D20" s="54"/>
       <c r="E20" s="57"/>
       <c r="F20" s="52"/>
@@ -3840,7 +3878,7 @@
       <c r="K20" s="52"/>
       <c r="L20" s="34">
         <f t="shared" si="0"/>
-        <v>1.365</v>
+        <v>1.2974999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3850,7 +3888,9 @@
       <c r="B21" s="57">
         <v>68.5</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="57">
+        <v>40</v>
+      </c>
       <c r="D21" s="54"/>
       <c r="E21" s="57"/>
       <c r="F21" s="52"/>
@@ -3861,7 +3901,7 @@
       <c r="K21" s="52"/>
       <c r="L21" s="34">
         <f t="shared" si="0"/>
-        <v>1.0275000000000001</v>
+        <v>0.81374999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3871,7 +3911,9 @@
       <c r="B22" s="57">
         <v>95.5</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="57">
+        <v>89</v>
+      </c>
       <c r="D22" s="54"/>
       <c r="E22" s="57"/>
       <c r="F22" s="52"/>
@@ -3882,7 +3924,7 @@
       <c r="K22" s="52"/>
       <c r="L22" s="34">
         <f t="shared" si="0"/>
-        <v>1.4324999999999999</v>
+        <v>1.38375</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3892,7 +3934,9 @@
       <c r="B23" s="57">
         <v>88</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="57">
+        <v>70</v>
+      </c>
       <c r="D23" s="53"/>
       <c r="E23" s="57"/>
       <c r="F23" s="52"/>
@@ -3903,7 +3947,7 @@
       <c r="K23" s="52"/>
       <c r="L23" s="34">
         <f t="shared" si="0"/>
-        <v>1.32</v>
+        <v>1.1850000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3913,7 +3957,9 @@
       <c r="B24" s="57">
         <v>78</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="57">
+        <v>46</v>
+      </c>
       <c r="D24" s="54"/>
       <c r="E24" s="57"/>
       <c r="F24" s="52"/>
@@ -3924,7 +3970,7 @@
       <c r="K24" s="52"/>
       <c r="L24" s="34">
         <f t="shared" si="0"/>
-        <v>1.17</v>
+        <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3934,7 +3980,9 @@
       <c r="B25" s="57">
         <v>68</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="57">
+        <v>62</v>
+      </c>
       <c r="D25" s="53"/>
       <c r="E25" s="57"/>
       <c r="F25" s="52"/>
@@ -3945,7 +3993,7 @@
       <c r="K25" s="52"/>
       <c r="L25" s="34">
         <f t="shared" si="0"/>
-        <v>1.02</v>
+        <v>0.97500000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3955,7 +4003,9 @@
       <c r="B26" s="57">
         <v>56</v>
       </c>
-      <c r="C26" s="52"/>
+      <c r="C26" s="57">
+        <v>13</v>
+      </c>
       <c r="D26" s="54"/>
       <c r="E26" s="18"/>
       <c r="F26" s="52"/>
@@ -3966,7 +4016,7 @@
       <c r="K26" s="52"/>
       <c r="L26" s="34">
         <f t="shared" si="0"/>
-        <v>0.84000000000000008</v>
+        <v>0.51750000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3976,7 +4026,9 @@
       <c r="B27" s="57">
         <v>61</v>
       </c>
-      <c r="C27" s="52"/>
+      <c r="C27" s="57">
+        <v>52</v>
+      </c>
       <c r="D27" s="54"/>
       <c r="E27" s="57"/>
       <c r="F27" s="52"/>
@@ -3987,7 +4039,7 @@
       <c r="K27" s="52"/>
       <c r="L27" s="34">
         <f t="shared" si="0"/>
-        <v>0.91500000000000004</v>
+        <v>0.84749999999999992</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3997,7 +4049,9 @@
       <c r="B28" s="57">
         <v>41.5</v>
       </c>
-      <c r="C28" s="52"/>
+      <c r="C28" s="57">
+        <v>45</v>
+      </c>
       <c r="D28" s="53"/>
       <c r="E28" s="57"/>
       <c r="F28" s="52"/>
@@ -4008,7 +4062,7 @@
       <c r="K28" s="52"/>
       <c r="L28" s="34">
         <f t="shared" si="0"/>
-        <v>0.62249999999999994</v>
+        <v>0.64874999999999994</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4018,7 +4072,9 @@
       <c r="B29" s="57">
         <v>53</v>
       </c>
-      <c r="C29" s="52"/>
+      <c r="C29" s="57">
+        <v>20</v>
+      </c>
       <c r="D29" s="18"/>
       <c r="E29" s="57"/>
       <c r="F29" s="52"/>
@@ -4029,7 +4085,7 @@
       <c r="K29" s="52"/>
       <c r="L29" s="34">
         <f t="shared" si="0"/>
-        <v>0.79500000000000004</v>
+        <v>0.54749999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4039,7 +4095,9 @@
       <c r="B30" s="57">
         <v>72</v>
       </c>
-      <c r="C30" s="52"/>
+      <c r="C30" s="57">
+        <v>67</v>
+      </c>
       <c r="D30" s="54"/>
       <c r="E30" s="57"/>
       <c r="F30" s="52"/>
@@ -4050,7 +4108,7 @@
       <c r="K30" s="52"/>
       <c r="L30" s="34">
         <f t="shared" si="0"/>
-        <v>1.08</v>
+        <v>1.0425</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4060,7 +4118,9 @@
       <c r="B31" s="57">
         <v>88</v>
       </c>
-      <c r="C31" s="52"/>
+      <c r="C31" s="57">
+        <v>78</v>
+      </c>
       <c r="D31" s="53"/>
       <c r="E31" s="57"/>
       <c r="F31" s="52"/>
@@ -4071,7 +4131,7 @@
       <c r="K31" s="52"/>
       <c r="L31" s="34">
         <f t="shared" si="0"/>
-        <v>1.32</v>
+        <v>1.2450000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4081,7 +4141,9 @@
       <c r="B32" s="57">
         <v>87</v>
       </c>
-      <c r="C32" s="52"/>
+      <c r="C32" s="57">
+        <v>95</v>
+      </c>
       <c r="D32" s="53"/>
       <c r="E32" s="57"/>
       <c r="F32" s="52"/>
@@ -4092,7 +4154,7 @@
       <c r="K32" s="52"/>
       <c r="L32" s="34">
         <f t="shared" si="0"/>
-        <v>1.3049999999999999</v>
+        <v>1.3649999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4102,7 +4164,9 @@
       <c r="B33" s="57">
         <v>62</v>
       </c>
-      <c r="C33" s="52"/>
+      <c r="C33" s="57">
+        <v>58</v>
+      </c>
       <c r="D33" s="18"/>
       <c r="E33" s="57"/>
       <c r="F33" s="52"/>
@@ -4113,7 +4177,7 @@
       <c r="K33" s="52"/>
       <c r="L33" s="34">
         <f t="shared" si="0"/>
-        <v>0.92999999999999994</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4123,7 +4187,9 @@
       <c r="B34" s="57">
         <v>99</v>
       </c>
-      <c r="C34" s="52"/>
+      <c r="C34" s="57">
+        <v>0</v>
+      </c>
       <c r="D34" s="53"/>
       <c r="E34" s="57"/>
       <c r="F34" s="52"/>
@@ -4134,7 +4200,7 @@
       <c r="K34" s="52"/>
       <c r="L34" s="34">
         <f t="shared" si="0"/>
-        <v>1.4849999999999999</v>
+        <v>0.74249999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4144,7 +4210,9 @@
       <c r="B35" s="57">
         <v>99</v>
       </c>
-      <c r="C35" s="52"/>
+      <c r="C35" s="57">
+        <v>99</v>
+      </c>
       <c r="D35" s="18"/>
       <c r="E35" s="57"/>
       <c r="F35" s="52"/>
@@ -4165,7 +4233,9 @@
       <c r="B36" s="57">
         <v>64</v>
       </c>
-      <c r="C36" s="52"/>
+      <c r="C36" s="57">
+        <v>52</v>
+      </c>
       <c r="D36" s="54"/>
       <c r="E36" s="57"/>
       <c r="F36" s="52"/>
@@ -4176,7 +4246,7 @@
       <c r="K36" s="52"/>
       <c r="L36" s="34">
         <f t="shared" si="0"/>
-        <v>0.96</v>
+        <v>0.87000000000000011</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4186,7 +4256,9 @@
       <c r="B37" s="57">
         <v>72.5</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="57">
+        <v>47</v>
+      </c>
       <c r="D37" s="53"/>
       <c r="E37" s="57"/>
       <c r="F37" s="52"/>
@@ -4197,7 +4269,7 @@
       <c r="K37" s="52"/>
       <c r="L37" s="34">
         <f t="shared" si="0"/>
-        <v>1.0874999999999999</v>
+        <v>0.89624999999999988</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4207,7 +4279,9 @@
       <c r="B38" s="57">
         <v>0</v>
       </c>
-      <c r="C38" s="52"/>
+      <c r="C38" s="57">
+        <v>47</v>
+      </c>
       <c r="D38" s="53"/>
       <c r="E38" s="57"/>
       <c r="F38" s="52"/>
@@ -4218,7 +4292,7 @@
       <c r="K38" s="52"/>
       <c r="L38" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35249999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4228,7 +4302,9 @@
       <c r="B39" s="57">
         <v>45</v>
       </c>
-      <c r="C39" s="52"/>
+      <c r="C39" s="57">
+        <v>52</v>
+      </c>
       <c r="D39" s="18"/>
       <c r="E39" s="57"/>
       <c r="F39" s="52"/>
@@ -4239,7 +4315,7 @@
       <c r="K39" s="52"/>
       <c r="L39" s="34">
         <f t="shared" si="0"/>
-        <v>0.67500000000000004</v>
+        <v>0.72750000000000004</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4301,9 +4377,9 @@
         <f>AVERAGE(B$2:B$39)</f>
         <v>72.565789473684205</v>
       </c>
-      <c r="C42" s="30" t="e">
+      <c r="C42" s="30">
         <f t="shared" ref="C42:L42" si="1">AVERAGE(C$2:C$39)</f>
-        <v>#DIV/0!</v>
+        <v>57.684210526315788</v>
       </c>
       <c r="D42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -4339,7 +4415,7 @@
       </c>
       <c r="L42" s="30">
         <f t="shared" si="1"/>
-        <v>1.0884868421052631</v>
+        <v>0.97687499999999994</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4350,9 +4426,9 @@
         <f>STDEV(B$2:B$39)</f>
         <v>25.24800528718076</v>
       </c>
-      <c r="C43" s="30" t="e">
+      <c r="C43" s="30">
         <f t="shared" ref="C43:L43" si="2">STDEV(C$2:C$39)</f>
-        <v>#DIV/0!</v>
+        <v>30.403685110177104</v>
       </c>
       <c r="D43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -4388,7 +4464,7 @@
       </c>
       <c r="L43" s="30">
         <f t="shared" si="2"/>
-        <v>0.37872007930771101</v>
+        <v>0.38084274326991158</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4399,9 +4475,9 @@
         <f>MEDIAN(B$2:B$39)</f>
         <v>74.25</v>
       </c>
-      <c r="C44" s="30" t="e">
+      <c r="C44" s="30">
         <f t="shared" ref="C44:L44" si="3">MEDIAN(C$2:C$39)</f>
-        <v>#NUM!</v>
+        <v>64</v>
       </c>
       <c r="D44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -4437,7 +4513,7 @@
       </c>
       <c r="L44" s="30">
         <f t="shared" si="3"/>
-        <v>1.11375</v>
+        <v>1.003125</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4450,7 +4526,7 @@
       </c>
       <c r="C45" s="33">
         <f t="shared" ref="C45:I45" si="4">IF(SUM(C2:C39)&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="33">
         <f t="shared" si="4"/>
@@ -5224,7 +5300,7 @@
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
-        <v>1.3800000000000001</v>
+        <v>1.2750000000000001</v>
       </c>
       <c r="D2" s="43">
         <f>Exams!B2</f>
@@ -5236,7 +5312,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>2.0333333333333332</v>
+        <v>1.9283333333333335</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5258,7 +5334,7 @@
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
-        <v>1.0725</v>
+        <v>1.03125</v>
       </c>
       <c r="D3" s="43">
         <f>Exams!B3</f>
@@ -5270,7 +5346,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.0725</v>
+        <v>1.03125</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5291,7 +5367,7 @@
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
-        <v>1.4475</v>
+        <v>1.4512499999999999</v>
       </c>
       <c r="D4" s="43">
         <f>Exams!B4</f>
@@ -5303,7 +5379,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.2741666666666669</v>
+        <v>2.2779166666666666</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -5324,7 +5400,7 @@
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
-        <v>1.02</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="D5" s="43">
         <f>Exams!B5</f>
@@ -5336,7 +5412,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>1.62</v>
+        <v>1.365</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -5357,7 +5433,7 @@
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
-        <v>1.1400000000000001</v>
+        <v>1.1099999999999999</v>
       </c>
       <c r="D6" s="43">
         <f>Exams!B6</f>
@@ -5369,7 +5445,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>1.9666666666666668</v>
+        <v>1.9366666666666665</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -5423,7 +5499,7 @@
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
-        <v>1.4624999999999999</v>
+        <v>1.2337500000000001</v>
       </c>
       <c r="D8" s="43">
         <f>Exams!B8</f>
@@ -5435,11 +5511,11 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>2.3424999999999998</v>
+        <v>2.11375</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H8" s="51">
         <f t="shared" si="2"/>
@@ -5456,7 +5532,7 @@
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
-        <v>1.4849999999999999</v>
+        <v>1.4924999999999999</v>
       </c>
       <c r="D9" s="43">
         <f>Exams!B9</f>
@@ -5468,7 +5544,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>2.0183333333333331</v>
+        <v>2.0258333333333334</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -5489,7 +5565,7 @@
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
-        <v>1.335</v>
+        <v>1.23</v>
       </c>
       <c r="D10" s="43">
         <f>Exams!B10</f>
@@ -5501,7 +5577,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>2.0150000000000001</v>
+        <v>1.9100000000000001</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -5522,7 +5598,7 @@
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
-        <v>0.58499999999999996</v>
+        <v>0.36749999999999999</v>
       </c>
       <c r="D11" s="43">
         <f>Exams!B11</f>
@@ -5534,7 +5610,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.0116666666666667</v>
+        <v>0.79416666666666669</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -5555,7 +5631,7 @@
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
-        <v>1.0425</v>
+        <v>0.52124999999999999</v>
       </c>
       <c r="D12" s="43">
         <f>Exams!B12</f>
@@ -5567,11 +5643,11 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>1.9624999999999999</v>
+        <v>1.4412500000000001</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H12" s="51">
         <f t="shared" si="2"/>
@@ -5588,7 +5664,7 @@
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
-        <v>1.4775</v>
+        <v>1.4512499999999999</v>
       </c>
       <c r="D13" s="43">
         <f>Exams!B13</f>
@@ -5600,7 +5676,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>2.4375</v>
+        <v>2.4112499999999999</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -5621,7 +5697,7 @@
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
-        <v>1.4025000000000001</v>
+        <v>1.2787500000000001</v>
       </c>
       <c r="D14" s="43">
         <f>Exams!B14</f>
@@ -5633,11 +5709,11 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>2.3225000000000002</v>
+        <v>2.19875</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H14" s="51">
         <f t="shared" si="2"/>
@@ -5654,7 +5730,7 @@
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
-        <v>0.53249999999999997</v>
+        <v>0.26624999999999999</v>
       </c>
       <c r="D15" s="43">
         <f>Exams!B15</f>
@@ -5666,7 +5742,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.70583333333333331</v>
+        <v>0.43958333333333333</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -5687,7 +5763,7 @@
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
-        <v>1.4849999999999999</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="D16" s="43">
         <f>Exams!B16</f>
@@ -5699,7 +5775,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>2.3249999999999997</v>
+        <v>2.2949999999999999</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -5720,7 +5796,7 @@
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
-        <v>1.3275000000000001</v>
+        <v>1.2037499999999999</v>
       </c>
       <c r="D17" s="43">
         <f>Exams!B17</f>
@@ -5732,7 +5808,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>1.8875000000000002</v>
+        <v>1.7637499999999999</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -5753,7 +5829,7 @@
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
-        <v>1.0425</v>
+        <v>0.95624999999999993</v>
       </c>
       <c r="D18" s="43">
         <f>Exams!B18</f>
@@ -5765,7 +5841,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>1.7091666666666665</v>
+        <v>1.6229166666666666</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -5786,7 +5862,7 @@
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="D19" s="43">
         <f>Exams!B19</f>
@@ -5798,7 +5874,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>2.1166666666666667</v>
+        <v>2.0866666666666669</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -5819,7 +5895,7 @@
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
-        <v>1.365</v>
+        <v>1.2974999999999999</v>
       </c>
       <c r="D20" s="43">
         <f>Exams!B20</f>
@@ -5831,7 +5907,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>2.2450000000000001</v>
+        <v>2.1774999999999998</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -5852,7 +5928,7 @@
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
-        <v>1.0275000000000001</v>
+        <v>0.81374999999999997</v>
       </c>
       <c r="D21" s="43">
         <f>Exams!B21</f>
@@ -5864,11 +5940,11 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.2675000000000001</v>
+        <v>1.05375</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="51">
         <f t="shared" si="5"/>
@@ -5885,7 +5961,7 @@
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
-        <v>1.4324999999999999</v>
+        <v>1.38375</v>
       </c>
       <c r="D22" s="43">
         <f>Exams!B22</f>
@@ -5897,7 +5973,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>2.4325000000000001</v>
+        <v>2.38375</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
@@ -5918,7 +5994,7 @@
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
-        <v>1.32</v>
+        <v>1.1850000000000001</v>
       </c>
       <c r="D23" s="43">
         <f>Exams!B23</f>
@@ -5930,7 +6006,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.2400000000000002</v>
+        <v>2.105</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -5951,7 +6027,7 @@
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
-        <v>1.17</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="D24" s="43">
         <f>Exams!B24</f>
@@ -5963,11 +6039,11 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>1.8366666666666664</v>
+        <v>1.5966666666666667</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H24" s="51">
         <f t="shared" si="5"/>
@@ -5984,7 +6060,7 @@
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
-        <v>1.02</v>
+        <v>0.97500000000000009</v>
       </c>
       <c r="D25" s="43">
         <f>Exams!B25</f>
@@ -5996,7 +6072,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>1.82</v>
+        <v>1.7750000000000001</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -6017,7 +6093,7 @@
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
-        <v>0.84000000000000008</v>
+        <v>0.51750000000000007</v>
       </c>
       <c r="D26" s="43">
         <f>Exams!B26</f>
@@ -6029,7 +6105,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>1.5866666666666669</v>
+        <v>1.2641666666666667</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6050,7 +6126,7 @@
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
-        <v>0.91500000000000004</v>
+        <v>0.84749999999999992</v>
       </c>
       <c r="D27" s="43">
         <f>Exams!B27</f>
@@ -6062,7 +6138,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>1.635</v>
+        <v>1.5674999999999999</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -6083,7 +6159,7 @@
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
-        <v>0.62249999999999994</v>
+        <v>0.64874999999999994</v>
       </c>
       <c r="D28" s="43">
         <f>Exams!B28</f>
@@ -6095,7 +6171,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.1825000000000001</v>
+        <v>1.20875</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -6116,7 +6192,7 @@
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
-        <v>0.79500000000000004</v>
+        <v>0.54749999999999999</v>
       </c>
       <c r="D29" s="43">
         <f>Exams!B29</f>
@@ -6128,11 +6204,11 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.3283333333333334</v>
+        <v>1.0808333333333333</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H29" s="51">
         <f t="shared" si="7"/>
@@ -6149,7 +6225,7 @@
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
-        <v>1.08</v>
+        <v>1.0425</v>
       </c>
       <c r="D30" s="43">
         <f>Exams!B30</f>
@@ -6161,7 +6237,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>1.6133333333333333</v>
+        <v>1.5758333333333332</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -6182,7 +6258,7 @@
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
-        <v>1.32</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="D31" s="43">
         <f>Exams!B31</f>
@@ -6194,7 +6270,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>1.9466666666666668</v>
+        <v>1.8716666666666668</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -6215,7 +6291,7 @@
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
-        <v>1.3049999999999999</v>
+        <v>1.3649999999999998</v>
       </c>
       <c r="D32" s="43">
         <f>Exams!B32</f>
@@ -6227,7 +6303,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>2.0249999999999999</v>
+        <v>2.085</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -6248,7 +6324,7 @@
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
-        <v>0.92999999999999994</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="D33" s="43">
         <f>Exams!B33</f>
@@ -6260,7 +6336,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>1.4233333333333333</v>
+        <v>1.3933333333333333</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -6281,7 +6357,7 @@
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
-        <v>1.4849999999999999</v>
+        <v>0.74249999999999994</v>
       </c>
       <c r="D34" s="43">
         <f>Exams!B34</f>
@@ -6293,11 +6369,11 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>2.2450000000000001</v>
+        <v>1.5024999999999999</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H34" s="51">
         <f t="shared" ref="H34:H39" si="8">IF(G34&gt;4.75,1,0)</f>
@@ -6347,7 +6423,7 @@
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
-        <v>0.96</v>
+        <v>0.87000000000000011</v>
       </c>
       <c r="D36" s="43">
         <f>Exams!B36</f>
@@ -6359,7 +6435,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>1.72</v>
+        <v>1.6300000000000001</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -6380,7 +6456,7 @@
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
-        <v>1.0874999999999999</v>
+        <v>0.89624999999999988</v>
       </c>
       <c r="D37" s="43">
         <f>Exams!B37</f>
@@ -6392,11 +6468,11 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>1.7675000000000001</v>
+        <v>1.5762499999999999</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H37" s="51">
         <f t="shared" si="8"/>
@@ -6413,7 +6489,7 @@
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
-        <v>0</v>
+        <v>0.35249999999999998</v>
       </c>
       <c r="D38" s="43">
         <f>Exams!B38</f>
@@ -6425,11 +6501,11 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.4</v>
+        <v>0.75249999999999995</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H38" s="51">
         <f t="shared" si="8"/>
@@ -6446,7 +6522,7 @@
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
-        <v>0.67500000000000004</v>
+        <v>0.72750000000000004</v>
       </c>
       <c r="D39" s="43">
         <f>Exams!B39</f>
@@ -6458,7 +6534,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.2883333333333333</v>
+        <v>1.3408333333333333</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -6519,7 +6595,7 @@
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
-        <v>1.0884868421052631</v>
+        <v>0.97687499999999994</v>
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
@@ -6531,11 +6607,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>1.7649780701754381</v>
+        <v>1.6533662280701755</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>1.7763157894736843</v>
+        <v>1.6842105263157894</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -6552,7 +6628,7 @@
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
-        <v>0.37872007930771101</v>
+        <v>0.38084274326991158</v>
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
@@ -6564,11 +6640,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>0.52265084632452685</v>
+        <v>0.51944243451038175</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>0.54148654772355709</v>
+        <v>0.5122954783945487</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -6585,7 +6661,7 @@
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
-        <v>1.11375</v>
+        <v>1.003125</v>
       </c>
       <c r="D44" s="30">
         <f t="shared" si="11"/>
@@ -6597,11 +6673,11 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>1.8620833333333333</v>
+        <v>1.6264583333333333</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E4FD6B-96FF-7749-8040-56F497A4BEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEFD3D9-FD3E-3049-A09E-564A2469CE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2360" windowWidth="32920" windowHeight="19260" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="2360" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -986,7 +986,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -1091,7 +1091,9 @@
       <c r="G2" s="18">
         <v>15</v>
       </c>
-      <c r="H2" s="44"/>
+      <c r="H2" s="18">
+        <v>9</v>
+      </c>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
@@ -1108,7 +1110,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.65333333333333332</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1132,7 +1134,9 @@
       <c r="G3" s="18">
         <v>0</v>
       </c>
-      <c r="H3" s="44"/>
+      <c r="H3" s="18">
+        <v>12</v>
+      </c>
       <c r="I3" s="18"/>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
@@ -1149,7 +1153,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1173,7 +1177,9 @@
       <c r="G4" s="18">
         <v>3</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="18">
+        <v>15</v>
+      </c>
       <c r="I4" s="18"/>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
@@ -1190,7 +1196,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.82666666666666666</v>
+        <v>0.85555555555555551</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1214,7 +1220,9 @@
       <c r="G5" s="18">
         <v>3</v>
       </c>
-      <c r="H5" s="44"/>
+      <c r="H5" s="18">
+        <v>12</v>
+      </c>
       <c r="I5" s="18"/>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
@@ -1231,7 +1239,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1255,7 +1263,9 @@
       <c r="G6" s="18">
         <v>3</v>
       </c>
-      <c r="H6" s="44"/>
+      <c r="H6" s="18">
+        <v>15</v>
+      </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
@@ -1272,7 +1282,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.82666666666666666</v>
+        <v>0.85555555555555551</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1296,7 +1306,9 @@
       <c r="G7" s="18">
         <v>0</v>
       </c>
-      <c r="H7" s="44"/>
+      <c r="H7" s="18">
+        <v>15</v>
+      </c>
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
@@ -1313,7 +1325,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1337,7 +1349,9 @@
       <c r="G8" s="18">
         <v>12</v>
       </c>
-      <c r="H8" s="44"/>
+      <c r="H8" s="18">
+        <v>3</v>
+      </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
@@ -1354,7 +1368,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.88</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1378,7 +1392,9 @@
       <c r="G9" s="18">
         <v>0</v>
       </c>
-      <c r="H9" s="44"/>
+      <c r="H9" s="18">
+        <v>15</v>
+      </c>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -1395,7 +1411,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1419,7 +1435,9 @@
       <c r="G10" s="18">
         <v>3</v>
       </c>
-      <c r="H10" s="44"/>
+      <c r="H10" s="18">
+        <v>9</v>
+      </c>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
@@ -1436,7 +1454,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1460,7 +1478,9 @@
       <c r="G11" s="18">
         <v>3</v>
       </c>
-      <c r="H11" s="44"/>
+      <c r="H11" s="18">
+        <v>3</v>
+      </c>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -1477,7 +1497,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.42666666666666669</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1501,7 +1521,9 @@
       <c r="G12" s="18">
         <v>12</v>
       </c>
-      <c r="H12" s="44"/>
+      <c r="H12" s="18">
+        <v>3</v>
+      </c>
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
@@ -1518,7 +1540,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1542,7 +1564,9 @@
       <c r="G13" s="18">
         <v>12</v>
       </c>
-      <c r="H13" s="44"/>
+      <c r="H13" s="18">
+        <v>12</v>
+      </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -1559,7 +1583,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>0.96</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1583,7 +1607,9 @@
       <c r="G14" s="18">
         <v>12</v>
       </c>
-      <c r="H14" s="44"/>
+      <c r="H14" s="18">
+        <v>12</v>
+      </c>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
@@ -1600,7 +1626,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1623,7 +1649,9 @@
       <c r="G15" s="18">
         <v>0</v>
       </c>
-      <c r="H15" s="44"/>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
@@ -1640,7 +1668,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>0.17333333333333334</v>
+        <v>0.14444444444444443</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1664,7 +1692,9 @@
       <c r="G16" s="18">
         <v>3</v>
       </c>
-      <c r="H16" s="44"/>
+      <c r="H16" s="18">
+        <v>12</v>
+      </c>
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
@@ -1681,7 +1711,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>0.84</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="X16"/>
     </row>
@@ -1705,7 +1735,9 @@
       <c r="G17" s="18">
         <v>3</v>
       </c>
-      <c r="H17" s="44"/>
+      <c r="H17" s="18">
+        <v>9</v>
+      </c>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
@@ -1722,7 +1754,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="X17"/>
     </row>
@@ -1746,7 +1778,9 @@
       <c r="G18" s="18">
         <v>3</v>
       </c>
-      <c r="H18" s="44"/>
+      <c r="H18" s="18">
+        <v>9</v>
+      </c>
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
@@ -1763,7 +1797,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.65555555555555556</v>
       </c>
       <c r="X18"/>
     </row>
@@ -1787,7 +1821,9 @@
       <c r="G19" s="18">
         <v>12</v>
       </c>
-      <c r="H19" s="44"/>
+      <c r="H19" s="18">
+        <v>12</v>
+      </c>
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
@@ -1804,7 +1840,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.82666666666666666</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="X19"/>
     </row>
@@ -1828,7 +1864,9 @@
       <c r="G20" s="18">
         <v>12</v>
       </c>
-      <c r="H20" s="44"/>
+      <c r="H20" s="18">
+        <v>12</v>
+      </c>
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
@@ -1845,7 +1883,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="X20"/>
     </row>
@@ -1869,7 +1907,9 @@
       <c r="G21" s="18">
         <v>3</v>
       </c>
-      <c r="H21" s="44"/>
+      <c r="H21" s="18">
+        <v>9</v>
+      </c>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
@@ -1886,7 +1926,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="X21"/>
     </row>
@@ -1910,7 +1950,9 @@
       <c r="G22" s="18">
         <v>15</v>
       </c>
-      <c r="H22" s="44"/>
+      <c r="H22" s="18">
+        <v>9</v>
+      </c>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
@@ -1927,7 +1969,7 @@
       <c r="V22" s="18"/>
       <c r="W22" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="X22"/>
     </row>
@@ -1951,7 +1993,9 @@
       <c r="G23" s="18">
         <v>12</v>
       </c>
-      <c r="H23" s="44"/>
+      <c r="H23" s="18">
+        <v>12</v>
+      </c>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
@@ -1968,7 +2012,7 @@
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="X23"/>
     </row>
@@ -1992,7 +2036,9 @@
       <c r="G24" s="18">
         <v>3</v>
       </c>
-      <c r="H24" s="44"/>
+      <c r="H24" s="18">
+        <v>3</v>
+      </c>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
@@ -2009,7 +2055,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="X24"/>
     </row>
@@ -2033,7 +2079,9 @@
       <c r="G25" s="18">
         <v>12</v>
       </c>
-      <c r="H25" s="44"/>
+      <c r="H25" s="18">
+        <v>9</v>
+      </c>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
@@ -2050,7 +2098,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="X25"/>
     </row>
@@ -2074,7 +2122,9 @@
       <c r="G26" s="18">
         <v>3</v>
       </c>
-      <c r="H26" s="44"/>
+      <c r="H26" s="18">
+        <v>12</v>
+      </c>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
@@ -2091,7 +2141,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.7466666666666667</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2115,7 +2165,9 @@
       <c r="G27" s="18">
         <v>3</v>
       </c>
-      <c r="H27" s="44"/>
+      <c r="H27" s="18">
+        <v>3</v>
+      </c>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
@@ -2132,7 +2184,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2156,7 +2208,9 @@
       <c r="G28" s="18">
         <v>3</v>
       </c>
-      <c r="H28" s="44"/>
+      <c r="H28" s="18">
+        <v>3</v>
+      </c>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
@@ -2173,7 +2227,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2197,7 +2251,9 @@
       <c r="G29" s="18">
         <v>3</v>
       </c>
-      <c r="H29" s="44"/>
+      <c r="H29" s="18">
+        <v>9</v>
+      </c>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
@@ -2214,7 +2270,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2238,7 +2294,9 @@
       <c r="G30" s="18">
         <v>3</v>
       </c>
-      <c r="H30" s="44"/>
+      <c r="H30" s="18">
+        <v>9</v>
+      </c>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
@@ -2255,7 +2313,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2279,7 +2337,9 @@
       <c r="G31" s="18">
         <v>3</v>
       </c>
-      <c r="H31" s="44"/>
+      <c r="H31" s="18">
+        <v>9</v>
+      </c>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
@@ -2296,7 +2356,7 @@
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.62666666666666671</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="X31"/>
     </row>
@@ -2320,7 +2380,9 @@
       <c r="G32" s="18">
         <v>3</v>
       </c>
-      <c r="H32" s="44"/>
+      <c r="H32" s="18">
+        <v>3</v>
+      </c>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
@@ -2337,7 +2399,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.72</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="X32"/>
     </row>
@@ -2361,7 +2423,9 @@
       <c r="G33" s="18">
         <v>3</v>
       </c>
-      <c r="H33" s="44"/>
+      <c r="H33" s="18">
+        <v>9</v>
+      </c>
       <c r="I33" s="18"/>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
@@ -2378,7 +2442,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.49333333333333335</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="X33"/>
     </row>
@@ -2402,7 +2466,9 @@
       <c r="G34" s="18">
         <v>12</v>
       </c>
-      <c r="H34" s="44"/>
+      <c r="H34" s="18">
+        <v>12</v>
+      </c>
       <c r="I34" s="18"/>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
@@ -2419,7 +2485,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.76</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="X34"/>
     </row>
@@ -2443,7 +2509,9 @@
       <c r="G35" s="18">
         <v>15</v>
       </c>
-      <c r="H35" s="44"/>
+      <c r="H35" s="18">
+        <v>12</v>
+      </c>
       <c r="I35" s="18"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
@@ -2460,7 +2528,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="X35"/>
     </row>
@@ -2484,7 +2552,9 @@
       <c r="G36" s="18">
         <v>0</v>
       </c>
-      <c r="H36" s="44"/>
+      <c r="H36" s="18">
+        <v>0</v>
+      </c>
       <c r="I36" s="18"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
@@ -2501,7 +2571,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.76</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="X36"/>
     </row>
@@ -2525,7 +2595,9 @@
       <c r="G37" s="18">
         <v>3</v>
       </c>
-      <c r="H37" s="44"/>
+      <c r="H37" s="18">
+        <v>15</v>
+      </c>
       <c r="I37" s="18"/>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
@@ -2542,7 +2614,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="X37"/>
     </row>
@@ -2566,7 +2638,9 @@
       <c r="G38" s="18">
         <v>3</v>
       </c>
-      <c r="H38" s="44"/>
+      <c r="H38" s="18">
+        <v>0</v>
+      </c>
       <c r="I38" s="18"/>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
@@ -2583,7 +2657,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="X38"/>
     </row>
@@ -2607,7 +2681,9 @@
       <c r="G39" s="18">
         <v>0</v>
       </c>
-      <c r="H39" s="44"/>
+      <c r="H39" s="18">
+        <v>3</v>
+      </c>
       <c r="I39" s="18"/>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
@@ -2624,7 +2700,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.61333333333333329</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="X39"/>
     </row>
@@ -2754,9 +2830,9 @@
         <f t="shared" si="1"/>
         <v>5.6052631578947372</v>
       </c>
-      <c r="H42" s="30" t="e">
+      <c r="H42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.6842105263157894</v>
       </c>
       <c r="I42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -2816,7 +2892,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.67649122807017537</v>
+        <v>0.66023391812865495</v>
       </c>
       <c r="X42"/>
     </row>
@@ -2848,9 +2924,9 @@
         <f t="shared" si="2"/>
         <v>5.0859609296105388</v>
       </c>
-      <c r="H43" s="30" t="e">
+      <c r="H43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.6679196312929951</v>
       </c>
       <c r="I43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -2910,7 +2986,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.2245194365716498</v>
+        <v>0.20688244054016025</v>
       </c>
       <c r="X43"/>
     </row>
@@ -2942,9 +3018,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H44" s="30" t="e">
+      <c r="H44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>9</v>
       </c>
       <c r="I44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -3004,7 +3080,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="X44"/>
     </row>
@@ -3038,7 +3114,7 @@
       </c>
       <c r="H45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="33">
         <f t="shared" si="4"/>
@@ -3395,7 +3471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -5296,7 +5372,7 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.65333333333333332</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
@@ -5312,7 +5388,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>1.9283333333333335</v>
+        <v>1.9194444444444447</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5330,7 +5406,7 @@
       </c>
       <c r="B3" s="34">
         <f>Quiz!W3</f>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
@@ -5346,7 +5422,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.03125</v>
+        <v>1.1645833333333333</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5363,7 +5439,7 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.82666666666666666</v>
+        <v>0.85555555555555551</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
@@ -5379,7 +5455,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.2779166666666666</v>
+        <v>2.3068055555555556</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -5396,7 +5472,7 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.6</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
@@ -5412,7 +5488,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>1.365</v>
+        <v>1.3983333333333334</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -5429,7 +5505,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.82666666666666666</v>
+        <v>0.85555555555555551</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
@@ -5445,7 +5521,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>1.9366666666666665</v>
+        <v>1.9655555555555555</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -5462,7 +5538,7 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
@@ -5478,7 +5554,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -5495,7 +5571,7 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.88</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
@@ -5511,7 +5587,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>2.11375</v>
+        <v>2.0004166666666667</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -5528,7 +5604,7 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.53333333333333333</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
@@ -5544,7 +5620,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>2.0258333333333334</v>
+        <v>2.1036111111111113</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -5561,7 +5637,7 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.68</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
@@ -5577,7 +5653,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>1.9100000000000001</v>
+        <v>1.8966666666666665</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -5594,7 +5670,7 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.42666666666666669</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
@@ -5610,7 +5686,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>0.79416666666666669</v>
+        <v>0.75638888888888889</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -5627,7 +5703,7 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
@@ -5643,7 +5719,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>1.4412500000000001</v>
+        <v>1.32125</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -5660,7 +5736,7 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>0.96</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
@@ -5676,7 +5752,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>2.4112499999999999</v>
+        <v>2.3845833333333335</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -5693,7 +5769,7 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
@@ -5709,7 +5785,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>2.19875</v>
+        <v>2.17875</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -5726,7 +5802,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>0.17333333333333334</v>
+        <v>0.14444444444444443</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
@@ -5742,7 +5818,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.43958333333333333</v>
+        <v>0.41069444444444442</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -5759,7 +5835,7 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>0.84</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
@@ -5775,7 +5851,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>2.2949999999999999</v>
+        <v>2.2883333333333336</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -5792,7 +5868,7 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.56000000000000005</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
@@ -5808,7 +5884,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>1.7637499999999999</v>
+        <v>1.7704166666666665</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -5825,7 +5901,7 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.66666666666666663</v>
+        <v>0.65555555555555556</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
@@ -5841,7 +5917,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>1.6229166666666666</v>
+        <v>1.6118055555555555</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -5858,7 +5934,7 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.82666666666666666</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
@@ -5874,7 +5950,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>2.0866666666666669</v>
+        <v>2.0822222222222222</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -5891,7 +5967,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
@@ -5907,7 +5983,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>2.1774999999999998</v>
+        <v>2.1641666666666666</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -5924,7 +6000,7 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
@@ -5940,7 +6016,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.05375</v>
+        <v>1.11375</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -5957,7 +6033,7 @@
       </c>
       <c r="B22" s="34">
         <f>Quiz!W22</f>
-        <v>1</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
@@ -5973,7 +6049,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>2.38375</v>
+        <v>2.3170833333333336</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
@@ -5990,7 +6066,7 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
@@ -6006,7 +6082,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.105</v>
+        <v>2.085</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -6023,7 +6099,7 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.66666666666666663</v>
+        <v>0.58888888888888891</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
@@ -6039,7 +6115,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>1.5966666666666667</v>
+        <v>1.5188888888888887</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -6056,7 +6132,7 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.8</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
@@ -6072,11 +6148,11 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>1.7750000000000001</v>
+        <v>1.7416666666666667</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H25" s="51">
         <f t="shared" si="5"/>
@@ -6089,7 +6165,7 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.7466666666666667</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
@@ -6105,7 +6181,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>1.2641666666666667</v>
+        <v>1.2730555555555556</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6122,7 +6198,7 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.72</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
@@ -6138,7 +6214,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>1.5674999999999999</v>
+        <v>1.4808333333333332</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -6155,7 +6231,7 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.56000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
@@ -6171,7 +6247,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.20875</v>
+        <v>1.1487499999999999</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -6188,7 +6264,7 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.53333333333333333</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
@@ -6204,7 +6280,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.0808333333333333</v>
+        <v>1.0919444444444444</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -6221,7 +6297,7 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.53333333333333333</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
@@ -6237,7 +6313,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>1.5758333333333332</v>
+        <v>1.5869444444444443</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -6254,7 +6330,7 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.62666666666666671</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
@@ -6270,7 +6346,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>1.8716666666666668</v>
+        <v>1.8672222222222223</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -6287,7 +6363,7 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.72</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
@@ -6303,7 +6379,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>2.085</v>
+        <v>1.9983333333333331</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -6320,7 +6396,7 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.49333333333333335</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
@@ -6336,7 +6412,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>1.3933333333333333</v>
+        <v>1.411111111111111</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -6353,7 +6429,7 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.76</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
@@ -6369,7 +6445,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>1.5024999999999999</v>
+        <v>1.5091666666666668</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -6386,7 +6462,7 @@
       </c>
       <c r="B35" s="34">
         <f>Quiz!W35</f>
-        <v>1</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
@@ -6402,7 +6478,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>2.4849999999999999</v>
+        <v>2.4516666666666667</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -6419,7 +6495,7 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.76</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
@@ -6435,7 +6511,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>1.6300000000000001</v>
+        <v>1.5033333333333334</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -6452,7 +6528,7 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.68</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
@@ -6468,7 +6544,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>1.5762499999999999</v>
+        <v>1.6295833333333332</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -6485,7 +6561,7 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.4</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
@@ -6501,11 +6577,11 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.75249999999999995</v>
+        <v>0.68583333333333329</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H38" s="51">
         <f t="shared" si="8"/>
@@ -6518,7 +6594,7 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.61333333333333329</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
@@ -6534,7 +6610,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.3408333333333333</v>
+        <v>1.2719444444444443</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -6591,7 +6667,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.67649122807017537</v>
+        <v>0.66023391812865495</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
@@ -6607,11 +6683,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>1.6533662280701755</v>
+        <v>1.6371089181286553</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>1.6842105263157894</v>
+        <v>1.6578947368421053</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -6624,7 +6700,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.2245194365716498</v>
+        <v>0.20688244054016025</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
@@ -6640,11 +6716,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>0.51944243451038175</v>
+        <v>0.51495789089525945</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>0.5122954783945487</v>
+        <v>0.53404705681285192</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -6657,7 +6733,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
@@ -6673,7 +6749,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>1.6264583333333333</v>
+        <v>1.6206944444444442</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEFD3D9-FD3E-3049-A09E-564A2469CE9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBACDFBC-1505-3A4F-8555-6AA1A0B6DC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="2360" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1094,7 +1094,9 @@
       <c r="H2" s="18">
         <v>9</v>
       </c>
-      <c r="I2" s="18"/>
+      <c r="I2" s="18">
+        <v>3</v>
+      </c>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
@@ -1110,7 +1112,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.64444444444444449</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1137,7 +1139,9 @@
       <c r="H3" s="18">
         <v>12</v>
       </c>
-      <c r="I3" s="18"/>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
       <c r="J3" s="18"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
@@ -1153,7 +1157,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="34">
         <f t="shared" si="0"/>
-        <v>0.13333333333333333</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1180,7 +1184,9 @@
       <c r="H4" s="18">
         <v>15</v>
       </c>
-      <c r="I4" s="18"/>
+      <c r="I4" s="18">
+        <v>3</v>
+      </c>
       <c r="J4" s="18"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
@@ -1196,7 +1202,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.85555555555555551</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1223,7 +1229,9 @@
       <c r="H5" s="18">
         <v>12</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="18">
+        <v>3</v>
+      </c>
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
@@ -1239,7 +1247,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.6333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1266,7 +1274,9 @@
       <c r="H6" s="18">
         <v>15</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="18">
+        <v>3</v>
+      </c>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
@@ -1282,7 +1292,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.85555555555555551</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1309,7 +1319,9 @@
       <c r="H7" s="18">
         <v>15</v>
       </c>
-      <c r="I7" s="18"/>
+      <c r="I7" s="18">
+        <v>12</v>
+      </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
@@ -1352,7 +1364,9 @@
       <c r="H8" s="18">
         <v>3</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="18">
+        <v>15</v>
+      </c>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -1368,7 +1382,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.76666666666666672</v>
+        <v>0.8</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1395,7 +1409,9 @@
       <c r="H9" s="18">
         <v>15</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18">
+        <v>3</v>
+      </c>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -1411,7 +1427,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.61111111111111116</v>
+        <v>0.55238095238095242</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1438,7 +1454,9 @@
       <c r="H10" s="18">
         <v>9</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="18">
+        <v>3</v>
+      </c>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
@@ -1454,7 +1472,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1481,7 +1499,9 @@
       <c r="H11" s="18">
         <v>3</v>
       </c>
-      <c r="I11" s="18"/>
+      <c r="I11" s="18">
+        <v>3</v>
+      </c>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
@@ -1497,7 +1517,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.3888888888888889</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1524,7 +1544,9 @@
       <c r="H12" s="18">
         <v>3</v>
       </c>
-      <c r="I12" s="18"/>
+      <c r="I12" s="18">
+        <v>3</v>
+      </c>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -1540,7 +1562,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1567,7 +1589,9 @@
       <c r="H13" s="18">
         <v>12</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18">
+        <v>15</v>
+      </c>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -1583,7 +1607,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1610,7 +1634,9 @@
       <c r="H14" s="18">
         <v>12</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="18">
+        <v>3</v>
+      </c>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
@@ -1626,7 +1652,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1652,7 +1678,9 @@
       <c r="H15" s="18">
         <v>0</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="18">
+        <v>0</v>
+      </c>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
@@ -1668,7 +1696,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>0.14444444444444443</v>
+        <v>0.12380952380952381</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1695,7 +1723,9 @@
       <c r="H16" s="18">
         <v>12</v>
       </c>
-      <c r="I16" s="18"/>
+      <c r="I16" s="18">
+        <v>3</v>
+      </c>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
@@ -1711,7 +1741,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="X16"/>
     </row>
@@ -1738,7 +1768,9 @@
       <c r="H17" s="18">
         <v>9</v>
       </c>
-      <c r="I17" s="18"/>
+      <c r="I17" s="18">
+        <v>9</v>
+      </c>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
@@ -1754,7 +1786,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="X17"/>
     </row>
@@ -1781,7 +1813,9 @@
       <c r="H18" s="18">
         <v>9</v>
       </c>
-      <c r="I18" s="18"/>
+      <c r="I18" s="18">
+        <v>12</v>
+      </c>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
@@ -1797,7 +1831,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.65555555555555556</v>
+        <v>0.67619047619047623</v>
       </c>
       <c r="X18"/>
     </row>
@@ -1824,7 +1858,9 @@
       <c r="H19" s="18">
         <v>12</v>
       </c>
-      <c r="I19" s="18"/>
+      <c r="I19" s="18">
+        <v>3</v>
+      </c>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
@@ -1840,7 +1876,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.82222222222222219</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="X19"/>
     </row>
@@ -1867,7 +1903,9 @@
       <c r="H20" s="18">
         <v>12</v>
       </c>
-      <c r="I20" s="18"/>
+      <c r="I20" s="18">
+        <v>3</v>
+      </c>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
@@ -1883,7 +1921,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="X20"/>
     </row>
@@ -1910,7 +1948,9 @@
       <c r="H21" s="18">
         <v>9</v>
       </c>
-      <c r="I21" s="18"/>
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
@@ -1926,7 +1966,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="X21"/>
     </row>
@@ -1953,7 +1993,9 @@
       <c r="H22" s="18">
         <v>9</v>
       </c>
-      <c r="I22" s="18"/>
+      <c r="I22" s="18">
+        <v>9</v>
+      </c>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
@@ -1969,7 +2011,7 @@
       <c r="V22" s="18"/>
       <c r="W22" s="34">
         <f t="shared" si="0"/>
-        <v>0.93333333333333335</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="X22"/>
     </row>
@@ -1996,7 +2038,9 @@
       <c r="H23" s="18">
         <v>12</v>
       </c>
-      <c r="I23" s="18"/>
+      <c r="I23" s="18">
+        <v>3</v>
+      </c>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
@@ -2012,7 +2056,7 @@
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="X23"/>
     </row>
@@ -2039,7 +2083,9 @@
       <c r="H24" s="18">
         <v>3</v>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="18">
+        <v>3</v>
+      </c>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
@@ -2055,7 +2101,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.58888888888888891</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="X24"/>
     </row>
@@ -2082,7 +2128,9 @@
       <c r="H25" s="18">
         <v>9</v>
       </c>
-      <c r="I25" s="18"/>
+      <c r="I25" s="18">
+        <v>9</v>
+      </c>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
@@ -2098,7 +2146,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.76666666666666672</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="X25"/>
     </row>
@@ -2125,7 +2173,9 @@
       <c r="H26" s="18">
         <v>12</v>
       </c>
-      <c r="I26" s="18"/>
+      <c r="I26" s="18">
+        <v>3</v>
+      </c>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
@@ -2141,7 +2191,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.75555555555555554</v>
+        <v>0.67619047619047623</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2168,7 +2218,9 @@
       <c r="H27" s="18">
         <v>3</v>
       </c>
-      <c r="I27" s="18"/>
+      <c r="I27" s="18">
+        <v>9</v>
+      </c>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
@@ -2184,7 +2236,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.6333333333333333</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2211,7 +2263,9 @@
       <c r="H28" s="18">
         <v>3</v>
       </c>
-      <c r="I28" s="18"/>
+      <c r="I28" s="18">
+        <v>9</v>
+      </c>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
@@ -2227,7 +2281,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2254,7 +2308,9 @@
       <c r="H29" s="18">
         <v>9</v>
       </c>
-      <c r="I29" s="18"/>
+      <c r="I29" s="18">
+        <v>9</v>
+      </c>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
@@ -2270,7 +2326,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.5444444444444444</v>
+        <v>0.55238095238095242</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2297,7 +2353,9 @@
       <c r="H30" s="18">
         <v>9</v>
       </c>
-      <c r="I30" s="18"/>
+      <c r="I30" s="18">
+        <v>3</v>
+      </c>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
@@ -2313,7 +2371,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.5444444444444444</v>
+        <v>0.49523809523809526</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2340,7 +2398,9 @@
       <c r="H31" s="18">
         <v>9</v>
       </c>
-      <c r="I31" s="18"/>
+      <c r="I31" s="18">
+        <v>12</v>
+      </c>
       <c r="J31" s="18"/>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
@@ -2356,7 +2416,7 @@
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.62222222222222223</v>
+        <v>0.64761904761904765</v>
       </c>
       <c r="X31"/>
     </row>
@@ -2383,7 +2443,9 @@
       <c r="H32" s="18">
         <v>3</v>
       </c>
-      <c r="I32" s="18"/>
+      <c r="I32" s="18">
+        <v>3</v>
+      </c>
       <c r="J32" s="18"/>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
@@ -2399,7 +2461,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.6333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="X32"/>
     </row>
@@ -2426,7 +2488,9 @@
       <c r="H33" s="18">
         <v>9</v>
       </c>
-      <c r="I33" s="18"/>
+      <c r="I33" s="18">
+        <v>3</v>
+      </c>
       <c r="J33" s="18"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
@@ -2442,7 +2506,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.51111111111111107</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="X33"/>
     </row>
@@ -2469,7 +2533,9 @@
       <c r="H34" s="18">
         <v>12</v>
       </c>
-      <c r="I34" s="18"/>
+      <c r="I34" s="18">
+        <v>12</v>
+      </c>
       <c r="J34" s="18"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
@@ -2485,7 +2551,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.76666666666666672</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="X34"/>
     </row>
@@ -2512,7 +2578,9 @@
       <c r="H35" s="18">
         <v>12</v>
       </c>
-      <c r="I35" s="18"/>
+      <c r="I35" s="18">
+        <v>3</v>
+      </c>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
@@ -2528,7 +2596,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="34">
         <f t="shared" si="0"/>
-        <v>0.96666666666666667</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="X35"/>
     </row>
@@ -2555,7 +2623,9 @@
       <c r="H36" s="18">
         <v>0</v>
       </c>
-      <c r="I36" s="18"/>
+      <c r="I36" s="18">
+        <v>3</v>
+      </c>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
@@ -2571,7 +2641,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.6333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="X36"/>
     </row>
@@ -2598,7 +2668,9 @@
       <c r="H37" s="18">
         <v>15</v>
       </c>
-      <c r="I37" s="18"/>
+      <c r="I37" s="18">
+        <v>12</v>
+      </c>
       <c r="J37" s="18"/>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
@@ -2614,7 +2686,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="X37"/>
     </row>
@@ -2641,7 +2713,9 @@
       <c r="H38" s="18">
         <v>0</v>
       </c>
-      <c r="I38" s="18"/>
+      <c r="I38" s="18">
+        <v>12</v>
+      </c>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
@@ -2657,7 +2731,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="X38"/>
     </row>
@@ -2684,7 +2758,9 @@
       <c r="H39" s="18">
         <v>3</v>
       </c>
-      <c r="I39" s="18"/>
+      <c r="I39" s="18">
+        <v>3</v>
+      </c>
       <c r="J39" s="18"/>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
@@ -2700,7 +2776,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.5444444444444444</v>
+        <v>0.49523809523809526</v>
       </c>
       <c r="X39"/>
     </row>
@@ -2834,9 +2910,9 @@
         <f t="shared" si="1"/>
         <v>8.6842105263157894</v>
       </c>
-      <c r="I42" s="30" t="e">
+      <c r="I42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.7631578947368425</v>
       </c>
       <c r="J42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -2892,7 +2968,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.66023391812865495</v>
+        <v>0.62080200501253147</v>
       </c>
       <c r="X42"/>
     </row>
@@ -2928,9 +3004,9 @@
         <f t="shared" si="2"/>
         <v>4.6679196312929951</v>
       </c>
-      <c r="I43" s="30" t="e">
+      <c r="I43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.432278472849144</v>
       </c>
       <c r="J43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -2986,7 +3062,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.20688244054016025</v>
+        <v>0.19196145839948056</v>
       </c>
       <c r="X43"/>
     </row>
@@ -3022,9 +3098,9 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="I44" s="30" t="e">
+      <c r="I44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="J44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -3080,7 +3156,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.65</v>
+        <v>0.63809523809523805</v>
       </c>
       <c r="X44"/>
     </row>
@@ -3118,7 +3194,7 @@
       </c>
       <c r="I45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="33">
         <f t="shared" si="4"/>
@@ -5372,7 +5448,7 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.64444444444444449</v>
+        <v>0.580952380952381</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
@@ -5388,7 +5464,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>1.9194444444444447</v>
+        <v>1.855952380952381</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5406,7 +5482,7 @@
       </c>
       <c r="B3" s="34">
         <f>Quiz!W3</f>
-        <v>0.13333333333333333</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
@@ -5422,7 +5498,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.1645833333333333</v>
+        <v>1.1455357142857143</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5439,7 +5515,7 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.85555555555555551</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
@@ -5455,11 +5531,11 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.3068055555555556</v>
+        <v>2.2131547619047618</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="51">
         <f t="shared" si="2"/>
@@ -5472,7 +5548,7 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.6333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
@@ -5488,7 +5564,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>1.3983333333333334</v>
+        <v>1.3364285714285713</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -5505,7 +5581,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.85555555555555551</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
@@ -5521,7 +5597,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>1.9655555555555555</v>
+        <v>1.8719047619047617</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -5571,7 +5647,7 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.76666666666666672</v>
+        <v>0.8</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
@@ -5587,7 +5663,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>2.0004166666666667</v>
+        <v>2.0337500000000004</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -5604,7 +5680,7 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.61111111111111116</v>
+        <v>0.55238095238095242</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
@@ -5620,7 +5696,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>2.1036111111111113</v>
+        <v>2.0448809523809524</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -5637,7 +5713,7 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.66666666666666663</v>
+        <v>0.6</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
@@ -5653,7 +5729,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>1.8966666666666665</v>
+        <v>1.83</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -5670,7 +5746,7 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.3888888888888889</v>
+        <v>0.3619047619047619</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
@@ -5686,11 +5762,11 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>0.75638888888888889</v>
+        <v>0.72940476190476189</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H11" s="51">
         <f t="shared" si="2"/>
@@ -5703,7 +5779,7 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.8</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
@@ -5719,11 +5795,11 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>1.32125</v>
+        <v>1.2355357142857142</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H12" s="51">
         <f t="shared" si="2"/>
@@ -5736,7 +5812,7 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>0.93333333333333335</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
@@ -5752,7 +5828,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>2.3845833333333335</v>
+        <v>2.394107142857143</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -5769,7 +5845,7 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
@@ -5785,7 +5861,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>2.17875</v>
+        <v>2.0787500000000003</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -5802,7 +5878,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>0.14444444444444443</v>
+        <v>0.12380952380952381</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
@@ -5818,7 +5894,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.41069444444444442</v>
+        <v>0.3900595238095238</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -5835,7 +5911,7 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>0.83333333333333337</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
@@ -5851,11 +5927,11 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>2.2883333333333336</v>
+        <v>2.197857142857143</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H16" s="51">
         <f t="shared" si="2"/>
@@ -5868,7 +5944,7 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.56666666666666665</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
@@ -5884,7 +5960,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>1.7704166666666665</v>
+        <v>1.7751785714285713</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -5901,7 +5977,7 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.65555555555555556</v>
+        <v>0.67619047619047623</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
@@ -5917,7 +5993,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>1.6118055555555555</v>
+        <v>1.6324404761904763</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -5934,7 +6010,7 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.82222222222222219</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
@@ -5950,7 +6026,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>2.0822222222222222</v>
+        <v>1.9933333333333332</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -5967,7 +6043,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.8666666666666667</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
@@ -5983,7 +6059,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>2.1641666666666666</v>
+        <v>2.0689285714285712</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6000,7 +6076,7 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.3</v>
+        <v>0.25714285714285712</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
@@ -6016,7 +6092,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.11375</v>
+        <v>1.0708928571428571</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -6033,7 +6109,7 @@
       </c>
       <c r="B22" s="34">
         <f>Quiz!W22</f>
-        <v>0.93333333333333335</v>
+        <v>0.88571428571428568</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
@@ -6049,7 +6125,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>2.3170833333333336</v>
+        <v>2.2694642857142857</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
@@ -6066,7 +6142,7 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
@@ -6082,7 +6158,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.085</v>
+        <v>1.9850000000000001</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -6099,7 +6175,7 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.58888888888888891</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
@@ -6115,7 +6191,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>1.5188888888888887</v>
+        <v>1.4633333333333334</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -6132,7 +6208,7 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.76666666666666672</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
@@ -6148,7 +6224,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>1.7416666666666667</v>
+        <v>1.717857142857143</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -6165,7 +6241,7 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.75555555555555554</v>
+        <v>0.67619047619047623</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
@@ -6181,11 +6257,11 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>1.2730555555555556</v>
+        <v>1.1936904761904763</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H26" s="51">
         <f t="shared" ref="H26:H32" si="7">IF(G26&gt;4.75,1,0)</f>
@@ -6198,7 +6274,7 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.6333333333333333</v>
+        <v>0.62857142857142856</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
@@ -6214,7 +6290,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>1.4808333333333332</v>
+        <v>1.4760714285714285</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -6231,7 +6307,7 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.5</v>
+        <v>0.51428571428571423</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
@@ -6247,7 +6323,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.1487499999999999</v>
+        <v>1.1630357142857142</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -6264,7 +6340,7 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.5444444444444444</v>
+        <v>0.55238095238095242</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
@@ -6280,7 +6356,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.0919444444444444</v>
+        <v>1.0998809523809525</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -6297,7 +6373,7 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.5444444444444444</v>
+        <v>0.49523809523809526</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
@@ -6313,7 +6389,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>1.5869444444444443</v>
+        <v>1.5377380952380952</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -6330,7 +6406,7 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.62222222222222223</v>
+        <v>0.64761904761904765</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
@@ -6346,7 +6422,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>1.8672222222222223</v>
+        <v>1.8926190476190476</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -6363,7 +6439,7 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.6333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
@@ -6379,7 +6455,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>1.9983333333333331</v>
+        <v>1.9364285714285712</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -6396,7 +6472,7 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.51111111111111107</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
@@ -6412,7 +6488,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>1.411111111111111</v>
+        <v>1.3666666666666667</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -6429,7 +6505,7 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.76666666666666672</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
@@ -6445,7 +6521,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>1.5091666666666668</v>
+        <v>1.5139285714285715</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -6462,7 +6538,7 @@
       </c>
       <c r="B35" s="34">
         <f>Quiz!W35</f>
-        <v>0.96666666666666667</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
@@ -6478,7 +6554,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>2.4516666666666667</v>
+        <v>2.3421428571428571</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -6495,7 +6571,7 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.6333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
@@ -6511,7 +6587,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>1.5033333333333334</v>
+        <v>1.4414285714285715</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -6528,7 +6604,7 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.73333333333333328</v>
+        <v>0.74285714285714288</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
@@ -6544,7 +6620,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>1.6295833333333332</v>
+        <v>1.6391071428571427</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -6561,7 +6637,7 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.33333333333333331</v>
+        <v>0.4</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
@@ -6577,11 +6653,11 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.68583333333333329</v>
+        <v>0.75249999999999995</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H38" s="51">
         <f t="shared" si="8"/>
@@ -6594,7 +6670,7 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.5444444444444444</v>
+        <v>0.49523809523809526</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
@@ -6610,11 +6686,11 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.2719444444444443</v>
+        <v>1.2227380952380953</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H39" s="51">
         <f t="shared" si="8"/>
@@ -6667,7 +6743,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.66023391812865495</v>
+        <v>0.62080200501253147</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
@@ -6683,11 +6759,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>1.6371089181286553</v>
+        <v>1.5976770050125313</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>1.6578947368421053</v>
+        <v>1.5921052631578947</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -6700,7 +6776,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.20688244054016025</v>
+        <v>0.19196145839948056</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
@@ -6716,11 +6792,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>0.51495789089525945</v>
+        <v>0.49542448053888705</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>0.53404705681285192</v>
+        <v>0.53087463728463335</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -6733,7 +6809,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.65</v>
+        <v>0.63809523809523805</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
@@ -6749,7 +6825,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>1.6206944444444442</v>
+        <v>1.6357738095238095</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBACDFBC-1505-3A4F-8555-6AA1A0B6DC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF0EFCB-3A88-D247-AD5E-7A16A37BC982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="2360" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="7320" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -191,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -288,14 +288,8 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,12 +311,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -403,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -519,10 +507,10 @@
     <xf numFmtId="1" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -551,15 +539,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1075,14 +1054,14 @@
       <c r="A2" s="25">
         <v>49156</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="54">
         <v>12</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="54">
         <v>3</v>
       </c>
       <c r="D2" s="47"/>
-      <c r="E2" s="57">
+      <c r="E2" s="54">
         <v>12</v>
       </c>
       <c r="F2" s="18">
@@ -1097,7 +1076,9 @@
       <c r="I2" s="18">
         <v>3</v>
       </c>
-      <c r="J2" s="18"/>
+      <c r="J2" s="18">
+        <v>0</v>
+      </c>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -1112,7 +1093,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.580952380952381</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1120,14 +1101,14 @@
       <c r="A3" s="25">
         <v>54695</v>
       </c>
-      <c r="B3" s="57">
-        <v>0</v>
-      </c>
-      <c r="C3" s="57">
+      <c r="B3" s="54">
+        <v>0</v>
+      </c>
+      <c r="C3" s="54">
         <v>0</v>
       </c>
       <c r="D3" s="47"/>
-      <c r="E3" s="57">
+      <c r="E3" s="54">
         <v>0</v>
       </c>
       <c r="F3" s="18">
@@ -1142,7 +1123,9 @@
       <c r="I3" s="18">
         <v>0</v>
       </c>
-      <c r="J3" s="18"/>
+      <c r="J3" s="18">
+        <v>0</v>
+      </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
@@ -1157,7 +1140,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="34">
         <f t="shared" si="0"/>
-        <v>0.11428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1165,14 +1148,14 @@
       <c r="A4" s="25">
         <v>54699</v>
       </c>
-      <c r="B4" s="57">
-        <v>15</v>
-      </c>
-      <c r="C4" s="57">
+      <c r="B4" s="54">
+        <v>15</v>
+      </c>
+      <c r="C4" s="54">
         <v>15</v>
       </c>
       <c r="D4" s="47"/>
-      <c r="E4" s="57">
+      <c r="E4" s="54">
         <v>14</v>
       </c>
       <c r="F4" s="18">
@@ -1187,7 +1170,9 @@
       <c r="I4" s="18">
         <v>3</v>
       </c>
-      <c r="J4" s="18"/>
+      <c r="J4" s="18">
+        <v>3</v>
+      </c>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
@@ -1202,7 +1187,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.76190476190476186</v>
+        <v>0.69166666666666665</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1210,14 +1195,14 @@
       <c r="A5" s="25">
         <v>56054</v>
       </c>
-      <c r="B5" s="57">
-        <v>15</v>
-      </c>
-      <c r="C5" s="57">
+      <c r="B5" s="54">
+        <v>15</v>
+      </c>
+      <c r="C5" s="54">
         <v>9</v>
       </c>
       <c r="D5" s="47"/>
-      <c r="E5" s="57">
+      <c r="E5" s="54">
         <v>7</v>
       </c>
       <c r="F5" s="18">
@@ -1232,7 +1217,9 @@
       <c r="I5" s="18">
         <v>3</v>
       </c>
-      <c r="J5" s="18"/>
+      <c r="J5" s="18">
+        <v>5</v>
+      </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
@@ -1247,7 +1234,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1255,14 +1242,14 @@
       <c r="A6" s="25">
         <v>56196</v>
       </c>
-      <c r="B6" s="57">
-        <v>15</v>
-      </c>
-      <c r="C6" s="57">
+      <c r="B6" s="54">
+        <v>15</v>
+      </c>
+      <c r="C6" s="54">
         <v>15</v>
       </c>
       <c r="D6" s="47"/>
-      <c r="E6" s="57">
+      <c r="E6" s="54">
         <v>14</v>
       </c>
       <c r="F6" s="18">
@@ -1277,7 +1264,9 @@
       <c r="I6" s="18">
         <v>3</v>
       </c>
-      <c r="J6" s="18"/>
+      <c r="J6" s="18">
+        <v>8</v>
+      </c>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
@@ -1292,7 +1281,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.76190476190476186</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1300,14 +1289,14 @@
       <c r="A7" s="25">
         <v>58426</v>
       </c>
-      <c r="B7" s="57">
-        <v>15</v>
-      </c>
-      <c r="C7" s="57">
+      <c r="B7" s="54">
+        <v>15</v>
+      </c>
+      <c r="C7" s="54">
         <v>15</v>
       </c>
       <c r="D7" s="47"/>
-      <c r="E7" s="57">
+      <c r="E7" s="54">
         <v>12</v>
       </c>
       <c r="F7" s="18">
@@ -1322,7 +1311,9 @@
       <c r="I7" s="18">
         <v>12</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="18">
+        <v>3</v>
+      </c>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
@@ -1337,7 +1328,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1345,14 +1336,14 @@
       <c r="A8" s="25">
         <v>63795</v>
       </c>
-      <c r="B8" s="57">
-        <v>15</v>
-      </c>
-      <c r="C8" s="57">
+      <c r="B8" s="54">
+        <v>15</v>
+      </c>
+      <c r="C8" s="54">
         <v>9</v>
       </c>
       <c r="D8" s="47"/>
-      <c r="E8" s="57">
+      <c r="E8" s="54">
         <v>15</v>
       </c>
       <c r="F8" s="18">
@@ -1367,7 +1358,9 @@
       <c r="I8" s="18">
         <v>15</v>
       </c>
-      <c r="J8" s="18"/>
+      <c r="J8" s="18">
+        <v>5</v>
+      </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -1382,7 +1375,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1390,14 +1383,14 @@
       <c r="A9" s="25">
         <v>66015</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="54">
         <v>3</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="54">
         <v>15</v>
       </c>
       <c r="D9" s="47"/>
-      <c r="E9" s="57">
+      <c r="E9" s="54">
         <v>7</v>
       </c>
       <c r="F9" s="18">
@@ -1412,7 +1405,9 @@
       <c r="I9" s="18">
         <v>3</v>
       </c>
-      <c r="J9" s="18"/>
+      <c r="J9" s="18">
+        <v>5</v>
+      </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
@@ -1427,7 +1422,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.55238095238095242</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1435,14 +1430,14 @@
       <c r="A10" s="25">
         <v>67210</v>
       </c>
-      <c r="B10" s="57">
-        <v>15</v>
-      </c>
-      <c r="C10" s="57">
+      <c r="B10" s="54">
+        <v>15</v>
+      </c>
+      <c r="C10" s="54">
         <v>15</v>
       </c>
       <c r="D10" s="47"/>
-      <c r="E10" s="57">
+      <c r="E10" s="54">
         <v>7</v>
       </c>
       <c r="F10" s="18">
@@ -1457,7 +1452,9 @@
       <c r="I10" s="18">
         <v>3</v>
       </c>
-      <c r="J10" s="18"/>
+      <c r="J10" s="18">
+        <v>3</v>
+      </c>
       <c r="K10" s="18"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
@@ -1472,7 +1469,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1480,14 +1477,14 @@
       <c r="A11" s="25">
         <v>68473</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="54">
         <v>8</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="54">
         <v>0</v>
       </c>
       <c r="D11" s="47"/>
-      <c r="E11" s="57">
+      <c r="E11" s="54">
         <v>8</v>
       </c>
       <c r="F11" s="18">
@@ -1502,7 +1499,9 @@
       <c r="I11" s="18">
         <v>3</v>
       </c>
-      <c r="J11" s="18"/>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -1517,7 +1516,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.3619047619047619</v>
+        <v>0.31666666666666665</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1525,14 +1524,14 @@
       <c r="A12" s="25">
         <v>69408</v>
       </c>
-      <c r="B12" s="57">
-        <v>15</v>
-      </c>
-      <c r="C12" s="57">
+      <c r="B12" s="54">
+        <v>15</v>
+      </c>
+      <c r="C12" s="54">
         <v>15</v>
       </c>
       <c r="D12" s="47"/>
-      <c r="E12" s="57">
+      <c r="E12" s="54">
         <v>14</v>
       </c>
       <c r="F12" s="18">
@@ -1547,7 +1546,9 @@
       <c r="I12" s="18">
         <v>3</v>
       </c>
-      <c r="J12" s="18"/>
+      <c r="J12" s="18">
+        <v>5</v>
+      </c>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
@@ -1562,7 +1563,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1570,14 +1571,14 @@
       <c r="A13" s="25">
         <v>69764</v>
       </c>
-      <c r="B13" s="57">
-        <v>15</v>
-      </c>
-      <c r="C13" s="57">
+      <c r="B13" s="54">
+        <v>15</v>
+      </c>
+      <c r="C13" s="54">
         <v>15</v>
       </c>
       <c r="D13" s="47"/>
-      <c r="E13" s="57">
+      <c r="E13" s="54">
         <v>15</v>
       </c>
       <c r="F13" s="18">
@@ -1592,7 +1593,9 @@
       <c r="I13" s="18">
         <v>15</v>
       </c>
-      <c r="J13" s="18"/>
+      <c r="J13" s="18">
+        <v>15</v>
+      </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
@@ -1607,7 +1610,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>0.94285714285714284</v>
+        <v>0.95</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1615,14 +1618,14 @@
       <c r="A14" s="25">
         <v>69810</v>
       </c>
-      <c r="B14" s="57">
-        <v>15</v>
-      </c>
-      <c r="C14" s="57">
+      <c r="B14" s="54">
+        <v>15</v>
+      </c>
+      <c r="C14" s="54">
         <v>15</v>
       </c>
       <c r="D14" s="47"/>
-      <c r="E14" s="57">
+      <c r="E14" s="54">
         <v>12</v>
       </c>
       <c r="F14" s="18">
@@ -1637,7 +1640,9 @@
       <c r="I14" s="18">
         <v>3</v>
       </c>
-      <c r="J14" s="18"/>
+      <c r="J14" s="18">
+        <v>15</v>
+      </c>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -1652,21 +1657,21 @@
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>69951</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="54">
         <v>3</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="54">
         <v>3</v>
       </c>
       <c r="D15" s="47"/>
-      <c r="E15" s="57">
+      <c r="E15" s="54">
         <v>7</v>
       </c>
       <c r="F15" s="18">
@@ -1681,7 +1686,9 @@
       <c r="I15" s="18">
         <v>0</v>
       </c>
-      <c r="J15" s="18"/>
+      <c r="J15" s="18">
+        <v>0</v>
+      </c>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -1696,7 +1703,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>0.12380952380952381</v>
+        <v>0.10833333333333334</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1704,14 +1711,14 @@
       <c r="A16" s="25">
         <v>69999</v>
       </c>
-      <c r="B16" s="57">
-        <v>15</v>
-      </c>
-      <c r="C16" s="57">
+      <c r="B16" s="54">
+        <v>15</v>
+      </c>
+      <c r="C16" s="54">
         <v>15</v>
       </c>
       <c r="D16" s="47"/>
-      <c r="E16" s="57">
+      <c r="E16" s="54">
         <v>15</v>
       </c>
       <c r="F16" s="18">
@@ -1726,7 +1733,9 @@
       <c r="I16" s="18">
         <v>3</v>
       </c>
-      <c r="J16" s="18"/>
+      <c r="J16" s="18">
+        <v>15</v>
+      </c>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
@@ -1741,7 +1750,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>0.74285714285714288</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="X16"/>
     </row>
@@ -1749,14 +1758,14 @@
       <c r="A17" s="25">
         <v>70050</v>
       </c>
-      <c r="B17" s="57">
-        <v>15</v>
-      </c>
-      <c r="C17" s="57">
+      <c r="B17" s="54">
+        <v>15</v>
+      </c>
+      <c r="C17" s="54">
         <v>0</v>
       </c>
       <c r="D17" s="47"/>
-      <c r="E17" s="57">
+      <c r="E17" s="54">
         <v>9</v>
       </c>
       <c r="F17" s="18">
@@ -1771,7 +1780,9 @@
       <c r="I17" s="18">
         <v>9</v>
       </c>
-      <c r="J17" s="18"/>
+      <c r="J17" s="18">
+        <v>5</v>
+      </c>
       <c r="K17" s="18"/>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
@@ -1786,7 +1797,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="X17"/>
     </row>
@@ -1794,14 +1805,14 @@
       <c r="A18" s="25">
         <v>70065</v>
       </c>
-      <c r="B18" s="57">
-        <v>15</v>
-      </c>
-      <c r="C18" s="57">
+      <c r="B18" s="54">
+        <v>15</v>
+      </c>
+      <c r="C18" s="54">
         <v>9</v>
       </c>
       <c r="D18" s="47"/>
-      <c r="E18" s="57">
+      <c r="E18" s="54">
         <v>12</v>
       </c>
       <c r="F18" s="18">
@@ -1816,7 +1827,9 @@
       <c r="I18" s="18">
         <v>12</v>
       </c>
-      <c r="J18" s="18"/>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
       <c r="K18" s="18"/>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
@@ -1831,7 +1844,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.67619047619047623</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="X18"/>
     </row>
@@ -1839,14 +1852,14 @@
       <c r="A19" s="25">
         <v>70173</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="54">
         <v>8</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="54">
         <v>15</v>
       </c>
       <c r="D19" s="47"/>
-      <c r="E19" s="57">
+      <c r="E19" s="54">
         <v>12</v>
       </c>
       <c r="F19" s="18">
@@ -1861,7 +1874,9 @@
       <c r="I19" s="18">
         <v>3</v>
       </c>
-      <c r="J19" s="18"/>
+      <c r="J19" s="18">
+        <v>8</v>
+      </c>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
@@ -1876,7 +1891,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="X19"/>
     </row>
@@ -1884,14 +1899,14 @@
       <c r="A20" s="25">
         <v>70179</v>
       </c>
-      <c r="B20" s="57">
-        <v>15</v>
-      </c>
-      <c r="C20" s="57">
+      <c r="B20" s="54">
+        <v>15</v>
+      </c>
+      <c r="C20" s="54">
         <v>9</v>
       </c>
       <c r="D20" s="47"/>
-      <c r="E20" s="57">
+      <c r="E20" s="54">
         <v>15</v>
       </c>
       <c r="F20" s="18">
@@ -1906,7 +1921,9 @@
       <c r="I20" s="18">
         <v>3</v>
       </c>
-      <c r="J20" s="18"/>
+      <c r="J20" s="18">
+        <v>8</v>
+      </c>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
@@ -1921,7 +1938,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.77142857142857146</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="X20"/>
     </row>
@@ -1929,14 +1946,14 @@
       <c r="A21" s="25">
         <v>70267</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="54">
         <v>3</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="54">
         <v>0</v>
       </c>
       <c r="D21" s="47"/>
-      <c r="E21" s="57">
+      <c r="E21" s="54">
         <v>12</v>
       </c>
       <c r="F21" s="18">
@@ -1951,7 +1968,9 @@
       <c r="I21" s="18">
         <v>0</v>
       </c>
-      <c r="J21" s="18"/>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
@@ -1966,7 +1985,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.25714285714285712</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="X21"/>
     </row>
@@ -1974,14 +1993,14 @@
       <c r="A22" s="25">
         <v>70299</v>
       </c>
-      <c r="B22" s="57">
-        <v>15</v>
-      </c>
-      <c r="C22" s="57">
+      <c r="B22" s="54">
+        <v>15</v>
+      </c>
+      <c r="C22" s="54">
         <v>15</v>
       </c>
       <c r="D22" s="47"/>
-      <c r="E22" s="57">
+      <c r="E22" s="54">
         <v>15</v>
       </c>
       <c r="F22" s="18">
@@ -1996,7 +2015,9 @@
       <c r="I22" s="18">
         <v>9</v>
       </c>
-      <c r="J22" s="18"/>
+      <c r="J22" s="18">
+        <v>15</v>
+      </c>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
@@ -2011,7 +2032,7 @@
       <c r="V22" s="18"/>
       <c r="W22" s="34">
         <f t="shared" si="0"/>
-        <v>0.88571428571428568</v>
+        <v>0.9</v>
       </c>
       <c r="X22"/>
     </row>
@@ -2019,14 +2040,14 @@
       <c r="A23" s="25">
         <v>70339</v>
       </c>
-      <c r="B23" s="57">
-        <v>15</v>
-      </c>
-      <c r="C23" s="57">
+      <c r="B23" s="54">
+        <v>15</v>
+      </c>
+      <c r="C23" s="54">
         <v>15</v>
       </c>
       <c r="D23" s="47"/>
-      <c r="E23" s="57">
+      <c r="E23" s="54">
         <v>12</v>
       </c>
       <c r="F23" s="18">
@@ -2041,7 +2062,9 @@
       <c r="I23" s="18">
         <v>3</v>
       </c>
-      <c r="J23" s="18"/>
+      <c r="J23" s="18">
+        <v>12</v>
+      </c>
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
@@ -2064,14 +2087,14 @@
       <c r="A24" s="25">
         <v>70503</v>
       </c>
-      <c r="B24" s="57">
-        <v>15</v>
-      </c>
-      <c r="C24" s="57">
+      <c r="B24" s="54">
+        <v>15</v>
+      </c>
+      <c r="C24" s="54">
         <v>9</v>
       </c>
       <c r="D24" s="47"/>
-      <c r="E24" s="57">
+      <c r="E24" s="54">
         <v>8</v>
       </c>
       <c r="F24" s="18">
@@ -2086,7 +2109,9 @@
       <c r="I24" s="18">
         <v>3</v>
       </c>
-      <c r="J24" s="18"/>
+      <c r="J24" s="18">
+        <v>13</v>
+      </c>
       <c r="K24" s="18"/>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
@@ -2101,7 +2126,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="X24"/>
     </row>
@@ -2109,14 +2134,14 @@
       <c r="A25" s="25">
         <v>70556</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="54">
         <v>3</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="54">
         <v>15</v>
       </c>
       <c r="D25" s="47"/>
-      <c r="E25" s="57">
+      <c r="E25" s="54">
         <v>15</v>
       </c>
       <c r="F25" s="18">
@@ -2131,7 +2156,9 @@
       <c r="I25" s="18">
         <v>9</v>
       </c>
-      <c r="J25" s="18"/>
+      <c r="J25" s="18">
+        <v>6</v>
+      </c>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
@@ -2146,7 +2173,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.74285714285714288</v>
+        <v>0.7</v>
       </c>
       <c r="X25"/>
     </row>
@@ -2154,14 +2181,14 @@
       <c r="A26" s="25">
         <v>70632</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="54">
         <v>8</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="54">
         <v>15</v>
       </c>
       <c r="D26" s="47"/>
-      <c r="E26" s="57">
+      <c r="E26" s="54">
         <v>15</v>
       </c>
       <c r="F26" s="18">
@@ -2176,7 +2203,9 @@
       <c r="I26" s="18">
         <v>3</v>
       </c>
-      <c r="J26" s="18"/>
+      <c r="J26" s="18">
+        <v>8</v>
+      </c>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
@@ -2191,7 +2220,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.67619047619047623</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2199,14 +2228,14 @@
       <c r="A27" s="25">
         <v>70734</v>
       </c>
-      <c r="B27" s="57">
-        <v>15</v>
-      </c>
-      <c r="C27" s="57">
+      <c r="B27" s="54">
+        <v>15</v>
+      </c>
+      <c r="C27" s="54">
         <v>9</v>
       </c>
       <c r="D27" s="47"/>
-      <c r="E27" s="57">
+      <c r="E27" s="54">
         <v>12</v>
       </c>
       <c r="F27" s="18">
@@ -2221,7 +2250,9 @@
       <c r="I27" s="18">
         <v>9</v>
       </c>
-      <c r="J27" s="18"/>
+      <c r="J27" s="18">
+        <v>3</v>
+      </c>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
@@ -2236,7 +2267,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.62857142857142856</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2244,14 +2275,14 @@
       <c r="A28" s="25">
         <v>70896</v>
       </c>
-      <c r="B28" s="57">
-        <v>15</v>
-      </c>
-      <c r="C28" s="57">
+      <c r="B28" s="54">
+        <v>15</v>
+      </c>
+      <c r="C28" s="54">
         <v>9</v>
       </c>
       <c r="D28" s="47"/>
-      <c r="E28" s="57">
+      <c r="E28" s="54">
         <v>0</v>
       </c>
       <c r="F28" s="18">
@@ -2266,7 +2297,9 @@
       <c r="I28" s="18">
         <v>9</v>
       </c>
-      <c r="J28" s="18"/>
+      <c r="J28" s="18">
+        <v>8</v>
+      </c>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
@@ -2281,7 +2314,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.51428571428571423</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2289,14 +2322,14 @@
       <c r="A29" s="25">
         <v>71032</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="54">
         <v>8</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="54">
         <v>9</v>
       </c>
       <c r="D29" s="47"/>
-      <c r="E29" s="57">
+      <c r="E29" s="54">
         <v>9</v>
       </c>
       <c r="F29" s="18">
@@ -2311,7 +2344,9 @@
       <c r="I29" s="18">
         <v>9</v>
       </c>
-      <c r="J29" s="18"/>
+      <c r="J29" s="18">
+        <v>3</v>
+      </c>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
@@ -2326,7 +2361,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.55238095238095242</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2334,14 +2369,14 @@
       <c r="A30" s="25">
         <v>71099</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="54">
         <v>6</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="54">
         <v>9</v>
       </c>
       <c r="D30" s="47"/>
-      <c r="E30" s="57">
+      <c r="E30" s="54">
         <v>7</v>
       </c>
       <c r="F30" s="18">
@@ -2356,7 +2391,9 @@
       <c r="I30" s="18">
         <v>3</v>
       </c>
-      <c r="J30" s="18"/>
+      <c r="J30" s="18">
+        <v>3</v>
+      </c>
       <c r="K30" s="18"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -2371,7 +2408,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.49523809523809526</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2379,14 +2416,14 @@
       <c r="A31" s="25">
         <v>71304</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="54">
         <v>12</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="54">
         <v>9</v>
       </c>
       <c r="D31" s="47"/>
-      <c r="E31" s="57">
+      <c r="E31" s="54">
         <v>12</v>
       </c>
       <c r="F31" s="18">
@@ -2401,7 +2438,9 @@
       <c r="I31" s="18">
         <v>12</v>
       </c>
-      <c r="J31" s="18"/>
+      <c r="J31" s="18">
+        <v>3</v>
+      </c>
       <c r="K31" s="18"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
@@ -2416,7 +2455,7 @@
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.64761904761904765</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="X31"/>
     </row>
@@ -2424,14 +2463,14 @@
       <c r="A32" s="25">
         <v>71308</v>
       </c>
-      <c r="B32" s="57">
-        <v>15</v>
-      </c>
-      <c r="C32" s="57">
+      <c r="B32" s="54">
+        <v>15</v>
+      </c>
+      <c r="C32" s="54">
         <v>15</v>
       </c>
       <c r="D32" s="47"/>
-      <c r="E32" s="57">
+      <c r="E32" s="54">
         <v>14</v>
       </c>
       <c r="F32" s="18">
@@ -2446,7 +2485,9 @@
       <c r="I32" s="18">
         <v>3</v>
       </c>
-      <c r="J32" s="18"/>
+      <c r="J32" s="18">
+        <v>8</v>
+      </c>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
@@ -2461,7 +2502,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="X32"/>
     </row>
@@ -2469,14 +2510,14 @@
       <c r="A33" s="25">
         <v>71312</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="54">
         <v>3</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="54">
         <v>9</v>
       </c>
       <c r="D33" s="47"/>
-      <c r="E33" s="57">
+      <c r="E33" s="54">
         <v>7</v>
       </c>
       <c r="F33" s="18">
@@ -2491,7 +2532,9 @@
       <c r="I33" s="18">
         <v>3</v>
       </c>
-      <c r="J33" s="18"/>
+      <c r="J33" s="18">
+        <v>0</v>
+      </c>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
@@ -2506,7 +2549,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.40833333333333333</v>
       </c>
       <c r="X33"/>
     </row>
@@ -2514,14 +2557,14 @@
       <c r="A34" s="25">
         <v>71340</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="54">
         <v>6</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="54">
         <v>15</v>
       </c>
       <c r="D34" s="47"/>
-      <c r="E34" s="57">
+      <c r="E34" s="54">
         <v>9</v>
       </c>
       <c r="F34" s="18">
@@ -2536,7 +2579,9 @@
       <c r="I34" s="18">
         <v>12</v>
       </c>
-      <c r="J34" s="18"/>
+      <c r="J34" s="18">
+        <v>6</v>
+      </c>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
@@ -2551,7 +2596,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.77142857142857146</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="X34"/>
     </row>
@@ -2559,14 +2604,14 @@
       <c r="A35" s="25">
         <v>71428</v>
       </c>
-      <c r="B35" s="57">
-        <v>15</v>
-      </c>
-      <c r="C35" s="57">
+      <c r="B35" s="54">
+        <v>15</v>
+      </c>
+      <c r="C35" s="54">
         <v>15</v>
       </c>
       <c r="D35" s="47"/>
-      <c r="E35" s="57">
+      <c r="E35" s="54">
         <v>15</v>
       </c>
       <c r="F35" s="18">
@@ -2581,7 +2626,9 @@
       <c r="I35" s="18">
         <v>3</v>
       </c>
-      <c r="J35" s="18"/>
+      <c r="J35" s="18">
+        <v>15</v>
+      </c>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
@@ -2596,7 +2643,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="34">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="X35"/>
     </row>
@@ -2604,14 +2651,14 @@
       <c r="A36" s="25">
         <v>71431</v>
       </c>
-      <c r="B36" s="57">
-        <v>15</v>
-      </c>
-      <c r="C36" s="57">
+      <c r="B36" s="54">
+        <v>15</v>
+      </c>
+      <c r="C36" s="54">
         <v>15</v>
       </c>
       <c r="D36" s="47"/>
-      <c r="E36" s="57">
+      <c r="E36" s="54">
         <v>12</v>
       </c>
       <c r="F36" s="18">
@@ -2626,7 +2673,9 @@
       <c r="I36" s="18">
         <v>3</v>
       </c>
-      <c r="J36" s="18"/>
+      <c r="J36" s="18">
+        <v>6</v>
+      </c>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
@@ -2641,7 +2690,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.5714285714285714</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X36"/>
     </row>
@@ -2649,14 +2698,14 @@
       <c r="A37" s="25">
         <v>71474</v>
       </c>
-      <c r="B37" s="57">
-        <v>15</v>
-      </c>
-      <c r="C37" s="57">
+      <c r="B37" s="54">
+        <v>15</v>
+      </c>
+      <c r="C37" s="54">
         <v>15</v>
       </c>
       <c r="D37" s="47"/>
-      <c r="E37" s="57">
+      <c r="E37" s="54">
         <v>3</v>
       </c>
       <c r="F37" s="18">
@@ -2671,7 +2720,9 @@
       <c r="I37" s="18">
         <v>12</v>
       </c>
-      <c r="J37" s="18"/>
+      <c r="J37" s="18">
+        <v>8</v>
+      </c>
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
@@ -2686,7 +2737,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.74285714285714288</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="X37"/>
     </row>
@@ -2694,14 +2745,14 @@
       <c r="A38" s="25">
         <v>71553</v>
       </c>
-      <c r="B38" s="57">
+      <c r="B38" s="54">
         <v>3</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="54">
         <v>9</v>
       </c>
       <c r="D38" s="47"/>
-      <c r="E38" s="57">
+      <c r="E38" s="54">
         <v>0</v>
       </c>
       <c r="F38" s="18">
@@ -2716,7 +2767,9 @@
       <c r="I38" s="18">
         <v>12</v>
       </c>
-      <c r="J38" s="18"/>
+      <c r="J38" s="18">
+        <v>0</v>
+      </c>
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -2731,7 +2784,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="X38"/>
     </row>
@@ -2739,14 +2792,14 @@
       <c r="A39" s="25">
         <v>71671</v>
       </c>
-      <c r="B39" s="57">
-        <v>15</v>
-      </c>
-      <c r="C39" s="57">
+      <c r="B39" s="54">
+        <v>15</v>
+      </c>
+      <c r="C39" s="54">
         <v>9</v>
       </c>
       <c r="D39" s="47"/>
-      <c r="E39" s="57">
+      <c r="E39" s="54">
         <v>12</v>
       </c>
       <c r="F39" s="18">
@@ -2761,7 +2814,9 @@
       <c r="I39" s="18">
         <v>3</v>
       </c>
-      <c r="J39" s="18"/>
+      <c r="J39" s="18">
+        <v>5</v>
+      </c>
       <c r="K39" s="18"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
@@ -2776,7 +2831,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.49523809523809526</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="X39"/>
     </row>
@@ -2914,9 +2969,9 @@
         <f t="shared" si="1"/>
         <v>5.7631578947368425</v>
       </c>
-      <c r="J42" s="30" t="e">
+      <c r="J42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.9210526315789478</v>
       </c>
       <c r="K42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -2968,7 +3023,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.62080200501253147</v>
+        <v>0.59254385964912282</v>
       </c>
       <c r="X42"/>
     </row>
@@ -3008,9 +3063,9 @@
         <f t="shared" si="2"/>
         <v>4.432278472849144</v>
       </c>
-      <c r="J43" s="30" t="e">
+      <c r="J43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.8623294325527313</v>
       </c>
       <c r="K43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -3062,7 +3117,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.19196145839948056</v>
+        <v>0.19722920647359038</v>
       </c>
       <c r="X43"/>
     </row>
@@ -3102,9 +3157,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="J44" s="30" t="e">
+      <c r="J44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>5</v>
       </c>
       <c r="K44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -3156,7 +3211,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.63809523809523805</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="X44"/>
     </row>
@@ -3198,7 +3253,7 @@
       </c>
       <c r="J45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="33">
         <f t="shared" si="4"/>
@@ -3597,17 +3652,19 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58">
+      <c r="A2" s="55">
         <v>49156</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="54">
         <v>92</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="54">
         <v>78</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="57"/>
+      <c r="D2" s="54">
+        <v>79</v>
+      </c>
+      <c r="E2" s="54"/>
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
@@ -3616,21 +3673,23 @@
       <c r="K2" s="52"/>
       <c r="L2" s="34">
         <f>IF(SUM($B$45:$I$45)&gt;0,1.5*(B2/$B$41+C2/$C$41+D2/$D$41+E2/$E$41+F2/$F$41+G2/$G$41+H2/$H$41+I2/$I$41+J2/$J$41+K2/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>1.2750000000000001</v>
+        <v>1.2450000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59">
+      <c r="A3" s="56">
         <v>54695</v>
       </c>
-      <c r="B3" s="57">
+      <c r="B3" s="54">
         <v>71.5</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="54">
         <v>66</v>
       </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="57"/>
+      <c r="D3" s="54">
+        <v>74</v>
+      </c>
+      <c r="E3" s="54"/>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
@@ -3639,21 +3698,23 @@
       <c r="K3" s="52"/>
       <c r="L3" s="34">
         <f t="shared" ref="L3:L39" si="0">IF(SUM($B$45:$I$45)&gt;0,1.5*(B3/$B$41+C3/$C$41+D3/$D$41+E3/$E$41+F3/$F$41+G3/$G$41+H3/$H$41+I3/$I$41+J3/$J$41+K3/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>1.03125</v>
+        <v>1.0575000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="59">
+      <c r="A4" s="56">
         <v>54699</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="54">
         <v>96.5</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="54">
         <v>97</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="57"/>
+      <c r="D4" s="54">
+        <v>98</v>
+      </c>
+      <c r="E4" s="54"/>
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
@@ -3662,21 +3723,23 @@
       <c r="K4" s="52"/>
       <c r="L4" s="34">
         <f t="shared" si="0"/>
-        <v>1.4512499999999999</v>
+        <v>1.4575000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="59">
+      <c r="A5" s="56">
         <v>56054</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="54">
         <v>68</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="54">
         <v>34</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="57"/>
+      <c r="D5" s="54">
+        <v>75</v>
+      </c>
+      <c r="E5" s="54"/>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
@@ -3685,21 +3748,23 @@
       <c r="K5" s="52"/>
       <c r="L5" s="34">
         <f t="shared" si="0"/>
-        <v>0.76500000000000001</v>
+        <v>0.88500000000000012</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59">
+      <c r="A6" s="56">
         <v>56196</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="54">
         <v>76</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="54">
         <v>72</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="57"/>
+      <c r="D6" s="54">
+        <v>97</v>
+      </c>
+      <c r="E6" s="54"/>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
       <c r="H6" s="52"/>
@@ -3708,21 +3773,23 @@
       <c r="K6" s="52"/>
       <c r="L6" s="34">
         <f t="shared" si="0"/>
-        <v>1.1099999999999999</v>
+        <v>1.2250000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="59">
+      <c r="A7" s="56">
         <v>58426</v>
       </c>
-      <c r="B7" s="57">
-        <v>0</v>
-      </c>
-      <c r="C7" s="57">
-        <v>0</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="57"/>
+      <c r="B7" s="54">
+        <v>0</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0</v>
+      </c>
+      <c r="E7" s="54"/>
       <c r="F7" s="52"/>
       <c r="G7" s="52"/>
       <c r="H7" s="52"/>
@@ -3735,17 +3802,19 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="59">
+      <c r="A8" s="56">
         <v>63795</v>
       </c>
-      <c r="B8" s="57">
+      <c r="B8" s="54">
         <v>97.5</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="54">
         <v>67</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="54">
+        <v>94</v>
+      </c>
+      <c r="E8" s="54"/>
       <c r="F8" s="52"/>
       <c r="G8" s="52"/>
       <c r="H8" s="52"/>
@@ -3754,21 +3823,23 @@
       <c r="K8" s="52"/>
       <c r="L8" s="34">
         <f t="shared" si="0"/>
-        <v>1.2337500000000001</v>
+        <v>1.2925</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="59">
+      <c r="A9" s="56">
         <v>66015</v>
       </c>
-      <c r="B9" s="57">
+      <c r="B9" s="54">
         <v>99</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="54">
         <v>100</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="54">
+        <v>98</v>
+      </c>
+      <c r="E9" s="54"/>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
@@ -3777,20 +3848,22 @@
       <c r="K9" s="52"/>
       <c r="L9" s="34">
         <f t="shared" si="0"/>
-        <v>1.4924999999999999</v>
+        <v>1.4850000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="59">
+      <c r="A10" s="56">
         <v>67210</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="54">
         <v>89</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="54">
         <v>75</v>
       </c>
-      <c r="D10" s="54"/>
+      <c r="D10" s="54">
+        <v>87</v>
+      </c>
       <c r="E10" s="18"/>
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
@@ -3800,21 +3873,23 @@
       <c r="K10" s="52"/>
       <c r="L10" s="34">
         <f t="shared" si="0"/>
-        <v>1.23</v>
+        <v>1.2550000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="59">
+      <c r="A11" s="56">
         <v>68473</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="54">
         <v>39</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="54">
         <v>10</v>
       </c>
-      <c r="D11" s="53"/>
-      <c r="E11" s="57"/>
+      <c r="D11" s="54">
+        <v>0</v>
+      </c>
+      <c r="E11" s="54"/>
       <c r="F11" s="52"/>
       <c r="G11" s="18"/>
       <c r="H11" s="52"/>
@@ -3823,21 +3898,23 @@
       <c r="K11" s="52"/>
       <c r="L11" s="34">
         <f t="shared" si="0"/>
-        <v>0.36749999999999999</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="59">
+      <c r="A12" s="56">
         <v>69408</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="54">
         <v>69.5</v>
       </c>
-      <c r="C12" s="57">
-        <v>0</v>
-      </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="57"/>
+      <c r="C12" s="54">
+        <v>0</v>
+      </c>
+      <c r="D12" s="54">
+        <v>42</v>
+      </c>
+      <c r="E12" s="54"/>
       <c r="F12" s="52"/>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -3846,21 +3923,23 @@
       <c r="K12" s="52"/>
       <c r="L12" s="34">
         <f t="shared" si="0"/>
-        <v>0.52124999999999999</v>
+        <v>0.5575</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="59">
+      <c r="A13" s="56">
         <v>69764</v>
       </c>
-      <c r="B13" s="57">
+      <c r="B13" s="54">
         <v>98.5</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="54">
         <v>95</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="57"/>
+      <c r="D13" s="54">
+        <v>88</v>
+      </c>
+      <c r="E13" s="54"/>
       <c r="F13" s="52"/>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
@@ -3869,21 +3948,23 @@
       <c r="K13" s="52"/>
       <c r="L13" s="34">
         <f t="shared" si="0"/>
-        <v>1.4512499999999999</v>
+        <v>1.4075</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="59">
+      <c r="A14" s="56">
         <v>69810</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="54">
         <v>93.5</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="54">
         <v>77</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="54">
+        <v>82.5</v>
+      </c>
+      <c r="E14" s="54"/>
       <c r="F14" s="52"/>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -3892,21 +3973,23 @@
       <c r="K14" s="52"/>
       <c r="L14" s="34">
         <f t="shared" si="0"/>
-        <v>1.2787500000000001</v>
+        <v>1.2650000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="59">
+      <c r="A15" s="56">
         <v>69951</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="54">
         <v>35.5</v>
       </c>
-      <c r="C15" s="57">
-        <v>0</v>
-      </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="57"/>
+      <c r="C15" s="54">
+        <v>0</v>
+      </c>
+      <c r="D15" s="54">
+        <v>0</v>
+      </c>
+      <c r="E15" s="54"/>
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -3915,21 +3998,23 @@
       <c r="K15" s="52"/>
       <c r="L15" s="34">
         <f t="shared" si="0"/>
-        <v>0.26624999999999999</v>
+        <v>0.17749999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="59">
+      <c r="A16" s="56">
         <v>69999</v>
       </c>
-      <c r="B16" s="57">
+      <c r="B16" s="54">
         <v>99</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="54">
         <v>95</v>
       </c>
-      <c r="D16" s="53"/>
-      <c r="E16" s="57"/>
+      <c r="D16" s="54">
+        <v>81.5</v>
+      </c>
+      <c r="E16" s="54"/>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
@@ -3938,21 +4023,23 @@
       <c r="K16" s="52"/>
       <c r="L16" s="34">
         <f t="shared" si="0"/>
-        <v>1.4550000000000001</v>
+        <v>1.3775000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="59">
+      <c r="A17" s="56">
         <v>70050</v>
       </c>
-      <c r="B17" s="57">
+      <c r="B17" s="54">
         <v>88.5</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="54">
         <v>72</v>
       </c>
-      <c r="D17" s="54"/>
-      <c r="E17" s="57"/>
+      <c r="D17" s="54">
+        <v>67</v>
+      </c>
+      <c r="E17" s="54"/>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
@@ -3961,21 +4048,23 @@
       <c r="K17" s="52"/>
       <c r="L17" s="34">
         <f t="shared" si="0"/>
-        <v>1.2037499999999999</v>
+        <v>1.1375</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="59">
+      <c r="A18" s="56">
         <v>70065</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="54">
         <v>69.5</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="54">
         <v>58</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="57"/>
+      <c r="D18" s="54">
+        <v>66</v>
+      </c>
+      <c r="E18" s="54"/>
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
@@ -3984,21 +4073,23 @@
       <c r="K18" s="52"/>
       <c r="L18" s="34">
         <f t="shared" si="0"/>
-        <v>0.95624999999999993</v>
+        <v>0.96749999999999992</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="59">
+      <c r="A19" s="56">
         <v>70173</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="54">
         <v>86</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="54">
         <v>82</v>
       </c>
-      <c r="D19" s="54"/>
-      <c r="E19" s="57"/>
+      <c r="D19" s="54">
+        <v>80.5</v>
+      </c>
+      <c r="E19" s="54"/>
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
@@ -4007,21 +4098,23 @@
       <c r="K19" s="52"/>
       <c r="L19" s="34">
         <f t="shared" si="0"/>
-        <v>1.26</v>
+        <v>1.2424999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59">
+      <c r="A20" s="56">
         <v>70179</v>
       </c>
-      <c r="B20" s="57">
+      <c r="B20" s="54">
         <v>91</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="54">
         <v>82</v>
       </c>
-      <c r="D20" s="54"/>
-      <c r="E20" s="57"/>
+      <c r="D20" s="54">
+        <v>76.5</v>
+      </c>
+      <c r="E20" s="54"/>
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
@@ -4030,21 +4123,23 @@
       <c r="K20" s="52"/>
       <c r="L20" s="34">
         <f t="shared" si="0"/>
-        <v>1.2974999999999999</v>
+        <v>1.2475000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59">
+      <c r="A21" s="56">
         <v>70267</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="54">
         <v>68.5</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="54">
         <v>40</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="57"/>
+      <c r="D21" s="54">
+        <v>76</v>
+      </c>
+      <c r="E21" s="54"/>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
@@ -4053,21 +4148,23 @@
       <c r="K21" s="52"/>
       <c r="L21" s="34">
         <f t="shared" si="0"/>
-        <v>0.81374999999999997</v>
+        <v>0.92249999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="59">
+      <c r="A22" s="56">
         <v>70299</v>
       </c>
-      <c r="B22" s="57">
+      <c r="B22" s="54">
         <v>95.5</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="54">
         <v>89</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="57"/>
+      <c r="D22" s="54">
+        <v>78</v>
+      </c>
+      <c r="E22" s="54"/>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
       <c r="H22" s="52"/>
@@ -4076,21 +4173,23 @@
       <c r="K22" s="52"/>
       <c r="L22" s="34">
         <f t="shared" si="0"/>
-        <v>1.38375</v>
+        <v>1.3125</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="59">
+      <c r="A23" s="56">
         <v>70339</v>
       </c>
-      <c r="B23" s="57">
+      <c r="B23" s="54">
         <v>88</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="54">
         <v>70</v>
       </c>
-      <c r="D23" s="53"/>
-      <c r="E23" s="57"/>
+      <c r="D23" s="54">
+        <v>81</v>
+      </c>
+      <c r="E23" s="54"/>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
       <c r="H23" s="52"/>
@@ -4099,21 +4198,23 @@
       <c r="K23" s="52"/>
       <c r="L23" s="34">
         <f t="shared" si="0"/>
-        <v>1.1850000000000001</v>
+        <v>1.1950000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="59">
+      <c r="A24" s="56">
         <v>70503</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="54">
         <v>78</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="54">
         <v>46</v>
       </c>
-      <c r="D24" s="54"/>
-      <c r="E24" s="57"/>
+      <c r="D24" s="54">
+        <v>41</v>
+      </c>
+      <c r="E24" s="54"/>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
@@ -4122,21 +4223,23 @@
       <c r="K24" s="52"/>
       <c r="L24" s="34">
         <f t="shared" si="0"/>
-        <v>0.92999999999999994</v>
+        <v>0.82499999999999984</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="59">
+      <c r="A25" s="56">
         <v>70556</v>
       </c>
-      <c r="B25" s="57">
+      <c r="B25" s="54">
         <v>68</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="54">
         <v>62</v>
       </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="57"/>
+      <c r="D25" s="54">
+        <v>70</v>
+      </c>
+      <c r="E25" s="54"/>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
@@ -4145,20 +4248,22 @@
       <c r="K25" s="52"/>
       <c r="L25" s="34">
         <f t="shared" si="0"/>
-        <v>0.97500000000000009</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="59">
+      <c r="A26" s="56">
         <v>70632</v>
       </c>
-      <c r="B26" s="57">
+      <c r="B26" s="54">
         <v>56</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="54">
         <v>13</v>
       </c>
-      <c r="D26" s="54"/>
+      <c r="D26" s="54">
+        <v>18</v>
+      </c>
       <c r="E26" s="18"/>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
@@ -4168,21 +4273,23 @@
       <c r="K26" s="52"/>
       <c r="L26" s="34">
         <f t="shared" si="0"/>
-        <v>0.51750000000000007</v>
+        <v>0.43500000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="59">
+      <c r="A27" s="56">
         <v>70734</v>
       </c>
-      <c r="B27" s="57">
+      <c r="B27" s="54">
         <v>61</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="54">
         <v>52</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="57"/>
+      <c r="D27" s="54">
+        <v>77</v>
+      </c>
+      <c r="E27" s="54"/>
       <c r="F27" s="52"/>
       <c r="G27" s="52"/>
       <c r="H27" s="52"/>
@@ -4191,21 +4298,23 @@
       <c r="K27" s="52"/>
       <c r="L27" s="34">
         <f t="shared" si="0"/>
-        <v>0.84749999999999992</v>
+        <v>0.94999999999999984</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="59">
+      <c r="A28" s="56">
         <v>70896</v>
       </c>
-      <c r="B28" s="57">
+      <c r="B28" s="54">
         <v>41.5</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="54">
         <v>45</v>
       </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="57"/>
+      <c r="D28" s="54">
+        <v>60</v>
+      </c>
+      <c r="E28" s="54"/>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
@@ -4214,21 +4323,23 @@
       <c r="K28" s="52"/>
       <c r="L28" s="34">
         <f t="shared" si="0"/>
-        <v>0.64874999999999994</v>
+        <v>0.73249999999999993</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="59">
+      <c r="A29" s="56">
         <v>71032</v>
       </c>
-      <c r="B29" s="57">
+      <c r="B29" s="54">
         <v>53</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="54">
         <v>20</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="57"/>
+      <c r="D29" s="54">
+        <v>90</v>
+      </c>
+      <c r="E29" s="54"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
       <c r="H29" s="52"/>
@@ -4237,21 +4348,23 @@
       <c r="K29" s="52"/>
       <c r="L29" s="34">
         <f t="shared" si="0"/>
-        <v>0.54749999999999999</v>
+        <v>0.81499999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="59">
+      <c r="A30" s="56">
         <v>71099</v>
       </c>
-      <c r="B30" s="57">
+      <c r="B30" s="54">
         <v>72</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="54">
         <v>67</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="57"/>
+      <c r="D30" s="54">
+        <v>72</v>
+      </c>
+      <c r="E30" s="54"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
@@ -4260,21 +4373,23 @@
       <c r="K30" s="52"/>
       <c r="L30" s="34">
         <f t="shared" si="0"/>
-        <v>1.0425</v>
+        <v>1.0550000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="59">
+      <c r="A31" s="56">
         <v>71304</v>
       </c>
-      <c r="B31" s="57">
+      <c r="B31" s="54">
         <v>88</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="54">
         <v>78</v>
       </c>
-      <c r="D31" s="53"/>
-      <c r="E31" s="57"/>
+      <c r="D31" s="54">
+        <v>91.5</v>
+      </c>
+      <c r="E31" s="54"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
@@ -4283,21 +4398,23 @@
       <c r="K31" s="52"/>
       <c r="L31" s="34">
         <f t="shared" si="0"/>
-        <v>1.2450000000000001</v>
+        <v>1.2875000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="59">
+      <c r="A32" s="56">
         <v>71308</v>
       </c>
-      <c r="B32" s="57">
+      <c r="B32" s="54">
         <v>87</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="54">
         <v>95</v>
       </c>
-      <c r="D32" s="53"/>
-      <c r="E32" s="57"/>
+      <c r="D32" s="54">
+        <v>73.5</v>
+      </c>
+      <c r="E32" s="54"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
@@ -4306,21 +4423,23 @@
       <c r="K32" s="52"/>
       <c r="L32" s="34">
         <f t="shared" si="0"/>
-        <v>1.3649999999999998</v>
+        <v>1.2774999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="59">
+      <c r="A33" s="56">
         <v>71312</v>
       </c>
-      <c r="B33" s="57">
+      <c r="B33" s="54">
         <v>62</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="54">
         <v>58</v>
       </c>
-      <c r="D33" s="18"/>
-      <c r="E33" s="57"/>
+      <c r="D33" s="54">
+        <v>64</v>
+      </c>
+      <c r="E33" s="54"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
       <c r="H33" s="52"/>
@@ -4329,21 +4448,23 @@
       <c r="K33" s="52"/>
       <c r="L33" s="34">
         <f t="shared" si="0"/>
-        <v>0.89999999999999991</v>
+        <v>0.91999999999999993</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="59">
+      <c r="A34" s="56">
         <v>71340</v>
       </c>
-      <c r="B34" s="57">
+      <c r="B34" s="54">
         <v>99</v>
       </c>
-      <c r="C34" s="57">
-        <v>0</v>
-      </c>
-      <c r="D34" s="53"/>
-      <c r="E34" s="57"/>
+      <c r="C34" s="54">
+        <v>0</v>
+      </c>
+      <c r="D34" s="54">
+        <v>0</v>
+      </c>
+      <c r="E34" s="54"/>
       <c r="F34" s="52"/>
       <c r="G34" s="52"/>
       <c r="H34" s="52"/>
@@ -4352,21 +4473,23 @@
       <c r="K34" s="52"/>
       <c r="L34" s="34">
         <f t="shared" si="0"/>
-        <v>0.74249999999999994</v>
+        <v>0.49499999999999994</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="59">
+      <c r="A35" s="56">
         <v>71428</v>
       </c>
-      <c r="B35" s="57">
+      <c r="B35" s="54">
         <v>99</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="54">
         <v>99</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="57"/>
+      <c r="D35" s="54">
+        <v>74</v>
+      </c>
+      <c r="E35" s="54"/>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
       <c r="H35" s="52"/>
@@ -4375,21 +4498,23 @@
       <c r="K35" s="52"/>
       <c r="L35" s="34">
         <f t="shared" si="0"/>
-        <v>1.4849999999999999</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="59">
+      <c r="A36" s="56">
         <v>71431</v>
       </c>
-      <c r="B36" s="57">
+      <c r="B36" s="54">
         <v>64</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="54">
         <v>52</v>
       </c>
-      <c r="D36" s="54"/>
-      <c r="E36" s="57"/>
+      <c r="D36" s="54">
+        <v>64</v>
+      </c>
+      <c r="E36" s="54"/>
       <c r="F36" s="52"/>
       <c r="G36" s="52"/>
       <c r="H36" s="52"/>
@@ -4398,21 +4523,23 @@
       <c r="K36" s="52"/>
       <c r="L36" s="34">
         <f t="shared" si="0"/>
-        <v>0.87000000000000011</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="59">
+      <c r="A37" s="56">
         <v>71474</v>
       </c>
-      <c r="B37" s="57">
+      <c r="B37" s="54">
         <v>72.5</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="54">
         <v>47</v>
       </c>
-      <c r="D37" s="53"/>
-      <c r="E37" s="57"/>
+      <c r="D37" s="54">
+        <v>52</v>
+      </c>
+      <c r="E37" s="54"/>
       <c r="F37" s="52"/>
       <c r="G37" s="52"/>
       <c r="H37" s="52"/>
@@ -4421,21 +4548,23 @@
       <c r="K37" s="52"/>
       <c r="L37" s="34">
         <f t="shared" si="0"/>
-        <v>0.89624999999999988</v>
+        <v>0.85749999999999993</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="59">
+      <c r="A38" s="56">
         <v>71553</v>
       </c>
-      <c r="B38" s="57">
-        <v>0</v>
-      </c>
-      <c r="C38" s="57">
+      <c r="B38" s="54">
+        <v>0</v>
+      </c>
+      <c r="C38" s="54">
         <v>47</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="57"/>
+      <c r="D38" s="54">
+        <v>68</v>
+      </c>
+      <c r="E38" s="54"/>
       <c r="F38" s="52"/>
       <c r="G38" s="52"/>
       <c r="H38" s="52"/>
@@ -4444,21 +4573,23 @@
       <c r="K38" s="52"/>
       <c r="L38" s="34">
         <f t="shared" si="0"/>
-        <v>0.35249999999999998</v>
+        <v>0.57499999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="59">
+      <c r="A39" s="56">
         <v>71671</v>
       </c>
-      <c r="B39" s="57">
+      <c r="B39" s="54">
         <v>45</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="54">
         <v>52</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="57"/>
+      <c r="D39" s="54">
+        <v>64</v>
+      </c>
+      <c r="E39" s="54"/>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
@@ -4467,7 +4598,7 @@
       <c r="K39" s="52"/>
       <c r="L39" s="34">
         <f t="shared" si="0"/>
-        <v>0.72750000000000004</v>
+        <v>0.80500000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4533,9 +4664,9 @@
         <f t="shared" ref="C42:L42" si="1">AVERAGE(C$2:C$39)</f>
         <v>57.684210526315788</v>
       </c>
-      <c r="D42" s="30" t="e">
+      <c r="D42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>65.78947368421052</v>
       </c>
       <c r="E42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -4567,7 +4698,7 @@
       </c>
       <c r="L42" s="30">
         <f t="shared" si="1"/>
-        <v>0.97687499999999994</v>
+        <v>0.98019736842105265</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4582,9 +4713,9 @@
         <f t="shared" ref="C43:L43" si="2">STDEV(C$2:C$39)</f>
         <v>30.403685110177104</v>
       </c>
-      <c r="D43" s="30" t="e">
+      <c r="D43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>28.010526877081784</v>
       </c>
       <c r="E43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -4616,7 +4747,7 @@
       </c>
       <c r="L43" s="30">
         <f t="shared" si="2"/>
-        <v>0.38084274326991158</v>
+        <v>0.37020920928785173</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4631,9 +4762,9 @@
         <f t="shared" ref="C44:L44" si="3">MEDIAN(C$2:C$39)</f>
         <v>64</v>
       </c>
-      <c r="D44" s="30" t="e">
+      <c r="D44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>74</v>
       </c>
       <c r="E44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -4665,7 +4796,7 @@
       </c>
       <c r="L44" s="30">
         <f t="shared" si="3"/>
-        <v>1.003125</v>
+        <v>1.0275000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4682,7 +4813,7 @@
       </c>
       <c r="D45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="33">
         <f t="shared" si="4"/>
@@ -4783,7 +4914,7 @@
       <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="58">
+      <c r="A2" s="55">
         <v>49156</v>
       </c>
       <c r="B2" s="43"/>
@@ -4793,7 +4924,7 @@
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="59">
+      <c r="A3" s="56">
         <v>54695</v>
       </c>
       <c r="B3" s="43"/>
@@ -4803,7 +4934,7 @@
       <c r="G3" s="19"/>
     </row>
     <row r="4" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="59">
+      <c r="A4" s="56">
         <v>54699</v>
       </c>
       <c r="B4" s="43"/>
@@ -4813,7 +4944,7 @@
       <c r="G4" s="19"/>
     </row>
     <row r="5" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="59">
+      <c r="A5" s="56">
         <v>56054</v>
       </c>
       <c r="B5" s="43"/>
@@ -4823,7 +4954,7 @@
       <c r="G5" s="19"/>
     </row>
     <row r="6" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59">
+      <c r="A6" s="56">
         <v>56196</v>
       </c>
       <c r="B6" s="43"/>
@@ -4833,7 +4964,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="59">
+      <c r="A7" s="56">
         <v>58426</v>
       </c>
       <c r="B7" s="43"/>
@@ -4843,7 +4974,7 @@
       <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="59">
+      <c r="A8" s="56">
         <v>63795</v>
       </c>
       <c r="B8" s="43"/>
@@ -4853,7 +4984,7 @@
       <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="59">
+      <c r="A9" s="56">
         <v>66015</v>
       </c>
       <c r="B9" s="43"/>
@@ -4863,7 +4994,7 @@
       <c r="G9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="59">
+      <c r="A10" s="56">
         <v>67210</v>
       </c>
       <c r="B10" s="43"/>
@@ -4873,7 +5004,7 @@
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="59">
+      <c r="A11" s="56">
         <v>68473</v>
       </c>
       <c r="B11" s="43"/>
@@ -4883,7 +5014,7 @@
       <c r="G11" s="19"/>
     </row>
     <row r="12" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="59">
+      <c r="A12" s="56">
         <v>69408</v>
       </c>
       <c r="B12" s="43"/>
@@ -4893,7 +5024,7 @@
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="59">
+      <c r="A13" s="56">
         <v>69764</v>
       </c>
       <c r="B13" s="43"/>
@@ -4903,7 +5034,7 @@
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="59">
+      <c r="A14" s="56">
         <v>69810</v>
       </c>
       <c r="B14" s="43"/>
@@ -4913,7 +5044,7 @@
       <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="59">
+      <c r="A15" s="56">
         <v>69951</v>
       </c>
       <c r="B15" s="43"/>
@@ -4926,7 +5057,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="59">
+      <c r="A16" s="56">
         <v>69999</v>
       </c>
       <c r="B16" s="43"/>
@@ -4936,7 +5067,7 @@
       <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="59">
+      <c r="A17" s="56">
         <v>70050</v>
       </c>
       <c r="B17" s="43"/>
@@ -4946,7 +5077,7 @@
       <c r="G17" s="19"/>
     </row>
     <row r="18" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="59">
+      <c r="A18" s="56">
         <v>70065</v>
       </c>
       <c r="B18" s="43"/>
@@ -4954,7 +5085,7 @@
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="59">
+      <c r="A19" s="56">
         <v>70173</v>
       </c>
       <c r="B19" s="43"/>
@@ -4962,7 +5093,7 @@
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="59">
+      <c r="A20" s="56">
         <v>70179</v>
       </c>
       <c r="B20" s="43"/>
@@ -4970,7 +5101,7 @@
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59">
+      <c r="A21" s="56">
         <v>70267</v>
       </c>
       <c r="B21" s="43"/>
@@ -4978,7 +5109,7 @@
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="59">
+      <c r="A22" s="56">
         <v>70299</v>
       </c>
       <c r="B22" s="43"/>
@@ -4986,7 +5117,7 @@
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="59">
+      <c r="A23" s="56">
         <v>70339</v>
       </c>
       <c r="B23" s="43"/>
@@ -4994,7 +5125,7 @@
       <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="59">
+      <c r="A24" s="56">
         <v>70503</v>
       </c>
       <c r="B24" s="43"/>
@@ -5002,7 +5133,7 @@
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="59">
+      <c r="A25" s="56">
         <v>70556</v>
       </c>
       <c r="B25" s="43"/>
@@ -5010,7 +5141,7 @@
       <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="59">
+      <c r="A26" s="56">
         <v>70632</v>
       </c>
       <c r="B26" s="43"/>
@@ -5018,7 +5149,7 @@
       <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="59">
+      <c r="A27" s="56">
         <v>70734</v>
       </c>
       <c r="B27" s="43"/>
@@ -5026,7 +5157,7 @@
       <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="59">
+      <c r="A28" s="56">
         <v>70896</v>
       </c>
       <c r="B28" s="43"/>
@@ -5034,7 +5165,7 @@
       <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="59">
+      <c r="A29" s="56">
         <v>71032</v>
       </c>
       <c r="B29" s="43"/>
@@ -5042,7 +5173,7 @@
       <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="59">
+      <c r="A30" s="56">
         <v>71099</v>
       </c>
       <c r="B30" s="43"/>
@@ -5050,7 +5181,7 @@
       <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="59">
+      <c r="A31" s="56">
         <v>71304</v>
       </c>
       <c r="B31" s="43"/>
@@ -5058,7 +5189,7 @@
       <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="59">
+      <c r="A32" s="56">
         <v>71308</v>
       </c>
       <c r="B32" s="43"/>
@@ -5066,7 +5197,7 @@
       <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="59">
+      <c r="A33" s="56">
         <v>71312</v>
       </c>
       <c r="B33" s="43"/>
@@ -5074,7 +5205,7 @@
       <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="59">
+      <c r="A34" s="56">
         <v>71340</v>
       </c>
       <c r="B34" s="43"/>
@@ -5082,7 +5213,7 @@
       <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="59">
+      <c r="A35" s="56">
         <v>71428</v>
       </c>
       <c r="B35" s="43"/>
@@ -5090,7 +5221,7 @@
       <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="59">
+      <c r="A36" s="56">
         <v>71431</v>
       </c>
       <c r="B36" s="43"/>
@@ -5098,7 +5229,7 @@
       <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="59">
+      <c r="A37" s="56">
         <v>71474</v>
       </c>
       <c r="B37" s="43"/>
@@ -5106,7 +5237,7 @@
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="59">
+      <c r="A38" s="56">
         <v>71553</v>
       </c>
       <c r="B38" s="43"/>
@@ -5114,7 +5245,7 @@
       <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="59">
+      <c r="A39" s="56">
         <v>71671</v>
       </c>
       <c r="B39" s="43"/>
@@ -5440,7 +5571,7 @@
       <c r="H1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="56"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
@@ -5448,11 +5579,11 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.580952380952381</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
-        <v>1.2750000000000001</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="D2" s="43">
         <f>Exams!B2</f>
@@ -5464,7 +5595,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>1.855952380952381</v>
+        <v>1.7533333333333334</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5482,11 +5613,11 @@
       </c>
       <c r="B3" s="34">
         <f>Quiz!W3</f>
-        <v>0.11428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
-        <v>1.03125</v>
+        <v>1.0575000000000001</v>
       </c>
       <c r="D3" s="43">
         <f>Exams!B3</f>
@@ -5498,7 +5629,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.1455357142857143</v>
+        <v>1.1575000000000002</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5515,11 +5646,11 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.76190476190476186</v>
+        <v>0.69166666666666665</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
-        <v>1.4512499999999999</v>
+        <v>1.4575000000000002</v>
       </c>
       <c r="D4" s="43">
         <f>Exams!B4</f>
@@ -5531,7 +5662,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.2131547619047618</v>
+        <v>2.1491666666666669</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -5548,11 +5679,11 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.5714285714285714</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
-        <v>0.76500000000000001</v>
+        <v>0.88500000000000012</v>
       </c>
       <c r="D5" s="43">
         <f>Exams!B5</f>
@@ -5564,7 +5695,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>1.3364285714285713</v>
+        <v>1.4266666666666667</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -5581,11 +5712,11 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.76190476190476186</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
-        <v>1.1099999999999999</v>
+        <v>1.2250000000000001</v>
       </c>
       <c r="D6" s="43">
         <f>Exams!B6</f>
@@ -5597,7 +5728,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>1.8719047619047617</v>
+        <v>1.9583333333333335</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -5614,7 +5745,7 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.8</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
@@ -5630,11 +5761,11 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="51">
         <f t="shared" si="2"/>
@@ -5647,11 +5778,11 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.8</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
-        <v>1.2337500000000001</v>
+        <v>1.2925</v>
       </c>
       <c r="D8" s="43">
         <f>Exams!B8</f>
@@ -5663,7 +5794,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>2.0337500000000004</v>
+        <v>2.0341666666666667</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -5680,11 +5811,11 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.55238095238095242</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
-        <v>1.4924999999999999</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="D9" s="43">
         <f>Exams!B9</f>
@@ -5696,7 +5827,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>2.0448809523809524</v>
+        <v>2.0100000000000002</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -5713,11 +5844,11 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
-        <v>1.23</v>
+        <v>1.2550000000000001</v>
       </c>
       <c r="D10" s="43">
         <f>Exams!B10</f>
@@ -5729,7 +5860,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>1.83</v>
+        <v>1.8050000000000002</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -5746,11 +5877,11 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.3619047619047619</v>
+        <v>0.31666666666666665</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
-        <v>0.36749999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="D11" s="43">
         <f>Exams!B11</f>
@@ -5762,7 +5893,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>0.72940476190476189</v>
+        <v>0.56166666666666665</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -5779,11 +5910,11 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.7142857142857143</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
-        <v>0.52124999999999999</v>
+        <v>0.5575</v>
       </c>
       <c r="D12" s="43">
         <f>Exams!B12</f>
@@ -5795,7 +5926,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>1.2355357142857142</v>
+        <v>1.2241666666666666</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -5812,11 +5943,11 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>0.94285714285714284</v>
+        <v>0.95</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
-        <v>1.4512499999999999</v>
+        <v>1.4075</v>
       </c>
       <c r="D13" s="43">
         <f>Exams!B13</f>
@@ -5828,7 +5959,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>2.394107142857143</v>
+        <v>2.3574999999999999</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -5845,11 +5976,11 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.8</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
-        <v>1.2787500000000001</v>
+        <v>1.2650000000000001</v>
       </c>
       <c r="D14" s="43">
         <f>Exams!B14</f>
@@ -5861,7 +5992,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>2.0787500000000003</v>
+        <v>2.09</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -5878,11 +6009,11 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>0.12380952380952381</v>
+        <v>0.10833333333333334</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
-        <v>0.26624999999999999</v>
+        <v>0.17749999999999999</v>
       </c>
       <c r="D15" s="43">
         <f>Exams!B15</f>
@@ -5894,7 +6025,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.3900595238095238</v>
+        <v>0.28583333333333333</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -5911,11 +6042,11 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>0.74285714285714288</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
-        <v>1.4550000000000001</v>
+        <v>1.3775000000000002</v>
       </c>
       <c r="D16" s="43">
         <f>Exams!B16</f>
@@ -5927,7 +6058,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>2.197857142857143</v>
+        <v>2.1525000000000003</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -5944,11 +6075,11 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.5714285714285714</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
-        <v>1.2037499999999999</v>
+        <v>1.1375</v>
       </c>
       <c r="D17" s="43">
         <f>Exams!B17</f>
@@ -5960,11 +6091,11 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>1.7751785714285713</v>
+        <v>1.6791666666666667</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H17" s="51">
         <f t="shared" si="2"/>
@@ -5977,11 +6108,11 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.67619047619047623</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
-        <v>0.95624999999999993</v>
+        <v>0.96749999999999992</v>
       </c>
       <c r="D18" s="43">
         <f>Exams!B18</f>
@@ -5993,7 +6124,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>1.6324404761904763</v>
+        <v>1.5591666666666666</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -6010,11 +6141,11 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.73333333333333328</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
-        <v>1.26</v>
+        <v>1.2424999999999999</v>
       </c>
       <c r="D19" s="43">
         <f>Exams!B19</f>
@@ -6026,7 +6157,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>1.9933333333333332</v>
+        <v>1.9508333333333332</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -6043,11 +6174,11 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.77142857142857146</v>
+        <v>0.7416666666666667</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
-        <v>1.2974999999999999</v>
+        <v>1.2475000000000001</v>
       </c>
       <c r="D20" s="43">
         <f>Exams!B20</f>
@@ -6059,7 +6190,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>2.0689285714285712</v>
+        <v>1.9891666666666667</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6076,11 +6207,11 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.25714285714285712</v>
+        <v>0.22500000000000001</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
-        <v>0.81374999999999997</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="D21" s="43">
         <f>Exams!B21</f>
@@ -6092,7 +6223,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.0708928571428571</v>
+        <v>1.1475</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -6109,11 +6240,11 @@
       </c>
       <c r="B22" s="34">
         <f>Quiz!W22</f>
-        <v>0.88571428571428568</v>
+        <v>0.9</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
-        <v>1.38375</v>
+        <v>1.3125</v>
       </c>
       <c r="D22" s="43">
         <f>Exams!B22</f>
@@ -6125,11 +6256,11 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>2.2694642857142857</v>
+        <v>2.2124999999999999</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H22" s="51">
         <f t="shared" si="5"/>
@@ -6146,7 +6277,7 @@
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
-        <v>1.1850000000000001</v>
+        <v>1.1950000000000001</v>
       </c>
       <c r="D23" s="43">
         <f>Exams!B23</f>
@@ -6158,7 +6289,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>1.9850000000000001</v>
+        <v>1.9950000000000001</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -6175,11 +6306,11 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.53333333333333333</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
-        <v>0.92999999999999994</v>
+        <v>0.82499999999999984</v>
       </c>
       <c r="D24" s="43">
         <f>Exams!B24</f>
@@ -6191,7 +6322,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>1.4633333333333334</v>
+        <v>1.4</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -6208,11 +6339,11 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.74285714285714288</v>
+        <v>0.7</v>
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
-        <v>0.97500000000000009</v>
+        <v>1</v>
       </c>
       <c r="D25" s="43">
         <f>Exams!B25</f>
@@ -6224,7 +6355,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>1.717857142857143</v>
+        <v>1.7</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -6241,11 +6372,11 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.67619047619047623</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
-        <v>0.51750000000000007</v>
+        <v>0.43500000000000005</v>
       </c>
       <c r="D26" s="43">
         <f>Exams!B26</f>
@@ -6257,7 +6388,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>1.1936904761904763</v>
+        <v>1.0933333333333333</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6274,11 +6405,11 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.62857142857142856</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
-        <v>0.84749999999999992</v>
+        <v>0.94999999999999984</v>
       </c>
       <c r="D27" s="43">
         <f>Exams!B27</f>
@@ -6290,7 +6421,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>1.4760714285714285</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -6307,11 +6438,11 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.51428571428571423</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
-        <v>0.64874999999999994</v>
+        <v>0.73249999999999993</v>
       </c>
       <c r="D28" s="43">
         <f>Exams!B28</f>
@@ -6323,7 +6454,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.1630357142857142</v>
+        <v>1.2491666666666665</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -6340,11 +6471,11 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.55238095238095242</v>
+        <v>0.5083333333333333</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
-        <v>0.54749999999999999</v>
+        <v>0.81499999999999995</v>
       </c>
       <c r="D29" s="43">
         <f>Exams!B29</f>
@@ -6356,11 +6487,11 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.0998809523809525</v>
+        <v>1.3233333333333333</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H29" s="51">
         <f t="shared" si="7"/>
@@ -6373,11 +6504,11 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.49523809523809526</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
-        <v>1.0425</v>
+        <v>1.0550000000000002</v>
       </c>
       <c r="D30" s="43">
         <f>Exams!B30</f>
@@ -6389,7 +6520,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>1.5377380952380952</v>
+        <v>1.5133333333333334</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -6406,11 +6537,11 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.64761904761904765</v>
+        <v>0.59166666666666667</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
-        <v>1.2450000000000001</v>
+        <v>1.2875000000000001</v>
       </c>
       <c r="D31" s="43">
         <f>Exams!B31</f>
@@ -6422,7 +6553,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>1.8926190476190476</v>
+        <v>1.8791666666666669</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -6439,11 +6570,11 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.5714285714285714</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
-        <v>1.3649999999999998</v>
+        <v>1.2774999999999999</v>
       </c>
       <c r="D32" s="43">
         <f>Exams!B32</f>
@@ -6455,7 +6586,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>1.9364285714285712</v>
+        <v>1.8441666666666665</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -6472,11 +6603,11 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.46666666666666667</v>
+        <v>0.40833333333333333</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
-        <v>0.89999999999999991</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="D33" s="43">
         <f>Exams!B33</f>
@@ -6488,7 +6619,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>1.3666666666666667</v>
+        <v>1.3283333333333331</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -6505,11 +6636,11 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.77142857142857146</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
-        <v>0.74249999999999994</v>
+        <v>0.49499999999999994</v>
       </c>
       <c r="D34" s="43">
         <f>Exams!B34</f>
@@ -6521,11 +6652,11 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>1.5139285714285715</v>
+        <v>1.22</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H34" s="51">
         <f t="shared" ref="H34:H39" si="8">IF(G34&gt;4.75,1,0)</f>
@@ -6538,11 +6669,11 @@
       </c>
       <c r="B35" s="34">
         <f>Quiz!W35</f>
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
-        <v>1.4849999999999999</v>
+        <v>1.36</v>
       </c>
       <c r="D35" s="43">
         <f>Exams!B35</f>
@@ -6554,11 +6685,11 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>2.3421428571428571</v>
+        <v>2.2350000000000003</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H35" s="51">
         <f t="shared" si="8"/>
@@ -6571,11 +6702,11 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.5714285714285714</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
-        <v>0.87000000000000011</v>
+        <v>0.9</v>
       </c>
       <c r="D36" s="43">
         <f>Exams!B36</f>
@@ -6587,7 +6718,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>1.4414285714285715</v>
+        <v>1.4500000000000002</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -6604,11 +6735,11 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.74285714285714288</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
-        <v>0.89624999999999988</v>
+        <v>0.85749999999999993</v>
       </c>
       <c r="D37" s="43">
         <f>Exams!B37</f>
@@ -6620,7 +6751,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>1.6391071428571427</v>
+        <v>1.5741666666666667</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -6637,11 +6768,11 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
-        <v>0.35249999999999998</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="D38" s="43">
         <f>Exams!B38</f>
@@ -6653,7 +6784,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.75249999999999995</v>
+        <v>0.92499999999999993</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -6670,11 +6801,11 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.49523809523809526</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
-        <v>0.72750000000000004</v>
+        <v>0.80500000000000005</v>
       </c>
       <c r="D39" s="43">
         <f>Exams!B39</f>
@@ -6686,11 +6817,11 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.2227380952380953</v>
+        <v>1.28</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H39" s="51">
         <f t="shared" si="8"/>
@@ -6743,11 +6874,11 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.62080200501253147</v>
+        <v>0.59254385964912282</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
-        <v>0.97687499999999994</v>
+        <v>0.98019736842105265</v>
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
@@ -6759,11 +6890,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>1.5976770050125313</v>
+        <v>1.5727412280701756</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>1.5921052631578947</v>
+        <v>1.5526315789473684</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -6776,11 +6907,11 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.19196145839948056</v>
+        <v>0.19722920647359038</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
-        <v>0.38084274326991158</v>
+        <v>0.37020920928785173</v>
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
@@ -6792,11 +6923,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>0.49542448053888705</v>
+        <v>0.4865488298309455</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>0.53087463728463335</v>
+        <v>0.50389662287356662</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -6809,11 +6940,11 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.63809523809523805</v>
+        <v>0.58333333333333326</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
-        <v>1.003125</v>
+        <v>1.0275000000000001</v>
       </c>
       <c r="D44" s="30">
         <f t="shared" si="11"/>
@@ -6825,7 +6956,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>1.6357738095238095</v>
+        <v>1.5666666666666667</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF0EFCB-3A88-D247-AD5E-7A16A37BC982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410CE5F7-81B4-3F43-809F-211412AFD7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="7320" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="3140" windowWidth="32920" windowHeight="19260" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -3602,7 +3602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -3664,7 +3664,9 @@
       <c r="D2" s="54">
         <v>79</v>
       </c>
-      <c r="E2" s="54"/>
+      <c r="E2" s="54">
+        <v>75</v>
+      </c>
       <c r="F2" s="52"/>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
@@ -3673,7 +3675,7 @@
       <c r="K2" s="52"/>
       <c r="L2" s="34">
         <f>IF(SUM($B$45:$I$45)&gt;0,1.5*(B2/$B$41+C2/$C$41+D2/$D$41+E2/$E$41+F2/$F$41+G2/$G$41+H2/$H$41+I2/$I$41+J2/$J$41+K2/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>1.2450000000000001</v>
+        <v>1.2150000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3689,7 +3691,9 @@
       <c r="D3" s="54">
         <v>74</v>
       </c>
-      <c r="E3" s="54"/>
+      <c r="E3" s="54">
+        <v>0</v>
+      </c>
       <c r="F3" s="52"/>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
@@ -3698,7 +3702,7 @@
       <c r="K3" s="52"/>
       <c r="L3" s="34">
         <f t="shared" ref="L3:L39" si="0">IF(SUM($B$45:$I$45)&gt;0,1.5*(B3/$B$41+C3/$C$41+D3/$D$41+E3/$E$41+F3/$F$41+G3/$G$41+H3/$H$41+I3/$I$41+J3/$J$41+K3/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>1.0575000000000001</v>
+        <v>0.79312500000000008</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3714,7 +3718,9 @@
       <c r="D4" s="54">
         <v>98</v>
       </c>
-      <c r="E4" s="54"/>
+      <c r="E4" s="54">
+        <v>31</v>
+      </c>
       <c r="F4" s="52"/>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
@@ -3723,7 +3729,7 @@
       <c r="K4" s="52"/>
       <c r="L4" s="34">
         <f t="shared" si="0"/>
-        <v>1.4575000000000002</v>
+        <v>1.2093750000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3739,7 +3745,9 @@
       <c r="D5" s="54">
         <v>75</v>
       </c>
-      <c r="E5" s="54"/>
+      <c r="E5" s="54">
+        <v>59</v>
+      </c>
       <c r="F5" s="52"/>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
@@ -3748,7 +3756,7 @@
       <c r="K5" s="52"/>
       <c r="L5" s="34">
         <f t="shared" si="0"/>
-        <v>0.88500000000000012</v>
+        <v>0.88500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3764,7 +3772,9 @@
       <c r="D6" s="54">
         <v>97</v>
       </c>
-      <c r="E6" s="54"/>
+      <c r="E6" s="54">
+        <v>67</v>
+      </c>
       <c r="F6" s="52"/>
       <c r="G6" s="52"/>
       <c r="H6" s="52"/>
@@ -3773,7 +3783,7 @@
       <c r="K6" s="52"/>
       <c r="L6" s="34">
         <f t="shared" si="0"/>
-        <v>1.2250000000000001</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3789,7 +3799,9 @@
       <c r="D7" s="54">
         <v>0</v>
       </c>
-      <c r="E7" s="54"/>
+      <c r="E7" s="54">
+        <v>0</v>
+      </c>
       <c r="F7" s="52"/>
       <c r="G7" s="52"/>
       <c r="H7" s="52"/>
@@ -3814,7 +3826,9 @@
       <c r="D8" s="54">
         <v>94</v>
       </c>
-      <c r="E8" s="54"/>
+      <c r="E8" s="54">
+        <v>82</v>
+      </c>
       <c r="F8" s="52"/>
       <c r="G8" s="52"/>
       <c r="H8" s="52"/>
@@ -3823,7 +3837,7 @@
       <c r="K8" s="52"/>
       <c r="L8" s="34">
         <f t="shared" si="0"/>
-        <v>1.2925</v>
+        <v>1.276875</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3839,7 +3853,9 @@
       <c r="D9" s="54">
         <v>98</v>
       </c>
-      <c r="E9" s="54"/>
+      <c r="E9" s="54">
+        <v>96</v>
+      </c>
       <c r="F9" s="52"/>
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
@@ -3848,7 +3864,7 @@
       <c r="K9" s="52"/>
       <c r="L9" s="34">
         <f t="shared" si="0"/>
-        <v>1.4850000000000001</v>
+        <v>1.4737499999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3864,7 +3880,9 @@
       <c r="D10" s="54">
         <v>87</v>
       </c>
-      <c r="E10" s="18"/>
+      <c r="E10" s="54">
+        <v>75</v>
+      </c>
       <c r="F10" s="52"/>
       <c r="G10" s="52"/>
       <c r="H10" s="52"/>
@@ -3873,7 +3891,7 @@
       <c r="K10" s="52"/>
       <c r="L10" s="34">
         <f t="shared" si="0"/>
-        <v>1.2550000000000001</v>
+        <v>1.2225000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3889,7 +3907,9 @@
       <c r="D11" s="54">
         <v>0</v>
       </c>
-      <c r="E11" s="54"/>
+      <c r="E11" s="54">
+        <v>0</v>
+      </c>
       <c r="F11" s="52"/>
       <c r="G11" s="18"/>
       <c r="H11" s="52"/>
@@ -3898,7 +3918,7 @@
       <c r="K11" s="52"/>
       <c r="L11" s="34">
         <f t="shared" si="0"/>
-        <v>0.245</v>
+        <v>0.18375</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3914,7 +3934,9 @@
       <c r="D12" s="54">
         <v>42</v>
       </c>
-      <c r="E12" s="54"/>
+      <c r="E12" s="54">
+        <v>39</v>
+      </c>
       <c r="F12" s="52"/>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -3923,7 +3945,7 @@
       <c r="K12" s="52"/>
       <c r="L12" s="34">
         <f t="shared" si="0"/>
-        <v>0.5575</v>
+        <v>0.56437499999999996</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3939,7 +3961,9 @@
       <c r="D13" s="54">
         <v>88</v>
       </c>
-      <c r="E13" s="54"/>
+      <c r="E13" s="54">
+        <v>95</v>
+      </c>
       <c r="F13" s="52"/>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
@@ -3948,7 +3972,7 @@
       <c r="K13" s="52"/>
       <c r="L13" s="34">
         <f t="shared" si="0"/>
-        <v>1.4075</v>
+        <v>1.4118749999999998</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3964,7 +3988,9 @@
       <c r="D14" s="54">
         <v>82.5</v>
       </c>
-      <c r="E14" s="54"/>
+      <c r="E14" s="54">
+        <v>80</v>
+      </c>
       <c r="F14" s="52"/>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
@@ -3973,7 +3999,7 @@
       <c r="K14" s="52"/>
       <c r="L14" s="34">
         <f t="shared" si="0"/>
-        <v>1.2650000000000001</v>
+        <v>1.24875</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3989,7 +4015,9 @@
       <c r="D15" s="54">
         <v>0</v>
       </c>
-      <c r="E15" s="54"/>
+      <c r="E15" s="54">
+        <v>0</v>
+      </c>
       <c r="F15" s="52"/>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
@@ -3998,7 +4026,7 @@
       <c r="K15" s="52"/>
       <c r="L15" s="34">
         <f t="shared" si="0"/>
-        <v>0.17749999999999999</v>
+        <v>0.13312499999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4014,7 +4042,9 @@
       <c r="D16" s="54">
         <v>81.5</v>
       </c>
-      <c r="E16" s="54"/>
+      <c r="E16" s="54">
+        <v>99</v>
+      </c>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
@@ -4023,7 +4053,7 @@
       <c r="K16" s="52"/>
       <c r="L16" s="34">
         <f t="shared" si="0"/>
-        <v>1.3775000000000002</v>
+        <v>1.4043749999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4039,7 +4069,9 @@
       <c r="D17" s="54">
         <v>67</v>
       </c>
-      <c r="E17" s="54"/>
+      <c r="E17" s="54">
+        <v>78</v>
+      </c>
       <c r="F17" s="52"/>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
@@ -4048,7 +4080,7 @@
       <c r="K17" s="52"/>
       <c r="L17" s="34">
         <f t="shared" si="0"/>
-        <v>1.1375</v>
+        <v>1.1456249999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4064,7 +4096,9 @@
       <c r="D18" s="54">
         <v>66</v>
       </c>
-      <c r="E18" s="54"/>
+      <c r="E18" s="54">
+        <v>50</v>
+      </c>
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
@@ -4073,7 +4107,7 @@
       <c r="K18" s="52"/>
       <c r="L18" s="34">
         <f t="shared" si="0"/>
-        <v>0.96749999999999992</v>
+        <v>0.91312499999999996</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4089,7 +4123,9 @@
       <c r="D19" s="54">
         <v>80.5</v>
       </c>
-      <c r="E19" s="54"/>
+      <c r="E19" s="54">
+        <v>95</v>
+      </c>
       <c r="F19" s="52"/>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
@@ -4098,7 +4134,7 @@
       <c r="K19" s="52"/>
       <c r="L19" s="34">
         <f t="shared" si="0"/>
-        <v>1.2424999999999999</v>
+        <v>1.288125</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4114,7 +4150,9 @@
       <c r="D20" s="54">
         <v>76.5</v>
       </c>
-      <c r="E20" s="54"/>
+      <c r="E20" s="54">
+        <v>90</v>
+      </c>
       <c r="F20" s="52"/>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
@@ -4123,7 +4161,7 @@
       <c r="K20" s="52"/>
       <c r="L20" s="34">
         <f t="shared" si="0"/>
-        <v>1.2475000000000001</v>
+        <v>1.2731250000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4139,7 +4177,9 @@
       <c r="D21" s="54">
         <v>76</v>
       </c>
-      <c r="E21" s="54"/>
+      <c r="E21" s="54">
+        <v>0</v>
+      </c>
       <c r="F21" s="52"/>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
@@ -4148,7 +4188,7 @@
       <c r="K21" s="52"/>
       <c r="L21" s="34">
         <f t="shared" si="0"/>
-        <v>0.92249999999999999</v>
+        <v>0.69187500000000002</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4164,7 +4204,9 @@
       <c r="D22" s="54">
         <v>78</v>
       </c>
-      <c r="E22" s="54"/>
+      <c r="E22" s="54">
+        <v>98</v>
+      </c>
       <c r="F22" s="52"/>
       <c r="G22" s="52"/>
       <c r="H22" s="52"/>
@@ -4173,7 +4215,7 @@
       <c r="K22" s="52"/>
       <c r="L22" s="34">
         <f t="shared" si="0"/>
-        <v>1.3125</v>
+        <v>1.3518749999999999</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4189,7 +4231,9 @@
       <c r="D23" s="54">
         <v>81</v>
       </c>
-      <c r="E23" s="54"/>
+      <c r="E23" s="54">
+        <v>78</v>
+      </c>
       <c r="F23" s="52"/>
       <c r="G23" s="52"/>
       <c r="H23" s="52"/>
@@ -4198,7 +4242,7 @@
       <c r="K23" s="52"/>
       <c r="L23" s="34">
         <f t="shared" si="0"/>
-        <v>1.1950000000000001</v>
+        <v>1.18875</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4214,7 +4258,9 @@
       <c r="D24" s="54">
         <v>41</v>
       </c>
-      <c r="E24" s="54"/>
+      <c r="E24" s="54">
+        <v>22</v>
+      </c>
       <c r="F24" s="52"/>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
@@ -4223,7 +4269,7 @@
       <c r="K24" s="52"/>
       <c r="L24" s="34">
         <f t="shared" si="0"/>
-        <v>0.82499999999999984</v>
+        <v>0.70124999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4239,7 +4285,9 @@
       <c r="D25" s="54">
         <v>70</v>
       </c>
-      <c r="E25" s="54"/>
+      <c r="E25" s="54">
+        <v>57</v>
+      </c>
       <c r="F25" s="52"/>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
@@ -4248,7 +4296,7 @@
       <c r="K25" s="52"/>
       <c r="L25" s="34">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.96374999999999988</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4264,7 +4312,9 @@
       <c r="D26" s="54">
         <v>18</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="54">
+        <v>61</v>
+      </c>
       <c r="F26" s="52"/>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
@@ -4273,7 +4323,7 @@
       <c r="K26" s="52"/>
       <c r="L26" s="34">
         <f t="shared" si="0"/>
-        <v>0.43500000000000005</v>
+        <v>0.55499999999999994</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4289,7 +4339,9 @@
       <c r="D27" s="54">
         <v>77</v>
       </c>
-      <c r="E27" s="54"/>
+      <c r="E27" s="54">
+        <v>55</v>
+      </c>
       <c r="F27" s="52"/>
       <c r="G27" s="52"/>
       <c r="H27" s="52"/>
@@ -4298,7 +4350,7 @@
       <c r="K27" s="52"/>
       <c r="L27" s="34">
         <f t="shared" si="0"/>
-        <v>0.94999999999999984</v>
+        <v>0.91875000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4314,7 +4366,9 @@
       <c r="D28" s="54">
         <v>60</v>
       </c>
-      <c r="E28" s="54"/>
+      <c r="E28" s="54">
+        <v>0</v>
+      </c>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
@@ -4323,7 +4377,7 @@
       <c r="K28" s="52"/>
       <c r="L28" s="34">
         <f t="shared" si="0"/>
-        <v>0.73249999999999993</v>
+        <v>0.54937499999999995</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4339,7 +4393,9 @@
       <c r="D29" s="54">
         <v>90</v>
       </c>
-      <c r="E29" s="54"/>
+      <c r="E29" s="54">
+        <v>30</v>
+      </c>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
       <c r="H29" s="52"/>
@@ -4348,7 +4404,7 @@
       <c r="K29" s="52"/>
       <c r="L29" s="34">
         <f t="shared" si="0"/>
-        <v>0.81499999999999995</v>
+        <v>0.72375</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4364,7 +4420,9 @@
       <c r="D30" s="54">
         <v>72</v>
       </c>
-      <c r="E30" s="54"/>
+      <c r="E30" s="54">
+        <v>70</v>
+      </c>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
@@ -4373,7 +4431,7 @@
       <c r="K30" s="52"/>
       <c r="L30" s="34">
         <f t="shared" si="0"/>
-        <v>1.0550000000000002</v>
+        <v>1.0537500000000002</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4389,7 +4447,9 @@
       <c r="D31" s="54">
         <v>91.5</v>
       </c>
-      <c r="E31" s="54"/>
+      <c r="E31" s="54">
+        <v>76</v>
+      </c>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
@@ -4398,7 +4458,7 @@
       <c r="K31" s="52"/>
       <c r="L31" s="34">
         <f t="shared" si="0"/>
-        <v>1.2875000000000001</v>
+        <v>1.2506249999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4414,7 +4474,9 @@
       <c r="D32" s="54">
         <v>73.5</v>
       </c>
-      <c r="E32" s="54"/>
+      <c r="E32" s="54">
+        <v>67</v>
+      </c>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
@@ -4423,7 +4485,7 @@
       <c r="K32" s="52"/>
       <c r="L32" s="34">
         <f t="shared" si="0"/>
-        <v>1.2774999999999999</v>
+        <v>1.2093749999999999</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4439,7 +4501,9 @@
       <c r="D33" s="54">
         <v>64</v>
       </c>
-      <c r="E33" s="54"/>
+      <c r="E33" s="54">
+        <v>15</v>
+      </c>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
       <c r="H33" s="52"/>
@@ -4448,7 +4512,7 @@
       <c r="K33" s="52"/>
       <c r="L33" s="34">
         <f t="shared" si="0"/>
-        <v>0.91999999999999993</v>
+        <v>0.74624999999999986</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4464,7 +4528,9 @@
       <c r="D34" s="54">
         <v>0</v>
       </c>
-      <c r="E34" s="54"/>
+      <c r="E34" s="54">
+        <v>0</v>
+      </c>
       <c r="F34" s="52"/>
       <c r="G34" s="52"/>
       <c r="H34" s="52"/>
@@ -4473,7 +4539,7 @@
       <c r="K34" s="52"/>
       <c r="L34" s="34">
         <f t="shared" si="0"/>
-        <v>0.49499999999999994</v>
+        <v>0.37124999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4489,7 +4555,9 @@
       <c r="D35" s="54">
         <v>74</v>
       </c>
-      <c r="E35" s="54"/>
+      <c r="E35" s="54">
+        <v>97</v>
+      </c>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
       <c r="H35" s="52"/>
@@ -4498,7 +4566,7 @@
       <c r="K35" s="52"/>
       <c r="L35" s="34">
         <f t="shared" si="0"/>
-        <v>1.36</v>
+        <v>1.3837499999999998</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4514,7 +4582,9 @@
       <c r="D36" s="54">
         <v>64</v>
       </c>
-      <c r="E36" s="54"/>
+      <c r="E36" s="54">
+        <v>52</v>
+      </c>
       <c r="F36" s="52"/>
       <c r="G36" s="52"/>
       <c r="H36" s="52"/>
@@ -4523,7 +4593,7 @@
       <c r="K36" s="52"/>
       <c r="L36" s="34">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.87000000000000011</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4539,7 +4609,9 @@
       <c r="D37" s="54">
         <v>52</v>
       </c>
-      <c r="E37" s="54"/>
+      <c r="E37" s="54">
+        <v>41</v>
+      </c>
       <c r="F37" s="52"/>
       <c r="G37" s="52"/>
       <c r="H37" s="52"/>
@@ -4548,7 +4620,7 @@
       <c r="K37" s="52"/>
       <c r="L37" s="34">
         <f t="shared" si="0"/>
-        <v>0.85749999999999993</v>
+        <v>0.796875</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4564,7 +4636,9 @@
       <c r="D38" s="54">
         <v>68</v>
       </c>
-      <c r="E38" s="54"/>
+      <c r="E38" s="54">
+        <v>0</v>
+      </c>
       <c r="F38" s="52"/>
       <c r="G38" s="52"/>
       <c r="H38" s="52"/>
@@ -4573,7 +4647,7 @@
       <c r="K38" s="52"/>
       <c r="L38" s="34">
         <f t="shared" si="0"/>
-        <v>0.57499999999999996</v>
+        <v>0.43124999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4589,7 +4663,9 @@
       <c r="D39" s="54">
         <v>64</v>
       </c>
-      <c r="E39" s="54"/>
+      <c r="E39" s="54">
+        <v>69</v>
+      </c>
       <c r="F39" s="52"/>
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
@@ -4598,7 +4674,7 @@
       <c r="K39" s="52"/>
       <c r="L39" s="34">
         <f t="shared" si="0"/>
-        <v>0.80500000000000005</v>
+        <v>0.86249999999999993</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4668,9 +4744,9 @@
         <f t="shared" si="1"/>
         <v>65.78947368421052</v>
       </c>
-      <c r="E42" s="30" t="e">
+      <c r="E42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>52.60526315789474</v>
       </c>
       <c r="F42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -4698,7 +4774,7 @@
       </c>
       <c r="L42" s="30">
         <f t="shared" si="1"/>
-        <v>0.98019736842105265</v>
+        <v>0.93241776315789449</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4717,9 +4793,9 @@
         <f t="shared" si="2"/>
         <v>28.010526877081784</v>
       </c>
-      <c r="E43" s="30" t="e">
+      <c r="E43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>34.653137975521034</v>
       </c>
       <c r="F43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -4747,7 +4823,7 @@
       </c>
       <c r="L43" s="30">
         <f t="shared" si="2"/>
-        <v>0.37020920928785173</v>
+        <v>0.38509229575114723</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4766,9 +4842,9 @@
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="E44" s="30" t="e">
+      <c r="E44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>60</v>
       </c>
       <c r="F44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -4796,7 +4872,7 @@
       </c>
       <c r="L44" s="30">
         <f t="shared" si="3"/>
-        <v>1.0275000000000001</v>
+        <v>0.94124999999999992</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4817,7 +4893,7 @@
       </c>
       <c r="E45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" s="33">
         <f t="shared" si="4"/>
@@ -5583,7 +5659,7 @@
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
-        <v>1.2450000000000001</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="D2" s="43">
         <f>Exams!B2</f>
@@ -5595,11 +5671,11 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>1.7533333333333334</v>
+        <v>1.7233333333333334</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H2" s="51">
         <f>IF(G2&gt;4.75,1,0)</f>
@@ -5617,7 +5693,7 @@
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
-        <v>1.0575000000000001</v>
+        <v>0.79312500000000008</v>
       </c>
       <c r="D3" s="43">
         <f>Exams!B3</f>
@@ -5629,7 +5705,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.1575000000000002</v>
+        <v>0.89312500000000006</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5650,7 +5726,7 @@
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
-        <v>1.4575000000000002</v>
+        <v>1.2093750000000001</v>
       </c>
       <c r="D4" s="43">
         <f>Exams!B4</f>
@@ -5662,7 +5738,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.1491666666666669</v>
+        <v>1.9010416666666667</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -5683,7 +5759,7 @@
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
-        <v>0.88500000000000012</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="D5" s="43">
         <f>Exams!B5</f>
@@ -5716,7 +5792,7 @@
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
-        <v>1.2250000000000001</v>
+        <v>1.17</v>
       </c>
       <c r="D6" s="43">
         <f>Exams!B6</f>
@@ -5728,7 +5804,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>1.9583333333333335</v>
+        <v>1.9033333333333333</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -5782,7 +5858,7 @@
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
-        <v>1.2925</v>
+        <v>1.276875</v>
       </c>
       <c r="D8" s="43">
         <f>Exams!B8</f>
@@ -5794,7 +5870,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>2.0341666666666667</v>
+        <v>2.0185416666666667</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -5815,7 +5891,7 @@
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
-        <v>1.4850000000000001</v>
+        <v>1.4737499999999999</v>
       </c>
       <c r="D9" s="43">
         <f>Exams!B9</f>
@@ -5827,7 +5903,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>2.0100000000000002</v>
+        <v>1.9987499999999998</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -5848,7 +5924,7 @@
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
-        <v>1.2550000000000001</v>
+        <v>1.2225000000000001</v>
       </c>
       <c r="D10" s="43">
         <f>Exams!B10</f>
@@ -5860,7 +5936,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>1.8050000000000002</v>
+        <v>1.7725000000000002</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -5881,7 +5957,7 @@
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
-        <v>0.245</v>
+        <v>0.18375</v>
       </c>
       <c r="D11" s="43">
         <f>Exams!B11</f>
@@ -5893,7 +5969,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>0.56166666666666665</v>
+        <v>0.50041666666666662</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -5914,7 +5990,7 @@
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
-        <v>0.5575</v>
+        <v>0.56437499999999996</v>
       </c>
       <c r="D12" s="43">
         <f>Exams!B12</f>
@@ -5926,7 +6002,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>1.2241666666666666</v>
+        <v>1.2310416666666666</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -5947,7 +6023,7 @@
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
-        <v>1.4075</v>
+        <v>1.4118749999999998</v>
       </c>
       <c r="D13" s="43">
         <f>Exams!B13</f>
@@ -5959,7 +6035,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>2.3574999999999999</v>
+        <v>2.3618749999999995</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -5980,7 +6056,7 @@
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
-        <v>1.2650000000000001</v>
+        <v>1.24875</v>
       </c>
       <c r="D14" s="43">
         <f>Exams!B14</f>
@@ -5992,7 +6068,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>2.09</v>
+        <v>2.07375</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -6013,7 +6089,7 @@
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
-        <v>0.17749999999999999</v>
+        <v>0.13312499999999999</v>
       </c>
       <c r="D15" s="43">
         <f>Exams!B15</f>
@@ -6025,11 +6101,11 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.28583333333333333</v>
+        <v>0.24145833333333333</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H15" s="51">
         <f t="shared" si="2"/>
@@ -6046,7 +6122,7 @@
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
-        <v>1.3775000000000002</v>
+        <v>1.4043749999999999</v>
       </c>
       <c r="D16" s="43">
         <f>Exams!B16</f>
@@ -6058,7 +6134,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>2.1525000000000003</v>
+        <v>2.1793749999999998</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -6079,7 +6155,7 @@
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
-        <v>1.1375</v>
+        <v>1.1456249999999999</v>
       </c>
       <c r="D17" s="43">
         <f>Exams!B17</f>
@@ -6091,7 +6167,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>1.6791666666666667</v>
+        <v>1.6872916666666664</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -6112,7 +6188,7 @@
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
-        <v>0.96749999999999992</v>
+        <v>0.91312499999999996</v>
       </c>
       <c r="D18" s="43">
         <f>Exams!B18</f>
@@ -6124,7 +6200,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>1.5591666666666666</v>
+        <v>1.5047916666666667</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -6145,7 +6221,7 @@
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
-        <v>1.2424999999999999</v>
+        <v>1.288125</v>
       </c>
       <c r="D19" s="43">
         <f>Exams!B19</f>
@@ -6157,7 +6233,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>1.9508333333333332</v>
+        <v>1.9964583333333334</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -6178,7 +6254,7 @@
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
-        <v>1.2475000000000001</v>
+        <v>1.2731250000000001</v>
       </c>
       <c r="D20" s="43">
         <f>Exams!B20</f>
@@ -6190,7 +6266,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>1.9891666666666667</v>
+        <v>2.0147916666666665</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6211,7 +6287,7 @@
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
-        <v>0.92249999999999999</v>
+        <v>0.69187500000000002</v>
       </c>
       <c r="D21" s="43">
         <f>Exams!B21</f>
@@ -6223,7 +6299,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.1475</v>
+        <v>0.916875</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -6244,7 +6320,7 @@
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
-        <v>1.3125</v>
+        <v>1.3518749999999999</v>
       </c>
       <c r="D22" s="43">
         <f>Exams!B22</f>
@@ -6256,11 +6332,11 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>2.2124999999999999</v>
+        <v>2.2518750000000001</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H22" s="51">
         <f t="shared" si="5"/>
@@ -6277,7 +6353,7 @@
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
-        <v>1.1950000000000001</v>
+        <v>1.18875</v>
       </c>
       <c r="D23" s="43">
         <f>Exams!B23</f>
@@ -6289,7 +6365,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>1.9950000000000001</v>
+        <v>1.98875</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -6310,7 +6386,7 @@
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
-        <v>0.82499999999999984</v>
+        <v>0.70124999999999993</v>
       </c>
       <c r="D24" s="43">
         <f>Exams!B24</f>
@@ -6322,7 +6398,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>1.4</v>
+        <v>1.2762499999999999</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -6343,7 +6419,7 @@
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
-        <v>1</v>
+        <v>0.96374999999999988</v>
       </c>
       <c r="D25" s="43">
         <f>Exams!B25</f>
@@ -6355,7 +6431,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>1.7</v>
+        <v>1.6637499999999998</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -6376,7 +6452,7 @@
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
-        <v>0.43500000000000005</v>
+        <v>0.55499999999999994</v>
       </c>
       <c r="D26" s="43">
         <f>Exams!B26</f>
@@ -6388,7 +6464,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>1.0933333333333333</v>
+        <v>1.2133333333333334</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6409,7 +6485,7 @@
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
-        <v>0.94999999999999984</v>
+        <v>0.91875000000000007</v>
       </c>
       <c r="D27" s="43">
         <f>Exams!B27</f>
@@ -6421,7 +6497,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>1.5249999999999999</v>
+        <v>1.4937499999999999</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -6442,7 +6518,7 @@
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
-        <v>0.73249999999999993</v>
+        <v>0.54937499999999995</v>
       </c>
       <c r="D28" s="43">
         <f>Exams!B28</f>
@@ -6454,7 +6530,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.2491666666666665</v>
+        <v>1.0660416666666666</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -6475,7 +6551,7 @@
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
-        <v>0.81499999999999995</v>
+        <v>0.72375</v>
       </c>
       <c r="D29" s="43">
         <f>Exams!B29</f>
@@ -6487,11 +6563,11 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.3233333333333333</v>
+        <v>1.2320833333333332</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H29" s="51">
         <f t="shared" si="7"/>
@@ -6508,7 +6584,7 @@
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
-        <v>1.0550000000000002</v>
+        <v>1.0537500000000002</v>
       </c>
       <c r="D30" s="43">
         <f>Exams!B30</f>
@@ -6520,7 +6596,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>1.5133333333333334</v>
+        <v>1.5120833333333334</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -6541,7 +6617,7 @@
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
-        <v>1.2875000000000001</v>
+        <v>1.2506249999999999</v>
       </c>
       <c r="D31" s="43">
         <f>Exams!B31</f>
@@ -6553,7 +6629,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>1.8791666666666669</v>
+        <v>1.8422916666666667</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -6574,7 +6650,7 @@
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
-        <v>1.2774999999999999</v>
+        <v>1.2093749999999999</v>
       </c>
       <c r="D32" s="43">
         <f>Exams!B32</f>
@@ -6586,7 +6662,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>1.8441666666666665</v>
+        <v>1.7760416666666665</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -6607,7 +6683,7 @@
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
-        <v>0.91999999999999993</v>
+        <v>0.74624999999999986</v>
       </c>
       <c r="D33" s="43">
         <f>Exams!B33</f>
@@ -6619,11 +6695,11 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>1.3283333333333331</v>
+        <v>1.1545833333333331</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H33" s="51">
         <f>IF(G33&gt;4.75,1,0)</f>
@@ -6640,7 +6716,7 @@
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
-        <v>0.49499999999999994</v>
+        <v>0.37124999999999997</v>
       </c>
       <c r="D34" s="43">
         <f>Exams!B34</f>
@@ -6652,7 +6728,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>1.22</v>
+        <v>1.0962499999999999</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -6673,7 +6749,7 @@
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
-        <v>1.36</v>
+        <v>1.3837499999999998</v>
       </c>
       <c r="D35" s="43">
         <f>Exams!B35</f>
@@ -6685,11 +6761,11 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>2.2350000000000003</v>
+        <v>2.25875</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H35" s="51">
         <f t="shared" si="8"/>
@@ -6706,7 +6782,7 @@
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
-        <v>0.9</v>
+        <v>0.87000000000000011</v>
       </c>
       <c r="D36" s="43">
         <f>Exams!B36</f>
@@ -6718,7 +6794,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>1.4500000000000002</v>
+        <v>1.4200000000000002</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -6739,7 +6815,7 @@
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
-        <v>0.85749999999999993</v>
+        <v>0.796875</v>
       </c>
       <c r="D37" s="43">
         <f>Exams!B37</f>
@@ -6751,7 +6827,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>1.5741666666666667</v>
+        <v>1.5135416666666668</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -6772,7 +6848,7 @@
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
-        <v>0.57499999999999996</v>
+        <v>0.43124999999999997</v>
       </c>
       <c r="D38" s="43">
         <f>Exams!B38</f>
@@ -6784,7 +6860,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.92499999999999993</v>
+        <v>0.78125</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -6805,7 +6881,7 @@
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
-        <v>0.80500000000000005</v>
+        <v>0.86249999999999993</v>
       </c>
       <c r="D39" s="43">
         <f>Exams!B39</f>
@@ -6817,7 +6893,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.28</v>
+        <v>1.3374999999999999</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -6878,7 +6954,7 @@
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
-        <v>0.98019736842105265</v>
+        <v>0.93241776315789449</v>
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
@@ -6890,11 +6966,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>1.5727412280701756</v>
+        <v>1.5249616228070175</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>1.5526315789473684</v>
+        <v>1.5263157894736843</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -6911,7 +6987,7 @@
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
-        <v>0.37020920928785173</v>
+        <v>0.38509229575114723</v>
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
@@ -6923,11 +6999,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>0.4865488298309455</v>
+        <v>0.51507120218139735</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>0.50389662287356662</v>
+        <v>0.58062604168646703</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -6944,7 +7020,7 @@
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
-        <v>1.0275000000000001</v>
+        <v>0.94124999999999992</v>
       </c>
       <c r="D44" s="30">
         <f t="shared" si="11"/>
@@ -6956,7 +7032,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>1.5666666666666667</v>
+        <v>1.5128125000000001</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410CE5F7-81B4-3F43-809F-211412AFD7C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF59C31-9D6F-4046-88B1-F664118D49E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3140" windowWidth="32920" windowHeight="19260" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="3140" windowWidth="32920" windowHeight="19260" tabRatio="334" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -1079,7 +1079,9 @@
       <c r="J2" s="18">
         <v>0</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="18">
+        <v>3</v>
+      </c>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
@@ -1093,7 +1095,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.5083333333333333</v>
+        <v>0.47407407407407409</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1126,7 +1128,9 @@
       <c r="J3" s="18">
         <v>0</v>
       </c>
-      <c r="K3" s="18"/>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
@@ -1140,7 +1144,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="34">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1173,7 +1177,9 @@
       <c r="J4" s="18">
         <v>3</v>
       </c>
-      <c r="K4" s="18"/>
+      <c r="K4" s="18">
+        <v>3</v>
+      </c>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
@@ -1187,7 +1193,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.69166666666666665</v>
+        <v>0.63703703703703707</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1220,7 +1226,9 @@
       <c r="J5" s="18">
         <v>5</v>
       </c>
-      <c r="K5" s="18"/>
+      <c r="K5" s="18">
+        <v>15</v>
+      </c>
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
@@ -1234,7 +1242,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1267,7 +1275,9 @@
       <c r="J6" s="18">
         <v>8</v>
       </c>
-      <c r="K6" s="18"/>
+      <c r="K6" s="18">
+        <v>3</v>
+      </c>
       <c r="L6" s="18"/>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
@@ -1281,7 +1291,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.67407407407407405</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1314,7 +1324,9 @@
       <c r="J7" s="18">
         <v>3</v>
       </c>
-      <c r="K7" s="18"/>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
@@ -1328,7 +1340,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.72499999999999998</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1361,7 +1373,9 @@
       <c r="J8" s="18">
         <v>5</v>
       </c>
-      <c r="K8" s="18"/>
+      <c r="K8" s="18">
+        <v>3</v>
+      </c>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
@@ -1375,7 +1389,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.7416666666666667</v>
+        <v>0.68148148148148147</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1408,7 +1422,9 @@
       <c r="J9" s="18">
         <v>5</v>
       </c>
-      <c r="K9" s="18"/>
+      <c r="K9" s="18">
+        <v>3</v>
+      </c>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
@@ -1422,7 +1438,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.52500000000000002</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1455,7 +1471,9 @@
       <c r="J10" s="18">
         <v>3</v>
       </c>
-      <c r="K10" s="18"/>
+      <c r="K10" s="18">
+        <v>8</v>
+      </c>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
@@ -1469,7 +1487,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.54814814814814816</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1502,7 +1520,9 @@
       <c r="J11" s="18">
         <v>0</v>
       </c>
-      <c r="K11" s="18"/>
+      <c r="K11" s="18">
+        <v>0</v>
+      </c>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
@@ -1516,7 +1536,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.31666666666666665</v>
+        <v>0.2814814814814815</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1549,7 +1569,9 @@
       <c r="J12" s="18">
         <v>5</v>
       </c>
-      <c r="K12" s="18"/>
+      <c r="K12" s="18">
+        <v>3</v>
+      </c>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -1563,7 +1585,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.61481481481481481</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1596,7 +1618,9 @@
       <c r="J13" s="18">
         <v>15</v>
       </c>
-      <c r="K13" s="18"/>
+      <c r="K13" s="18">
+        <v>3</v>
+      </c>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
@@ -1610,7 +1634,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>0.95</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1643,7 +1667,9 @@
       <c r="J14" s="18">
         <v>15</v>
       </c>
-      <c r="K14" s="18"/>
+      <c r="K14" s="18">
+        <v>3</v>
+      </c>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
@@ -1657,7 +1683,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.82499999999999996</v>
+        <v>0.75555555555555554</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1689,7 +1715,9 @@
       <c r="J15" s="18">
         <v>0</v>
       </c>
-      <c r="K15" s="18"/>
+      <c r="K15" s="18">
+        <v>0</v>
+      </c>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
@@ -1703,7 +1731,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>0.10833333333333334</v>
+        <v>9.6296296296296297E-2</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1736,7 +1764,9 @@
       <c r="J16" s="18">
         <v>15</v>
       </c>
-      <c r="K16" s="18"/>
+      <c r="K16" s="18">
+        <v>3</v>
+      </c>
       <c r="L16" s="18"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
@@ -1750,7 +1780,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>0.77500000000000002</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="X16"/>
     </row>
@@ -1783,7 +1813,9 @@
       <c r="J17" s="18">
         <v>5</v>
       </c>
-      <c r="K17" s="18"/>
+      <c r="K17" s="18">
+        <v>3</v>
+      </c>
       <c r="L17" s="18"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
@@ -1797,7 +1829,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.54166666666666663</v>
+        <v>0.50370370370370365</v>
       </c>
       <c r="X17"/>
     </row>
@@ -1830,7 +1862,9 @@
       <c r="J18" s="18">
         <v>0</v>
       </c>
-      <c r="K18" s="18"/>
+      <c r="K18" s="18">
+        <v>3</v>
+      </c>
       <c r="L18" s="18"/>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
@@ -1844,7 +1878,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.59166666666666667</v>
+        <v>0.54814814814814816</v>
       </c>
       <c r="X18"/>
     </row>
@@ -1877,7 +1911,9 @@
       <c r="J19" s="18">
         <v>8</v>
       </c>
-      <c r="K19" s="18"/>
+      <c r="K19" s="18">
+        <v>3</v>
+      </c>
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
@@ -1891,7 +1927,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.70833333333333337</v>
+        <v>0.6518518518518519</v>
       </c>
       <c r="X19"/>
     </row>
@@ -1924,7 +1960,9 @@
       <c r="J20" s="18">
         <v>8</v>
       </c>
-      <c r="K20" s="18"/>
+      <c r="K20" s="18">
+        <v>3</v>
+      </c>
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
@@ -1938,7 +1976,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.7416666666666667</v>
+        <v>0.68148148148148147</v>
       </c>
       <c r="X20"/>
     </row>
@@ -1971,7 +2009,9 @@
       <c r="J21" s="18">
         <v>0</v>
       </c>
-      <c r="K21" s="18"/>
+      <c r="K21" s="18">
+        <v>0</v>
+      </c>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
@@ -1985,7 +2025,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="X21"/>
     </row>
@@ -2018,7 +2058,9 @@
       <c r="J22" s="18">
         <v>15</v>
       </c>
-      <c r="K22" s="18"/>
+      <c r="K22" s="18">
+        <v>3</v>
+      </c>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
@@ -2032,7 +2074,7 @@
       <c r="V22" s="18"/>
       <c r="W22" s="34">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="X22"/>
     </row>
@@ -2065,7 +2107,9 @@
       <c r="J23" s="18">
         <v>12</v>
       </c>
-      <c r="K23" s="18"/>
+      <c r="K23" s="18">
+        <v>3</v>
+      </c>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
@@ -2079,7 +2123,7 @@
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="X23"/>
     </row>
@@ -2112,7 +2156,9 @@
       <c r="J24" s="18">
         <v>13</v>
       </c>
-      <c r="K24" s="18"/>
+      <c r="K24" s="18">
+        <v>3</v>
+      </c>
       <c r="L24" s="18"/>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
@@ -2126,7 +2172,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.57499999999999996</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="X24"/>
     </row>
@@ -2159,7 +2205,9 @@
       <c r="J25" s="18">
         <v>6</v>
       </c>
-      <c r="K25" s="18"/>
+      <c r="K25" s="18">
+        <v>3</v>
+      </c>
       <c r="L25" s="18"/>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
@@ -2173,7 +2221,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.7</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="X25"/>
     </row>
@@ -2206,7 +2254,9 @@
       <c r="J26" s="18">
         <v>8</v>
       </c>
-      <c r="K26" s="18"/>
+      <c r="K26" s="18">
+        <v>15</v>
+      </c>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
@@ -2220,7 +2270,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.65833333333333333</v>
+        <v>0.6962962962962963</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2253,7 +2303,9 @@
       <c r="J27" s="18">
         <v>3</v>
       </c>
-      <c r="K27" s="18"/>
+      <c r="K27" s="18">
+        <v>3</v>
+      </c>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
@@ -2267,7 +2319,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.57499999999999996</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2300,7 +2352,9 @@
       <c r="J28" s="18">
         <v>8</v>
       </c>
-      <c r="K28" s="18"/>
+      <c r="K28" s="18">
+        <v>0</v>
+      </c>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
@@ -2314,7 +2368,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.51666666666666672</v>
+        <v>0.45925925925925926</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2347,7 +2401,9 @@
       <c r="J29" s="18">
         <v>3</v>
       </c>
-      <c r="K29" s="18"/>
+      <c r="K29" s="18">
+        <v>8</v>
+      </c>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
@@ -2361,7 +2417,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.5083333333333333</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2394,7 +2450,9 @@
       <c r="J30" s="18">
         <v>3</v>
       </c>
-      <c r="K30" s="18"/>
+      <c r="K30" s="18">
+        <v>8</v>
+      </c>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
@@ -2408,7 +2466,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.45833333333333331</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2441,7 +2499,9 @@
       <c r="J31" s="18">
         <v>3</v>
       </c>
-      <c r="K31" s="18"/>
+      <c r="K31" s="18">
+        <v>3</v>
+      </c>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
@@ -2455,7 +2515,7 @@
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.59166666666666667</v>
+        <v>0.54814814814814816</v>
       </c>
       <c r="X31"/>
     </row>
@@ -2488,7 +2548,9 @@
       <c r="J32" s="18">
         <v>8</v>
       </c>
-      <c r="K32" s="18"/>
+      <c r="K32" s="18">
+        <v>15</v>
+      </c>
       <c r="L32" s="18"/>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
@@ -2502,7 +2564,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <v>0.61481481481481481</v>
       </c>
       <c r="X32"/>
     </row>
@@ -2535,7 +2597,9 @@
       <c r="J33" s="18">
         <v>0</v>
       </c>
-      <c r="K33" s="18"/>
+      <c r="K33" s="18">
+        <v>8</v>
+      </c>
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
@@ -2549,7 +2613,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.40833333333333333</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="X33"/>
     </row>
@@ -2582,7 +2646,9 @@
       <c r="J34" s="18">
         <v>6</v>
       </c>
-      <c r="K34" s="18"/>
+      <c r="K34" s="18">
+        <v>3</v>
+      </c>
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
@@ -2596,7 +2662,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.72499999999999998</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X34"/>
     </row>
@@ -2629,7 +2695,9 @@
       <c r="J35" s="18">
         <v>15</v>
       </c>
-      <c r="K35" s="18"/>
+      <c r="K35" s="18">
+        <v>8</v>
+      </c>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
@@ -2643,7 +2711,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="34">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0.83703703703703702</v>
       </c>
       <c r="X35"/>
     </row>
@@ -2676,7 +2744,9 @@
       <c r="J36" s="18">
         <v>6</v>
       </c>
-      <c r="K36" s="18"/>
+      <c r="K36" s="18">
+        <v>3</v>
+      </c>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
@@ -2690,7 +2760,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="X36"/>
     </row>
@@ -2723,7 +2793,9 @@
       <c r="J37" s="18">
         <v>8</v>
       </c>
-      <c r="K37" s="18"/>
+      <c r="K37" s="18">
+        <v>8</v>
+      </c>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
@@ -2737,7 +2809,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.71666666666666667</v>
+        <v>0.6962962962962963</v>
       </c>
       <c r="X37"/>
     </row>
@@ -2770,7 +2842,9 @@
       <c r="J38" s="18">
         <v>0</v>
       </c>
-      <c r="K38" s="18"/>
+      <c r="K38" s="18">
+        <v>0</v>
+      </c>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
@@ -2784,7 +2858,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.35</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="X38"/>
     </row>
@@ -2817,7 +2891,9 @@
       <c r="J39" s="18">
         <v>5</v>
       </c>
-      <c r="K39" s="18"/>
+      <c r="K39" s="18">
+        <v>0</v>
+      </c>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
@@ -2831,7 +2907,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.47499999999999998</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="X39"/>
     </row>
@@ -2973,9 +3049,9 @@
         <f t="shared" si="1"/>
         <v>5.9210526315789478</v>
       </c>
-      <c r="K42" s="30" t="e">
+      <c r="K42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.1052631578947372</v>
       </c>
       <c r="L42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -3023,7 +3099,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.59254385964912282</v>
+        <v>0.55711500974658856</v>
       </c>
       <c r="X42"/>
     </row>
@@ -3067,9 +3143,9 @@
         <f t="shared" si="2"/>
         <v>4.8623294325527313</v>
       </c>
-      <c r="K43" s="30" t="e">
+      <c r="K43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.0522898010358226</v>
       </c>
       <c r="L43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -3117,7 +3193,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.19722920647359038</v>
+        <v>0.18323423086410043</v>
       </c>
       <c r="X43"/>
     </row>
@@ -3161,9 +3237,9 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="K44" s="30" t="e">
+      <c r="K44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>3</v>
       </c>
       <c r="L44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -3211,7 +3287,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.58333333333333326</v>
+        <v>0.57037037037037042</v>
       </c>
       <c r="X44"/>
     </row>
@@ -3257,7 +3333,7 @@
       </c>
       <c r="K45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="33">
         <f t="shared" si="4"/>
@@ -3602,7 +3678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -5607,8 +5683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5655,7 +5731,7 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.5083333333333333</v>
+        <v>0.47407407407407409</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
@@ -5671,7 +5747,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>1.7233333333333334</v>
+        <v>1.6890740740740742</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5689,7 +5765,7 @@
       </c>
       <c r="B3" s="34">
         <f>Quiz!W3</f>
-        <v>0.1</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
@@ -5705,7 +5781,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>0.89312500000000006</v>
+        <v>0.88201388888888899</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5722,7 +5798,7 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.69166666666666665</v>
+        <v>0.63703703703703707</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
@@ -5738,7 +5814,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>1.9010416666666667</v>
+        <v>1.8464120370370372</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -5755,7 +5831,7 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.54166666666666663</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
@@ -5771,7 +5847,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>1.4266666666666667</v>
+        <v>1.4775925925925926</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -5788,7 +5864,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.73333333333333328</v>
+        <v>0.67407407407407405</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
@@ -5804,7 +5880,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>1.9033333333333333</v>
+        <v>1.844074074074074</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -5821,7 +5897,7 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.72499999999999998</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
@@ -5837,7 +5913,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>0.72499999999999998</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -5854,7 +5930,7 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.7416666666666667</v>
+        <v>0.68148148148148147</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
@@ -5870,7 +5946,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>2.0185416666666667</v>
+        <v>1.9583564814814816</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -5887,7 +5963,7 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.52500000000000002</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
@@ -5903,7 +5979,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>1.9987499999999998</v>
+        <v>1.9626388888888888</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -5920,7 +5996,7 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.55000000000000004</v>
+        <v>0.54814814814814816</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
@@ -5936,7 +6012,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>1.7725000000000002</v>
+        <v>1.7706481481481484</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -5953,7 +6029,7 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.31666666666666665</v>
+        <v>0.2814814814814815</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
@@ -5969,7 +6045,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>0.50041666666666662</v>
+        <v>0.46523148148148152</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -5986,7 +6062,7 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.66666666666666663</v>
+        <v>0.61481481481481481</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
@@ -6002,7 +6078,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>1.2310416666666666</v>
+        <v>1.1791898148148148</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -6019,7 +6095,7 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>0.95</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
@@ -6035,7 +6111,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>2.3618749999999995</v>
+        <v>2.2785416666666665</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -6052,7 +6128,7 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.82499999999999996</v>
+        <v>0.75555555555555554</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
@@ -6068,7 +6144,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>2.07375</v>
+        <v>2.0043055555555558</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -6085,7 +6161,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>0.10833333333333334</v>
+        <v>9.6296296296296297E-2</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
@@ -6101,7 +6177,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.24145833333333333</v>
+        <v>0.22942129629629629</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -6118,7 +6194,7 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>0.77500000000000002</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
@@ -6134,7 +6210,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>2.1793749999999998</v>
+        <v>2.1154861111111112</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -6151,7 +6227,7 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.54166666666666663</v>
+        <v>0.50370370370370365</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
@@ -6167,7 +6243,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>1.6872916666666664</v>
+        <v>1.6493287037037034</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -6184,7 +6260,7 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.59166666666666667</v>
+        <v>0.54814814814814816</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
@@ -6200,7 +6276,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>1.5047916666666667</v>
+        <v>1.4612731481481482</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -6217,7 +6293,7 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.70833333333333337</v>
+        <v>0.6518518518518519</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
@@ -6233,7 +6309,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>1.9964583333333334</v>
+        <v>1.9399768518518519</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -6250,7 +6326,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.7416666666666667</v>
+        <v>0.68148148148148147</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
@@ -6266,7 +6342,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>2.0147916666666665</v>
+        <v>1.9546064814814814</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6283,7 +6359,7 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.22500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
@@ -6299,7 +6375,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>0.916875</v>
+        <v>0.89187499999999997</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -6316,7 +6392,7 @@
       </c>
       <c r="B22" s="34">
         <f>Quiz!W22</f>
-        <v>0.9</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
@@ -6332,11 +6408,11 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>2.2518750000000001</v>
+        <v>2.1740972222222221</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H22" s="51">
         <f t="shared" si="5"/>
@@ -6349,7 +6425,7 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.8</v>
+        <v>0.73333333333333328</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
@@ -6365,7 +6441,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>1.98875</v>
+        <v>1.9220833333333331</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -6382,7 +6458,7 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.57499999999999996</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
@@ -6398,11 +6474,11 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>1.2762499999999999</v>
+        <v>1.2345833333333331</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H24" s="51">
         <f t="shared" si="5"/>
@@ -6415,7 +6491,7 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.7</v>
+        <v>0.64444444444444449</v>
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
@@ -6431,7 +6507,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>1.6637499999999998</v>
+        <v>1.6081944444444445</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -6448,7 +6524,7 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.65833333333333333</v>
+        <v>0.6962962962962963</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
@@ -6464,11 +6540,11 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>1.2133333333333334</v>
+        <v>1.2512962962962964</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H26" s="51">
         <f t="shared" ref="H26:H32" si="7">IF(G26&gt;4.75,1,0)</f>
@@ -6481,7 +6557,7 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.57499999999999996</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
@@ -6497,7 +6573,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>1.4937499999999999</v>
+        <v>1.4520833333333334</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -6514,7 +6590,7 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.51666666666666672</v>
+        <v>0.45925925925925926</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
@@ -6530,7 +6606,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.0660416666666666</v>
+        <v>1.0086342592592592</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -6547,7 +6623,7 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.5083333333333333</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
@@ -6563,7 +6639,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.2320833333333332</v>
+        <v>1.234861111111111</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -6580,7 +6656,7 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.45833333333333331</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
@@ -6596,7 +6672,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>1.5120833333333334</v>
+        <v>1.5204166666666667</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -6613,7 +6689,7 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.59166666666666667</v>
+        <v>0.54814814814814816</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
@@ -6629,7 +6705,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>1.8422916666666667</v>
+        <v>1.7987731481481481</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -6646,7 +6722,7 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.56666666666666665</v>
+        <v>0.61481481481481481</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
@@ -6662,7 +6738,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>1.7760416666666665</v>
+        <v>1.8241898148148148</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -6679,7 +6755,7 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.40833333333333333</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
@@ -6695,7 +6771,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>1.1545833333333331</v>
+        <v>1.1684722222222221</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -6712,7 +6788,7 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.72499999999999998</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
@@ -6728,7 +6804,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>1.0962499999999999</v>
+        <v>1.0379166666666666</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -6745,7 +6821,7 @@
       </c>
       <c r="B35" s="34">
         <f>Quiz!W35</f>
-        <v>0.875</v>
+        <v>0.83703703703703702</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
@@ -6761,11 +6837,11 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>2.25875</v>
+        <v>2.2207870370370371</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H35" s="51">
         <f t="shared" si="8"/>
@@ -6778,7 +6854,7 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.55000000000000004</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
@@ -6794,7 +6870,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>1.4200000000000002</v>
+        <v>1.3811111111111112</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -6811,7 +6887,7 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.71666666666666667</v>
+        <v>0.6962962962962963</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
@@ -6827,7 +6903,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>1.5135416666666668</v>
+        <v>1.4931712962962962</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -6844,7 +6920,7 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.35</v>
+        <v>0.31111111111111112</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
@@ -6860,11 +6936,11 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.78125</v>
+        <v>0.74236111111111103</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H38" s="51">
         <f t="shared" si="8"/>
@@ -6877,7 +6953,7 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.47499999999999998</v>
+        <v>0.42222222222222222</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
@@ -6893,7 +6969,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.3374999999999999</v>
+        <v>1.2847222222222221</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -6931,7 +7007,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="40">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="40">
         <v>10</v>
@@ -6950,7 +7026,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.59254385964912282</v>
+        <v>0.55711500974658856</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
@@ -6966,11 +7042,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>1.5249616228070175</v>
+        <v>1.4895327729044832</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>1.5263157894736843</v>
+        <v>1.486842105263158</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -6983,7 +7059,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.19722920647359038</v>
+        <v>0.18323423086410043</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
@@ -6999,11 +7075,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>0.51507120218139735</v>
+        <v>0.50579870921125814</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>0.58062604168646703</v>
+        <v>0.56337355118893517</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -7016,7 +7092,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.58333333333333326</v>
+        <v>0.57037037037037042</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
@@ -7032,7 +7108,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>1.5128125000000001</v>
+        <v>1.5067939814814815</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF59C31-9D6F-4046-88B1-F664118D49E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552FD061-B0A0-954F-A4CF-A8A33E8227CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="3140" windowWidth="32920" windowHeight="19260" tabRatio="334" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="1280" windowWidth="32920" windowHeight="19260" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -3678,7 +3678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -3743,7 +3743,9 @@
       <c r="E2" s="54">
         <v>75</v>
       </c>
-      <c r="F2" s="52"/>
+      <c r="F2" s="54">
+        <v>87</v>
+      </c>
       <c r="G2" s="52"/>
       <c r="H2" s="52"/>
       <c r="I2" s="52"/>
@@ -3751,7 +3753,7 @@
       <c r="K2" s="52"/>
       <c r="L2" s="34">
         <f>IF(SUM($B$45:$I$45)&gt;0,1.5*(B2/$B$41+C2/$C$41+D2/$D$41+E2/$E$41+F2/$F$41+G2/$G$41+H2/$H$41+I2/$I$41+J2/$J$41+K2/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>1.2150000000000001</v>
+        <v>1.2330000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3770,7 +3772,9 @@
       <c r="E3" s="54">
         <v>0</v>
       </c>
-      <c r="F3" s="52"/>
+      <c r="F3" s="54">
+        <v>55</v>
+      </c>
       <c r="G3" s="52"/>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
@@ -3778,7 +3782,7 @@
       <c r="K3" s="52"/>
       <c r="L3" s="34">
         <f t="shared" ref="L3:L39" si="0">IF(SUM($B$45:$I$45)&gt;0,1.5*(B3/$B$41+C3/$C$41+D3/$D$41+E3/$E$41+F3/$F$41+G3/$G$41+H3/$H$41+I3/$I$41+J3/$J$41+K3/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>0.79312500000000008</v>
+        <v>0.79949999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3797,7 +3801,9 @@
       <c r="E4" s="54">
         <v>31</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="54">
+        <v>75</v>
+      </c>
       <c r="G4" s="52"/>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
@@ -3805,7 +3811,7 @@
       <c r="K4" s="52"/>
       <c r="L4" s="34">
         <f t="shared" si="0"/>
-        <v>1.2093750000000001</v>
+        <v>1.1925000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3824,7 +3830,9 @@
       <c r="E5" s="54">
         <v>59</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="54">
+        <v>55.5</v>
+      </c>
       <c r="G5" s="52"/>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
@@ -3832,7 +3840,7 @@
       <c r="K5" s="52"/>
       <c r="L5" s="34">
         <f t="shared" si="0"/>
-        <v>0.88500000000000001</v>
+        <v>0.87450000000000006</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3851,7 +3859,9 @@
       <c r="E6" s="54">
         <v>67</v>
       </c>
-      <c r="F6" s="52"/>
+      <c r="F6" s="54">
+        <v>53.5</v>
+      </c>
       <c r="G6" s="52"/>
       <c r="H6" s="52"/>
       <c r="I6" s="52"/>
@@ -3859,7 +3869,7 @@
       <c r="K6" s="52"/>
       <c r="L6" s="34">
         <f t="shared" si="0"/>
-        <v>1.17</v>
+        <v>1.0965</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3878,7 +3888,9 @@
       <c r="E7" s="54">
         <v>0</v>
       </c>
-      <c r="F7" s="52"/>
+      <c r="F7" s="54">
+        <v>0</v>
+      </c>
       <c r="G7" s="52"/>
       <c r="H7" s="52"/>
       <c r="I7" s="52"/>
@@ -3905,7 +3917,9 @@
       <c r="E8" s="54">
         <v>82</v>
       </c>
-      <c r="F8" s="52"/>
+      <c r="F8" s="54">
+        <v>88</v>
+      </c>
       <c r="G8" s="52"/>
       <c r="H8" s="52"/>
       <c r="I8" s="52"/>
@@ -3913,7 +3927,7 @@
       <c r="K8" s="52"/>
       <c r="L8" s="34">
         <f t="shared" si="0"/>
-        <v>1.276875</v>
+        <v>1.2855000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3932,7 +3946,9 @@
       <c r="E9" s="54">
         <v>96</v>
       </c>
-      <c r="F9" s="52"/>
+      <c r="F9" s="54">
+        <v>90</v>
+      </c>
       <c r="G9" s="52"/>
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
@@ -3940,7 +3956,7 @@
       <c r="K9" s="52"/>
       <c r="L9" s="34">
         <f t="shared" si="0"/>
-        <v>1.4737499999999999</v>
+        <v>1.4490000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3959,7 +3975,9 @@
       <c r="E10" s="54">
         <v>75</v>
       </c>
-      <c r="F10" s="52"/>
+      <c r="F10" s="54">
+        <v>88</v>
+      </c>
       <c r="G10" s="52"/>
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
@@ -3967,7 +3985,7 @@
       <c r="K10" s="52"/>
       <c r="L10" s="34">
         <f t="shared" si="0"/>
-        <v>1.2225000000000001</v>
+        <v>1.2420000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3986,7 +4004,9 @@
       <c r="E11" s="54">
         <v>0</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="54">
+        <v>0</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
@@ -3994,7 +4014,7 @@
       <c r="K11" s="52"/>
       <c r="L11" s="34">
         <f t="shared" si="0"/>
-        <v>0.18375</v>
+        <v>0.14699999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4013,7 +4033,9 @@
       <c r="E12" s="54">
         <v>39</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="54">
+        <v>33.5</v>
+      </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
@@ -4021,7 +4043,7 @@
       <c r="K12" s="52"/>
       <c r="L12" s="34">
         <f t="shared" si="0"/>
-        <v>0.56437499999999996</v>
+        <v>0.55199999999999994</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4040,7 +4062,9 @@
       <c r="E13" s="54">
         <v>95</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="54">
+        <v>98.5</v>
+      </c>
       <c r="G13" s="52"/>
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
@@ -4048,7 +4072,7 @@
       <c r="K13" s="52"/>
       <c r="L13" s="34">
         <f t="shared" si="0"/>
-        <v>1.4118749999999998</v>
+        <v>1.425</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4067,7 +4091,9 @@
       <c r="E14" s="54">
         <v>80</v>
       </c>
-      <c r="F14" s="52"/>
+      <c r="F14" s="54">
+        <v>77</v>
+      </c>
       <c r="G14" s="52"/>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
@@ -4075,7 +4101,7 @@
       <c r="K14" s="52"/>
       <c r="L14" s="34">
         <f t="shared" si="0"/>
-        <v>1.24875</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4094,7 +4120,9 @@
       <c r="E15" s="54">
         <v>0</v>
       </c>
-      <c r="F15" s="52"/>
+      <c r="F15" s="54">
+        <v>0</v>
+      </c>
       <c r="G15" s="52"/>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
@@ -4102,7 +4130,7 @@
       <c r="K15" s="52"/>
       <c r="L15" s="34">
         <f t="shared" si="0"/>
-        <v>0.13312499999999999</v>
+        <v>0.1065</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4121,7 +4149,9 @@
       <c r="E16" s="54">
         <v>99</v>
       </c>
-      <c r="F16" s="52"/>
+      <c r="F16" s="54">
+        <v>97.5</v>
+      </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
@@ -4129,7 +4159,7 @@
       <c r="K16" s="52"/>
       <c r="L16" s="34">
         <f t="shared" si="0"/>
-        <v>1.4043749999999999</v>
+        <v>1.4159999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4148,7 +4178,9 @@
       <c r="E17" s="54">
         <v>78</v>
       </c>
-      <c r="F17" s="52"/>
+      <c r="F17" s="54">
+        <v>88.5</v>
+      </c>
       <c r="G17" s="52"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -4156,7 +4188,7 @@
       <c r="K17" s="52"/>
       <c r="L17" s="34">
         <f t="shared" si="0"/>
-        <v>1.1456249999999999</v>
+        <v>1.1819999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4175,7 +4207,9 @@
       <c r="E18" s="54">
         <v>50</v>
       </c>
-      <c r="F18" s="52"/>
+      <c r="F18" s="54">
+        <v>68.5</v>
+      </c>
       <c r="G18" s="52"/>
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
@@ -4183,7 +4217,7 @@
       <c r="K18" s="52"/>
       <c r="L18" s="34">
         <f t="shared" si="0"/>
-        <v>0.91312499999999996</v>
+        <v>0.93599999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4202,7 +4236,9 @@
       <c r="E19" s="54">
         <v>95</v>
       </c>
-      <c r="F19" s="52"/>
+      <c r="F19" s="54">
+        <v>88.5</v>
+      </c>
       <c r="G19" s="52"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
@@ -4210,7 +4246,7 @@
       <c r="K19" s="52"/>
       <c r="L19" s="34">
         <f t="shared" si="0"/>
-        <v>1.288125</v>
+        <v>1.2959999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4229,7 +4265,9 @@
       <c r="E20" s="54">
         <v>90</v>
       </c>
-      <c r="F20" s="52"/>
+      <c r="F20" s="54">
+        <v>88.5</v>
+      </c>
       <c r="G20" s="52"/>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
@@ -4237,7 +4275,7 @@
       <c r="K20" s="52"/>
       <c r="L20" s="34">
         <f t="shared" si="0"/>
-        <v>1.2731250000000001</v>
+        <v>1.284</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4256,7 +4294,9 @@
       <c r="E21" s="54">
         <v>0</v>
       </c>
-      <c r="F21" s="52"/>
+      <c r="F21" s="54">
+        <v>0</v>
+      </c>
       <c r="G21" s="52"/>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
@@ -4264,7 +4304,7 @@
       <c r="K21" s="52"/>
       <c r="L21" s="34">
         <f t="shared" si="0"/>
-        <v>0.69187500000000002</v>
+        <v>0.55349999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4283,7 +4323,9 @@
       <c r="E22" s="54">
         <v>98</v>
       </c>
-      <c r="F22" s="52"/>
+      <c r="F22" s="54">
+        <v>99.5</v>
+      </c>
       <c r="G22" s="52"/>
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
@@ -4291,7 +4333,7 @@
       <c r="K22" s="52"/>
       <c r="L22" s="34">
         <f t="shared" si="0"/>
-        <v>1.3518749999999999</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4310,7 +4352,9 @@
       <c r="E23" s="54">
         <v>78</v>
       </c>
-      <c r="F23" s="52"/>
+      <c r="F23" s="54">
+        <v>89.5</v>
+      </c>
       <c r="G23" s="52"/>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
@@ -4318,7 +4362,7 @@
       <c r="K23" s="52"/>
       <c r="L23" s="34">
         <f t="shared" si="0"/>
-        <v>1.18875</v>
+        <v>1.2194999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4337,7 +4381,9 @@
       <c r="E24" s="54">
         <v>22</v>
       </c>
-      <c r="F24" s="52"/>
+      <c r="F24" s="54">
+        <v>26.5</v>
+      </c>
       <c r="G24" s="52"/>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
@@ -4345,7 +4391,7 @@
       <c r="K24" s="52"/>
       <c r="L24" s="34">
         <f t="shared" si="0"/>
-        <v>0.70124999999999993</v>
+        <v>0.64049999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4364,7 +4410,9 @@
       <c r="E25" s="54">
         <v>57</v>
       </c>
-      <c r="F25" s="52"/>
+      <c r="F25" s="54">
+        <v>61</v>
+      </c>
       <c r="G25" s="52"/>
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
@@ -4372,7 +4420,7 @@
       <c r="K25" s="52"/>
       <c r="L25" s="34">
         <f t="shared" si="0"/>
-        <v>0.96374999999999988</v>
+        <v>0.95399999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4391,7 +4439,9 @@
       <c r="E26" s="54">
         <v>61</v>
       </c>
-      <c r="F26" s="52"/>
+      <c r="F26" s="54">
+        <v>74.5</v>
+      </c>
       <c r="G26" s="52"/>
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
@@ -4399,7 +4449,7 @@
       <c r="K26" s="52"/>
       <c r="L26" s="34">
         <f t="shared" si="0"/>
-        <v>0.55499999999999994</v>
+        <v>0.66750000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4418,7 +4468,9 @@
       <c r="E27" s="54">
         <v>55</v>
       </c>
-      <c r="F27" s="52"/>
+      <c r="F27" s="54">
+        <v>55</v>
+      </c>
       <c r="G27" s="52"/>
       <c r="H27" s="52"/>
       <c r="I27" s="52"/>
@@ -4426,7 +4478,7 @@
       <c r="K27" s="52"/>
       <c r="L27" s="34">
         <f t="shared" si="0"/>
-        <v>0.91875000000000007</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4445,7 +4497,9 @@
       <c r="E28" s="54">
         <v>0</v>
       </c>
-      <c r="F28" s="52"/>
+      <c r="F28" s="54">
+        <v>33.5</v>
+      </c>
       <c r="G28" s="52"/>
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>
@@ -4453,7 +4507,7 @@
       <c r="K28" s="52"/>
       <c r="L28" s="34">
         <f t="shared" si="0"/>
-        <v>0.54937499999999995</v>
+        <v>0.53999999999999992</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4472,7 +4526,9 @@
       <c r="E29" s="54">
         <v>30</v>
       </c>
-      <c r="F29" s="52"/>
+      <c r="F29" s="54">
+        <v>38.5</v>
+      </c>
       <c r="G29" s="52"/>
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
@@ -4480,7 +4536,7 @@
       <c r="K29" s="52"/>
       <c r="L29" s="34">
         <f t="shared" si="0"/>
-        <v>0.72375</v>
+        <v>0.69450000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4499,7 +4555,9 @@
       <c r="E30" s="54">
         <v>70</v>
       </c>
-      <c r="F30" s="52"/>
+      <c r="F30" s="54">
+        <v>51.5</v>
+      </c>
       <c r="G30" s="52"/>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
@@ -4507,7 +4565,7 @@
       <c r="K30" s="52"/>
       <c r="L30" s="34">
         <f t="shared" si="0"/>
-        <v>1.0537500000000002</v>
+        <v>0.99750000000000016</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4526,7 +4584,9 @@
       <c r="E31" s="54">
         <v>76</v>
       </c>
-      <c r="F31" s="52"/>
+      <c r="F31" s="54">
+        <v>93</v>
+      </c>
       <c r="G31" s="52"/>
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
@@ -4534,7 +4594,7 @@
       <c r="K31" s="52"/>
       <c r="L31" s="34">
         <f t="shared" si="0"/>
-        <v>1.2506249999999999</v>
+        <v>1.2794999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4553,7 +4613,9 @@
       <c r="E32" s="54">
         <v>67</v>
       </c>
-      <c r="F32" s="52"/>
+      <c r="F32" s="54">
+        <v>79.5</v>
+      </c>
       <c r="G32" s="52"/>
       <c r="H32" s="52"/>
       <c r="I32" s="52"/>
@@ -4561,7 +4623,7 @@
       <c r="K32" s="52"/>
       <c r="L32" s="34">
         <f t="shared" si="0"/>
-        <v>1.2093749999999999</v>
+        <v>1.206</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4580,7 +4642,9 @@
       <c r="E33" s="54">
         <v>15</v>
       </c>
-      <c r="F33" s="52"/>
+      <c r="F33" s="54">
+        <v>36</v>
+      </c>
       <c r="G33" s="52"/>
       <c r="H33" s="52"/>
       <c r="I33" s="52"/>
@@ -4588,7 +4652,7 @@
       <c r="K33" s="52"/>
       <c r="L33" s="34">
         <f t="shared" si="0"/>
-        <v>0.74624999999999986</v>
+        <v>0.70499999999999985</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4607,7 +4671,9 @@
       <c r="E34" s="54">
         <v>0</v>
       </c>
-      <c r="F34" s="52"/>
+      <c r="F34" s="54">
+        <v>0</v>
+      </c>
       <c r="G34" s="52"/>
       <c r="H34" s="52"/>
       <c r="I34" s="52"/>
@@ -4615,7 +4681,7 @@
       <c r="K34" s="52"/>
       <c r="L34" s="34">
         <f t="shared" si="0"/>
-        <v>0.37124999999999997</v>
+        <v>0.29699999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4634,7 +4700,9 @@
       <c r="E35" s="54">
         <v>97</v>
       </c>
-      <c r="F35" s="52"/>
+      <c r="F35" s="54">
+        <v>99.5</v>
+      </c>
       <c r="G35" s="52"/>
       <c r="H35" s="52"/>
       <c r="I35" s="52"/>
@@ -4642,7 +4710,7 @@
       <c r="K35" s="52"/>
       <c r="L35" s="34">
         <f t="shared" si="0"/>
-        <v>1.3837499999999998</v>
+        <v>1.4055</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4661,7 +4729,9 @@
       <c r="E36" s="54">
         <v>52</v>
       </c>
-      <c r="F36" s="52"/>
+      <c r="F36" s="54">
+        <v>77.5</v>
+      </c>
       <c r="G36" s="52"/>
       <c r="H36" s="52"/>
       <c r="I36" s="52"/>
@@ -4669,7 +4739,7 @@
       <c r="K36" s="52"/>
       <c r="L36" s="34">
         <f t="shared" si="0"/>
-        <v>0.87000000000000011</v>
+        <v>0.92849999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4688,7 +4758,9 @@
       <c r="E37" s="54">
         <v>41</v>
       </c>
-      <c r="F37" s="52"/>
+      <c r="F37" s="54">
+        <v>0</v>
+      </c>
       <c r="G37" s="52"/>
       <c r="H37" s="52"/>
       <c r="I37" s="52"/>
@@ -4696,7 +4768,7 @@
       <c r="K37" s="52"/>
       <c r="L37" s="34">
         <f t="shared" si="0"/>
-        <v>0.796875</v>
+        <v>0.63749999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4715,7 +4787,9 @@
       <c r="E38" s="54">
         <v>0</v>
       </c>
-      <c r="F38" s="52"/>
+      <c r="F38" s="54">
+        <v>0</v>
+      </c>
       <c r="G38" s="52"/>
       <c r="H38" s="52"/>
       <c r="I38" s="52"/>
@@ -4723,7 +4797,7 @@
       <c r="K38" s="52"/>
       <c r="L38" s="34">
         <f t="shared" si="0"/>
-        <v>0.43124999999999997</v>
+        <v>0.34499999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4742,7 +4816,9 @@
       <c r="E39" s="54">
         <v>69</v>
       </c>
-      <c r="F39" s="52"/>
+      <c r="F39" s="54">
+        <v>60</v>
+      </c>
       <c r="G39" s="52"/>
       <c r="H39" s="52"/>
       <c r="I39" s="52"/>
@@ -4750,7 +4826,7 @@
       <c r="K39" s="52"/>
       <c r="L39" s="34">
         <f t="shared" si="0"/>
-        <v>0.86249999999999993</v>
+        <v>0.86999999999999988</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4824,9 +4900,9 @@
         <f t="shared" si="1"/>
         <v>52.60526315789474</v>
       </c>
-      <c r="F42" s="30" t="e">
+      <c r="F42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>58.092105263157897</v>
       </c>
       <c r="G42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -4850,7 +4926,7 @@
       </c>
       <c r="L42" s="30">
         <f t="shared" si="1"/>
-        <v>0.93241776315789449</v>
+        <v>0.92021052631578937</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4873,9 +4949,9 @@
         <f t="shared" si="2"/>
         <v>34.653137975521034</v>
       </c>
-      <c r="F43" s="30" t="e">
+      <c r="F43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>34.44440394339329</v>
       </c>
       <c r="G43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -4899,7 +4975,7 @@
       </c>
       <c r="L43" s="30">
         <f t="shared" si="2"/>
-        <v>0.38509229575114723</v>
+        <v>0.40244339255419093</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4922,9 +4998,9 @@
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="F44" s="30" t="e">
+      <c r="F44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>64.75</v>
       </c>
       <c r="G44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -4948,7 +5024,7 @@
       </c>
       <c r="L44" s="30">
         <f t="shared" si="3"/>
-        <v>0.94124999999999992</v>
+        <v>0.94499999999999995</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4973,7 +5049,7 @@
       </c>
       <c r="F45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45" s="33">
         <f t="shared" si="4"/>
@@ -5683,7 +5759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5735,7 +5811,7 @@
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
-        <v>1.2150000000000001</v>
+        <v>1.2330000000000001</v>
       </c>
       <c r="D2" s="43">
         <f>Exams!B2</f>
@@ -5747,7 +5823,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>1.6890740740740742</v>
+        <v>1.7070740740740742</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -5769,7 +5845,7 @@
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
-        <v>0.79312500000000008</v>
+        <v>0.79949999999999999</v>
       </c>
       <c r="D3" s="43">
         <f>Exams!B3</f>
@@ -5781,7 +5857,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>0.88201388888888899</v>
+        <v>0.88838888888888889</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -5802,7 +5878,7 @@
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
-        <v>1.2093750000000001</v>
+        <v>1.1925000000000001</v>
       </c>
       <c r="D4" s="43">
         <f>Exams!B4</f>
@@ -5814,7 +5890,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>1.8464120370370372</v>
+        <v>1.8295370370370372</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -5835,7 +5911,7 @@
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
-        <v>0.88500000000000001</v>
+        <v>0.87450000000000006</v>
       </c>
       <c r="D5" s="43">
         <f>Exams!B5</f>
@@ -5847,7 +5923,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>1.4775925925925926</v>
+        <v>1.4670925925925926</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -5868,7 +5944,7 @@
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
-        <v>1.17</v>
+        <v>1.0965</v>
       </c>
       <c r="D6" s="43">
         <f>Exams!B6</f>
@@ -5880,7 +5956,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>1.844074074074074</v>
+        <v>1.7705740740740741</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -5934,7 +6010,7 @@
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
-        <v>1.276875</v>
+        <v>1.2855000000000001</v>
       </c>
       <c r="D8" s="43">
         <f>Exams!B8</f>
@@ -5946,7 +6022,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>1.9583564814814816</v>
+        <v>1.9669814814814814</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -5967,7 +6043,7 @@
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
-        <v>1.4737499999999999</v>
+        <v>1.4490000000000001</v>
       </c>
       <c r="D9" s="43">
         <f>Exams!B9</f>
@@ -5979,7 +6055,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>1.9626388888888888</v>
+        <v>1.937888888888889</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -6000,7 +6076,7 @@
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
-        <v>1.2225000000000001</v>
+        <v>1.2420000000000002</v>
       </c>
       <c r="D10" s="43">
         <f>Exams!B10</f>
@@ -6012,7 +6088,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>1.7706481481481484</v>
+        <v>1.7901481481481483</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -6033,7 +6109,7 @@
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
-        <v>0.18375</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="D11" s="43">
         <f>Exams!B11</f>
@@ -6045,7 +6121,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>0.46523148148148152</v>
+        <v>0.42848148148148146</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -6066,7 +6142,7 @@
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
-        <v>0.56437499999999996</v>
+        <v>0.55199999999999994</v>
       </c>
       <c r="D12" s="43">
         <f>Exams!B12</f>
@@ -6078,7 +6154,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>1.1791898148148148</v>
+        <v>1.1668148148148147</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -6099,7 +6175,7 @@
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
-        <v>1.4118749999999998</v>
+        <v>1.425</v>
       </c>
       <c r="D13" s="43">
         <f>Exams!B13</f>
@@ -6111,7 +6187,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>2.2785416666666665</v>
+        <v>2.291666666666667</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -6132,7 +6208,7 @@
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
-        <v>1.24875</v>
+        <v>1.23</v>
       </c>
       <c r="D14" s="43">
         <f>Exams!B14</f>
@@ -6144,7 +6220,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>2.0043055555555558</v>
+        <v>1.9855555555555555</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -6165,7 +6241,7 @@
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
-        <v>0.13312499999999999</v>
+        <v>0.1065</v>
       </c>
       <c r="D15" s="43">
         <f>Exams!B15</f>
@@ -6177,7 +6253,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.22942129629629629</v>
+        <v>0.20279629629629631</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -6198,7 +6274,7 @@
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
-        <v>1.4043749999999999</v>
+        <v>1.4159999999999999</v>
       </c>
       <c r="D16" s="43">
         <f>Exams!B16</f>
@@ -6210,7 +6286,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>2.1154861111111112</v>
+        <v>2.1271111111111112</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -6231,7 +6307,7 @@
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
-        <v>1.1456249999999999</v>
+        <v>1.1819999999999999</v>
       </c>
       <c r="D17" s="43">
         <f>Exams!B17</f>
@@ -6243,7 +6319,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>1.6493287037037034</v>
+        <v>1.6857037037037035</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -6264,7 +6340,7 @@
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
-        <v>0.91312499999999996</v>
+        <v>0.93599999999999994</v>
       </c>
       <c r="D18" s="43">
         <f>Exams!B18</f>
@@ -6276,7 +6352,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>1.4612731481481482</v>
+        <v>1.4841481481481482</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -6297,7 +6373,7 @@
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
-        <v>1.288125</v>
+        <v>1.2959999999999998</v>
       </c>
       <c r="D19" s="43">
         <f>Exams!B19</f>
@@ -6309,7 +6385,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>1.9399768518518519</v>
+        <v>1.9478518518518517</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -6330,7 +6406,7 @@
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
-        <v>1.2731250000000001</v>
+        <v>1.284</v>
       </c>
       <c r="D20" s="43">
         <f>Exams!B20</f>
@@ -6342,7 +6418,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>1.9546064814814814</v>
+        <v>1.9654814814814814</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6363,7 +6439,7 @@
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
-        <v>0.69187500000000002</v>
+        <v>0.55349999999999999</v>
       </c>
       <c r="D21" s="43">
         <f>Exams!B21</f>
@@ -6375,7 +6451,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>0.89187499999999997</v>
+        <v>0.75350000000000006</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -6396,7 +6472,7 @@
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
-        <v>1.3518749999999999</v>
+        <v>1.38</v>
       </c>
       <c r="D22" s="43">
         <f>Exams!B22</f>
@@ -6408,7 +6484,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>2.1740972222222221</v>
+        <v>2.2022222222222219</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
@@ -6429,7 +6505,7 @@
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
-        <v>1.18875</v>
+        <v>1.2194999999999998</v>
       </c>
       <c r="D23" s="43">
         <f>Exams!B23</f>
@@ -6441,7 +6517,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>1.9220833333333331</v>
+        <v>1.952833333333333</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -6462,7 +6538,7 @@
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
-        <v>0.70124999999999993</v>
+        <v>0.64049999999999996</v>
       </c>
       <c r="D24" s="43">
         <f>Exams!B24</f>
@@ -6474,7 +6550,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>1.2345833333333331</v>
+        <v>1.1738333333333333</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -6495,7 +6571,7 @@
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
-        <v>0.96374999999999988</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="D25" s="43">
         <f>Exams!B25</f>
@@ -6507,7 +6583,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>1.6081944444444445</v>
+        <v>1.5984444444444446</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -6528,7 +6604,7 @@
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
-        <v>0.55499999999999994</v>
+        <v>0.66750000000000009</v>
       </c>
       <c r="D26" s="43">
         <f>Exams!B26</f>
@@ -6540,7 +6616,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>1.2512962962962964</v>
+        <v>1.3637962962962964</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6561,7 +6637,7 @@
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
-        <v>0.91875000000000007</v>
+        <v>0.9</v>
       </c>
       <c r="D27" s="43">
         <f>Exams!B27</f>
@@ -6573,7 +6649,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>1.4520833333333334</v>
+        <v>1.4333333333333333</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -6594,7 +6670,7 @@
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
-        <v>0.54937499999999995</v>
+        <v>0.53999999999999992</v>
       </c>
       <c r="D28" s="43">
         <f>Exams!B28</f>
@@ -6606,7 +6682,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.0086342592592592</v>
+        <v>0.99925925925925918</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -6627,7 +6703,7 @@
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
-        <v>0.72375</v>
+        <v>0.69450000000000001</v>
       </c>
       <c r="D29" s="43">
         <f>Exams!B29</f>
@@ -6639,7 +6715,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.234861111111111</v>
+        <v>1.2056111111111112</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -6660,7 +6736,7 @@
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
-        <v>1.0537500000000002</v>
+        <v>0.99750000000000016</v>
       </c>
       <c r="D30" s="43">
         <f>Exams!B30</f>
@@ -6672,7 +6748,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>1.5204166666666667</v>
+        <v>1.4641666666666668</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -6693,7 +6769,7 @@
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
-        <v>1.2506249999999999</v>
+        <v>1.2794999999999999</v>
       </c>
       <c r="D31" s="43">
         <f>Exams!B31</f>
@@ -6705,7 +6781,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>1.7987731481481481</v>
+        <v>1.8276481481481479</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -6726,7 +6802,7 @@
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
-        <v>1.2093749999999999</v>
+        <v>1.206</v>
       </c>
       <c r="D32" s="43">
         <f>Exams!B32</f>
@@ -6738,7 +6814,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>1.8241898148148148</v>
+        <v>1.8208148148148147</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -6759,7 +6835,7 @@
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
-        <v>0.74624999999999986</v>
+        <v>0.70499999999999985</v>
       </c>
       <c r="D33" s="43">
         <f>Exams!B33</f>
@@ -6771,7 +6847,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>1.1684722222222221</v>
+        <v>1.1272222222222221</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -6792,7 +6868,7 @@
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
-        <v>0.37124999999999997</v>
+        <v>0.29699999999999999</v>
       </c>
       <c r="D34" s="43">
         <f>Exams!B34</f>
@@ -6804,7 +6880,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>1.0379166666666666</v>
+        <v>0.96366666666666667</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -6825,7 +6901,7 @@
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
-        <v>1.3837499999999998</v>
+        <v>1.4055</v>
       </c>
       <c r="D35" s="43">
         <f>Exams!B35</f>
@@ -6837,7 +6913,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>2.2207870370370371</v>
+        <v>2.242537037037037</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -6858,7 +6934,7 @@
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
-        <v>0.87000000000000011</v>
+        <v>0.92849999999999999</v>
       </c>
       <c r="D36" s="43">
         <f>Exams!B36</f>
@@ -6870,7 +6946,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>1.3811111111111112</v>
+        <v>1.4396111111111112</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -6891,7 +6967,7 @@
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
-        <v>0.796875</v>
+        <v>0.63749999999999996</v>
       </c>
       <c r="D37" s="43">
         <f>Exams!B37</f>
@@ -6903,7 +6979,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>1.4931712962962962</v>
+        <v>1.3337962962962964</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -6924,7 +7000,7 @@
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
-        <v>0.43124999999999997</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="D38" s="43">
         <f>Exams!B38</f>
@@ -6936,7 +7012,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.74236111111111103</v>
+        <v>0.65611111111111109</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -6957,7 +7033,7 @@
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
-        <v>0.86249999999999993</v>
+        <v>0.86999999999999988</v>
       </c>
       <c r="D39" s="43">
         <f>Exams!B39</f>
@@ -6969,7 +7045,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.2847222222222221</v>
+        <v>1.2922222222222222</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -7030,7 +7106,7 @@
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
-        <v>0.93241776315789449</v>
+        <v>0.92021052631578937</v>
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
@@ -7042,7 +7118,7 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>1.4895327729044832</v>
+        <v>1.4773255360623783</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
@@ -7063,7 +7139,7 @@
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
-        <v>0.38509229575114723</v>
+        <v>0.40244339255419093</v>
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
@@ -7075,7 +7151,7 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>0.50579870921125814</v>
+        <v>0.52412017742067785</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
@@ -7096,7 +7172,7 @@
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
-        <v>0.94124999999999992</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="D44" s="30">
         <f t="shared" si="11"/>
@@ -7108,7 +7184,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>1.5067939814814815</v>
+        <v>1.4756203703703705</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{552FD061-B0A0-954F-A4CF-A8A33E8227CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEC49B8-C620-404A-B0EC-D5C290DCA98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="1280" windowWidth="32920" windowHeight="19260" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="1280" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -1082,7 +1082,9 @@
       <c r="K2" s="18">
         <v>3</v>
       </c>
-      <c r="L2" s="18"/>
+      <c r="L2" s="18">
+        <v>3</v>
+      </c>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
@@ -1095,7 +1097,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.47407407407407409</v>
+        <v>0.44666666666666666</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1131,7 +1133,9 @@
       <c r="K3" s="18">
         <v>0</v>
       </c>
-      <c r="L3" s="18"/>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
       <c r="M3" s="18"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
@@ -1144,7 +1148,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="34">
         <f t="shared" si="0"/>
-        <v>8.8888888888888892E-2</v>
+        <v>0.08</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1180,7 +1184,9 @@
       <c r="K4" s="18">
         <v>3</v>
       </c>
-      <c r="L4" s="18"/>
+      <c r="L4" s="18">
+        <v>9</v>
+      </c>
       <c r="M4" s="18"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
@@ -1193,7 +1199,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.63703703703703707</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1229,7 +1235,9 @@
       <c r="K5" s="18">
         <v>15</v>
       </c>
-      <c r="L5" s="18"/>
+      <c r="L5" s="18">
+        <v>9</v>
+      </c>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
@@ -1242,7 +1250,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.59259259259259256</v>
+        <v>0.59333333333333338</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1278,7 +1286,9 @@
       <c r="K6" s="18">
         <v>3</v>
       </c>
-      <c r="L6" s="18"/>
+      <c r="L6" s="18">
+        <v>9</v>
+      </c>
       <c r="M6" s="18"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
@@ -1291,7 +1301,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.67407407407407405</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1327,7 +1337,9 @@
       <c r="K7" s="18">
         <v>0</v>
       </c>
-      <c r="L7" s="18"/>
+      <c r="L7" s="18">
+        <v>3</v>
+      </c>
       <c r="M7" s="18"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
@@ -1340,7 +1352,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.64444444444444449</v>
+        <v>0.6</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1376,7 +1388,9 @@
       <c r="K8" s="18">
         <v>3</v>
       </c>
-      <c r="L8" s="18"/>
+      <c r="L8" s="18">
+        <v>3</v>
+      </c>
       <c r="M8" s="18"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
@@ -1389,7 +1403,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.68148148148148147</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1425,7 +1439,9 @@
       <c r="K9" s="18">
         <v>3</v>
       </c>
-      <c r="L9" s="18"/>
+      <c r="L9" s="18">
+        <v>9</v>
+      </c>
       <c r="M9" s="18"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
@@ -1438,7 +1454,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.48888888888888887</v>
+        <v>0.5</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1474,7 +1490,9 @@
       <c r="K10" s="18">
         <v>8</v>
       </c>
-      <c r="L10" s="18"/>
+      <c r="L10" s="18">
+        <v>9</v>
+      </c>
       <c r="M10" s="18"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
@@ -1487,7 +1505,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.54814814814814816</v>
+        <v>0.55333333333333334</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1523,7 +1541,9 @@
       <c r="K11" s="18">
         <v>0</v>
       </c>
-      <c r="L11" s="18"/>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
       <c r="M11" s="18"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
@@ -1536,7 +1556,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.2814814814814815</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1572,7 +1592,9 @@
       <c r="K12" s="18">
         <v>3</v>
       </c>
-      <c r="L12" s="18"/>
+      <c r="L12" s="18">
+        <v>3</v>
+      </c>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
@@ -1585,7 +1607,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.61481481481481481</v>
+        <v>0.57333333333333336</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1621,7 +1643,9 @@
       <c r="K13" s="18">
         <v>3</v>
       </c>
-      <c r="L13" s="18"/>
+      <c r="L13" s="18">
+        <v>15</v>
+      </c>
       <c r="M13" s="18"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
@@ -1634,7 +1658,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <v>0.88</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1670,7 +1694,9 @@
       <c r="K14" s="18">
         <v>3</v>
       </c>
-      <c r="L14" s="18"/>
+      <c r="L14" s="18">
+        <v>15</v>
+      </c>
       <c r="M14" s="18"/>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
@@ -1683,7 +1709,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.75555555555555554</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1718,7 +1744,9 @@
       <c r="K15" s="18">
         <v>0</v>
       </c>
-      <c r="L15" s="18"/>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
       <c r="M15" s="18"/>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
@@ -1731,7 +1759,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>9.6296296296296297E-2</v>
+        <v>8.666666666666667E-2</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1767,7 +1795,9 @@
       <c r="K16" s="18">
         <v>3</v>
       </c>
-      <c r="L16" s="18"/>
+      <c r="L16" s="18">
+        <v>15</v>
+      </c>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
@@ -1780,7 +1810,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>0.71111111111111114</v>
+        <v>0.74</v>
       </c>
       <c r="X16"/>
     </row>
@@ -1816,7 +1846,9 @@
       <c r="K17" s="18">
         <v>3</v>
       </c>
-      <c r="L17" s="18"/>
+      <c r="L17" s="18">
+        <v>3</v>
+      </c>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
@@ -1829,7 +1861,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.50370370370370365</v>
+        <v>0.47333333333333333</v>
       </c>
       <c r="X17"/>
     </row>
@@ -1865,7 +1897,9 @@
       <c r="K18" s="18">
         <v>3</v>
       </c>
-      <c r="L18" s="18"/>
+      <c r="L18" s="18">
+        <v>9</v>
+      </c>
       <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
@@ -1878,7 +1912,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.54814814814814816</v>
+        <v>0.55333333333333334</v>
       </c>
       <c r="X18"/>
     </row>
@@ -1914,7 +1948,9 @@
       <c r="K19" s="18">
         <v>3</v>
       </c>
-      <c r="L19" s="18"/>
+      <c r="L19" s="18">
+        <v>15</v>
+      </c>
       <c r="M19" s="18"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
@@ -1927,7 +1963,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.6518518518518519</v>
+        <v>0.68666666666666665</v>
       </c>
       <c r="X19"/>
     </row>
@@ -1963,7 +1999,9 @@
       <c r="K20" s="18">
         <v>3</v>
       </c>
-      <c r="L20" s="18"/>
+      <c r="L20" s="18">
+        <v>15</v>
+      </c>
       <c r="M20" s="18"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -1976,7 +2014,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.68148148148148147</v>
+        <v>0.71333333333333337</v>
       </c>
       <c r="X20"/>
     </row>
@@ -2012,7 +2050,9 @@
       <c r="K21" s="18">
         <v>0</v>
       </c>
-      <c r="L21" s="18"/>
+      <c r="L21" s="18">
+        <v>9</v>
+      </c>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
@@ -2025,7 +2065,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="X21"/>
     </row>
@@ -2061,7 +2101,9 @@
       <c r="K22" s="18">
         <v>3</v>
       </c>
-      <c r="L22" s="18"/>
+      <c r="L22" s="18">
+        <v>15</v>
+      </c>
       <c r="M22" s="18"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
@@ -2074,7 +2116,7 @@
       <c r="V22" s="18"/>
       <c r="W22" s="34">
         <f t="shared" si="0"/>
-        <v>0.82222222222222219</v>
+        <v>0.84</v>
       </c>
       <c r="X22"/>
     </row>
@@ -2110,7 +2152,9 @@
       <c r="K23" s="18">
         <v>3</v>
       </c>
-      <c r="L23" s="18"/>
+      <c r="L23" s="18">
+        <v>15</v>
+      </c>
       <c r="M23" s="18"/>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
@@ -2123,7 +2167,7 @@
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.76</v>
       </c>
       <c r="X23"/>
     </row>
@@ -2159,7 +2203,9 @@
       <c r="K24" s="18">
         <v>3</v>
       </c>
-      <c r="L24" s="18"/>
+      <c r="L24" s="18">
+        <v>3</v>
+      </c>
       <c r="M24" s="18"/>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
@@ -2172,7 +2218,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="X24"/>
     </row>
@@ -2208,7 +2254,9 @@
       <c r="K25" s="18">
         <v>3</v>
       </c>
-      <c r="L25" s="18"/>
+      <c r="L25" s="18">
+        <v>3</v>
+      </c>
       <c r="M25" s="18"/>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
@@ -2221,7 +2269,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.64444444444444449</v>
+        <v>0.6</v>
       </c>
       <c r="X25"/>
     </row>
@@ -2257,7 +2305,9 @@
       <c r="K26" s="18">
         <v>15</v>
       </c>
-      <c r="L26" s="18"/>
+      <c r="L26" s="18">
+        <v>0</v>
+      </c>
       <c r="M26" s="18"/>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -2270,7 +2320,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.6962962962962963</v>
+        <v>0.62666666666666671</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2306,7 +2356,9 @@
       <c r="K27" s="18">
         <v>3</v>
       </c>
-      <c r="L27" s="18"/>
+      <c r="L27" s="18">
+        <v>9</v>
+      </c>
       <c r="M27" s="18"/>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
@@ -2319,7 +2371,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.54</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2355,7 +2407,9 @@
       <c r="K28" s="18">
         <v>0</v>
       </c>
-      <c r="L28" s="18"/>
+      <c r="L28" s="18">
+        <v>3</v>
+      </c>
       <c r="M28" s="18"/>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
@@ -2368,7 +2422,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.45925925925925926</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2404,7 +2458,9 @@
       <c r="K29" s="18">
         <v>8</v>
       </c>
-      <c r="L29" s="18"/>
+      <c r="L29" s="18">
+        <v>9</v>
+      </c>
       <c r="M29" s="18"/>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
@@ -2417,7 +2473,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.51111111111111107</v>
+        <v>0.52</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2453,7 +2509,9 @@
       <c r="K30" s="18">
         <v>8</v>
       </c>
-      <c r="L30" s="18"/>
+      <c r="L30" s="18">
+        <v>3</v>
+      </c>
       <c r="M30" s="18"/>
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
@@ -2466,7 +2524,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.44</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2502,7 +2560,9 @@
       <c r="K31" s="18">
         <v>3</v>
       </c>
-      <c r="L31" s="18"/>
+      <c r="L31" s="18">
+        <v>9</v>
+      </c>
       <c r="M31" s="18"/>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
@@ -2515,7 +2575,7 @@
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.54814814814814816</v>
+        <v>0.55333333333333334</v>
       </c>
       <c r="X31"/>
     </row>
@@ -2551,7 +2611,9 @@
       <c r="K32" s="18">
         <v>15</v>
       </c>
-      <c r="L32" s="18"/>
+      <c r="L32" s="18">
+        <v>15</v>
+      </c>
       <c r="M32" s="18"/>
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
@@ -2564,7 +2626,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.61481481481481481</v>
+        <v>0.65333333333333332</v>
       </c>
       <c r="X32"/>
     </row>
@@ -2600,7 +2662,9 @@
       <c r="K33" s="18">
         <v>8</v>
       </c>
-      <c r="L33" s="18"/>
+      <c r="L33" s="18">
+        <v>3</v>
+      </c>
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
       <c r="O33" s="44"/>
@@ -2613,7 +2677,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.42222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="X33"/>
     </row>
@@ -2649,7 +2713,9 @@
       <c r="K34" s="18">
         <v>3</v>
       </c>
-      <c r="L34" s="18"/>
+      <c r="L34" s="18">
+        <v>12</v>
+      </c>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
@@ -2662,7 +2728,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.68</v>
       </c>
       <c r="X34"/>
     </row>
@@ -2698,7 +2764,9 @@
       <c r="K35" s="18">
         <v>8</v>
       </c>
-      <c r="L35" s="18"/>
+      <c r="L35" s="18">
+        <v>15</v>
+      </c>
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
@@ -2711,7 +2779,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="34">
         <f t="shared" si="0"/>
-        <v>0.83703703703703702</v>
+        <v>0.85333333333333339</v>
       </c>
       <c r="X35"/>
     </row>
@@ -2747,7 +2815,9 @@
       <c r="K36" s="18">
         <v>3</v>
       </c>
-      <c r="L36" s="18"/>
+      <c r="L36" s="18">
+        <v>0</v>
+      </c>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
@@ -2760,7 +2830,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.51111111111111107</v>
+        <v>0.46</v>
       </c>
       <c r="X36"/>
     </row>
@@ -2796,7 +2866,9 @@
       <c r="K37" s="18">
         <v>8</v>
       </c>
-      <c r="L37" s="18"/>
+      <c r="L37" s="18">
+        <v>3</v>
+      </c>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
@@ -2809,7 +2881,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.6962962962962963</v>
+        <v>0.64666666666666661</v>
       </c>
       <c r="X37"/>
     </row>
@@ -2845,7 +2917,9 @@
       <c r="K38" s="18">
         <v>0</v>
       </c>
-      <c r="L38" s="18"/>
+      <c r="L38" s="18">
+        <v>0</v>
+      </c>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
@@ -2858,7 +2932,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.31111111111111112</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="X38"/>
     </row>
@@ -2894,7 +2968,9 @@
       <c r="K39" s="18">
         <v>0</v>
       </c>
-      <c r="L39" s="18"/>
+      <c r="L39" s="18">
+        <v>9</v>
+      </c>
       <c r="M39" s="18"/>
       <c r="N39" s="18"/>
       <c r="O39" s="44"/>
@@ -2907,7 +2983,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.42222222222222222</v>
+        <v>0.44</v>
       </c>
       <c r="X39"/>
     </row>
@@ -3053,9 +3129,9 @@
         <f t="shared" si="1"/>
         <v>4.1052631578947372</v>
       </c>
-      <c r="L42" s="30" t="e">
+      <c r="L42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7.3421052631578947</v>
       </c>
       <c r="M42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -3099,7 +3175,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.55711500974658856</v>
+        <v>0.55035087719298237</v>
       </c>
       <c r="X42"/>
     </row>
@@ -3147,9 +3223,9 @@
         <f t="shared" si="2"/>
         <v>4.0522898010358226</v>
       </c>
-      <c r="L43" s="30" t="e">
+      <c r="L43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.478588868369318</v>
       </c>
       <c r="M43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -3193,7 +3269,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.18323423086410043</v>
+        <v>0.18922124183762579</v>
       </c>
       <c r="X43"/>
     </row>
@@ -3241,9 +3317,9 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="L44" s="30" t="e">
+      <c r="L44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>9</v>
       </c>
       <c r="M44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -3287,7 +3363,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.57037037037037042</v>
+        <v>0.56333333333333335</v>
       </c>
       <c r="X44"/>
     </row>
@@ -3337,7 +3413,7 @@
       </c>
       <c r="L45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="33">
         <f t="shared" si="4"/>
@@ -3678,7 +3754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -5115,7 +5191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A27" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5145,7 +5221,10 @@
       <c r="A2" s="55">
         <v>49156</v>
       </c>
-      <c r="B2" s="43"/>
+      <c r="B2" s="43">
+        <f>20+22+3+0</f>
+        <v>45</v>
+      </c>
       <c r="C2" s="18"/>
       <c r="D2" s="19"/>
       <c r="F2" s="19"/>
@@ -5155,7 +5234,10 @@
       <c r="A3" s="56">
         <v>54695</v>
       </c>
-      <c r="B3" s="43"/>
+      <c r="B3" s="44">
+        <f>12.5+22+15+0</f>
+        <v>49.5</v>
+      </c>
       <c r="C3" s="18"/>
       <c r="D3" s="19"/>
       <c r="F3" s="19"/>
@@ -5165,7 +5247,10 @@
       <c r="A4" s="56">
         <v>54699</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="43">
+        <f>20+23+5+0</f>
+        <v>48</v>
+      </c>
       <c r="C4" s="18"/>
       <c r="D4" s="19"/>
       <c r="F4" s="19"/>
@@ -5175,7 +5260,10 @@
       <c r="A5" s="56">
         <v>56054</v>
       </c>
-      <c r="B5" s="43"/>
+      <c r="B5" s="43">
+        <f>27.5+15+11+0</f>
+        <v>53.5</v>
+      </c>
       <c r="C5" s="18"/>
       <c r="D5" s="19"/>
       <c r="F5" s="19"/>
@@ -5185,7 +5273,10 @@
       <c r="A6" s="56">
         <v>56196</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="43">
+        <f>20+12+5+10</f>
+        <v>47</v>
+      </c>
       <c r="C6" s="18"/>
       <c r="D6" s="19"/>
       <c r="F6" s="19"/>
@@ -5195,7 +5286,10 @@
       <c r="A7" s="56">
         <v>58426</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="43">
+        <f>30+13+2+5</f>
+        <v>50</v>
+      </c>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
       <c r="F7" s="19"/>
@@ -5205,7 +5299,10 @@
       <c r="A8" s="56">
         <v>63795</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="43">
+        <f>25+7+3+12</f>
+        <v>47</v>
+      </c>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
       <c r="F8" s="19"/>
@@ -5215,7 +5312,10 @@
       <c r="A9" s="56">
         <v>66015</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="43">
+        <f>25+22+7+10</f>
+        <v>64</v>
+      </c>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
       <c r="F9" s="19"/>
@@ -5225,7 +5325,10 @@
       <c r="A10" s="56">
         <v>67210</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="43">
+        <f>10+7+0+0</f>
+        <v>17</v>
+      </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
       <c r="F10" s="19"/>
@@ -5235,7 +5338,10 @@
       <c r="A11" s="56">
         <v>68473</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="43">
+        <f>17.5+15+1+9</f>
+        <v>42.5</v>
+      </c>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
       <c r="F11" s="19"/>
@@ -5245,7 +5351,10 @@
       <c r="A12" s="56">
         <v>69408</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="43">
+        <f>25+14+0+6</f>
+        <v>45</v>
+      </c>
       <c r="C12" s="18"/>
       <c r="D12" s="19"/>
       <c r="F12" s="19"/>
@@ -5255,7 +5364,10 @@
       <c r="A13" s="56">
         <v>69764</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="43">
+        <f>(45+22+23+25)</f>
+        <v>115</v>
+      </c>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
       <c r="F13" s="19"/>
@@ -5265,7 +5377,10 @@
       <c r="A14" s="56">
         <v>69810</v>
       </c>
-      <c r="B14" s="43"/>
+      <c r="B14" s="43">
+        <f>27.5+11+7+7</f>
+        <v>52.5</v>
+      </c>
       <c r="C14" s="18"/>
       <c r="D14" s="19"/>
       <c r="F14" s="19"/>
@@ -5288,7 +5403,10 @@
       <c r="A16" s="56">
         <v>69999</v>
       </c>
-      <c r="B16" s="43"/>
+      <c r="B16" s="43">
+        <f>40+20+21+19</f>
+        <v>100</v>
+      </c>
       <c r="C16" s="18"/>
       <c r="D16" s="19"/>
       <c r="F16" s="19"/>
@@ -5298,7 +5416,10 @@
       <c r="A17" s="56">
         <v>70050</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="43">
+        <f>20+9+1+0</f>
+        <v>30</v>
+      </c>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
       <c r="F17" s="19"/>
@@ -5308,7 +5429,10 @@
       <c r="A18" s="56">
         <v>70065</v>
       </c>
-      <c r="B18" s="43"/>
+      <c r="B18" s="43">
+        <f>12.5+16+0+0</f>
+        <v>28.5</v>
+      </c>
       <c r="C18" s="18"/>
       <c r="D18" s="19"/>
     </row>
@@ -5316,7 +5440,10 @@
       <c r="A19" s="56">
         <v>70173</v>
       </c>
-      <c r="B19" s="43"/>
+      <c r="B19" s="43">
+        <f>32.5+15+3+8</f>
+        <v>58.5</v>
+      </c>
       <c r="C19" s="18"/>
       <c r="D19" s="19"/>
     </row>
@@ -5324,7 +5451,10 @@
       <c r="A20" s="56">
         <v>70179</v>
       </c>
-      <c r="B20" s="43"/>
+      <c r="B20" s="43">
+        <f>30+13+2+16</f>
+        <v>61</v>
+      </c>
       <c r="C20" s="18"/>
       <c r="D20" s="19"/>
     </row>
@@ -5332,7 +5462,10 @@
       <c r="A21" s="56">
         <v>70267</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="43">
+        <f>22.5+1+0+13</f>
+        <v>36.5</v>
+      </c>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
     </row>
@@ -5340,7 +5473,10 @@
       <c r="A22" s="56">
         <v>70299</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="43">
+        <f>32.5+25+20+25</f>
+        <v>102.5</v>
+      </c>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
     </row>
@@ -5348,7 +5484,10 @@
       <c r="A23" s="56">
         <v>70339</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="43">
+        <f>25+9+1+1</f>
+        <v>36</v>
+      </c>
       <c r="C23" s="18"/>
       <c r="D23" s="19"/>
     </row>
@@ -5356,7 +5495,10 @@
       <c r="A24" s="56">
         <v>70503</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="43">
+        <f>35+23+9+6</f>
+        <v>73</v>
+      </c>
       <c r="C24" s="18"/>
       <c r="D24" s="19"/>
     </row>
@@ -5364,7 +5506,10 @@
       <c r="A25" s="56">
         <v>70556</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="43">
+        <f>12.5+11+1+1</f>
+        <v>25.5</v>
+      </c>
       <c r="C25" s="18"/>
       <c r="D25" s="19"/>
     </row>
@@ -5372,7 +5517,10 @@
       <c r="A26" s="56">
         <v>70632</v>
       </c>
-      <c r="B26" s="43"/>
+      <c r="B26" s="43">
+        <f>20+12+1+3</f>
+        <v>36</v>
+      </c>
       <c r="C26" s="18"/>
       <c r="D26" s="19"/>
     </row>
@@ -5380,7 +5528,10 @@
       <c r="A27" s="56">
         <v>70734</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="43">
+        <f>12.5+13+3+2</f>
+        <v>30.5</v>
+      </c>
       <c r="C27" s="18"/>
       <c r="D27" s="19"/>
     </row>
@@ -5388,7 +5539,10 @@
       <c r="A28" s="56">
         <v>70896</v>
       </c>
-      <c r="B28" s="43"/>
+      <c r="B28" s="43">
+        <f>7.5+10+1+9</f>
+        <v>27.5</v>
+      </c>
       <c r="C28" s="18"/>
       <c r="D28" s="19"/>
     </row>
@@ -5396,7 +5550,10 @@
       <c r="A29" s="56">
         <v>71032</v>
       </c>
-      <c r="B29" s="43"/>
+      <c r="B29" s="43">
+        <f>10+1+0+0</f>
+        <v>11</v>
+      </c>
       <c r="C29" s="18"/>
       <c r="D29" s="19"/>
     </row>
@@ -5404,7 +5561,10 @@
       <c r="A30" s="56">
         <v>71099</v>
       </c>
-      <c r="B30" s="43"/>
+      <c r="B30" s="43">
+        <f>15+8+3+0</f>
+        <v>26</v>
+      </c>
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
     </row>
@@ -5412,7 +5572,10 @@
       <c r="A31" s="56">
         <v>71304</v>
       </c>
-      <c r="B31" s="43"/>
+      <c r="B31" s="43">
+        <f>17.5+7+0+0</f>
+        <v>24.5</v>
+      </c>
       <c r="C31" s="18"/>
       <c r="D31" s="19"/>
     </row>
@@ -5420,7 +5583,10 @@
       <c r="A32" s="56">
         <v>71308</v>
       </c>
-      <c r="B32" s="43"/>
+      <c r="B32" s="43">
+        <f>27.5+23+2+0</f>
+        <v>52.5</v>
+      </c>
       <c r="C32" s="18"/>
       <c r="D32" s="19"/>
     </row>
@@ -5428,7 +5594,10 @@
       <c r="A33" s="56">
         <v>71312</v>
       </c>
-      <c r="B33" s="43"/>
+      <c r="B33" s="43">
+        <f>22.5+14+0+8</f>
+        <v>44.5</v>
+      </c>
       <c r="C33" s="18"/>
       <c r="D33" s="19"/>
     </row>
@@ -5436,7 +5605,10 @@
       <c r="A34" s="56">
         <v>71340</v>
       </c>
-      <c r="B34" s="43"/>
+      <c r="B34" s="43">
+        <f>25+20+0+16</f>
+        <v>61</v>
+      </c>
       <c r="C34" s="18"/>
       <c r="D34" s="19"/>
     </row>
@@ -5444,7 +5616,10 @@
       <c r="A35" s="56">
         <v>71428</v>
       </c>
-      <c r="B35" s="43"/>
+      <c r="B35" s="43">
+        <f>47.5+25+24+25</f>
+        <v>121.5</v>
+      </c>
       <c r="C35" s="18"/>
       <c r="D35" s="19"/>
     </row>
@@ -5452,7 +5627,10 @@
       <c r="A36" s="56">
         <v>71431</v>
       </c>
-      <c r="B36" s="43"/>
+      <c r="B36" s="43">
+        <f>22.5+9+1+0</f>
+        <v>32.5</v>
+      </c>
       <c r="C36" s="18"/>
       <c r="D36" s="19"/>
     </row>
@@ -5460,7 +5638,10 @@
       <c r="A37" s="56">
         <v>71474</v>
       </c>
-      <c r="B37" s="43"/>
+      <c r="B37" s="43">
+        <f>27.5+17+5+11</f>
+        <v>60.5</v>
+      </c>
       <c r="C37" s="18"/>
       <c r="D37" s="19"/>
     </row>
@@ -5468,7 +5649,10 @@
       <c r="A38" s="56">
         <v>71553</v>
       </c>
-      <c r="B38" s="43"/>
+      <c r="B38" s="43">
+        <f>10+0+1+0</f>
+        <v>11</v>
+      </c>
       <c r="C38" s="18"/>
       <c r="D38" s="19"/>
     </row>
@@ -5476,7 +5660,10 @@
       <c r="A39" s="56">
         <v>71671</v>
       </c>
-      <c r="B39" s="43"/>
+      <c r="B39" s="43">
+        <f>10+9+1+1</f>
+        <v>21</v>
+      </c>
       <c r="C39" s="18"/>
       <c r="D39" s="19"/>
     </row>
@@ -5491,7 +5678,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="41">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="C41" s="41">
         <v>200</v>
@@ -5502,9 +5689,9 @@
       <c r="A42" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="42" t="e">
+      <c r="B42" s="42">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>#DIV/0!</v>
+        <v>48.310810810810814</v>
       </c>
       <c r="C42" s="42" t="e">
         <f t="shared" ref="C42" si="0">AVERAGE(C$2:C$39)</f>
@@ -5516,9 +5703,9 @@
       <c r="A43" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="42" t="e">
+      <c r="B43" s="42">
         <f>STDEV(B$2:B$39)</f>
-        <v>#DIV/0!</v>
+        <v>26.483053111416407</v>
       </c>
       <c r="C43" s="42" t="e">
         <f t="shared" ref="C43" si="1">STDEV(C$2:C$39)</f>
@@ -5530,9 +5717,9 @@
       <c r="A44" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="42" t="e">
+      <c r="B44" s="42">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>#NUM!</v>
+        <v>45</v>
       </c>
       <c r="C44" s="42" t="e">
         <f t="shared" ref="C44" si="2">MEDIAN(C$2:C$39)</f>
@@ -5760,7 +5947,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5807,7 +5994,7 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.47407407407407409</v>
+        <v>0.44666666666666666</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
@@ -5815,7 +6002,7 @@
       </c>
       <c r="D2" s="43">
         <f>Exams!B2</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E2" s="44">
         <f>Exams!C2</f>
@@ -5823,11 +6010,11 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>1.7070740740740742</v>
+        <v>2.7596666666666669</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H2" s="51">
         <f>IF(G2&gt;4.75,1,0)</f>
@@ -5841,7 +6028,7 @@
       </c>
       <c r="B3" s="34">
         <f>Quiz!W3</f>
-        <v>8.8888888888888892E-2</v>
+        <v>0.08</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
@@ -5849,7 +6036,7 @@
       </c>
       <c r="D3" s="43">
         <f>Exams!B3</f>
-        <v>0</v>
+        <v>49.5</v>
       </c>
       <c r="E3" s="44">
         <f>Exams!C3</f>
@@ -5857,11 +6044,11 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>0.88838888888888889</v>
+        <v>2.0674999999999999</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" s="51">
         <f t="shared" ref="H3:H19" si="2">IF(G3&gt;4.75,1,0)</f>
@@ -5874,7 +6061,7 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.63703703703703707</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
@@ -5882,7 +6069,7 @@
       </c>
       <c r="D4" s="43">
         <f>Exams!B4</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E4" s="44">
         <f>Exams!C4</f>
@@ -5890,11 +6077,11 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>1.8295370370370372</v>
+        <v>2.9778333333333338</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" s="51">
         <f t="shared" si="2"/>
@@ -5907,7 +6094,7 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.59259259259259256</v>
+        <v>0.59333333333333338</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
@@ -5915,7 +6102,7 @@
       </c>
       <c r="D5" s="43">
         <f>Exams!B5</f>
-        <v>0</v>
+        <v>53.5</v>
       </c>
       <c r="E5" s="44">
         <f>Exams!C5</f>
@@ -5923,11 +6110,11 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>1.4670925925925926</v>
+        <v>2.7518333333333338</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H5" s="51">
         <f t="shared" si="2"/>
@@ -5940,7 +6127,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.67407407407407405</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
@@ -5948,7 +6135,7 @@
       </c>
       <c r="D6" s="43">
         <f>Exams!B6</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E6" s="44">
         <f>Exams!C6</f>
@@ -5956,11 +6143,11 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>1.7705740740740741</v>
+        <v>2.8911666666666669</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="51">
         <f t="shared" si="2"/>
@@ -5973,7 +6160,7 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.64444444444444449</v>
+        <v>0.6</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
@@ -5981,7 +6168,7 @@
       </c>
       <c r="D7" s="43">
         <f>Exams!B7</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E7" s="44">
         <f>Exams!C7</f>
@@ -5989,11 +6176,11 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>0.64444444444444449</v>
+        <v>1.8000000000000003</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="51">
         <f t="shared" si="2"/>
@@ -6006,7 +6193,7 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.68148148148148147</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
@@ -6014,7 +6201,7 @@
       </c>
       <c r="D8" s="43">
         <f>Exams!B8</f>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E8" s="44">
         <f>Exams!C8</f>
@@ -6022,11 +6209,11 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>1.9669814814814814</v>
+        <v>3.0468333333333337</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H8" s="51">
         <f t="shared" si="2"/>
@@ -6039,7 +6226,7 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.48888888888888887</v>
+        <v>0.5</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
@@ -6047,7 +6234,7 @@
       </c>
       <c r="D9" s="43">
         <f>Exams!B9</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E9" s="44">
         <f>Exams!C9</f>
@@ -6055,11 +6242,11 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>1.937888888888889</v>
+        <v>3.4850000000000003</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H9" s="51">
         <f t="shared" si="2"/>
@@ -6072,7 +6259,7 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.54814814814814816</v>
+        <v>0.55333333333333334</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
@@ -6080,7 +6267,7 @@
       </c>
       <c r="D10" s="43">
         <f>Exams!B10</f>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E10" s="44">
         <f>Exams!C10</f>
@@ -6088,7 +6275,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>1.7901481481481483</v>
+        <v>2.2033333333333336</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -6105,7 +6292,7 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.2814814814814815</v>
+        <v>0.25333333333333335</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
@@ -6113,7 +6300,7 @@
       </c>
       <c r="D11" s="43">
         <f>Exams!B11</f>
-        <v>0</v>
+        <v>42.5</v>
       </c>
       <c r="E11" s="44">
         <f>Exams!C11</f>
@@ -6121,11 +6308,11 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>0.42848148148148146</v>
+        <v>1.4203333333333332</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H11" s="51">
         <f t="shared" si="2"/>
@@ -6138,7 +6325,7 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.61481481481481481</v>
+        <v>0.57333333333333336</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
@@ -6146,7 +6333,7 @@
       </c>
       <c r="D12" s="43">
         <f>Exams!B12</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E12" s="44">
         <f>Exams!C12</f>
@@ -6154,11 +6341,11 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>1.1668148148148147</v>
+        <v>2.2053333333333334</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="51">
         <f t="shared" si="2"/>
@@ -6171,7 +6358,7 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>0.8666666666666667</v>
+        <v>0.88</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
@@ -6179,7 +6366,7 @@
       </c>
       <c r="D13" s="43">
         <f>Exams!B13</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E13" s="44">
         <f>Exams!C13</f>
@@ -6187,15 +6374,15 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>2.291666666666667</v>
+        <v>5.0650000000000004</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H13" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6204,7 +6391,7 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.75555555555555554</v>
+        <v>0.78</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
@@ -6212,7 +6399,7 @@
       </c>
       <c r="D14" s="43">
         <f>Exams!B14</f>
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="E14" s="44">
         <f>Exams!C14</f>
@@ -6220,11 +6407,11 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>1.9855555555555555</v>
+        <v>3.2699999999999996</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H14" s="51">
         <f t="shared" si="2"/>
@@ -6237,7 +6424,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>9.6296296296296297E-2</v>
+        <v>8.666666666666667E-2</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
@@ -6253,7 +6440,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.20279629629629631</v>
+        <v>0.19316666666666665</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -6270,7 +6457,7 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>0.71111111111111114</v>
+        <v>0.74</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
@@ -6278,7 +6465,7 @@
       </c>
       <c r="D16" s="43">
         <f>Exams!B16</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E16" s="44">
         <f>Exams!C16</f>
@@ -6286,11 +6473,11 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>2.1271111111111112</v>
+        <v>4.556</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H16" s="51">
         <f t="shared" si="2"/>
@@ -6303,7 +6490,7 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.50370370370370365</v>
+        <v>0.47333333333333333</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
@@ -6311,7 +6498,7 @@
       </c>
       <c r="D17" s="43">
         <f>Exams!B17</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E17" s="44">
         <f>Exams!C17</f>
@@ -6319,11 +6506,11 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>1.6857037037037035</v>
+        <v>2.3753333333333333</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H17" s="51">
         <f t="shared" si="2"/>
@@ -6336,7 +6523,7 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.54814814814814816</v>
+        <v>0.55333333333333334</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
@@ -6344,7 +6531,7 @@
       </c>
       <c r="D18" s="43">
         <f>Exams!B18</f>
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="E18" s="44">
         <f>Exams!C18</f>
@@ -6352,11 +6539,11 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>1.4841481481481482</v>
+        <v>2.3443333333333332</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H18" s="51">
         <f t="shared" si="2"/>
@@ -6369,7 +6556,7 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.6518518518518519</v>
+        <v>0.68666666666666665</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
@@ -6377,7 +6564,7 @@
       </c>
       <c r="D19" s="43">
         <f>Exams!B19</f>
-        <v>0</v>
+        <v>58.5</v>
       </c>
       <c r="E19" s="44">
         <f>Exams!C19</f>
@@ -6385,11 +6572,11 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>1.9478518518518517</v>
+        <v>3.3866666666666667</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H19" s="51">
         <f t="shared" si="2"/>
@@ -6402,7 +6589,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.68148148148148147</v>
+        <v>0.71333333333333337</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
@@ -6410,7 +6597,7 @@
       </c>
       <c r="D20" s="43">
         <f>Exams!B20</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E20" s="44">
         <f>Exams!C20</f>
@@ -6418,11 +6605,11 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>1.9654814814814814</v>
+        <v>3.4613333333333332</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H20" s="51">
         <f t="shared" ref="H20:H25" si="5">IF(G20&gt;4.75,1,0)</f>
@@ -6435,7 +6622,7 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
@@ -6443,7 +6630,7 @@
       </c>
       <c r="D21" s="43">
         <f>Exams!B21</f>
-        <v>0</v>
+        <v>36.5</v>
       </c>
       <c r="E21" s="44">
         <f>Exams!C21</f>
@@ -6451,11 +6638,11 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>0.75350000000000006</v>
+        <v>1.6694999999999998</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H21" s="51">
         <f t="shared" si="5"/>
@@ -6468,7 +6655,7 @@
       </c>
       <c r="B22" s="34">
         <f>Quiz!W22</f>
-        <v>0.82222222222222219</v>
+        <v>0.84</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
@@ -6476,7 +6663,7 @@
       </c>
       <c r="D22" s="43">
         <f>Exams!B22</f>
-        <v>0</v>
+        <v>102.5</v>
       </c>
       <c r="E22" s="44">
         <f>Exams!C22</f>
@@ -6484,11 +6671,11 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>2.2022222222222219</v>
+        <v>4.68</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="H22" s="51">
         <f t="shared" si="5"/>
@@ -6501,7 +6688,7 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.73333333333333328</v>
+        <v>0.76</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
@@ -6509,7 +6696,7 @@
       </c>
       <c r="D23" s="43">
         <f>Exams!B23</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E23" s="44">
         <f>Exams!C23</f>
@@ -6517,11 +6704,11 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>1.952833333333333</v>
+        <v>2.8434999999999997</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="51">
         <f t="shared" si="5"/>
@@ -6534,7 +6721,7 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.53333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
@@ -6542,7 +6729,7 @@
       </c>
       <c r="D24" s="43">
         <f>Exams!B24</f>
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E24" s="44">
         <f>Exams!C24</f>
@@ -6550,11 +6737,11 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>1.1738333333333333</v>
+        <v>2.8924999999999996</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="51">
         <f t="shared" si="5"/>
@@ -6567,7 +6754,7 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.64444444444444449</v>
+        <v>0.6</v>
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
@@ -6575,7 +6762,7 @@
       </c>
       <c r="D25" s="43">
         <f>Exams!B25</f>
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="E25" s="44">
         <f>Exams!C25</f>
@@ -6583,11 +6770,11 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>1.5984444444444446</v>
+        <v>2.1659999999999999</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H25" s="51">
         <f t="shared" si="5"/>
@@ -6600,7 +6787,7 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.6962962962962963</v>
+        <v>0.62666666666666671</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
@@ -6608,7 +6795,7 @@
       </c>
       <c r="D26" s="43">
         <f>Exams!B26</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E26" s="44">
         <f>Exams!C26</f>
@@ -6616,11 +6803,11 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>1.3637962962962964</v>
+        <v>2.1581666666666668</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H26" s="51">
         <f t="shared" ref="H26:H32" si="7">IF(G26&gt;4.75,1,0)</f>
@@ -6633,7 +6820,7 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.53333333333333333</v>
+        <v>0.54</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
@@ -6641,7 +6828,7 @@
       </c>
       <c r="D27" s="43">
         <f>Exams!B27</f>
-        <v>0</v>
+        <v>30.5</v>
       </c>
       <c r="E27" s="44">
         <f>Exams!C27</f>
@@ -6649,11 +6836,11 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>1.4333333333333333</v>
+        <v>2.1719999999999997</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H27" s="51">
         <f t="shared" si="7"/>
@@ -6666,7 +6853,7 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.45925925925925926</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
@@ -6674,7 +6861,7 @@
       </c>
       <c r="D28" s="43">
         <f>Exams!B28</f>
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="E28" s="44">
         <f>Exams!C28</f>
@@ -6682,11 +6869,11 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>0.99925925925925918</v>
+        <v>1.6333333333333333</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H28" s="51">
         <f t="shared" si="7"/>
@@ -6699,7 +6886,7 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.51111111111111107</v>
+        <v>0.52</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
@@ -6707,7 +6894,7 @@
       </c>
       <c r="D29" s="43">
         <f>Exams!B29</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E29" s="44">
         <f>Exams!C29</f>
@@ -6715,11 +6902,11 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.2056111111111112</v>
+        <v>1.4785000000000001</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H29" s="51">
         <f t="shared" si="7"/>
@@ -6732,7 +6919,7 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.46666666666666667</v>
+        <v>0.44</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
@@ -6740,7 +6927,7 @@
       </c>
       <c r="D30" s="43">
         <f>Exams!B30</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E30" s="44">
         <f>Exams!C30</f>
@@ -6748,11 +6935,11 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>1.4641666666666668</v>
+        <v>2.0615000000000001</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H30" s="51">
         <f t="shared" si="7"/>
@@ -6765,7 +6952,7 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.54814814814814816</v>
+        <v>0.55333333333333334</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
@@ -6773,7 +6960,7 @@
       </c>
       <c r="D31" s="43">
         <f>Exams!B31</f>
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="E31" s="44">
         <f>Exams!C31</f>
@@ -6781,11 +6968,11 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>1.8276481481481479</v>
+        <v>2.4208333333333334</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H31" s="51">
         <f t="shared" si="7"/>
@@ -6798,7 +6985,7 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.61481481481481481</v>
+        <v>0.65333333333333332</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
@@ -6806,7 +6993,7 @@
       </c>
       <c r="D32" s="43">
         <f>Exams!B32</f>
-        <v>0</v>
+        <v>52.5</v>
       </c>
       <c r="E32" s="44">
         <f>Exams!C32</f>
@@ -6814,11 +7001,11 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>1.8208148148148147</v>
+        <v>3.1193333333333335</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" s="51">
         <f t="shared" si="7"/>
@@ -6831,7 +7018,7 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.42222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
@@ -6839,7 +7026,7 @@
       </c>
       <c r="D33" s="43">
         <f>Exams!B33</f>
-        <v>0</v>
+        <v>44.5</v>
       </c>
       <c r="E33" s="44">
         <f>Exams!C33</f>
@@ -6847,11 +7034,11 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>1.1272222222222221</v>
+        <v>2.173</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H33" s="51">
         <f>IF(G33&gt;4.75,1,0)</f>
@@ -6864,7 +7051,7 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.66666666666666663</v>
+        <v>0.68</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
@@ -6872,7 +7059,7 @@
       </c>
       <c r="D34" s="43">
         <f>Exams!B34</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="E34" s="44">
         <f>Exams!C34</f>
@@ -6880,11 +7067,11 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>0.96366666666666667</v>
+        <v>2.4409999999999998</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H34" s="51">
         <f t="shared" ref="H34:H39" si="8">IF(G34&gt;4.75,1,0)</f>
@@ -6897,7 +7084,7 @@
       </c>
       <c r="B35" s="34">
         <f>Quiz!W35</f>
-        <v>0.83703703703703702</v>
+        <v>0.85333333333333339</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
@@ -6905,7 +7092,7 @@
       </c>
       <c r="D35" s="43">
         <f>Exams!B35</f>
-        <v>0</v>
+        <v>121.5</v>
       </c>
       <c r="E35" s="44">
         <f>Exams!C35</f>
@@ -6913,15 +7100,15 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>2.242537037037037</v>
+        <v>5.1748333333333338</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H35" s="51">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6930,7 +7117,7 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.51111111111111107</v>
+        <v>0.46</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
@@ -6938,7 +7125,7 @@
       </c>
       <c r="D36" s="43">
         <f>Exams!B36</f>
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="E36" s="44">
         <f>Exams!C36</f>
@@ -6946,11 +7133,11 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>1.4396111111111112</v>
+        <v>2.1684999999999999</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H36" s="51">
         <f t="shared" si="8"/>
@@ -6963,7 +7150,7 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.6962962962962963</v>
+        <v>0.64666666666666661</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
@@ -6971,7 +7158,7 @@
       </c>
       <c r="D37" s="43">
         <f>Exams!B37</f>
-        <v>0</v>
+        <v>60.5</v>
       </c>
       <c r="E37" s="44">
         <f>Exams!C37</f>
@@ -6979,11 +7166,11 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>1.3337962962962964</v>
+        <v>2.7361666666666666</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H37" s="51">
         <f t="shared" si="8"/>
@@ -6996,7 +7183,7 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.31111111111111112</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
@@ -7004,7 +7191,7 @@
       </c>
       <c r="D38" s="43">
         <f>Exams!B38</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E38" s="44">
         <f>Exams!C38</f>
@@ -7012,11 +7199,11 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.65611111111111109</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H38" s="51">
         <f t="shared" si="8"/>
@@ -7029,7 +7216,7 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.42222222222222222</v>
+        <v>0.44</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
@@ -7037,7 +7224,7 @@
       </c>
       <c r="D39" s="43">
         <f>Exams!B39</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E39" s="44">
         <f>Exams!C39</f>
@@ -7045,11 +7232,11 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.2922222222222222</v>
+        <v>1.8139999999999998</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H39" s="51">
         <f t="shared" si="8"/>
@@ -7080,7 +7267,7 @@
       </c>
       <c r="D41" s="27">
         <f>Exams!B41</f>
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="E41" s="40">
         <v>100</v>
@@ -7093,7 +7280,7 @@
       </c>
       <c r="H41" s="40">
         <f>SUM(H2:H33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7102,7 +7289,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.55711500974658856</v>
+        <v>0.55035087719298237</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
@@ -7110,7 +7297,7 @@
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>47.039473684210527</v>
       </c>
       <c r="E42" s="30">
         <f t="shared" si="9"/>
@@ -7118,15 +7305,15 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>1.4773255360623783</v>
+        <v>2.6040087719298239</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>1.486842105263158</v>
+        <v>2.5921052631578947</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7135,7 +7322,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.18323423086410043</v>
+        <v>0.18922124183762579</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
@@ -7143,7 +7330,7 @@
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>27.272989701957364</v>
       </c>
       <c r="E43" s="30">
         <f t="shared" si="10"/>
@@ -7151,15 +7338,15 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>0.52412017742067785</v>
+        <v>1.0498697530739107</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>0.56337355118893517</v>
+        <v>1.0581425794050294</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.22629428592141426</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7168,7 +7355,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.57037037037037042</v>
+        <v>0.56333333333333335</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
@@ -7176,7 +7363,7 @@
       </c>
       <c r="D44" s="30">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E44" s="30">
         <f t="shared" si="11"/>
@@ -7184,11 +7371,11 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>1.4756203703703705</v>
+        <v>2.3980833333333331</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEC49B8-C620-404A-B0EC-D5C290DCA98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE13E4E2-6A3C-1644-86C0-13DE5E52F447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="1280" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -965,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -1085,7 +1085,9 @@
       <c r="L2" s="18">
         <v>3</v>
       </c>
-      <c r="M2" s="18"/>
+      <c r="M2" s="18">
+        <v>15</v>
+      </c>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
@@ -1097,7 +1099,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.44666666666666666</v>
+        <v>0.49696969696969695</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1136,7 +1138,9 @@
       <c r="L3" s="18">
         <v>0</v>
       </c>
-      <c r="M3" s="18"/>
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
@@ -1148,7 +1152,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="34">
         <f t="shared" si="0"/>
-        <v>0.08</v>
+        <v>7.2727272727272724E-2</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1187,7 +1191,9 @@
       <c r="L4" s="18">
         <v>9</v>
       </c>
-      <c r="M4" s="18"/>
+      <c r="M4" s="18">
+        <v>3</v>
+      </c>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
@@ -1199,7 +1205,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.6333333333333333</v>
+        <v>0.59393939393939399</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1238,7 +1244,9 @@
       <c r="L5" s="18">
         <v>9</v>
       </c>
-      <c r="M5" s="18"/>
+      <c r="M5" s="18">
+        <v>15</v>
+      </c>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
@@ -1250,7 +1258,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.59333333333333338</v>
+        <v>0.63030303030303025</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1289,7 +1297,9 @@
       <c r="L6" s="18">
         <v>9</v>
       </c>
-      <c r="M6" s="18"/>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
@@ -1301,7 +1311,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1340,7 +1350,9 @@
       <c r="L7" s="18">
         <v>3</v>
       </c>
-      <c r="M7" s="18"/>
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
@@ -1352,7 +1364,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1391,7 +1403,9 @@
       <c r="L8" s="18">
         <v>3</v>
       </c>
-      <c r="M8" s="18"/>
+      <c r="M8" s="18">
+        <v>3</v>
+      </c>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
@@ -1403,7 +1417,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.6333333333333333</v>
+        <v>0.59393939393939399</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1442,7 +1456,9 @@
       <c r="L9" s="18">
         <v>9</v>
       </c>
-      <c r="M9" s="18"/>
+      <c r="M9" s="18">
+        <v>3</v>
+      </c>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
@@ -1454,7 +1470,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.47272727272727272</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1493,7 +1509,9 @@
       <c r="L10" s="18">
         <v>9</v>
       </c>
-      <c r="M10" s="18"/>
+      <c r="M10" s="18">
+        <v>3</v>
+      </c>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
@@ -1505,7 +1523,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.55333333333333334</v>
+        <v>0.52121212121212124</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1544,7 +1562,9 @@
       <c r="L11" s="18">
         <v>0</v>
       </c>
-      <c r="M11" s="18"/>
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
@@ -1556,7 +1576,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.25333333333333335</v>
+        <v>0.23030303030303031</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1595,7 +1615,9 @@
       <c r="L12" s="18">
         <v>3</v>
       </c>
-      <c r="M12" s="18"/>
+      <c r="M12" s="18">
+        <v>15</v>
+      </c>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
@@ -1607,7 +1629,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.57333333333333336</v>
+        <v>0.61212121212121207</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1646,7 +1668,9 @@
       <c r="L13" s="18">
         <v>15</v>
       </c>
-      <c r="M13" s="18"/>
+      <c r="M13" s="18">
+        <v>15</v>
+      </c>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
@@ -1658,7 +1682,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>0.88</v>
+        <v>0.89090909090909087</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1697,7 +1721,9 @@
       <c r="L14" s="18">
         <v>15</v>
       </c>
-      <c r="M14" s="18"/>
+      <c r="M14" s="18">
+        <v>15</v>
+      </c>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
@@ -1709,7 +1735,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1747,7 +1773,9 @@
       <c r="L15" s="18">
         <v>0</v>
       </c>
-      <c r="M15" s="18"/>
+      <c r="M15" s="18">
+        <v>0</v>
+      </c>
       <c r="N15" s="18"/>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
@@ -1759,7 +1787,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>8.666666666666667E-2</v>
+        <v>7.8787878787878782E-2</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1798,7 +1826,9 @@
       <c r="L16" s="18">
         <v>15</v>
       </c>
-      <c r="M16" s="18"/>
+      <c r="M16" s="18">
+        <v>15</v>
+      </c>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
@@ -1810,7 +1840,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>0.74</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="X16"/>
     </row>
@@ -1849,7 +1879,9 @@
       <c r="L17" s="18">
         <v>3</v>
       </c>
-      <c r="M17" s="18"/>
+      <c r="M17" s="18">
+        <v>15</v>
+      </c>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
@@ -1861,7 +1893,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.47333333333333333</v>
+        <v>0.52121212121212124</v>
       </c>
       <c r="X17"/>
     </row>
@@ -1900,7 +1932,9 @@
       <c r="L18" s="18">
         <v>9</v>
       </c>
-      <c r="M18" s="18"/>
+      <c r="M18" s="18">
+        <v>3</v>
+      </c>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
@@ -1912,7 +1946,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.55333333333333334</v>
+        <v>0.52121212121212124</v>
       </c>
       <c r="X18"/>
     </row>
@@ -1951,7 +1985,9 @@
       <c r="L19" s="18">
         <v>15</v>
       </c>
-      <c r="M19" s="18"/>
+      <c r="M19" s="18">
+        <v>15</v>
+      </c>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
@@ -1963,7 +1999,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.68666666666666665</v>
+        <v>0.7151515151515152</v>
       </c>
       <c r="X19"/>
     </row>
@@ -2002,7 +2038,9 @@
       <c r="L20" s="18">
         <v>15</v>
       </c>
-      <c r="M20" s="18"/>
+      <c r="M20" s="18">
+        <v>15</v>
+      </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
@@ -2014,7 +2052,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.71333333333333337</v>
+        <v>0.73939393939393938</v>
       </c>
       <c r="X20"/>
     </row>
@@ -2053,7 +2091,9 @@
       <c r="L21" s="18">
         <v>9</v>
       </c>
-      <c r="M21" s="18"/>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
@@ -2065,7 +2105,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.21818181818181817</v>
       </c>
       <c r="X21"/>
     </row>
@@ -2104,7 +2144,9 @@
       <c r="L22" s="18">
         <v>15</v>
       </c>
-      <c r="M22" s="18"/>
+      <c r="M22" s="18">
+        <v>15</v>
+      </c>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
@@ -2116,7 +2158,7 @@
       <c r="V22" s="18"/>
       <c r="W22" s="34">
         <f t="shared" si="0"/>
-        <v>0.84</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="X22"/>
     </row>
@@ -2155,7 +2197,9 @@
       <c r="L23" s="18">
         <v>15</v>
       </c>
-      <c r="M23" s="18"/>
+      <c r="M23" s="18">
+        <v>15</v>
+      </c>
       <c r="N23" s="18"/>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
@@ -2167,7 +2211,7 @@
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.76</v>
+        <v>0.78181818181818186</v>
       </c>
       <c r="X23"/>
     </row>
@@ -2206,7 +2250,9 @@
       <c r="L24" s="18">
         <v>3</v>
       </c>
-      <c r="M24" s="18"/>
+      <c r="M24" s="18">
+        <v>15</v>
+      </c>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
@@ -2218,7 +2264,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="X24"/>
     </row>
@@ -2257,7 +2303,9 @@
       <c r="L25" s="18">
         <v>3</v>
       </c>
-      <c r="M25" s="18"/>
+      <c r="M25" s="18">
+        <v>0</v>
+      </c>
       <c r="N25" s="18"/>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
@@ -2269,7 +2317,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="X25"/>
     </row>
@@ -2308,7 +2356,9 @@
       <c r="L26" s="18">
         <v>0</v>
       </c>
-      <c r="M26" s="18"/>
+      <c r="M26" s="18">
+        <v>3</v>
+      </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
@@ -2320,7 +2370,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.62666666666666671</v>
+        <v>0.58787878787878789</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2359,7 +2409,9 @@
       <c r="L27" s="18">
         <v>9</v>
       </c>
-      <c r="M27" s="18"/>
+      <c r="M27" s="18">
+        <v>15</v>
+      </c>
       <c r="N27" s="18"/>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
@@ -2371,7 +2423,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.54</v>
+        <v>0.58181818181818179</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2410,7 +2462,9 @@
       <c r="L28" s="18">
         <v>3</v>
       </c>
-      <c r="M28" s="18"/>
+      <c r="M28" s="18">
+        <v>15</v>
+      </c>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
@@ -2422,7 +2476,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.48484848484848486</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2461,7 +2515,9 @@
       <c r="L29" s="18">
         <v>9</v>
       </c>
-      <c r="M29" s="18"/>
+      <c r="M29" s="18">
+        <v>9</v>
+      </c>
       <c r="N29" s="18"/>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
@@ -2473,7 +2529,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.52</v>
+        <v>0.52727272727272723</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2512,7 +2568,9 @@
       <c r="L30" s="18">
         <v>3</v>
       </c>
-      <c r="M30" s="18"/>
+      <c r="M30" s="18">
+        <v>15</v>
+      </c>
       <c r="N30" s="18"/>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
@@ -2524,7 +2582,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.49090909090909091</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2563,7 +2621,9 @@
       <c r="L31" s="18">
         <v>9</v>
       </c>
-      <c r="M31" s="18"/>
+      <c r="M31" s="18">
+        <v>3</v>
+      </c>
       <c r="N31" s="18"/>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
@@ -2575,7 +2635,7 @@
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.55333333333333334</v>
+        <v>0.52121212121212124</v>
       </c>
       <c r="X31"/>
     </row>
@@ -2614,7 +2674,9 @@
       <c r="L32" s="18">
         <v>15</v>
       </c>
-      <c r="M32" s="18"/>
+      <c r="M32" s="18">
+        <v>15</v>
+      </c>
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
@@ -2626,7 +2688,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.65333333333333332</v>
+        <v>0.68484848484848482</v>
       </c>
       <c r="X32"/>
     </row>
@@ -2665,7 +2727,9 @@
       <c r="L33" s="18">
         <v>3</v>
       </c>
-      <c r="M33" s="18"/>
+      <c r="M33" s="18">
+        <v>9</v>
+      </c>
       <c r="N33" s="18"/>
       <c r="O33" s="44"/>
       <c r="P33" s="18"/>
@@ -2677,7 +2741,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.41818181818181815</v>
       </c>
       <c r="X33"/>
     </row>
@@ -2716,7 +2780,9 @@
       <c r="L34" s="18">
         <v>12</v>
       </c>
-      <c r="M34" s="18"/>
+      <c r="M34" s="18">
+        <v>0</v>
+      </c>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
@@ -2728,7 +2794,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.68</v>
+        <v>0.61818181818181817</v>
       </c>
       <c r="X34"/>
     </row>
@@ -2767,7 +2833,9 @@
       <c r="L35" s="18">
         <v>15</v>
       </c>
-      <c r="M35" s="18"/>
+      <c r="M35" s="18">
+        <v>15</v>
+      </c>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
@@ -2779,7 +2847,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="34">
         <f t="shared" si="0"/>
-        <v>0.85333333333333339</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="X35"/>
     </row>
@@ -2818,7 +2886,9 @@
       <c r="L36" s="18">
         <v>0</v>
       </c>
-      <c r="M36" s="18"/>
+      <c r="M36" s="18">
+        <v>9</v>
+      </c>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
@@ -2830,7 +2900,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.46</v>
+        <v>0.47272727272727272</v>
       </c>
       <c r="X36"/>
     </row>
@@ -2869,7 +2939,9 @@
       <c r="L37" s="18">
         <v>3</v>
       </c>
-      <c r="M37" s="18"/>
+      <c r="M37" s="18">
+        <v>15</v>
+      </c>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
@@ -2881,7 +2953,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.64666666666666661</v>
+        <v>0.67878787878787883</v>
       </c>
       <c r="X37"/>
     </row>
@@ -2920,7 +2992,9 @@
       <c r="L38" s="18">
         <v>0</v>
       </c>
-      <c r="M38" s="18"/>
+      <c r="M38" s="18">
+        <v>3</v>
+      </c>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
@@ -2932,7 +3006,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="X38"/>
     </row>
@@ -2971,7 +3045,9 @@
       <c r="L39" s="18">
         <v>9</v>
       </c>
-      <c r="M39" s="18"/>
+      <c r="M39" s="18">
+        <v>0</v>
+      </c>
       <c r="N39" s="18"/>
       <c r="O39" s="44"/>
       <c r="P39" s="18"/>
@@ -2983,7 +3059,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="X39"/>
     </row>
@@ -3133,9 +3209,9 @@
         <f t="shared" si="1"/>
         <v>7.3421052631578947</v>
       </c>
-      <c r="M42" s="30" t="e">
+      <c r="M42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.4473684210526319</v>
       </c>
       <c r="N42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -3175,7 +3251,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.55035087719298237</v>
+        <v>0.5515151515151514</v>
       </c>
       <c r="X42"/>
     </row>
@@ -3227,9 +3303,9 @@
         <f t="shared" si="2"/>
         <v>5.478588868369318</v>
       </c>
-      <c r="M43" s="30" t="e">
+      <c r="M43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.6847845319782611</v>
       </c>
       <c r="N43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -3269,7 +3345,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.18922124183762579</v>
+        <v>0.19442506755049882</v>
       </c>
       <c r="X43"/>
     </row>
@@ -3321,9 +3397,9 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="M44" s="30" t="e">
+      <c r="M44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>9</v>
       </c>
       <c r="N44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -3363,7 +3439,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.56333333333333335</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="X44"/>
     </row>
@@ -3417,7 +3493,7 @@
       </c>
       <c r="M45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="33">
         <f t="shared" si="4"/>
@@ -5994,7 +6070,7 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.44666666666666666</v>
+        <v>0.49696969696969695</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
@@ -6010,7 +6086,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>2.7596666666666669</v>
+        <v>2.8099696969696972</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -6028,7 +6104,7 @@
       </c>
       <c r="B3" s="34">
         <f>Quiz!W3</f>
-        <v>0.08</v>
+        <v>7.2727272727272724E-2</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
@@ -6044,7 +6120,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>2.0674999999999999</v>
+        <v>2.060227272727273</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6061,7 +6137,7 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.6333333333333333</v>
+        <v>0.59393939393939399</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
@@ -6077,7 +6153,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.9778333333333338</v>
+        <v>2.9384393939393942</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -6094,7 +6170,7 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.59333333333333338</v>
+        <v>0.63030303030303025</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
@@ -6110,7 +6186,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>2.7518333333333338</v>
+        <v>2.78880303030303</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -6127,7 +6203,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.66666666666666663</v>
+        <v>0.60606060606060608</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
@@ -6143,7 +6219,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>2.8911666666666669</v>
+        <v>2.8305606060606063</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -6160,7 +6236,7 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.6</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
@@ -6176,11 +6252,11 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>1.8000000000000003</v>
+        <v>1.7454545454545456</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H7" s="51">
         <f t="shared" si="2"/>
@@ -6193,7 +6269,7 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.6333333333333333</v>
+        <v>0.59393939393939399</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
@@ -6209,7 +6285,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>3.0468333333333337</v>
+        <v>3.0074393939393942</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -6226,7 +6302,7 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.5</v>
+        <v>0.47272727272727272</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
@@ -6242,7 +6318,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>3.4850000000000003</v>
+        <v>3.457727272727273</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -6259,7 +6335,7 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.55333333333333334</v>
+        <v>0.52121212121212124</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
@@ -6275,7 +6351,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>2.2033333333333336</v>
+        <v>2.1712121212121214</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -6292,7 +6368,7 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.25333333333333335</v>
+        <v>0.23030303030303031</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
@@ -6308,7 +6384,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.4203333333333332</v>
+        <v>1.3973030303030303</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -6325,7 +6401,7 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.57333333333333336</v>
+        <v>0.61212121212121207</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
@@ -6341,7 +6417,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>2.2053333333333334</v>
+        <v>2.244121212121212</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -6358,7 +6434,7 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>0.88</v>
+        <v>0.89090909090909087</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
@@ -6374,7 +6450,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>5.0650000000000004</v>
+        <v>5.0759090909090911</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -6391,7 +6467,7 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
@@ -6407,7 +6483,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>3.2699999999999996</v>
+        <v>3.29</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -6424,7 +6500,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>8.666666666666667E-2</v>
+        <v>7.8787878787878782E-2</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
@@ -6440,7 +6516,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.19316666666666665</v>
+        <v>0.18528787878787878</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -6457,7 +6533,7 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>0.74</v>
+        <v>0.76363636363636367</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
@@ -6473,7 +6549,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>4.556</v>
+        <v>4.5796363636363644</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -6490,7 +6566,7 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.47333333333333333</v>
+        <v>0.52121212121212124</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
@@ -6506,7 +6582,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>2.3753333333333333</v>
+        <v>2.4232121212121212</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -6523,7 +6599,7 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.55333333333333334</v>
+        <v>0.52121212121212124</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
@@ -6539,7 +6615,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>2.3443333333333332</v>
+        <v>2.3122121212121209</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -6556,7 +6632,7 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.68666666666666665</v>
+        <v>0.7151515151515152</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
@@ -6572,7 +6648,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>3.3866666666666667</v>
+        <v>3.415151515151515</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -6589,7 +6665,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.71333333333333337</v>
+        <v>0.73939393939393938</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
@@ -6605,7 +6681,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>3.4613333333333332</v>
+        <v>3.4873939393939395</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6622,7 +6698,7 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.24</v>
+        <v>0.21818181818181817</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
@@ -6638,7 +6714,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.6694999999999998</v>
+        <v>1.647681818181818</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -6655,7 +6731,7 @@
       </c>
       <c r="B22" s="34">
         <f>Quiz!W22</f>
-        <v>0.84</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
@@ -6671,7 +6747,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>4.68</v>
+        <v>4.6945454545454544</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
@@ -6688,7 +6764,7 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.76</v>
+        <v>0.78181818181818186</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
@@ -6704,7 +6780,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.8434999999999997</v>
+        <v>2.8653181818181817</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -6721,7 +6797,7 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.5</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
@@ -6737,7 +6813,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>2.8924999999999996</v>
+        <v>2.937954545454545</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -6754,7 +6830,7 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.6</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
@@ -6770,7 +6846,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>2.1659999999999999</v>
+        <v>2.1114545454545453</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -6787,7 +6863,7 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.62666666666666671</v>
+        <v>0.58787878787878789</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
@@ -6803,7 +6879,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>2.1581666666666668</v>
+        <v>2.1193787878787878</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6820,7 +6896,7 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.54</v>
+        <v>0.58181818181818179</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
@@ -6836,7 +6912,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>2.1719999999999997</v>
+        <v>2.2138181818181817</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -6853,7 +6929,7 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.43333333333333335</v>
+        <v>0.48484848484848486</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
@@ -6869,7 +6945,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.6333333333333333</v>
+        <v>1.684848484848485</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -6886,7 +6962,7 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.52</v>
+        <v>0.52727272727272723</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
@@ -6902,7 +6978,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.4785000000000001</v>
+        <v>1.4857727272727272</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -6919,7 +6995,7 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.44</v>
+        <v>0.49090909090909091</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
@@ -6935,7 +7011,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>2.0615000000000001</v>
+        <v>2.1124090909090909</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -6952,7 +7028,7 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.55333333333333334</v>
+        <v>0.52121212121212124</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
@@ -6968,7 +7044,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>2.4208333333333334</v>
+        <v>2.3887121212121212</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -6985,7 +7061,7 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.65333333333333332</v>
+        <v>0.68484848484848482</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
@@ -7001,7 +7077,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>3.1193333333333335</v>
+        <v>3.1508484848484848</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -7018,7 +7094,7 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.4</v>
+        <v>0.41818181818181815</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
@@ -7034,7 +7110,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>2.173</v>
+        <v>2.1911818181818181</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -7051,7 +7127,7 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.68</v>
+        <v>0.61818181818181817</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
@@ -7067,7 +7143,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>2.4409999999999998</v>
+        <v>2.3791818181818183</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -7084,7 +7160,7 @@
       </c>
       <c r="B35" s="34">
         <f>Quiz!W35</f>
-        <v>0.85333333333333339</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
@@ -7100,7 +7176,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>5.1748333333333338</v>
+        <v>5.1881666666666666</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -7117,7 +7193,7 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.46</v>
+        <v>0.47272727272727272</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
@@ -7133,7 +7209,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>2.1684999999999999</v>
+        <v>2.1812272727272726</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -7150,7 +7226,7 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.64666666666666661</v>
+        <v>0.67878787878787883</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
@@ -7166,11 +7242,11 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>2.7361666666666666</v>
+        <v>2.7682878787878789</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H37" s="51">
         <f t="shared" si="8"/>
@@ -7183,7 +7259,7 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.28000000000000003</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
@@ -7199,7 +7275,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.88900000000000001</v>
+        <v>0.88172727272727269</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -7216,7 +7292,7 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
@@ -7232,7 +7308,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.8139999999999998</v>
+        <v>1.774</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -7289,7 +7365,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.55035087719298237</v>
+        <v>0.5515151515151514</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
@@ -7305,7 +7381,7 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6040087719298239</v>
+        <v>2.6051730462519935</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
@@ -7322,7 +7398,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.18922124183762579</v>
+        <v>0.19442506755049882</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
@@ -7338,11 +7414,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0498697530739107</v>
+        <v>1.0573289762833746</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0581425794050294</v>
+        <v>1.0708374037999215</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -7355,7 +7431,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.56333333333333335</v>
+        <v>0.54545454545454541</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
@@ -7371,7 +7447,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>2.3980833333333331</v>
+        <v>2.3839469696969697</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE13E4E2-6A3C-1644-86C0-13DE5E52F447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189DC68-AD15-7A4A-BD69-113824ADE1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1280" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="1280" windowWidth="32920" windowHeight="19260" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -3830,7 +3830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -3898,14 +3898,16 @@
       <c r="F2" s="54">
         <v>87</v>
       </c>
-      <c r="G2" s="52"/>
+      <c r="G2" s="54">
+        <v>69</v>
+      </c>
       <c r="H2" s="52"/>
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
       <c r="L2" s="34">
         <f>IF(SUM($B$45:$I$45)&gt;0,1.5*(B2/$B$41+C2/$C$41+D2/$D$41+E2/$E$41+F2/$F$41+G2/$G$41+H2/$H$41+I2/$I$41+J2/$J$41+K2/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>1.2330000000000001</v>
+        <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3927,14 +3929,16 @@
       <c r="F3" s="54">
         <v>55</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="54">
+        <v>0</v>
+      </c>
       <c r="H3" s="52"/>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
       <c r="L3" s="34">
         <f t="shared" ref="L3:L39" si="0">IF(SUM($B$45:$I$45)&gt;0,1.5*(B3/$B$41+C3/$C$41+D3/$D$41+E3/$E$41+F3/$F$41+G3/$G$41+H3/$H$41+I3/$I$41+J3/$J$41+K3/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>0.79949999999999999</v>
+        <v>0.66625000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3956,14 +3960,16 @@
       <c r="F4" s="54">
         <v>75</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="54">
+        <v>63</v>
+      </c>
       <c r="H4" s="52"/>
       <c r="I4" s="52"/>
       <c r="J4" s="52"/>
       <c r="K4" s="52"/>
       <c r="L4" s="34">
         <f t="shared" si="0"/>
-        <v>1.1925000000000001</v>
+        <v>1.1512500000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -3985,14 +3991,16 @@
       <c r="F5" s="54">
         <v>55.5</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="54">
+        <v>67</v>
+      </c>
       <c r="H5" s="52"/>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
       <c r="L5" s="34">
         <f t="shared" si="0"/>
-        <v>0.87450000000000006</v>
+        <v>0.89624999999999988</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4014,14 +4022,16 @@
       <c r="F6" s="54">
         <v>53.5</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="54">
+        <v>89</v>
+      </c>
       <c r="H6" s="52"/>
       <c r="I6" s="52"/>
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
       <c r="L6" s="34">
         <f t="shared" si="0"/>
-        <v>1.0965</v>
+        <v>1.13625</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4043,14 +4053,16 @@
       <c r="F7" s="54">
         <v>0</v>
       </c>
-      <c r="G7" s="52"/>
+      <c r="G7" s="54">
+        <v>58</v>
+      </c>
       <c r="H7" s="52"/>
       <c r="I7" s="52"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
       <c r="L7" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4072,14 +4084,16 @@
       <c r="F8" s="54">
         <v>88</v>
       </c>
-      <c r="G8" s="52"/>
+      <c r="G8" s="54">
+        <v>89</v>
+      </c>
       <c r="H8" s="52"/>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
       <c r="L8" s="34">
         <f t="shared" si="0"/>
-        <v>1.2855000000000001</v>
+        <v>1.29375</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4101,14 +4115,16 @@
       <c r="F9" s="54">
         <v>90</v>
       </c>
-      <c r="G9" s="52"/>
+      <c r="G9" s="54">
+        <v>93</v>
+      </c>
       <c r="H9" s="52"/>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
       <c r="L9" s="34">
         <f t="shared" si="0"/>
-        <v>1.4490000000000001</v>
+        <v>1.4400000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4130,14 +4146,16 @@
       <c r="F10" s="54">
         <v>88</v>
       </c>
-      <c r="G10" s="52"/>
+      <c r="G10" s="54">
+        <v>90</v>
+      </c>
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
       <c r="L10" s="34">
         <f t="shared" si="0"/>
-        <v>1.2420000000000002</v>
+        <v>1.2600000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4159,14 +4177,16 @@
       <c r="F11" s="54">
         <v>0</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="54">
+        <v>60</v>
+      </c>
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
       <c r="L11" s="34">
         <f t="shared" si="0"/>
-        <v>0.14699999999999999</v>
+        <v>0.27249999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4188,14 +4208,16 @@
       <c r="F12" s="54">
         <v>33.5</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="54">
+        <v>27</v>
+      </c>
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
       <c r="L12" s="34">
         <f t="shared" si="0"/>
-        <v>0.55199999999999994</v>
+        <v>0.52749999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4217,14 +4239,16 @@
       <c r="F13" s="54">
         <v>98.5</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="54">
+        <v>92</v>
+      </c>
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
       <c r="L13" s="34">
         <f t="shared" si="0"/>
-        <v>1.425</v>
+        <v>1.4174999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4246,14 +4270,16 @@
       <c r="F14" s="54">
         <v>77</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="54">
+        <v>79</v>
+      </c>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
       <c r="L14" s="34">
         <f t="shared" si="0"/>
-        <v>1.23</v>
+        <v>1.2224999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4275,14 +4301,16 @@
       <c r="F15" s="54">
         <v>0</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="54">
+        <v>0</v>
+      </c>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
       <c r="J15" s="52"/>
       <c r="K15" s="52"/>
       <c r="L15" s="34">
         <f t="shared" si="0"/>
-        <v>0.1065</v>
+        <v>8.8749999999999996E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4304,14 +4332,16 @@
       <c r="F16" s="54">
         <v>97.5</v>
       </c>
-      <c r="G16" s="52"/>
+      <c r="G16" s="54">
+        <v>93</v>
+      </c>
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
       <c r="L16" s="34">
         <f t="shared" si="0"/>
-        <v>1.4159999999999999</v>
+        <v>1.4124999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4333,14 +4363,16 @@
       <c r="F17" s="54">
         <v>88.5</v>
       </c>
-      <c r="G17" s="52"/>
+      <c r="G17" s="54">
+        <v>91</v>
+      </c>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
       <c r="L17" s="34">
         <f t="shared" si="0"/>
-        <v>1.1819999999999999</v>
+        <v>1.2124999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4362,14 +4394,16 @@
       <c r="F18" s="54">
         <v>68.5</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="54">
+        <v>36</v>
+      </c>
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
       <c r="L18" s="34">
         <f t="shared" si="0"/>
-        <v>0.93599999999999994</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4391,14 +4425,16 @@
       <c r="F19" s="54">
         <v>88.5</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="54">
+        <v>73</v>
+      </c>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
       <c r="L19" s="34">
         <f t="shared" si="0"/>
-        <v>1.2959999999999998</v>
+        <v>1.2624999999999997</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4420,14 +4456,16 @@
       <c r="F20" s="54">
         <v>88.5</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="54">
+        <v>76</v>
+      </c>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
       <c r="L20" s="34">
         <f t="shared" si="0"/>
-        <v>1.284</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4449,14 +4487,16 @@
       <c r="F21" s="54">
         <v>0</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="54">
+        <v>60</v>
+      </c>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="52"/>
       <c r="K21" s="52"/>
       <c r="L21" s="34">
         <f t="shared" si="0"/>
-        <v>0.55349999999999999</v>
+        <v>0.61124999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4478,14 +4518,16 @@
       <c r="F22" s="54">
         <v>99.5</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="54">
+        <v>95</v>
+      </c>
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
       <c r="L22" s="34">
         <f t="shared" si="0"/>
-        <v>1.38</v>
+        <v>1.3875</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4507,14 +4549,16 @@
       <c r="F23" s="54">
         <v>89.5</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="54">
+        <v>76</v>
+      </c>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
       <c r="L23" s="34">
         <f t="shared" si="0"/>
-        <v>1.2194999999999998</v>
+        <v>1.2062499999999998</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4536,14 +4580,16 @@
       <c r="F24" s="54">
         <v>26.5</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="54">
+        <v>33</v>
+      </c>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
       <c r="L24" s="34">
         <f t="shared" si="0"/>
-        <v>0.64049999999999996</v>
+        <v>0.61624999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4565,14 +4611,16 @@
       <c r="F25" s="54">
         <v>61</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="54">
+        <v>70</v>
+      </c>
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
       <c r="L25" s="34">
         <f t="shared" si="0"/>
-        <v>0.95399999999999996</v>
+        <v>0.97000000000000008</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4594,14 +4642,16 @@
       <c r="F26" s="54">
         <v>74.5</v>
       </c>
-      <c r="G26" s="52"/>
+      <c r="G26" s="54">
+        <v>69</v>
+      </c>
       <c r="H26" s="52"/>
       <c r="I26" s="52"/>
       <c r="J26" s="52"/>
       <c r="K26" s="52"/>
       <c r="L26" s="34">
         <f t="shared" si="0"/>
-        <v>0.66750000000000009</v>
+        <v>0.72875000000000012</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4623,14 +4673,16 @@
       <c r="F27" s="54">
         <v>55</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="54">
+        <v>66</v>
+      </c>
       <c r="H27" s="52"/>
       <c r="I27" s="52"/>
       <c r="J27" s="52"/>
       <c r="K27" s="52"/>
       <c r="L27" s="34">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4652,14 +4704,16 @@
       <c r="F28" s="54">
         <v>33.5</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="54">
+        <v>70</v>
+      </c>
       <c r="H28" s="52"/>
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
       <c r="K28" s="52"/>
       <c r="L28" s="34">
         <f t="shared" si="0"/>
-        <v>0.53999999999999992</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4681,14 +4735,16 @@
       <c r="F29" s="54">
         <v>38.5</v>
       </c>
-      <c r="G29" s="52"/>
+      <c r="G29" s="54">
+        <v>0</v>
+      </c>
       <c r="H29" s="52"/>
       <c r="I29" s="52"/>
       <c r="J29" s="52"/>
       <c r="K29" s="52"/>
       <c r="L29" s="34">
         <f t="shared" si="0"/>
-        <v>0.69450000000000001</v>
+        <v>0.57874999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4710,14 +4766,16 @@
       <c r="F30" s="54">
         <v>51.5</v>
       </c>
-      <c r="G30" s="52"/>
+      <c r="G30" s="54">
+        <v>79</v>
+      </c>
       <c r="H30" s="52"/>
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
       <c r="K30" s="52"/>
       <c r="L30" s="34">
         <f t="shared" si="0"/>
-        <v>0.99750000000000016</v>
+        <v>1.0287500000000001</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4739,14 +4797,16 @@
       <c r="F31" s="54">
         <v>93</v>
       </c>
-      <c r="G31" s="52"/>
+      <c r="G31" s="54">
+        <v>75</v>
+      </c>
       <c r="H31" s="52"/>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
       <c r="K31" s="52"/>
       <c r="L31" s="34">
         <f t="shared" si="0"/>
-        <v>1.2794999999999999</v>
+        <v>1.2537499999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4768,14 +4828,16 @@
       <c r="F32" s="54">
         <v>79.5</v>
       </c>
-      <c r="G32" s="52"/>
+      <c r="G32" s="54">
+        <v>87</v>
+      </c>
       <c r="H32" s="52"/>
       <c r="I32" s="52"/>
       <c r="J32" s="52"/>
       <c r="K32" s="52"/>
       <c r="L32" s="34">
         <f t="shared" si="0"/>
-        <v>1.206</v>
+        <v>1.2224999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4797,14 +4859,16 @@
       <c r="F33" s="54">
         <v>36</v>
       </c>
-      <c r="G33" s="52"/>
+      <c r="G33" s="54">
+        <v>66</v>
+      </c>
       <c r="H33" s="52"/>
       <c r="I33" s="52"/>
       <c r="J33" s="52"/>
       <c r="K33" s="52"/>
       <c r="L33" s="34">
         <f t="shared" si="0"/>
-        <v>0.70499999999999985</v>
+        <v>0.75249999999999995</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4826,14 +4890,16 @@
       <c r="F34" s="54">
         <v>0</v>
       </c>
-      <c r="G34" s="52"/>
+      <c r="G34" s="54">
+        <v>0</v>
+      </c>
       <c r="H34" s="52"/>
       <c r="I34" s="52"/>
       <c r="J34" s="52"/>
       <c r="K34" s="52"/>
       <c r="L34" s="34">
         <f t="shared" si="0"/>
-        <v>0.29699999999999999</v>
+        <v>0.24749999999999997</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4855,14 +4921,16 @@
       <c r="F35" s="54">
         <v>99.5</v>
       </c>
-      <c r="G35" s="52"/>
+      <c r="G35" s="54">
+        <v>95</v>
+      </c>
       <c r="H35" s="52"/>
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
       <c r="K35" s="52"/>
       <c r="L35" s="34">
         <f t="shared" si="0"/>
-        <v>1.4055</v>
+        <v>1.4087500000000002</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4884,14 +4952,16 @@
       <c r="F36" s="54">
         <v>77.5</v>
       </c>
-      <c r="G36" s="52"/>
+      <c r="G36" s="54">
+        <v>72</v>
+      </c>
       <c r="H36" s="52"/>
       <c r="I36" s="52"/>
       <c r="J36" s="52"/>
       <c r="K36" s="52"/>
       <c r="L36" s="34">
         <f t="shared" si="0"/>
-        <v>0.92849999999999999</v>
+        <v>0.95374999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4913,14 +4983,16 @@
       <c r="F37" s="54">
         <v>0</v>
       </c>
-      <c r="G37" s="52"/>
+      <c r="G37" s="54">
+        <v>45</v>
+      </c>
       <c r="H37" s="52"/>
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
       <c r="K37" s="52"/>
       <c r="L37" s="34">
         <f t="shared" si="0"/>
-        <v>0.63749999999999996</v>
+        <v>0.64375000000000004</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4942,14 +5014,16 @@
       <c r="F38" s="54">
         <v>0</v>
       </c>
-      <c r="G38" s="52"/>
+      <c r="G38" s="54">
+        <v>69</v>
+      </c>
       <c r="H38" s="52"/>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
       <c r="K38" s="52"/>
       <c r="L38" s="34">
         <f t="shared" si="0"/>
-        <v>0.34499999999999997</v>
+        <v>0.45999999999999996</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4971,14 +5045,16 @@
       <c r="F39" s="54">
         <v>60</v>
       </c>
-      <c r="G39" s="52"/>
+      <c r="G39" s="54">
+        <v>0</v>
+      </c>
       <c r="H39" s="52"/>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
       <c r="K39" s="52"/>
       <c r="L39" s="34">
         <f t="shared" si="0"/>
-        <v>0.86999999999999988</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5056,9 +5132,9 @@
         <f t="shared" si="1"/>
         <v>58.092105263157897</v>
       </c>
-      <c r="G42" s="30" t="e">
+      <c r="G42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>62.421052631578945</v>
       </c>
       <c r="H42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -5078,7 +5154,7 @@
       </c>
       <c r="L42" s="30">
         <f t="shared" si="1"/>
-        <v>0.92021052631578937</v>
+        <v>0.9228947368421051</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5105,9 +5181,9 @@
         <f t="shared" si="2"/>
         <v>34.44440394339329</v>
       </c>
-      <c r="G43" s="30" t="e">
+      <c r="G43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>29.714526049080433</v>
       </c>
       <c r="H43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -5127,7 +5203,7 @@
       </c>
       <c r="L43" s="30">
         <f t="shared" si="2"/>
-        <v>0.40244339255419093</v>
+        <v>0.38653215064864166</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5154,9 +5230,9 @@
         <f t="shared" si="3"/>
         <v>64.75</v>
       </c>
-      <c r="G44" s="30" t="e">
+      <c r="G44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>69.5</v>
       </c>
       <c r="H44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -5176,7 +5252,7 @@
       </c>
       <c r="L44" s="30">
         <f t="shared" si="3"/>
-        <v>0.94499999999999995</v>
+        <v>0.96187500000000004</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5205,7 +5281,7 @@
       </c>
       <c r="G45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" s="33">
         <f t="shared" si="4"/>
@@ -6074,7 +6150,7 @@
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
-        <v>1.2330000000000001</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="D2" s="43">
         <f>Exams!B2</f>
@@ -6086,7 +6162,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>2.8099696969696972</v>
+        <v>2.7769696969696973</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -6108,7 +6184,7 @@
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
-        <v>0.79949999999999999</v>
+        <v>0.66625000000000001</v>
       </c>
       <c r="D3" s="43">
         <f>Exams!B3</f>
@@ -6120,7 +6196,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>2.060227272727273</v>
+        <v>1.9269772727272729</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6141,7 +6217,7 @@
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
-        <v>1.1925000000000001</v>
+        <v>1.1512500000000001</v>
       </c>
       <c r="D4" s="43">
         <f>Exams!B4</f>
@@ -6153,7 +6229,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.9384393939393942</v>
+        <v>2.897189393939394</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -6174,7 +6250,7 @@
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
-        <v>0.87450000000000006</v>
+        <v>0.89624999999999988</v>
       </c>
       <c r="D5" s="43">
         <f>Exams!B5</f>
@@ -6186,7 +6262,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>2.78880303030303</v>
+        <v>2.8105530303030299</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -6207,7 +6283,7 @@
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
-        <v>1.0965</v>
+        <v>1.13625</v>
       </c>
       <c r="D6" s="43">
         <f>Exams!B6</f>
@@ -6219,7 +6295,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>2.8305606060606063</v>
+        <v>2.8703106060606061</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -6240,7 +6316,7 @@
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
-        <v>0</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="D7" s="43">
         <f>Exams!B7</f>
@@ -6252,11 +6328,11 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>1.7454545454545456</v>
+        <v>1.8904545454545456</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H7" s="51">
         <f t="shared" si="2"/>
@@ -6273,7 +6349,7 @@
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
-        <v>1.2855000000000001</v>
+        <v>1.29375</v>
       </c>
       <c r="D8" s="43">
         <f>Exams!B8</f>
@@ -6285,7 +6361,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>3.0074393939393942</v>
+        <v>3.0156893939393941</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -6306,7 +6382,7 @@
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
-        <v>1.4490000000000001</v>
+        <v>1.4400000000000002</v>
       </c>
       <c r="D9" s="43">
         <f>Exams!B9</f>
@@ -6318,7 +6394,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>3.457727272727273</v>
+        <v>3.4487272727272726</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -6339,7 +6415,7 @@
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
-        <v>1.2420000000000002</v>
+        <v>1.2600000000000002</v>
       </c>
       <c r="D10" s="43">
         <f>Exams!B10</f>
@@ -6351,7 +6427,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>2.1712121212121214</v>
+        <v>2.1892121212121216</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -6372,7 +6448,7 @@
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
-        <v>0.14699999999999999</v>
+        <v>0.27249999999999996</v>
       </c>
       <c r="D11" s="43">
         <f>Exams!B11</f>
@@ -6384,7 +6460,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.3973030303030303</v>
+        <v>1.5228030303030304</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -6405,7 +6481,7 @@
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
-        <v>0.55199999999999994</v>
+        <v>0.52749999999999997</v>
       </c>
       <c r="D12" s="43">
         <f>Exams!B12</f>
@@ -6417,7 +6493,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>2.244121212121212</v>
+        <v>2.2196212121212122</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -6438,7 +6514,7 @@
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
-        <v>1.425</v>
+        <v>1.4174999999999998</v>
       </c>
       <c r="D13" s="43">
         <f>Exams!B13</f>
@@ -6450,7 +6526,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>5.0759090909090911</v>
+        <v>5.0684090909090909</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -6471,7 +6547,7 @@
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
-        <v>1.23</v>
+        <v>1.2224999999999999</v>
       </c>
       <c r="D14" s="43">
         <f>Exams!B14</f>
@@ -6483,7 +6559,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>3.29</v>
+        <v>3.2824999999999998</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -6504,7 +6580,7 @@
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
-        <v>0.1065</v>
+        <v>8.8749999999999996E-2</v>
       </c>
       <c r="D15" s="43">
         <f>Exams!B15</f>
@@ -6516,7 +6592,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.18528787878787878</v>
+        <v>0.16753787878787879</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -6537,7 +6613,7 @@
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
-        <v>1.4159999999999999</v>
+        <v>1.4124999999999999</v>
       </c>
       <c r="D16" s="43">
         <f>Exams!B16</f>
@@ -6549,7 +6625,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>4.5796363636363644</v>
+        <v>4.5761363636363637</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -6570,7 +6646,7 @@
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
-        <v>1.1819999999999999</v>
+        <v>1.2124999999999999</v>
       </c>
       <c r="D17" s="43">
         <f>Exams!B17</f>
@@ -6582,7 +6658,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>2.4232121212121212</v>
+        <v>2.4537121212121211</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -6603,7 +6679,7 @@
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
-        <v>0.93599999999999994</v>
+        <v>0.87</v>
       </c>
       <c r="D18" s="43">
         <f>Exams!B18</f>
@@ -6615,11 +6691,11 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>2.3122121212121209</v>
+        <v>2.2462121212121211</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H18" s="51">
         <f t="shared" si="2"/>
@@ -6636,7 +6712,7 @@
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
-        <v>1.2959999999999998</v>
+        <v>1.2624999999999997</v>
       </c>
       <c r="D19" s="43">
         <f>Exams!B19</f>
@@ -6648,7 +6724,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>3.415151515151515</v>
+        <v>3.381651515151515</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -6669,7 +6745,7 @@
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
-        <v>1.284</v>
+        <v>1.26</v>
       </c>
       <c r="D20" s="43">
         <f>Exams!B20</f>
@@ -6681,7 +6757,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>3.4873939393939395</v>
+        <v>3.4633939393939395</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6702,7 +6778,7 @@
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
-        <v>0.55349999999999999</v>
+        <v>0.61124999999999996</v>
       </c>
       <c r="D21" s="43">
         <f>Exams!B21</f>
@@ -6714,7 +6790,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.647681818181818</v>
+        <v>1.705431818181818</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -6735,7 +6811,7 @@
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
-        <v>1.38</v>
+        <v>1.3875</v>
       </c>
       <c r="D22" s="43">
         <f>Exams!B22</f>
@@ -6747,7 +6823,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>4.6945454545454544</v>
+        <v>4.7020454545454546</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
@@ -6768,7 +6844,7 @@
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
-        <v>1.2194999999999998</v>
+        <v>1.2062499999999998</v>
       </c>
       <c r="D23" s="43">
         <f>Exams!B23</f>
@@ -6780,7 +6856,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.8653181818181817</v>
+        <v>2.8520681818181814</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -6801,7 +6877,7 @@
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
-        <v>0.64049999999999996</v>
+        <v>0.61624999999999996</v>
       </c>
       <c r="D24" s="43">
         <f>Exams!B24</f>
@@ -6813,7 +6889,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>2.937954545454545</v>
+        <v>2.9137045454545452</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -6834,7 +6910,7 @@
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
-        <v>0.95399999999999996</v>
+        <v>0.97000000000000008</v>
       </c>
       <c r="D25" s="43">
         <f>Exams!B25</f>
@@ -6846,7 +6922,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>2.1114545454545453</v>
+        <v>2.1274545454545457</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -6867,7 +6943,7 @@
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
-        <v>0.66750000000000009</v>
+        <v>0.72875000000000012</v>
       </c>
       <c r="D26" s="43">
         <f>Exams!B26</f>
@@ -6879,7 +6955,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>2.1193787878787878</v>
+        <v>2.180628787878788</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6900,7 +6976,7 @@
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
-        <v>0.9</v>
+        <v>0.91500000000000004</v>
       </c>
       <c r="D27" s="43">
         <f>Exams!B27</f>
@@ -6912,7 +6988,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>2.2138181818181817</v>
+        <v>2.2288181818181818</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -6933,7 +7009,7 @@
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
-        <v>0.53999999999999992</v>
+        <v>0.625</v>
       </c>
       <c r="D28" s="43">
         <f>Exams!B28</f>
@@ -6945,11 +7021,11 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.684848484848485</v>
+        <v>1.769848484848485</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="51">
         <f t="shared" si="7"/>
@@ -6966,7 +7042,7 @@
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
-        <v>0.69450000000000001</v>
+        <v>0.57874999999999999</v>
       </c>
       <c r="D29" s="43">
         <f>Exams!B29</f>
@@ -6978,7 +7054,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.4857727272727272</v>
+        <v>1.3700227272727272</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -6999,7 +7075,7 @@
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
-        <v>0.99750000000000016</v>
+        <v>1.0287500000000001</v>
       </c>
       <c r="D30" s="43">
         <f>Exams!B30</f>
@@ -7011,7 +7087,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>2.1124090909090909</v>
+        <v>2.1436590909090909</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -7032,7 +7108,7 @@
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
-        <v>1.2794999999999999</v>
+        <v>1.2537499999999999</v>
       </c>
       <c r="D31" s="43">
         <f>Exams!B31</f>
@@ -7044,7 +7120,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>2.3887121212121212</v>
+        <v>2.3629621212121212</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -7065,7 +7141,7 @@
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
-        <v>1.206</v>
+        <v>1.2224999999999999</v>
       </c>
       <c r="D32" s="43">
         <f>Exams!B32</f>
@@ -7077,7 +7153,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>3.1508484848484848</v>
+        <v>3.1673484848484845</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -7098,7 +7174,7 @@
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
-        <v>0.70499999999999985</v>
+        <v>0.75249999999999995</v>
       </c>
       <c r="D33" s="43">
         <f>Exams!B33</f>
@@ -7110,7 +7186,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>2.1911818181818181</v>
+        <v>2.238681818181818</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -7131,7 +7207,7 @@
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
-        <v>0.29699999999999999</v>
+        <v>0.24749999999999997</v>
       </c>
       <c r="D34" s="43">
         <f>Exams!B34</f>
@@ -7143,7 +7219,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>2.3791818181818183</v>
+        <v>2.3296818181818182</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -7164,7 +7240,7 @@
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
-        <v>1.4055</v>
+        <v>1.4087500000000002</v>
       </c>
       <c r="D35" s="43">
         <f>Exams!B35</f>
@@ -7176,7 +7252,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>5.1881666666666666</v>
+        <v>5.191416666666667</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -7197,7 +7273,7 @@
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
-        <v>0.92849999999999999</v>
+        <v>0.95374999999999999</v>
       </c>
       <c r="D36" s="43">
         <f>Exams!B36</f>
@@ -7209,7 +7285,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>2.1812272727272726</v>
+        <v>2.2064772727272728</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -7230,7 +7306,7 @@
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
-        <v>0.63749999999999996</v>
+        <v>0.64375000000000004</v>
       </c>
       <c r="D37" s="43">
         <f>Exams!B37</f>
@@ -7242,7 +7318,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>2.7682878787878789</v>
+        <v>2.7745378787878789</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -7263,7 +7339,7 @@
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
-        <v>0.34499999999999997</v>
+        <v>0.45999999999999996</v>
       </c>
       <c r="D38" s="43">
         <f>Exams!B38</f>
@@ -7275,7 +7351,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.88172727272727269</v>
+        <v>0.99672727272727268</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -7296,7 +7372,7 @@
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
-        <v>0.86999999999999988</v>
+        <v>0.72499999999999998</v>
       </c>
       <c r="D39" s="43">
         <f>Exams!B39</f>
@@ -7308,11 +7384,11 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.774</v>
+        <v>1.629</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H39" s="51">
         <f t="shared" si="8"/>
@@ -7369,7 +7445,7 @@
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
-        <v>0.92021052631578937</v>
+        <v>0.9228947368421051</v>
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
@@ -7381,7 +7457,7 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6051730462519935</v>
+        <v>2.6078572567783089</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
@@ -7402,7 +7478,7 @@
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
-        <v>0.40244339255419093</v>
+        <v>0.38653215064864166</v>
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
@@ -7414,11 +7490,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0573289762833746</v>
+        <v>1.0496541472458747</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0708374037999215</v>
+        <v>1.0645089158214891</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -7435,7 +7511,7 @@
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
-        <v>0.94499999999999995</v>
+        <v>0.96187500000000004</v>
       </c>
       <c r="D44" s="30">
         <f t="shared" si="11"/>
@@ -7447,7 +7523,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>2.3839469696969697</v>
+        <v>2.3463219696969695</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0189DC68-AD15-7A4A-BD69-113824ADE1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7202F3A5-E41A-F94F-A8CB-E2850FAF816D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1280" windowWidth="32920" windowHeight="19260" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="1280" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -1088,7 +1088,9 @@
       <c r="M2" s="18">
         <v>15</v>
       </c>
-      <c r="N2" s="18"/>
+      <c r="N2" s="18">
+        <v>3</v>
+      </c>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
@@ -1099,7 +1101,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.49696969696969695</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1141,7 +1143,9 @@
       <c r="M3" s="18">
         <v>0</v>
       </c>
-      <c r="N3" s="18"/>
+      <c r="N3" s="18">
+        <v>0</v>
+      </c>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
@@ -1152,7 +1156,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="34">
         <f t="shared" si="0"/>
-        <v>7.2727272727272724E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1194,7 +1198,9 @@
       <c r="M4" s="18">
         <v>3</v>
       </c>
-      <c r="N4" s="18"/>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
@@ -1205,7 +1211,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.59393939393939399</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1247,7 +1253,9 @@
       <c r="M5" s="18">
         <v>15</v>
       </c>
-      <c r="N5" s="18"/>
+      <c r="N5" s="18">
+        <v>15</v>
+      </c>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
@@ -1258,7 +1266,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.63030303030303025</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1300,7 +1308,9 @@
       <c r="M6" s="18">
         <v>0</v>
       </c>
-      <c r="N6" s="18"/>
+      <c r="N6" s="18">
+        <v>0</v>
+      </c>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -1311,7 +1321,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.60606060606060608</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1353,7 +1363,9 @@
       <c r="M7" s="18">
         <v>0</v>
       </c>
-      <c r="N7" s="18"/>
+      <c r="N7" s="18">
+        <v>9</v>
+      </c>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
@@ -1364,7 +1376,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1406,7 +1418,9 @@
       <c r="M8" s="18">
         <v>3</v>
       </c>
-      <c r="N8" s="18"/>
+      <c r="N8" s="18">
+        <v>9</v>
+      </c>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
@@ -1417,7 +1431,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.59393939393939399</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1459,7 +1473,9 @@
       <c r="M9" s="18">
         <v>3</v>
       </c>
-      <c r="N9" s="18"/>
+      <c r="N9" s="18">
+        <v>15</v>
+      </c>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -1470,7 +1486,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.47272727272727272</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1512,7 +1528,9 @@
       <c r="M10" s="18">
         <v>3</v>
       </c>
-      <c r="N10" s="18"/>
+      <c r="N10" s="18">
+        <v>9</v>
+      </c>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
@@ -1523,7 +1541,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.52121212121212124</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1565,7 +1583,9 @@
       <c r="M11" s="18">
         <v>0</v>
       </c>
-      <c r="N11" s="18"/>
+      <c r="N11" s="18">
+        <v>3</v>
+      </c>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
@@ -1576,7 +1596,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.23030303030303031</v>
+        <v>0.22777777777777777</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1618,7 +1638,9 @@
       <c r="M12" s="18">
         <v>15</v>
       </c>
-      <c r="N12" s="18"/>
+      <c r="N12" s="18">
+        <v>9</v>
+      </c>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
@@ -1629,7 +1651,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.61212121212121207</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1671,7 +1693,9 @@
       <c r="M13" s="18">
         <v>15</v>
       </c>
-      <c r="N13" s="18"/>
+      <c r="N13" s="18">
+        <v>15</v>
+      </c>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
@@ -1682,7 +1706,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>0.89090909090909087</v>
+        <v>0.9</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1724,7 +1748,9 @@
       <c r="M14" s="18">
         <v>15</v>
       </c>
-      <c r="N14" s="18"/>
+      <c r="N14" s="18">
+        <v>15</v>
+      </c>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
@@ -1735,7 +1761,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.81666666666666665</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1776,7 +1802,9 @@
       <c r="M15" s="18">
         <v>0</v>
       </c>
-      <c r="N15" s="18"/>
+      <c r="N15" s="18">
+        <v>0</v>
+      </c>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
@@ -1787,7 +1815,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>7.8787878787878782E-2</v>
+        <v>7.2222222222222215E-2</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1829,7 +1857,9 @@
       <c r="M16" s="18">
         <v>15</v>
       </c>
-      <c r="N16" s="18"/>
+      <c r="N16" s="18">
+        <v>15</v>
+      </c>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
@@ -1840,7 +1870,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>0.76363636363636367</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="X16"/>
     </row>
@@ -1882,7 +1912,9 @@
       <c r="M17" s="18">
         <v>15</v>
       </c>
-      <c r="N17" s="18"/>
+      <c r="N17" s="18">
+        <v>3</v>
+      </c>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
@@ -1893,7 +1925,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.52121212121212124</v>
+        <v>0.49444444444444446</v>
       </c>
       <c r="X17"/>
     </row>
@@ -1935,7 +1967,9 @@
       <c r="M18" s="18">
         <v>3</v>
       </c>
-      <c r="N18" s="18"/>
+      <c r="N18" s="18">
+        <v>3</v>
+      </c>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
@@ -1946,7 +1980,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.52121212121212124</v>
+        <v>0.49444444444444446</v>
       </c>
       <c r="X18"/>
     </row>
@@ -1988,7 +2022,9 @@
       <c r="M19" s="18">
         <v>15</v>
       </c>
-      <c r="N19" s="18"/>
+      <c r="N19" s="18">
+        <v>15</v>
+      </c>
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
@@ -1999,7 +2035,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.7151515151515152</v>
+        <v>0.73888888888888893</v>
       </c>
       <c r="X19"/>
     </row>
@@ -2041,7 +2077,9 @@
       <c r="M20" s="18">
         <v>15</v>
       </c>
-      <c r="N20" s="18"/>
+      <c r="N20" s="18">
+        <v>15</v>
+      </c>
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
@@ -2052,7 +2090,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.73939393939393938</v>
+        <v>0.76111111111111107</v>
       </c>
       <c r="X20"/>
     </row>
@@ -2094,7 +2132,9 @@
       <c r="M21" s="18">
         <v>0</v>
       </c>
-      <c r="N21" s="18"/>
+      <c r="N21" s="18">
+        <v>9</v>
+      </c>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
@@ -2105,7 +2145,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.21818181818181817</v>
+        <v>0.25</v>
       </c>
       <c r="X21"/>
     </row>
@@ -2147,7 +2187,9 @@
       <c r="M22" s="18">
         <v>15</v>
       </c>
-      <c r="N22" s="18"/>
+      <c r="N22" s="18">
+        <v>15</v>
+      </c>
       <c r="O22" s="18"/>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
@@ -2158,7 +2200,7 @@
       <c r="V22" s="18"/>
       <c r="W22" s="34">
         <f t="shared" si="0"/>
-        <v>0.8545454545454545</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="X22"/>
     </row>
@@ -2200,7 +2242,9 @@
       <c r="M23" s="18">
         <v>15</v>
       </c>
-      <c r="N23" s="18"/>
+      <c r="N23" s="18">
+        <v>15</v>
+      </c>
       <c r="O23" s="18"/>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
@@ -2211,7 +2255,7 @@
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.78181818181818186</v>
+        <v>0.8</v>
       </c>
       <c r="X23"/>
     </row>
@@ -2253,7 +2297,9 @@
       <c r="M24" s="18">
         <v>15</v>
       </c>
-      <c r="N24" s="18"/>
+      <c r="N24" s="18">
+        <v>15</v>
+      </c>
       <c r="O24" s="18"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
@@ -2264,7 +2310,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="X24"/>
     </row>
@@ -2306,7 +2352,9 @@
       <c r="M25" s="18">
         <v>0</v>
       </c>
-      <c r="N25" s="18"/>
+      <c r="N25" s="18">
+        <v>15</v>
+      </c>
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
@@ -2317,7 +2365,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.54545454545454541</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="X25"/>
     </row>
@@ -2359,7 +2407,9 @@
       <c r="M26" s="18">
         <v>3</v>
       </c>
-      <c r="N26" s="18"/>
+      <c r="N26" s="18">
+        <v>15</v>
+      </c>
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
@@ -2370,7 +2420,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.58787878787878789</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2412,7 +2462,9 @@
       <c r="M27" s="18">
         <v>15</v>
       </c>
-      <c r="N27" s="18"/>
+      <c r="N27" s="18">
+        <v>3</v>
+      </c>
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
@@ -2423,7 +2475,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.58181818181818179</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2465,7 +2517,9 @@
       <c r="M28" s="18">
         <v>15</v>
       </c>
-      <c r="N28" s="18"/>
+      <c r="N28" s="18">
+        <v>3</v>
+      </c>
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
@@ -2476,7 +2530,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.48484848484848486</v>
+        <v>0.46111111111111114</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2518,7 +2572,9 @@
       <c r="M29" s="18">
         <v>9</v>
       </c>
-      <c r="N29" s="18"/>
+      <c r="N29" s="18">
+        <v>9</v>
+      </c>
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
@@ -2529,7 +2585,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.52727272727272723</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2571,7 +2627,9 @@
       <c r="M30" s="18">
         <v>15</v>
       </c>
-      <c r="N30" s="18"/>
+      <c r="N30" s="18">
+        <v>3</v>
+      </c>
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
@@ -2582,7 +2640,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.49090909090909091</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2624,7 +2682,9 @@
       <c r="M31" s="18">
         <v>3</v>
       </c>
-      <c r="N31" s="18"/>
+      <c r="N31" s="18">
+        <v>3</v>
+      </c>
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
@@ -2635,7 +2695,7 @@
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.52121212121212124</v>
+        <v>0.49444444444444446</v>
       </c>
       <c r="X31"/>
     </row>
@@ -2677,7 +2737,9 @@
       <c r="M32" s="18">
         <v>15</v>
       </c>
-      <c r="N32" s="18"/>
+      <c r="N32" s="18">
+        <v>15</v>
+      </c>
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
@@ -2688,7 +2750,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.68484848484848482</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="X32"/>
     </row>
@@ -2730,7 +2792,9 @@
       <c r="M33" s="18">
         <v>9</v>
       </c>
-      <c r="N33" s="18"/>
+      <c r="N33" s="18">
+        <v>9</v>
+      </c>
       <c r="O33" s="44"/>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
@@ -2741,7 +2805,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.41818181818181815</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="X33"/>
     </row>
@@ -2783,7 +2847,9 @@
       <c r="M34" s="18">
         <v>0</v>
       </c>
-      <c r="N34" s="18"/>
+      <c r="N34" s="18">
+        <v>15</v>
+      </c>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
@@ -2794,7 +2860,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.61818181818181817</v>
+        <v>0.65</v>
       </c>
       <c r="X34"/>
     </row>
@@ -2836,7 +2902,9 @@
       <c r="M35" s="18">
         <v>15</v>
       </c>
-      <c r="N35" s="18"/>
+      <c r="N35" s="18">
+        <v>15</v>
+      </c>
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
@@ -2847,7 +2915,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="34">
         <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <v>0.87777777777777777</v>
       </c>
       <c r="X35"/>
     </row>
@@ -2889,7 +2957,9 @@
       <c r="M36" s="18">
         <v>9</v>
       </c>
-      <c r="N36" s="18"/>
+      <c r="N36" s="18">
+        <v>15</v>
+      </c>
       <c r="O36" s="18"/>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
@@ -2900,7 +2970,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.47272727272727272</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="X36"/>
     </row>
@@ -2942,7 +3012,9 @@
       <c r="M37" s="18">
         <v>15</v>
       </c>
-      <c r="N37" s="18"/>
+      <c r="N37" s="18">
+        <v>15</v>
+      </c>
       <c r="O37" s="18"/>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
@@ -2953,7 +3025,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.67878787878787883</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="X37"/>
     </row>
@@ -2995,7 +3067,9 @@
       <c r="M38" s="18">
         <v>3</v>
       </c>
-      <c r="N38" s="18"/>
+      <c r="N38" s="18">
+        <v>0</v>
+      </c>
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
@@ -3006,7 +3080,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.27272727272727271</v>
+        <v>0.25</v>
       </c>
       <c r="X38"/>
     </row>
@@ -3048,7 +3122,9 @@
       <c r="M39" s="18">
         <v>0</v>
       </c>
-      <c r="N39" s="18"/>
+      <c r="N39" s="18">
+        <v>3</v>
+      </c>
       <c r="O39" s="44"/>
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
@@ -3059,7 +3135,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.38333333333333336</v>
       </c>
       <c r="X39"/>
     </row>
@@ -3213,9 +3289,9 @@
         <f t="shared" si="1"/>
         <v>8.4473684210526319</v>
       </c>
-      <c r="N42" s="30" t="e">
+      <c r="N42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.0789473684210531</v>
       </c>
       <c r="O42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -3251,7 +3327,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.5515151515151514</v>
+        <v>0.5559941520467836</v>
       </c>
       <c r="X42"/>
     </row>
@@ -3307,9 +3383,9 @@
         <f t="shared" si="2"/>
         <v>6.6847845319782611</v>
       </c>
-      <c r="N43" s="30" t="e">
+      <c r="N43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>6.0197044865394469</v>
       </c>
       <c r="O43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -3345,7 +3421,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.19442506755049882</v>
+        <v>0.20155543627532815</v>
       </c>
       <c r="X43"/>
     </row>
@@ -3401,9 +3477,9 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="N44" s="30" t="e">
+      <c r="N44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>9</v>
       </c>
       <c r="O44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -3439,7 +3515,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.54545454545454541</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X44"/>
     </row>
@@ -3497,7 +3573,7 @@
       </c>
       <c r="N45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" s="33">
         <f t="shared" si="4"/>
@@ -3830,7 +3906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -6146,7 +6222,7 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.49696969696969695</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
@@ -6162,7 +6238,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>2.7769696969696973</v>
+        <v>2.7522222222222226</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -6180,7 +6256,7 @@
       </c>
       <c r="B3" s="34">
         <f>Quiz!W3</f>
-        <v>7.2727272727272724E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
@@ -6196,7 +6272,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.9269772727272729</v>
+        <v>1.9209166666666668</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6213,7 +6289,7 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.59393939393939399</v>
+        <v>0.5444444444444444</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
@@ -6229,7 +6305,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.897189393939394</v>
+        <v>2.8476944444444445</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -6246,7 +6322,7 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.63030303030303025</v>
+        <v>0.66111111111111109</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
@@ -6262,7 +6338,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>2.8105530303030299</v>
+        <v>2.841361111111111</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -6279,7 +6355,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.60606060606060608</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
@@ -6295,7 +6371,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>2.8703106060606061</v>
+        <v>2.8198055555555559</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -6312,7 +6388,7 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.54545454545454541</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
@@ -6328,7 +6404,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>1.8904545454545456</v>
+        <v>1.8950000000000002</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -6345,7 +6421,7 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.59393939393939399</v>
+        <v>0.59444444444444444</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
@@ -6361,7 +6437,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>3.0156893939393941</v>
+        <v>3.0161944444444444</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -6378,7 +6454,7 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.47272727272727272</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
@@ -6394,7 +6470,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>3.4487272727272726</v>
+        <v>3.492666666666667</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -6411,7 +6487,7 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.52121212121212124</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
@@ -6427,7 +6503,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>2.1892121212121216</v>
+        <v>2.1957777777777778</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -6444,7 +6520,7 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.23030303030303031</v>
+        <v>0.22777777777777777</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
@@ -6460,7 +6536,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.5228030303030304</v>
+        <v>1.5202777777777778</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -6477,7 +6553,7 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.61212121212121207</v>
+        <v>0.61111111111111116</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
@@ -6493,7 +6569,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>2.2196212121212122</v>
+        <v>2.2186111111111111</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -6510,7 +6586,7 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>0.89090909090909087</v>
+        <v>0.9</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
@@ -6526,7 +6602,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>5.0684090909090909</v>
+        <v>5.0775000000000006</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -6543,7 +6619,7 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.8</v>
+        <v>0.81666666666666665</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
@@ -6559,7 +6635,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>3.2824999999999998</v>
+        <v>3.2991666666666664</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -6576,7 +6652,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>7.8787878787878782E-2</v>
+        <v>7.2222222222222215E-2</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
@@ -6592,7 +6668,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.16753787878787879</v>
+        <v>0.16097222222222221</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -6609,7 +6685,7 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>0.76363636363636367</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
@@ -6625,7 +6701,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>4.5761363636363637</v>
+        <v>4.5958333333333332</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -6642,7 +6718,7 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.52121212121212124</v>
+        <v>0.49444444444444446</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
@@ -6658,7 +6734,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>2.4537121212121211</v>
+        <v>2.4269444444444446</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -6675,7 +6751,7 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.52121212121212124</v>
+        <v>0.49444444444444446</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
@@ -6691,7 +6767,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>2.2462121212121211</v>
+        <v>2.2194444444444446</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -6708,7 +6784,7 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.7151515151515152</v>
+        <v>0.73888888888888893</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
@@ -6724,7 +6800,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>3.381651515151515</v>
+        <v>3.405388888888889</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -6741,7 +6817,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.73939393939393938</v>
+        <v>0.76111111111111107</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
@@ -6757,7 +6833,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>3.4633939393939395</v>
+        <v>3.4851111111111108</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6774,7 +6850,7 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.21818181818181817</v>
+        <v>0.25</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
@@ -6790,7 +6866,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.705431818181818</v>
+        <v>1.73725</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -6807,7 +6883,7 @@
       </c>
       <c r="B22" s="34">
         <f>Quiz!W22</f>
-        <v>0.8545454545454545</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
@@ -6823,7 +6899,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>4.7020454545454546</v>
+        <v>4.7141666666666664</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
@@ -6840,7 +6916,7 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.78181818181818186</v>
+        <v>0.8</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
@@ -6856,7 +6932,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.8520681818181814</v>
+        <v>2.8702499999999995</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -6873,7 +6949,7 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.54545454545454541</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
@@ -6889,7 +6965,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>2.9137045454545452</v>
+        <v>2.9515833333333332</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -6906,7 +6982,7 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.54545454545454541</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
@@ -6922,7 +6998,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>2.1274545454545457</v>
+        <v>2.1653333333333333</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -6939,7 +7015,7 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.58787878787878789</v>
+        <v>0.62222222222222223</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
@@ -6955,7 +7031,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>2.180628787878788</v>
+        <v>2.2149722222222223</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -6972,7 +7048,7 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.58181818181818179</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
@@ -6988,7 +7064,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>2.2288181818181818</v>
+        <v>2.1970000000000001</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -7005,7 +7081,7 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.48484848484848486</v>
+        <v>0.46111111111111114</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
@@ -7021,11 +7097,11 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.769848484848485</v>
+        <v>1.7461111111111114</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H28" s="51">
         <f t="shared" si="7"/>
@@ -7038,7 +7114,7 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.52727272727272723</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
@@ -7054,7 +7130,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.3700227272727272</v>
+        <v>1.3760833333333333</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -7071,7 +7147,7 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.49090909090909091</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
@@ -7087,7 +7163,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>2.1436590909090909</v>
+        <v>2.1194166666666669</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -7104,7 +7180,7 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.52121212121212124</v>
+        <v>0.49444444444444446</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
@@ -7120,7 +7196,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>2.3629621212121212</v>
+        <v>2.3361944444444447</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -7137,7 +7213,7 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.68484848484848482</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
@@ -7153,7 +7229,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>3.1673484848484845</v>
+        <v>3.1936111111111112</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -7170,7 +7246,7 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.41818181818181815</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
@@ -7186,11 +7262,11 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>2.238681818181818</v>
+        <v>2.2538333333333336</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H33" s="51">
         <f>IF(G33&gt;4.75,1,0)</f>
@@ -7203,7 +7279,7 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.61818181818181817</v>
+        <v>0.65</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
@@ -7219,7 +7295,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>2.3296818181818182</v>
+        <v>2.3614999999999999</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -7236,7 +7312,7 @@
       </c>
       <c r="B35" s="34">
         <f>Quiz!W35</f>
-        <v>0.8666666666666667</v>
+        <v>0.87777777777777777</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
@@ -7252,7 +7328,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>5.191416666666667</v>
+        <v>5.2025277777777781</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -7269,7 +7345,7 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.47272727272727272</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
@@ -7285,11 +7361,11 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>2.2064772727272728</v>
+        <v>2.2504166666666667</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H36" s="51">
         <f t="shared" si="8"/>
@@ -7302,7 +7378,7 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.67878787878787883</v>
+        <v>0.7055555555555556</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
@@ -7318,7 +7394,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>2.7745378787878789</v>
+        <v>2.8013055555555555</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -7335,7 +7411,7 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.27272727272727271</v>
+        <v>0.25</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
@@ -7351,7 +7427,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.99672727272727268</v>
+        <v>0.97399999999999998</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -7368,7 +7444,7 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.4</v>
+        <v>0.38333333333333336</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
@@ -7384,7 +7460,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.629</v>
+        <v>1.6123333333333334</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -7441,7 +7517,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.5515151515151514</v>
+        <v>0.5559941520467836</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
@@ -7457,11 +7533,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6078572567783089</v>
+        <v>2.6123362573099413</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>2.5921052631578947</v>
+        <v>2.6052631578947367</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -7474,7 +7550,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.19442506755049882</v>
+        <v>0.20155543627532815</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
@@ -7490,11 +7566,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0496541472458747</v>
+        <v>1.0562089913970947</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0645089158214891</v>
+        <v>1.0664280790541683</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -7507,7 +7583,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.54545454545454541</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
@@ -7523,7 +7599,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>2.3463219696969695</v>
+        <v>2.3488472222222221</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7202F3A5-E41A-F94F-A8CB-E2850FAF816D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7C8206-AE06-7C4C-A527-69F5F514C15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="1280" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Quiz Total</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Hm 10</t>
+  </si>
+  <si>
+    <t>\15</t>
   </si>
 </sst>
 </file>
@@ -965,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -1091,7 +1094,9 @@
       <c r="N2" s="18">
         <v>3</v>
       </c>
-      <c r="O2" s="18"/>
+      <c r="O2" s="18">
+        <v>3</v>
+      </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
@@ -1101,7 +1106,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.47222222222222221</v>
+        <v>0.45128205128205129</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1146,7 +1151,9 @@
       <c r="N3" s="18">
         <v>0</v>
       </c>
-      <c r="O3" s="18"/>
+      <c r="O3" s="18">
+        <v>0</v>
+      </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18"/>
@@ -1156,7 +1163,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="34">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1201,7 +1208,9 @@
       <c r="N4" s="18">
         <v>0</v>
       </c>
-      <c r="O4" s="18"/>
+      <c r="O4" s="18">
+        <v>3</v>
+      </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18"/>
@@ -1211,7 +1220,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.5444444444444444</v>
+        <v>0.517948717948718</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1256,7 +1265,9 @@
       <c r="N5" s="18">
         <v>15</v>
       </c>
-      <c r="O5" s="18"/>
+      <c r="O5" s="18">
+        <v>3</v>
+      </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18"/>
@@ -1266,7 +1277,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.66111111111111109</v>
+        <v>0.62564102564102564</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1311,7 +1322,9 @@
       <c r="N6" s="18">
         <v>0</v>
       </c>
-      <c r="O6" s="18"/>
+      <c r="O6" s="18">
+        <v>3</v>
+      </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
@@ -1321,7 +1334,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.52820512820512822</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1366,7 +1379,9 @@
       <c r="N7" s="18">
         <v>9</v>
       </c>
-      <c r="O7" s="18"/>
+      <c r="O7" s="18">
+        <v>0</v>
+      </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
@@ -1376,7 +1391,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.50769230769230766</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1421,7 +1436,9 @@
       <c r="N8" s="18">
         <v>9</v>
       </c>
-      <c r="O8" s="18"/>
+      <c r="O8" s="18">
+        <v>3</v>
+      </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18"/>
@@ -1431,7 +1448,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.59444444444444444</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1476,7 +1493,9 @@
       <c r="N9" s="18">
         <v>15</v>
       </c>
-      <c r="O9" s="18"/>
+      <c r="O9" s="18">
+        <v>3</v>
+      </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
@@ -1486,7 +1505,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.51666666666666672</v>
+        <v>0.49230769230769234</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1531,7 +1550,9 @@
       <c r="N10" s="18">
         <v>9</v>
       </c>
-      <c r="O10" s="18"/>
+      <c r="O10" s="18">
+        <v>3</v>
+      </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18"/>
@@ -1541,7 +1562,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.52777777777777779</v>
+        <v>0.50256410256410255</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1586,7 +1607,9 @@
       <c r="N11" s="18">
         <v>3</v>
       </c>
-      <c r="O11" s="18"/>
+      <c r="O11" s="18">
+        <v>3</v>
+      </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
@@ -1596,7 +1619,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.22777777777777777</v>
+        <v>0.22564102564102564</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1641,7 +1664,9 @@
       <c r="N12" s="18">
         <v>9</v>
       </c>
-      <c r="O12" s="18"/>
+      <c r="O12" s="18">
+        <v>3</v>
+      </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
@@ -1651,7 +1676,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.61111111111111116</v>
+        <v>0.57948717948717954</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1696,7 +1721,9 @@
       <c r="N13" s="18">
         <v>15</v>
       </c>
-      <c r="O13" s="18"/>
+      <c r="O13" s="18">
+        <v>15</v>
+      </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
@@ -1706,7 +1733,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.90769230769230769</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1751,7 +1778,9 @@
       <c r="N14" s="18">
         <v>15</v>
       </c>
-      <c r="O14" s="18"/>
+      <c r="O14" s="18">
+        <v>15</v>
+      </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
@@ -1761,7 +1790,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.81666666666666665</v>
+        <v>0.83076923076923082</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1805,7 +1834,9 @@
       <c r="N15" s="18">
         <v>0</v>
       </c>
-      <c r="O15" s="18"/>
+      <c r="O15" s="18">
+        <v>0</v>
+      </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
@@ -1815,7 +1846,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>7.2222222222222215E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1860,7 +1891,9 @@
       <c r="N16" s="18">
         <v>15</v>
       </c>
-      <c r="O16" s="18"/>
+      <c r="O16" s="18">
+        <v>15</v>
+      </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
@@ -1870,7 +1903,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>0.78333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="X16"/>
     </row>
@@ -1915,7 +1948,9 @@
       <c r="N17" s="18">
         <v>3</v>
       </c>
-      <c r="O17" s="18"/>
+      <c r="O17" s="18">
+        <v>9</v>
+      </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
@@ -1925,7 +1960,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.49444444444444446</v>
+        <v>0.50256410256410255</v>
       </c>
       <c r="X17"/>
     </row>
@@ -1970,7 +2005,9 @@
       <c r="N18" s="18">
         <v>3</v>
       </c>
-      <c r="O18" s="18"/>
+      <c r="O18" s="18">
+        <v>9</v>
+      </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
@@ -1980,7 +2017,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.49444444444444446</v>
+        <v>0.50256410256410255</v>
       </c>
       <c r="X18"/>
     </row>
@@ -2025,7 +2062,9 @@
       <c r="N19" s="18">
         <v>15</v>
       </c>
-      <c r="O19" s="18"/>
+      <c r="O19" s="18">
+        <v>15</v>
+      </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
@@ -2035,7 +2074,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.73888888888888893</v>
+        <v>0.75897435897435894</v>
       </c>
       <c r="X19"/>
     </row>
@@ -2080,7 +2119,9 @@
       <c r="N20" s="18">
         <v>15</v>
       </c>
-      <c r="O20" s="18"/>
+      <c r="O20" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="P20" s="18"/>
       <c r="Q20" s="18"/>
       <c r="R20" s="18"/>
@@ -2090,7 +2131,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.76111111111111107</v>
+        <v>0.70256410256410251</v>
       </c>
       <c r="X20"/>
     </row>
@@ -2135,7 +2176,9 @@
       <c r="N21" s="18">
         <v>9</v>
       </c>
-      <c r="O21" s="18"/>
+      <c r="O21" s="18">
+        <v>0</v>
+      </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
       <c r="R21" s="18"/>
@@ -2145,7 +2188,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="X21"/>
     </row>
@@ -2190,7 +2233,9 @@
       <c r="N22" s="18">
         <v>15</v>
       </c>
-      <c r="O22" s="18"/>
+      <c r="O22" s="18">
+        <v>15</v>
+      </c>
       <c r="P22" s="18"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
@@ -2200,7 +2245,7 @@
       <c r="V22" s="18"/>
       <c r="W22" s="34">
         <f t="shared" si="0"/>
-        <v>0.8666666666666667</v>
+        <v>0.87692307692307692</v>
       </c>
       <c r="X22"/>
     </row>
@@ -2245,7 +2290,9 @@
       <c r="N23" s="18">
         <v>15</v>
       </c>
-      <c r="O23" s="18"/>
+      <c r="O23" s="18">
+        <v>15</v>
+      </c>
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
@@ -2255,7 +2302,7 @@
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.81538461538461537</v>
       </c>
       <c r="X23"/>
     </row>
@@ -2300,7 +2347,9 @@
       <c r="N24" s="18">
         <v>15</v>
       </c>
-      <c r="O24" s="18"/>
+      <c r="O24" s="18">
+        <v>15</v>
+      </c>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
@@ -2310,7 +2359,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="X24"/>
     </row>
@@ -2355,7 +2404,9 @@
       <c r="N25" s="18">
         <v>15</v>
       </c>
-      <c r="O25" s="18"/>
+      <c r="O25" s="18">
+        <v>15</v>
+      </c>
       <c r="P25" s="18"/>
       <c r="Q25" s="18"/>
       <c r="R25" s="18"/>
@@ -2365,7 +2416,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.58333333333333337</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="X25"/>
     </row>
@@ -2410,7 +2461,9 @@
       <c r="N26" s="18">
         <v>15</v>
       </c>
-      <c r="O26" s="18"/>
+      <c r="O26" s="18">
+        <v>3</v>
+      </c>
       <c r="P26" s="18"/>
       <c r="Q26" s="18"/>
       <c r="R26" s="18"/>
@@ -2420,7 +2473,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.62222222222222223</v>
+        <v>0.58974358974358976</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2465,7 +2518,9 @@
       <c r="N27" s="18">
         <v>3</v>
       </c>
-      <c r="O27" s="18"/>
+      <c r="O27" s="18">
+        <v>9</v>
+      </c>
       <c r="P27" s="18"/>
       <c r="Q27" s="18"/>
       <c r="R27" s="18"/>
@@ -2475,7 +2530,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
+        <v>0.55384615384615388</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2520,7 +2575,9 @@
       <c r="N28" s="18">
         <v>3</v>
       </c>
-      <c r="O28" s="18"/>
+      <c r="O28" s="18">
+        <v>9</v>
+      </c>
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
@@ -2530,7 +2587,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.46111111111111114</v>
+        <v>0.47179487179487178</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2575,7 +2632,9 @@
       <c r="N29" s="18">
         <v>9</v>
       </c>
-      <c r="O29" s="18"/>
+      <c r="O29" s="18">
+        <v>3</v>
+      </c>
       <c r="P29" s="18"/>
       <c r="Q29" s="18"/>
       <c r="R29" s="18"/>
@@ -2585,7 +2644,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.53333333333333333</v>
+        <v>0.50769230769230766</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2630,7 +2689,9 @@
       <c r="N30" s="18">
         <v>3</v>
       </c>
-      <c r="O30" s="18"/>
+      <c r="O30" s="18">
+        <v>9</v>
+      </c>
       <c r="P30" s="18"/>
       <c r="Q30" s="18"/>
       <c r="R30" s="18"/>
@@ -2640,7 +2701,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.47692307692307695</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2685,7 +2746,9 @@
       <c r="N31" s="18">
         <v>3</v>
       </c>
-      <c r="O31" s="18"/>
+      <c r="O31" s="18">
+        <v>9</v>
+      </c>
       <c r="P31" s="18"/>
       <c r="Q31" s="18"/>
       <c r="R31" s="18"/>
@@ -2695,7 +2758,7 @@
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.49444444444444446</v>
+        <v>0.50256410256410255</v>
       </c>
       <c r="X31"/>
     </row>
@@ -2740,7 +2803,9 @@
       <c r="N32" s="18">
         <v>15</v>
       </c>
-      <c r="O32" s="18"/>
+      <c r="O32" s="18">
+        <v>3</v>
+      </c>
       <c r="P32" s="18"/>
       <c r="Q32" s="18"/>
       <c r="R32" s="18"/>
@@ -2750,7 +2815,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.71111111111111114</v>
+        <v>0.67179487179487174</v>
       </c>
       <c r="X32"/>
     </row>
@@ -2795,7 +2860,9 @@
       <c r="N33" s="18">
         <v>9</v>
       </c>
-      <c r="O33" s="44"/>
+      <c r="O33" s="18">
+        <v>3</v>
+      </c>
       <c r="P33" s="18"/>
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
@@ -2805,7 +2872,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.41538461538461541</v>
       </c>
       <c r="X33"/>
     </row>
@@ -2850,7 +2917,9 @@
       <c r="N34" s="18">
         <v>15</v>
       </c>
-      <c r="O34" s="18"/>
+      <c r="O34" s="18">
+        <v>15</v>
+      </c>
       <c r="P34" s="18"/>
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
@@ -2860,7 +2929,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.67692307692307696</v>
       </c>
       <c r="X34"/>
     </row>
@@ -2905,7 +2974,9 @@
       <c r="N35" s="18">
         <v>15</v>
       </c>
-      <c r="O35" s="18"/>
+      <c r="O35" s="18">
+        <v>15</v>
+      </c>
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
@@ -2915,7 +2986,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="34">
         <f t="shared" si="0"/>
-        <v>0.87777777777777777</v>
+        <v>0.88717948717948714</v>
       </c>
       <c r="X35"/>
     </row>
@@ -2960,7 +3031,9 @@
       <c r="N36" s="18">
         <v>15</v>
       </c>
-      <c r="O36" s="18"/>
+      <c r="O36" s="18">
+        <v>15</v>
+      </c>
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
@@ -2970,7 +3043,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.51666666666666672</v>
+        <v>0.55384615384615388</v>
       </c>
       <c r="X36"/>
     </row>
@@ -3015,7 +3088,9 @@
       <c r="N37" s="18">
         <v>15</v>
       </c>
-      <c r="O37" s="18"/>
+      <c r="O37" s="18">
+        <v>9</v>
+      </c>
       <c r="P37" s="18"/>
       <c r="Q37" s="18"/>
       <c r="R37" s="18"/>
@@ -3025,7 +3100,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.7055555555555556</v>
+        <v>0.6974358974358974</v>
       </c>
       <c r="X37"/>
     </row>
@@ -3070,7 +3145,9 @@
       <c r="N38" s="18">
         <v>0</v>
       </c>
-      <c r="O38" s="18"/>
+      <c r="O38" s="18">
+        <v>3</v>
+      </c>
       <c r="P38" s="18"/>
       <c r="Q38" s="18"/>
       <c r="R38" s="18"/>
@@ -3080,7 +3157,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.24615384615384617</v>
       </c>
       <c r="X38"/>
     </row>
@@ -3125,7 +3202,9 @@
       <c r="N39" s="18">
         <v>3</v>
       </c>
-      <c r="O39" s="44"/>
+      <c r="O39" s="18">
+        <v>15</v>
+      </c>
       <c r="P39" s="18"/>
       <c r="Q39" s="18"/>
       <c r="R39" s="18"/>
@@ -3135,7 +3214,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.38333333333333336</v>
+        <v>0.43076923076923079</v>
       </c>
       <c r="X39"/>
     </row>
@@ -3293,9 +3372,9 @@
         <f t="shared" si="1"/>
         <v>9.0789473684210531</v>
       </c>
-      <c r="O42" s="30" t="e">
+      <c r="O42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7.7027027027027026</v>
       </c>
       <c r="P42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -3327,7 +3406,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.5559941520467836</v>
+        <v>0.55168690958164635</v>
       </c>
       <c r="X42"/>
     </row>
@@ -3387,9 +3466,9 @@
         <f t="shared" si="2"/>
         <v>6.0197044865394469</v>
       </c>
-      <c r="O43" s="30" t="e">
+      <c r="O43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.7680386848798326</v>
       </c>
       <c r="P43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -3421,7 +3500,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.20155543627532815</v>
+        <v>0.20396981157228605</v>
       </c>
       <c r="X43"/>
     </row>
@@ -3481,9 +3560,9 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="O44" s="30" t="e">
+      <c r="O44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>9</v>
       </c>
       <c r="P44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -3515,7 +3594,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.55000000000000004</v>
+        <v>0.5410256410256411</v>
       </c>
       <c r="X44"/>
     </row>
@@ -3577,7 +3656,7 @@
       </c>
       <c r="O45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="33">
         <f t="shared" si="4"/>
@@ -5419,7 +5498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -5528,8 +5607,8 @@
         <v>63795</v>
       </c>
       <c r="B8" s="43">
-        <f>25+7+3+12</f>
-        <v>47</v>
+        <f>25+7+5+12</f>
+        <v>49</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="19"/>
@@ -5919,7 +5998,7 @@
       </c>
       <c r="B42" s="42">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>48.310810810810814</v>
+        <v>48.364864864864863</v>
       </c>
       <c r="C42" s="42" t="e">
         <f t="shared" ref="C42" si="0">AVERAGE(C$2:C$39)</f>
@@ -5933,7 +6012,7 @@
       </c>
       <c r="B43" s="42">
         <f>STDEV(B$2:B$39)</f>
-        <v>26.483053111416407</v>
+        <v>26.482344393285207</v>
       </c>
       <c r="C43" s="42" t="e">
         <f t="shared" ref="C43" si="1">STDEV(C$2:C$39)</f>
@@ -6222,7 +6301,7 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.47222222222222221</v>
+        <v>0.45128205128205129</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
@@ -6238,11 +6317,11 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>2.7522222222222226</v>
+        <v>2.7312820512820517</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H2" s="51">
         <f>IF(G2&gt;4.75,1,0)</f>
@@ -6256,7 +6335,7 @@
       </c>
       <c r="B3" s="34">
         <f>Quiz!W3</f>
-        <v>6.6666666666666666E-2</v>
+        <v>6.1538461538461542E-2</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
@@ -6272,7 +6351,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.9209166666666668</v>
+        <v>1.9157884615384617</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6289,7 +6368,7 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.5444444444444444</v>
+        <v>0.517948717948718</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
@@ -6305,7 +6384,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.8476944444444445</v>
+        <v>2.8211987179487181</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -6322,7 +6401,7 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.66111111111111109</v>
+        <v>0.62564102564102564</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
@@ -6338,7 +6417,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>2.841361111111111</v>
+        <v>2.8058910256410252</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -6355,7 +6434,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.55555555555555558</v>
+        <v>0.52820512820512822</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
@@ -6371,7 +6450,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>2.8198055555555559</v>
+        <v>2.7924551282051282</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -6388,7 +6467,7 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.55000000000000004</v>
+        <v>0.50769230769230766</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
@@ -6404,7 +6483,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>1.8950000000000002</v>
+        <v>1.8526923076923079</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -6421,7 +6500,7 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.59444444444444444</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
@@ -6429,7 +6508,7 @@
       </c>
       <c r="D8" s="43">
         <f>Exams!B8</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E8" s="44">
         <f>Exams!C8</f>
@@ -6437,7 +6516,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>3.0161944444444444</v>
+        <v>3.0338525641025642</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -6454,7 +6533,7 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.51666666666666672</v>
+        <v>0.49230769230769234</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
@@ -6470,7 +6549,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>3.492666666666667</v>
+        <v>3.4683076923076923</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -6487,7 +6566,7 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.52777777777777779</v>
+        <v>0.50256410256410255</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
@@ -6503,7 +6582,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>2.1957777777777778</v>
+        <v>2.1705641025641027</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -6520,7 +6599,7 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.22777777777777777</v>
+        <v>0.22564102564102564</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
@@ -6536,7 +6615,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.5202777777777778</v>
+        <v>1.5181410256410257</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -6553,7 +6632,7 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.61111111111111116</v>
+        <v>0.57948717948717954</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
@@ -6569,7 +6648,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>2.2186111111111111</v>
+        <v>2.1869871794871796</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -6586,7 +6665,7 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>0.9</v>
+        <v>0.90769230769230769</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
@@ -6602,7 +6681,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>5.0775000000000006</v>
+        <v>5.0851923076923082</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -6619,7 +6698,7 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.81666666666666665</v>
+        <v>0.83076923076923082</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
@@ -6635,7 +6714,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>3.2991666666666664</v>
+        <v>3.3132692307692304</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -6652,7 +6731,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>7.2222222222222215E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
@@ -6668,7 +6747,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.16097222222222221</v>
+        <v>0.15541666666666665</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -6685,7 +6764,7 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>0.78333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
@@ -6701,7 +6780,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>4.5958333333333332</v>
+        <v>4.6125000000000007</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -6718,7 +6797,7 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.49444444444444446</v>
+        <v>0.50256410256410255</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
@@ -6734,7 +6813,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>2.4269444444444446</v>
+        <v>2.4350641025641027</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -6751,7 +6830,7 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.49444444444444446</v>
+        <v>0.50256410256410255</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
@@ -6767,7 +6846,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>2.2194444444444446</v>
+        <v>2.2275641025641026</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -6784,7 +6863,7 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.73888888888888893</v>
+        <v>0.75897435897435894</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
@@ -6800,7 +6879,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>3.405388888888889</v>
+        <v>3.425474358974359</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -6817,7 +6896,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.76111111111111107</v>
+        <v>0.70256410256410251</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
@@ -6833,7 +6912,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>3.4851111111111108</v>
+        <v>3.4265641025641025</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6850,7 +6929,7 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.25</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
@@ -6866,7 +6945,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.73725</v>
+        <v>1.7180192307692306</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -6883,7 +6962,7 @@
       </c>
       <c r="B22" s="34">
         <f>Quiz!W22</f>
-        <v>0.8666666666666667</v>
+        <v>0.87692307692307692</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
@@ -6899,7 +6978,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>4.7141666666666664</v>
+        <v>4.7244230769230766</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
@@ -6916,7 +6995,7 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.8</v>
+        <v>0.81538461538461537</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
@@ -6932,7 +7011,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.8702499999999995</v>
+        <v>2.8856346153846149</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -6949,7 +7028,7 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.58333333333333337</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
@@ -6965,7 +7044,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>2.9515833333333332</v>
+        <v>2.9836346153846152</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -6982,7 +7061,7 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.58333333333333337</v>
+        <v>0.61538461538461542</v>
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
@@ -6998,7 +7077,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>2.1653333333333333</v>
+        <v>2.1973846153846157</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -7015,7 +7094,7 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.62222222222222223</v>
+        <v>0.58974358974358976</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
@@ -7031,7 +7110,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>2.2149722222222223</v>
+        <v>2.18249358974359</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -7048,7 +7127,7 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.55000000000000004</v>
+        <v>0.55384615384615388</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
@@ -7064,7 +7143,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>2.1970000000000001</v>
+        <v>2.2008461538461539</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -7081,7 +7160,7 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.46111111111111114</v>
+        <v>0.47179487179487178</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
@@ -7097,11 +7176,11 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.7461111111111114</v>
+        <v>1.756794871794872</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H28" s="51">
         <f t="shared" si="7"/>
@@ -7114,7 +7193,7 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.53333333333333333</v>
+        <v>0.50769230769230766</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
@@ -7130,7 +7209,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.3760833333333333</v>
+        <v>1.3504423076923076</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -7147,7 +7226,7 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.46666666666666667</v>
+        <v>0.47692307692307695</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
@@ -7163,7 +7242,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>2.1194166666666669</v>
+        <v>2.1296730769230772</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -7180,7 +7259,7 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.49444444444444446</v>
+        <v>0.50256410256410255</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
@@ -7196,7 +7275,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>2.3361944444444447</v>
+        <v>2.3443141025641028</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -7213,7 +7292,7 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.71111111111111114</v>
+        <v>0.67179487179487174</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
@@ -7229,7 +7308,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>3.1936111111111112</v>
+        <v>3.154294871794872</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -7246,7 +7325,7 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.43333333333333335</v>
+        <v>0.41538461538461541</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
@@ -7262,11 +7341,11 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>2.2538333333333336</v>
+        <v>2.2358846153846157</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H33" s="51">
         <f>IF(G33&gt;4.75,1,0)</f>
@@ -7279,7 +7358,7 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.65</v>
+        <v>0.67692307692307696</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
@@ -7295,7 +7374,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>2.3614999999999999</v>
+        <v>2.3884230769230768</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -7312,7 +7391,7 @@
       </c>
       <c r="B35" s="34">
         <f>Quiz!W35</f>
-        <v>0.87777777777777777</v>
+        <v>0.88717948717948714</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
@@ -7328,7 +7407,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>5.2025277777777781</v>
+        <v>5.2119294871794875</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -7345,7 +7424,7 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.51666666666666672</v>
+        <v>0.55384615384615388</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
@@ -7361,7 +7440,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>2.2504166666666667</v>
+        <v>2.2875961538461542</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -7378,7 +7457,7 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.7055555555555556</v>
+        <v>0.6974358974358974</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
@@ -7394,7 +7473,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>2.8013055555555555</v>
+        <v>2.7931858974358974</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -7411,7 +7490,7 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.25</v>
+        <v>0.24615384615384617</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
@@ -7427,7 +7506,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.97399999999999998</v>
+        <v>0.97015384615384614</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -7444,7 +7523,7 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.38333333333333336</v>
+        <v>0.43076923076923079</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
@@ -7460,7 +7539,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.6123333333333334</v>
+        <v>1.6597692307692307</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -7517,7 +7596,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.5559941520467836</v>
+        <v>0.55168690958164635</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
@@ -7525,7 +7604,7 @@
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
-        <v>47.039473684210527</v>
+        <v>47.092105263157897</v>
       </c>
       <c r="E42" s="30">
         <f t="shared" si="9"/>
@@ -7533,11 +7612,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6123362573099413</v>
+        <v>2.6092921727395417</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6052631578947367</v>
+        <v>2.5921052631578947</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -7550,7 +7629,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.20155543627532815</v>
+        <v>0.20396981157228605</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
@@ -7558,7 +7637,7 @@
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
-        <v>27.272989701957364</v>
+        <v>27.274841209723792</v>
       </c>
       <c r="E43" s="30">
         <f t="shared" si="10"/>
@@ -7566,11 +7645,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0562089913970947</v>
+        <v>1.058233848322593</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0664280790541683</v>
+        <v>1.0581425794050294</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -7583,7 +7662,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.55000000000000004</v>
+        <v>0.5410256410256411</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
@@ -7599,7 +7678,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>2.3488472222222221</v>
+        <v>2.3663685897435895</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7C8206-AE06-7C4C-A527-69F5F514C15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC44FEB-5BD9-5A4B-8AF9-FDD4E9ACCAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1280" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="1940" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -1097,8 +1097,12 @@
       <c r="O2" s="18">
         <v>3</v>
       </c>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
+      <c r="P2" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>6</v>
+      </c>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
@@ -1106,7 +1110,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.45128205128205129</v>
+        <v>0.45777777777777778</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1154,8 +1158,12 @@
       <c r="O3" s="18">
         <v>0</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
+      <c r="P3" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="18">
+        <v>0</v>
+      </c>
       <c r="R3" s="18"/>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
@@ -1163,7 +1171,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="34">
         <f t="shared" si="0"/>
-        <v>6.1538461538461542E-2</v>
+        <v>0.12</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1211,8 +1219,12 @@
       <c r="O4" s="18">
         <v>3</v>
       </c>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
+      <c r="P4" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="18">
+        <v>12</v>
+      </c>
       <c r="R4" s="18"/>
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
@@ -1220,7 +1232,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.517948717948718</v>
+        <v>0.51555555555555554</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1268,8 +1280,12 @@
       <c r="O5" s="18">
         <v>3</v>
       </c>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
+      <c r="P5" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="18">
+        <v>6</v>
+      </c>
       <c r="R5" s="18"/>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
@@ -1277,7 +1293,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.62564102564102564</v>
+        <v>0.5822222222222222</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1325,8 +1341,12 @@
       <c r="O6" s="18">
         <v>3</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
+      <c r="P6" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="18">
+        <v>9</v>
+      </c>
       <c r="R6" s="18"/>
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
@@ -1334,7 +1354,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.52820512820512822</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1382,8 +1402,12 @@
       <c r="O7" s="18">
         <v>0</v>
       </c>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="P7" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>0</v>
+      </c>
       <c r="R7" s="18"/>
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
@@ -1391,7 +1415,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.50769230769230766</v>
+        <v>0.44</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1439,8 +1463,12 @@
       <c r="O8" s="18">
         <v>3</v>
       </c>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="P8" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>5</v>
+      </c>
       <c r="R8" s="18"/>
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
@@ -1448,7 +1476,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.5641025641025641</v>
+        <v>0.52444444444444449</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1496,8 +1524,12 @@
       <c r="O9" s="18">
         <v>3</v>
       </c>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+      <c r="P9" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>8</v>
+      </c>
       <c r="R9" s="18"/>
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
@@ -1505,7 +1537,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.49230769230769234</v>
+        <v>0.47555555555555556</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1553,8 +1585,12 @@
       <c r="O10" s="18">
         <v>3</v>
       </c>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="P10" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="18">
+        <v>4</v>
+      </c>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
@@ -1562,7 +1598,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.50256410256410255</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1610,8 +1646,12 @@
       <c r="O11" s="18">
         <v>3</v>
       </c>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
+      <c r="P11" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>0</v>
+      </c>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
@@ -1619,7 +1659,7 @@
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.22564102564102564</v>
+        <v>0.19555555555555557</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1667,8 +1707,12 @@
       <c r="O12" s="18">
         <v>3</v>
       </c>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
+      <c r="P12" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>9</v>
+      </c>
       <c r="R12" s="18"/>
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
@@ -1676,7 +1720,7 @@
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.57948717948717954</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1724,8 +1768,12 @@
       <c r="O13" s="18">
         <v>15</v>
       </c>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
+      <c r="P13" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q13" s="18">
+        <v>15</v>
+      </c>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
@@ -1733,7 +1781,7 @@
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>0.90769230769230769</v>
+        <v>0.92</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1781,8 +1829,12 @@
       <c r="O14" s="18">
         <v>15</v>
       </c>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
+      <c r="P14" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>12</v>
+      </c>
       <c r="R14" s="18"/>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
@@ -1790,7 +1842,7 @@
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.83076923076923082</v>
+        <v>0.81333333333333335</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1837,8 +1889,12 @@
       <c r="O15" s="18">
         <v>0</v>
       </c>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
+      <c r="P15" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="18">
+        <v>0</v>
+      </c>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
@@ -1846,7 +1902,7 @@
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
+        <v>5.7777777777777775E-2</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1894,8 +1950,12 @@
       <c r="O16" s="18">
         <v>15</v>
       </c>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
+      <c r="P16" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="18">
+        <v>15</v>
+      </c>
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
@@ -1903,7 +1963,7 @@
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.82666666666666666</v>
       </c>
       <c r="X16"/>
     </row>
@@ -1951,8 +2011,12 @@
       <c r="O17" s="18">
         <v>9</v>
       </c>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="P17" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>6</v>
+      </c>
       <c r="R17" s="18"/>
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
@@ -1960,7 +2024,7 @@
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.50256410256410255</v>
+        <v>0.47555555555555556</v>
       </c>
       <c r="X17"/>
     </row>
@@ -2008,8 +2072,12 @@
       <c r="O18" s="18">
         <v>9</v>
       </c>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
+      <c r="P18" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>0</v>
+      </c>
       <c r="R18" s="18"/>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
@@ -2017,7 +2085,7 @@
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.50256410256410255</v>
+        <v>0.47555555555555556</v>
       </c>
       <c r="X18"/>
     </row>
@@ -2065,8 +2133,12 @@
       <c r="O19" s="18">
         <v>15</v>
       </c>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
+      <c r="P19" s="18">
+        <v>12</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>9</v>
+      </c>
       <c r="R19" s="18"/>
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
@@ -2074,7 +2146,7 @@
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.75897435897435894</v>
+        <v>0.75111111111111106</v>
       </c>
       <c r="X19"/>
     </row>
@@ -2122,8 +2194,12 @@
       <c r="O20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
+      <c r="P20" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="18">
+        <v>12</v>
+      </c>
       <c r="R20" s="18"/>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
@@ -2131,7 +2207,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.70256410256410251</v>
+        <v>0.70222222222222219</v>
       </c>
       <c r="X20"/>
     </row>
@@ -2179,8 +2255,12 @@
       <c r="O21" s="18">
         <v>0</v>
       </c>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
+      <c r="P21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="18">
+        <v>0</v>
+      </c>
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
@@ -2188,7 +2268,7 @@
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.23076923076923078</v>
+        <v>0.2</v>
       </c>
       <c r="X21"/>
     </row>
@@ -2236,8 +2316,12 @@
       <c r="O22" s="18">
         <v>15</v>
       </c>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
+      <c r="P22" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q22" s="18">
+        <v>13</v>
+      </c>
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
@@ -2245,7 +2329,7 @@
       <c r="V22" s="18"/>
       <c r="W22" s="34">
         <f t="shared" si="0"/>
-        <v>0.87692307692307692</v>
+        <v>0.88444444444444448</v>
       </c>
       <c r="X22"/>
     </row>
@@ -2293,8 +2377,12 @@
       <c r="O23" s="18">
         <v>15</v>
       </c>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
+      <c r="P23" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>12</v>
+      </c>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
@@ -2302,7 +2390,7 @@
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.81538461538461537</v>
+        <v>0.8</v>
       </c>
       <c r="X23"/>
     </row>
@@ -2350,8 +2438,12 @@
       <c r="O24" s="18">
         <v>15</v>
       </c>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
+      <c r="P24" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="18">
+        <v>11</v>
+      </c>
       <c r="R24" s="18"/>
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
@@ -2359,7 +2451,7 @@
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
+        <v>0.5955555555555555</v>
       </c>
       <c r="X24"/>
     </row>
@@ -2407,8 +2499,12 @@
       <c r="O25" s="18">
         <v>15</v>
       </c>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
+      <c r="P25" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q25" s="18">
+        <v>0</v>
+      </c>
       <c r="R25" s="18"/>
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
@@ -2416,7 +2512,7 @@
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.61538461538461542</v>
+        <v>0.6</v>
       </c>
       <c r="X25"/>
     </row>
@@ -2464,8 +2560,12 @@
       <c r="O26" s="18">
         <v>3</v>
       </c>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
+      <c r="P26" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="18">
+        <v>9</v>
+      </c>
       <c r="R26" s="18"/>
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
@@ -2473,7 +2573,7 @@
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.58974358974358976</v>
+        <v>0.59111111111111114</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2521,8 +2621,12 @@
       <c r="O27" s="18">
         <v>9</v>
       </c>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
+      <c r="P27" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>9</v>
+      </c>
       <c r="R27" s="18"/>
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
@@ -2530,7 +2634,7 @@
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.55384615384615388</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2578,8 +2682,12 @@
       <c r="O28" s="18">
         <v>9</v>
       </c>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
+      <c r="P28" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="18">
+        <v>6</v>
+      </c>
       <c r="R28" s="18"/>
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
@@ -2587,7 +2695,7 @@
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.47179487179487178</v>
+        <v>0.4622222222222222</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2635,8 +2743,12 @@
       <c r="O29" s="18">
         <v>3</v>
       </c>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
+      <c r="P29" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="18">
+        <v>4</v>
+      </c>
       <c r="R29" s="18"/>
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
@@ -2644,7 +2756,7 @@
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.50769230769230766</v>
+        <v>0.45777777777777778</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2692,8 +2804,12 @@
       <c r="O30" s="18">
         <v>9</v>
       </c>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
+      <c r="P30" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="18">
+        <v>6</v>
+      </c>
       <c r="R30" s="18"/>
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
@@ -2701,7 +2817,7 @@
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.47692307692307695</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2749,8 +2865,12 @@
       <c r="O31" s="18">
         <v>9</v>
       </c>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
+      <c r="P31" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="18">
+        <v>0</v>
+      </c>
       <c r="R31" s="18"/>
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
@@ -2758,7 +2878,7 @@
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.50256410256410255</v>
+        <v>0.47555555555555556</v>
       </c>
       <c r="X31"/>
     </row>
@@ -2806,8 +2926,12 @@
       <c r="O32" s="18">
         <v>3</v>
       </c>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
+      <c r="P32" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="18">
+        <v>9</v>
+      </c>
       <c r="R32" s="18"/>
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
@@ -2815,7 +2939,7 @@
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.67179487179487174</v>
+        <v>0.66222222222222227</v>
       </c>
       <c r="X32"/>
     </row>
@@ -2863,8 +2987,12 @@
       <c r="O33" s="18">
         <v>3</v>
       </c>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
+      <c r="P33" s="18">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="18">
+        <v>6</v>
+      </c>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
@@ -2872,7 +3000,7 @@
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.41538461538461541</v>
+        <v>0.4</v>
       </c>
       <c r="X33"/>
     </row>
@@ -2920,8 +3048,12 @@
       <c r="O34" s="18">
         <v>15</v>
       </c>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
+      <c r="P34" s="18">
+        <v>13</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>15</v>
+      </c>
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
@@ -2929,7 +3061,7 @@
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.67692307692307696</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="X34"/>
     </row>
@@ -2977,8 +3109,12 @@
       <c r="O35" s="18">
         <v>15</v>
       </c>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
+      <c r="P35" s="18">
+        <v>15</v>
+      </c>
+      <c r="Q35" s="18">
+        <v>15</v>
+      </c>
       <c r="R35" s="18"/>
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
@@ -2986,7 +3122,7 @@
       <c r="V35" s="18"/>
       <c r="W35" s="34">
         <f t="shared" si="0"/>
-        <v>0.88717948717948714</v>
+        <v>0.90222222222222226</v>
       </c>
       <c r="X35"/>
     </row>
@@ -3034,8 +3170,12 @@
       <c r="O36" s="18">
         <v>15</v>
       </c>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
+      <c r="P36" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q36" s="18">
+        <v>12</v>
+      </c>
       <c r="R36" s="18"/>
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
@@ -3043,7 +3183,7 @@
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.55384615384615388</v>
+        <v>0.57333333333333336</v>
       </c>
       <c r="X36"/>
     </row>
@@ -3091,8 +3231,12 @@
       <c r="O37" s="18">
         <v>9</v>
       </c>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
+      <c r="P37" s="18">
+        <v>9</v>
+      </c>
+      <c r="Q37" s="18">
+        <v>6</v>
+      </c>
       <c r="R37" s="18"/>
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
@@ -3100,7 +3244,7 @@
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.6974358974358974</v>
+        <v>0.6711111111111111</v>
       </c>
       <c r="X37"/>
     </row>
@@ -3148,8 +3292,12 @@
       <c r="O38" s="18">
         <v>3</v>
       </c>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
+      <c r="P38" s="18">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="18">
+        <v>9</v>
+      </c>
       <c r="R38" s="18"/>
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
@@ -3157,7 +3305,7 @@
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.24615384615384617</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="X38"/>
     </row>
@@ -3205,8 +3353,12 @@
       <c r="O39" s="18">
         <v>15</v>
       </c>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
+      <c r="P39" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="18">
+        <v>6</v>
+      </c>
       <c r="R39" s="18"/>
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
@@ -3214,7 +3366,7 @@
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.43076923076923079</v>
+        <v>0.4</v>
       </c>
       <c r="X39"/>
     </row>
@@ -3376,13 +3528,13 @@
         <f t="shared" si="1"/>
         <v>7.7027027027027026</v>
       </c>
-      <c r="P42" s="30" t="e">
+      <c r="P42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q42" s="30" t="e">
+        <v>6.8947368421052628</v>
+      </c>
+      <c r="Q42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7.2631578947368425</v>
       </c>
       <c r="R42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -3406,7 +3558,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.55168690958164635</v>
+        <v>0.54105263157894723</v>
       </c>
       <c r="X42"/>
     </row>
@@ -3470,13 +3622,13 @@
         <f t="shared" si="2"/>
         <v>5.7680386848798326</v>
       </c>
-      <c r="P43" s="30" t="e">
+      <c r="P43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q43" s="30" t="e">
+        <v>5.0553128258015922</v>
+      </c>
+      <c r="Q43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.8806524293948259</v>
       </c>
       <c r="R43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -3500,7 +3652,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.20396981157228605</v>
+        <v>0.20614952692648508</v>
       </c>
       <c r="X43"/>
     </row>
@@ -3564,13 +3716,13 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="P44" s="30" t="e">
+      <c r="P44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q44" s="30" t="e">
+        <v>7.5</v>
+      </c>
+      <c r="Q44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>7</v>
       </c>
       <c r="R44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -3594,7 +3746,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.5410256410256411</v>
+        <v>0.52</v>
       </c>
       <c r="X44"/>
     </row>
@@ -3660,11 +3812,11 @@
       </c>
       <c r="P45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="33">
         <f t="shared" si="4"/>
@@ -3986,7 +4138,7 @@
   <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4056,13 +4208,15 @@
       <c r="G2" s="54">
         <v>69</v>
       </c>
-      <c r="H2" s="52"/>
+      <c r="H2" s="54">
+        <v>96</v>
+      </c>
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
       <c r="L2" s="34">
         <f>IF(SUM($B$45:$I$45)&gt;0,1.5*(B2/$B$41+C2/$C$41+D2/$D$41+E2/$E$41+F2/$F$41+G2/$G$41+H2/$H$41+I2/$I$41+J2/$J$41+K2/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>1.2000000000000002</v>
+        <v>1.2342857142857144</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4087,13 +4241,15 @@
       <c r="G3" s="54">
         <v>0</v>
       </c>
-      <c r="H3" s="52"/>
+      <c r="H3" s="54">
+        <v>56</v>
+      </c>
       <c r="I3" s="52"/>
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
       <c r="L3" s="34">
         <f t="shared" ref="L3:L39" si="0">IF(SUM($B$45:$I$45)&gt;0,1.5*(B3/$B$41+C3/$C$41+D3/$D$41+E3/$E$41+F3/$F$41+G3/$G$41+H3/$H$41+I3/$I$41+J3/$J$41+K3/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>0.66625000000000001</v>
+        <v>0.69107142857142867</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4118,13 +4274,15 @@
       <c r="G4" s="54">
         <v>63</v>
       </c>
-      <c r="H4" s="52"/>
+      <c r="H4" s="54">
+        <v>97.5</v>
+      </c>
       <c r="I4" s="52"/>
       <c r="J4" s="52"/>
       <c r="K4" s="52"/>
       <c r="L4" s="34">
         <f t="shared" si="0"/>
-        <v>1.1512500000000001</v>
+        <v>1.195714285714286</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4149,13 +4307,15 @@
       <c r="G5" s="54">
         <v>67</v>
       </c>
-      <c r="H5" s="52"/>
+      <c r="H5" s="54">
+        <v>76.5</v>
+      </c>
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
       <c r="L5" s="34">
         <f t="shared" si="0"/>
-        <v>0.89624999999999988</v>
+        <v>0.93214285714285705</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4180,13 +4340,15 @@
       <c r="G6" s="54">
         <v>89</v>
       </c>
-      <c r="H6" s="52"/>
+      <c r="H6" s="54">
+        <v>99.5</v>
+      </c>
       <c r="I6" s="52"/>
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
       <c r="L6" s="34">
         <f t="shared" si="0"/>
-        <v>1.13625</v>
+        <v>1.1871428571428573</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4211,13 +4373,15 @@
       <c r="G7" s="54">
         <v>58</v>
       </c>
-      <c r="H7" s="52"/>
+      <c r="H7" s="54">
+        <v>83.5</v>
+      </c>
       <c r="I7" s="52"/>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
       <c r="L7" s="34">
         <f t="shared" si="0"/>
-        <v>0.14499999999999999</v>
+        <v>0.30321428571428571</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4242,13 +4406,15 @@
       <c r="G8" s="54">
         <v>89</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="54">
+        <v>99</v>
+      </c>
       <c r="I8" s="52"/>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
       <c r="L8" s="34">
         <f t="shared" si="0"/>
-        <v>1.29375</v>
+        <v>1.3210714285714287</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4273,13 +4439,15 @@
       <c r="G9" s="54">
         <v>93</v>
       </c>
-      <c r="H9" s="52"/>
+      <c r="H9" s="54">
+        <v>99.5</v>
+      </c>
       <c r="I9" s="52"/>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
       <c r="L9" s="34">
         <f t="shared" si="0"/>
-        <v>1.4400000000000002</v>
+        <v>1.4475</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4304,13 +4472,15 @@
       <c r="G10" s="54">
         <v>90</v>
       </c>
-      <c r="H10" s="52"/>
+      <c r="H10" s="54">
+        <v>96</v>
+      </c>
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
       <c r="L10" s="34">
         <f t="shared" si="0"/>
-        <v>1.2600000000000002</v>
+        <v>1.285714285714286</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4335,13 +4505,15 @@
       <c r="G11" s="54">
         <v>60</v>
       </c>
-      <c r="H11" s="52"/>
+      <c r="H11" s="54">
+        <v>28.5</v>
+      </c>
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
       <c r="L11" s="34">
         <f t="shared" si="0"/>
-        <v>0.27249999999999996</v>
+        <v>0.2946428571428571</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4366,13 +4538,15 @@
       <c r="G12" s="54">
         <v>27</v>
       </c>
-      <c r="H12" s="52"/>
+      <c r="H12" s="54">
+        <v>41</v>
+      </c>
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
       <c r="L12" s="34">
         <f t="shared" si="0"/>
-        <v>0.52749999999999997</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4397,13 +4571,15 @@
       <c r="G13" s="54">
         <v>92</v>
       </c>
-      <c r="H13" s="52"/>
+      <c r="H13" s="54">
+        <v>90</v>
+      </c>
       <c r="I13" s="52"/>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
       <c r="L13" s="34">
         <f t="shared" si="0"/>
-        <v>1.4174999999999998</v>
+        <v>1.4078571428571429</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4428,13 +4604,15 @@
       <c r="G14" s="54">
         <v>79</v>
       </c>
-      <c r="H14" s="52"/>
+      <c r="H14" s="54">
+        <v>92</v>
+      </c>
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
       <c r="L14" s="34">
         <f t="shared" si="0"/>
-        <v>1.2224999999999999</v>
+        <v>1.2449999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4459,13 +4637,15 @@
       <c r="G15" s="54">
         <v>0</v>
       </c>
-      <c r="H15" s="52"/>
+      <c r="H15" s="54">
+        <v>0</v>
+      </c>
       <c r="I15" s="52"/>
       <c r="J15" s="52"/>
       <c r="K15" s="52"/>
       <c r="L15" s="34">
         <f t="shared" si="0"/>
-        <v>8.8749999999999996E-2</v>
+        <v>7.6071428571428568E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4490,13 +4670,15 @@
       <c r="G16" s="54">
         <v>93</v>
       </c>
-      <c r="H16" s="52"/>
+      <c r="H16" s="54">
+        <v>98.5</v>
+      </c>
       <c r="I16" s="52"/>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
       <c r="L16" s="34">
         <f t="shared" si="0"/>
-        <v>1.4124999999999999</v>
+        <v>1.4217857142857144</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4521,13 +4703,15 @@
       <c r="G17" s="54">
         <v>91</v>
       </c>
-      <c r="H17" s="52"/>
+      <c r="H17" s="54">
+        <v>94</v>
+      </c>
       <c r="I17" s="52"/>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
       <c r="L17" s="34">
         <f t="shared" si="0"/>
-        <v>1.2124999999999999</v>
+        <v>1.2407142857142854</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4552,13 +4736,15 @@
       <c r="G18" s="54">
         <v>36</v>
       </c>
-      <c r="H18" s="52"/>
+      <c r="H18" s="54">
+        <v>39</v>
+      </c>
       <c r="I18" s="52"/>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
       <c r="L18" s="34">
         <f t="shared" si="0"/>
-        <v>0.87</v>
+        <v>0.82928571428571429</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4583,13 +4769,15 @@
       <c r="G19" s="54">
         <v>73</v>
       </c>
-      <c r="H19" s="52"/>
+      <c r="H19" s="54">
+        <v>98.5</v>
+      </c>
       <c r="I19" s="52"/>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
       <c r="L19" s="34">
         <f t="shared" si="0"/>
-        <v>1.2624999999999997</v>
+        <v>1.2932142857142854</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4614,13 +4802,15 @@
       <c r="G20" s="54">
         <v>76</v>
       </c>
-      <c r="H20" s="52"/>
+      <c r="H20" s="54">
+        <v>99.5</v>
+      </c>
       <c r="I20" s="52"/>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
       <c r="L20" s="34">
         <f t="shared" si="0"/>
-        <v>1.26</v>
+        <v>1.2932142857142856</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4645,13 +4835,15 @@
       <c r="G21" s="54">
         <v>60</v>
       </c>
-      <c r="H21" s="52"/>
+      <c r="H21" s="54">
+        <v>0</v>
+      </c>
       <c r="I21" s="52"/>
       <c r="J21" s="52"/>
       <c r="K21" s="52"/>
       <c r="L21" s="34">
         <f t="shared" si="0"/>
-        <v>0.61124999999999996</v>
+        <v>0.52392857142857141</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4676,13 +4868,15 @@
       <c r="G22" s="54">
         <v>95</v>
       </c>
-      <c r="H22" s="52"/>
+      <c r="H22" s="54">
+        <v>99.5</v>
+      </c>
       <c r="I22" s="52"/>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
       <c r="L22" s="34">
         <f t="shared" si="0"/>
-        <v>1.3875</v>
+        <v>1.4024999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4707,13 +4901,15 @@
       <c r="G23" s="54">
         <v>76</v>
       </c>
-      <c r="H23" s="52"/>
+      <c r="H23" s="54">
+        <v>77.5</v>
+      </c>
       <c r="I23" s="52"/>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
       <c r="L23" s="34">
         <f t="shared" si="0"/>
-        <v>1.2062499999999998</v>
+        <v>1.1999999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4738,13 +4934,15 @@
       <c r="G24" s="54">
         <v>33</v>
       </c>
-      <c r="H24" s="52"/>
+      <c r="H24" s="54">
+        <v>50</v>
+      </c>
       <c r="I24" s="52"/>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
       <c r="L24" s="34">
         <f t="shared" si="0"/>
-        <v>0.61624999999999996</v>
+        <v>0.63535714285714284</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4769,13 +4967,15 @@
       <c r="G25" s="54">
         <v>70</v>
       </c>
-      <c r="H25" s="52"/>
+      <c r="H25" s="54">
+        <v>51</v>
+      </c>
       <c r="I25" s="52"/>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
       <c r="L25" s="34">
         <f t="shared" si="0"/>
-        <v>0.97000000000000008</v>
+        <v>0.94071428571428561</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4800,13 +5000,15 @@
       <c r="G26" s="54">
         <v>69</v>
       </c>
-      <c r="H26" s="52"/>
+      <c r="H26" s="54">
+        <v>69.5</v>
+      </c>
       <c r="I26" s="52"/>
       <c r="J26" s="52"/>
       <c r="K26" s="52"/>
       <c r="L26" s="34">
         <f t="shared" si="0"/>
-        <v>0.72875000000000012</v>
+        <v>0.77357142857142858</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4831,13 +5033,15 @@
       <c r="G27" s="54">
         <v>66</v>
       </c>
-      <c r="H27" s="52"/>
+      <c r="H27" s="54">
+        <v>67.5</v>
+      </c>
       <c r="I27" s="52"/>
       <c r="J27" s="52"/>
       <c r="K27" s="52"/>
       <c r="L27" s="34">
         <f t="shared" si="0"/>
-        <v>0.91500000000000004</v>
+        <v>0.92892857142857133</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4862,13 +5066,15 @@
       <c r="G28" s="54">
         <v>70</v>
       </c>
-      <c r="H28" s="52"/>
+      <c r="H28" s="54">
+        <v>67.5</v>
+      </c>
       <c r="I28" s="52"/>
       <c r="J28" s="52"/>
       <c r="K28" s="52"/>
       <c r="L28" s="34">
         <f t="shared" si="0"/>
-        <v>0.625</v>
+        <v>0.68035714285714277</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4893,13 +5099,15 @@
       <c r="G29" s="54">
         <v>0</v>
       </c>
-      <c r="H29" s="52"/>
+      <c r="H29" s="54">
+        <v>0</v>
+      </c>
       <c r="I29" s="52"/>
       <c r="J29" s="52"/>
       <c r="K29" s="52"/>
       <c r="L29" s="34">
         <f t="shared" si="0"/>
-        <v>0.57874999999999999</v>
+        <v>0.49607142857142861</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4924,13 +5132,15 @@
       <c r="G30" s="54">
         <v>79</v>
       </c>
-      <c r="H30" s="52"/>
+      <c r="H30" s="54">
+        <v>67.5</v>
+      </c>
       <c r="I30" s="52"/>
       <c r="J30" s="52"/>
       <c r="K30" s="52"/>
       <c r="L30" s="34">
         <f t="shared" si="0"/>
-        <v>1.0287500000000001</v>
+        <v>1.0264285714285715</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4955,13 +5165,15 @@
       <c r="G31" s="54">
         <v>75</v>
       </c>
-      <c r="H31" s="52"/>
+      <c r="H31" s="54">
+        <v>78.5</v>
+      </c>
       <c r="I31" s="52"/>
       <c r="J31" s="52"/>
       <c r="K31" s="52"/>
       <c r="L31" s="34">
         <f t="shared" si="0"/>
-        <v>1.2537499999999999</v>
+        <v>1.2428571428571427</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4986,13 +5198,15 @@
       <c r="G32" s="54">
         <v>87</v>
       </c>
-      <c r="H32" s="52"/>
+      <c r="H32" s="54">
+        <v>96.5</v>
+      </c>
       <c r="I32" s="52"/>
       <c r="J32" s="52"/>
       <c r="K32" s="52"/>
       <c r="L32" s="34">
         <f t="shared" si="0"/>
-        <v>1.2224999999999999</v>
+        <v>1.2546428571428569</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5017,13 +5231,15 @@
       <c r="G33" s="54">
         <v>66</v>
       </c>
-      <c r="H33" s="52"/>
+      <c r="H33" s="54">
+        <v>67</v>
+      </c>
       <c r="I33" s="52"/>
       <c r="J33" s="52"/>
       <c r="K33" s="52"/>
       <c r="L33" s="34">
         <f t="shared" si="0"/>
-        <v>0.75249999999999995</v>
+        <v>0.78857142857142848</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5048,13 +5264,15 @@
       <c r="G34" s="54">
         <v>0</v>
       </c>
-      <c r="H34" s="52"/>
+      <c r="H34" s="54">
+        <v>0</v>
+      </c>
       <c r="I34" s="52"/>
       <c r="J34" s="52"/>
       <c r="K34" s="52"/>
       <c r="L34" s="34">
         <f t="shared" si="0"/>
-        <v>0.24749999999999997</v>
+        <v>0.21214285714285713</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5079,13 +5297,15 @@
       <c r="G35" s="54">
         <v>95</v>
       </c>
-      <c r="H35" s="52"/>
+      <c r="H35" s="54">
+        <v>99.5</v>
+      </c>
       <c r="I35" s="52"/>
       <c r="J35" s="52"/>
       <c r="K35" s="52"/>
       <c r="L35" s="34">
         <f t="shared" si="0"/>
-        <v>1.4087500000000002</v>
+        <v>1.4207142857142858</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5110,13 +5330,15 @@
       <c r="G36" s="54">
         <v>72</v>
       </c>
-      <c r="H36" s="52"/>
+      <c r="H36" s="54">
+        <v>81</v>
+      </c>
       <c r="I36" s="52"/>
       <c r="J36" s="52"/>
       <c r="K36" s="52"/>
       <c r="L36" s="34">
         <f t="shared" si="0"/>
-        <v>0.95374999999999999</v>
+        <v>0.9910714285714286</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5141,13 +5363,15 @@
       <c r="G37" s="54">
         <v>45</v>
       </c>
-      <c r="H37" s="52"/>
+      <c r="H37" s="54">
+        <v>60</v>
+      </c>
       <c r="I37" s="52"/>
       <c r="J37" s="52"/>
       <c r="K37" s="52"/>
       <c r="L37" s="34">
         <f t="shared" si="0"/>
-        <v>0.64375000000000004</v>
+        <v>0.68035714285714288</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5172,13 +5396,15 @@
       <c r="G38" s="54">
         <v>69</v>
       </c>
-      <c r="H38" s="52"/>
+      <c r="H38" s="54">
+        <v>21</v>
+      </c>
       <c r="I38" s="52"/>
       <c r="J38" s="52"/>
       <c r="K38" s="52"/>
       <c r="L38" s="34">
         <f t="shared" si="0"/>
-        <v>0.45999999999999996</v>
+        <v>0.43928571428571422</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5203,13 +5429,15 @@
       <c r="G39" s="54">
         <v>0</v>
       </c>
-      <c r="H39" s="52"/>
+      <c r="H39" s="54">
+        <v>43.5</v>
+      </c>
       <c r="I39" s="52"/>
       <c r="J39" s="52"/>
       <c r="K39" s="52"/>
       <c r="L39" s="34">
         <f t="shared" si="0"/>
-        <v>0.72499999999999998</v>
+        <v>0.71464285714285702</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5291,9 +5519,9 @@
         <f t="shared" si="1"/>
         <v>62.421052631578945</v>
       </c>
-      <c r="H42" s="30" t="e">
+      <c r="H42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>67.934210526315795</v>
       </c>
       <c r="I42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -5309,7 +5537,7 @@
       </c>
       <c r="L42" s="30">
         <f t="shared" si="1"/>
-        <v>0.9228947368421051</v>
+        <v>0.93662593984962406</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5340,9 +5568,9 @@
         <f t="shared" si="2"/>
         <v>29.714526049080433</v>
       </c>
-      <c r="H43" s="30" t="e">
+      <c r="H43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>32.345928156087979</v>
       </c>
       <c r="I43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -5358,7 +5586,7 @@
       </c>
       <c r="L43" s="30">
         <f t="shared" si="2"/>
-        <v>0.38653215064864166</v>
+        <v>0.3895527200344181</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5389,9 +5617,9 @@
         <f t="shared" si="3"/>
         <v>69.5</v>
       </c>
-      <c r="H44" s="30" t="e">
+      <c r="H44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>77</v>
       </c>
       <c r="I44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -5407,7 +5635,7 @@
       </c>
       <c r="L44" s="30">
         <f t="shared" si="3"/>
-        <v>0.96187500000000004</v>
+        <v>0.96589285714285711</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5440,7 +5668,7 @@
       </c>
       <c r="H45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="33">
         <f t="shared" si="4"/>
@@ -6301,11 +6529,11 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.45128205128205129</v>
+        <v>0.45777777777777778</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
-        <v>1.2000000000000002</v>
+        <v>1.2342857142857144</v>
       </c>
       <c r="D2" s="43">
         <f>Exams!B2</f>
@@ -6317,11 +6545,11 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>2.7312820512820517</v>
+        <v>2.7720634920634923</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H2" s="51">
         <f>IF(G2&gt;4.75,1,0)</f>
@@ -6335,11 +6563,11 @@
       </c>
       <c r="B3" s="34">
         <f>Quiz!W3</f>
-        <v>6.1538461538461542E-2</v>
+        <v>0.12</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
-        <v>0.66625000000000001</v>
+        <v>0.69107142857142867</v>
       </c>
       <c r="D3" s="43">
         <f>Exams!B3</f>
@@ -6351,7 +6579,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.9157884615384617</v>
+        <v>1.9990714285714288</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6368,11 +6596,11 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.517948717948718</v>
+        <v>0.51555555555555554</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
-        <v>1.1512500000000001</v>
+        <v>1.195714285714286</v>
       </c>
       <c r="D4" s="43">
         <f>Exams!B4</f>
@@ -6384,7 +6612,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.8211987179487181</v>
+        <v>2.8632698412698416</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -6401,11 +6629,11 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.62564102564102564</v>
+        <v>0.5822222222222222</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
-        <v>0.89624999999999988</v>
+        <v>0.93214285714285705</v>
       </c>
       <c r="D5" s="43">
         <f>Exams!B5</f>
@@ -6417,7 +6645,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>2.8058910256410252</v>
+        <v>2.7983650793650794</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -6434,11 +6662,11 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.52820512820512822</v>
+        <v>0.51111111111111107</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
-        <v>1.13625</v>
+        <v>1.1871428571428573</v>
       </c>
       <c r="D6" s="43">
         <f>Exams!B6</f>
@@ -6450,7 +6678,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>2.7924551282051282</v>
+        <v>2.8262539682539685</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -6467,11 +6695,11 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.50769230769230766</v>
+        <v>0.44</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
-        <v>0.14499999999999999</v>
+        <v>0.30321428571428571</v>
       </c>
       <c r="D7" s="43">
         <f>Exams!B7</f>
@@ -6483,7 +6711,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>1.8526923076923079</v>
+        <v>1.9432142857142858</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -6500,11 +6728,11 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.5641025641025641</v>
+        <v>0.52444444444444449</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
-        <v>1.29375</v>
+        <v>1.3210714285714287</v>
       </c>
       <c r="D8" s="43">
         <f>Exams!B8</f>
@@ -6516,7 +6744,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>3.0338525641025642</v>
+        <v>3.0215158730158733</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -6533,11 +6761,11 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.49230769230769234</v>
+        <v>0.47555555555555556</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
-        <v>1.4400000000000002</v>
+        <v>1.4475</v>
       </c>
       <c r="D9" s="43">
         <f>Exams!B9</f>
@@ -6549,7 +6777,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>3.4683076923076923</v>
+        <v>3.4590555555555556</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -6566,11 +6794,11 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.50256410256410255</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
-        <v>1.2600000000000002</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="D10" s="43">
         <f>Exams!B10</f>
@@ -6582,7 +6810,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>2.1705641025641027</v>
+        <v>2.1603809523809527</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -6599,11 +6827,11 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.22564102564102564</v>
+        <v>0.19555555555555557</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
-        <v>0.27249999999999996</v>
+        <v>0.2946428571428571</v>
       </c>
       <c r="D11" s="43">
         <f>Exams!B11</f>
@@ -6615,7 +6843,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.5181410256410257</v>
+        <v>1.5101984126984127</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -6632,11 +6860,11 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.57948717948717954</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
-        <v>0.52749999999999997</v>
+        <v>0.54</v>
       </c>
       <c r="D12" s="43">
         <f>Exams!B12</f>
@@ -6648,7 +6876,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>2.1869871794871796</v>
+        <v>2.1755555555555555</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -6665,11 +6893,11 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>0.90769230769230769</v>
+        <v>0.92</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
-        <v>1.4174999999999998</v>
+        <v>1.4078571428571429</v>
       </c>
       <c r="D13" s="43">
         <f>Exams!B13</f>
@@ -6681,7 +6909,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>5.0851923076923082</v>
+        <v>5.0878571428571426</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -6698,11 +6926,11 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.83076923076923082</v>
+        <v>0.81333333333333335</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
-        <v>1.2224999999999999</v>
+        <v>1.2449999999999999</v>
       </c>
       <c r="D14" s="43">
         <f>Exams!B14</f>
@@ -6714,7 +6942,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>3.3132692307692304</v>
+        <v>3.3183333333333334</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -6731,11 +6959,11 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>6.6666666666666666E-2</v>
+        <v>5.7777777777777775E-2</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
-        <v>8.8749999999999996E-2</v>
+        <v>7.6071428571428568E-2</v>
       </c>
       <c r="D15" s="43">
         <f>Exams!B15</f>
@@ -6747,7 +6975,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.15541666666666665</v>
+        <v>0.13384920634920633</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -6764,11 +6992,11 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>0.8</v>
+        <v>0.82666666666666666</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
-        <v>1.4124999999999999</v>
+        <v>1.4217857142857144</v>
       </c>
       <c r="D16" s="43">
         <f>Exams!B16</f>
@@ -6780,7 +7008,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>4.6125000000000007</v>
+        <v>4.6484523809523814</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -6797,11 +7025,11 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.50256410256410255</v>
+        <v>0.47555555555555556</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
-        <v>1.2124999999999999</v>
+        <v>1.2407142857142854</v>
       </c>
       <c r="D17" s="43">
         <f>Exams!B17</f>
@@ -6813,7 +7041,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>2.4350641025641027</v>
+        <v>2.4362698412698407</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -6830,11 +7058,11 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.50256410256410255</v>
+        <v>0.47555555555555556</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
-        <v>0.87</v>
+        <v>0.82928571428571429</v>
       </c>
       <c r="D18" s="43">
         <f>Exams!B18</f>
@@ -6846,7 +7074,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>2.2275641025641026</v>
+        <v>2.1598412698412699</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -6863,11 +7091,11 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.75897435897435894</v>
+        <v>0.75111111111111106</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
-        <v>1.2624999999999997</v>
+        <v>1.2932142857142854</v>
       </c>
       <c r="D19" s="43">
         <f>Exams!B19</f>
@@ -6879,7 +7107,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>3.425474358974359</v>
+        <v>3.4483253968253962</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -6896,11 +7124,11 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.70256410256410251</v>
+        <v>0.70222222222222219</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
-        <v>1.26</v>
+        <v>1.2932142857142856</v>
       </c>
       <c r="D20" s="43">
         <f>Exams!B20</f>
@@ -6912,7 +7140,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>3.4265641025641025</v>
+        <v>3.4594365079365077</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -6929,11 +7157,11 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.23076923076923078</v>
+        <v>0.2</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
-        <v>0.61124999999999996</v>
+        <v>0.52392857142857141</v>
       </c>
       <c r="D21" s="43">
         <f>Exams!B21</f>
@@ -6945,7 +7173,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.7180192307692306</v>
+        <v>1.5999285714285714</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -6962,11 +7190,11 @@
       </c>
       <c r="B22" s="34">
         <f>Quiz!W22</f>
-        <v>0.87692307692307692</v>
+        <v>0.88444444444444448</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
-        <v>1.3875</v>
+        <v>1.4024999999999999</v>
       </c>
       <c r="D22" s="43">
         <f>Exams!B22</f>
@@ -6978,7 +7206,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>4.7244230769230766</v>
+        <v>4.7469444444444449</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
@@ -6995,11 +7223,11 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.81538461538461537</v>
+        <v>0.8</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
-        <v>1.2062499999999998</v>
+        <v>1.1999999999999997</v>
       </c>
       <c r="D23" s="43">
         <f>Exams!B23</f>
@@ -7011,7 +7239,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.8856346153846149</v>
+        <v>2.8639999999999999</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -7028,11 +7256,11 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.61538461538461542</v>
+        <v>0.5955555555555555</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
-        <v>0.61624999999999996</v>
+        <v>0.63535714285714284</v>
       </c>
       <c r="D24" s="43">
         <f>Exams!B24</f>
@@ -7044,7 +7272,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>2.9836346153846152</v>
+        <v>2.9829126984126981</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -7061,11 +7289,11 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.61538461538461542</v>
+        <v>0.6</v>
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
-        <v>0.97000000000000008</v>
+        <v>0.94071428571428561</v>
       </c>
       <c r="D25" s="43">
         <f>Exams!B25</f>
@@ -7077,7 +7305,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>2.1973846153846157</v>
+        <v>2.1527142857142856</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -7094,11 +7322,11 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.58974358974358976</v>
+        <v>0.59111111111111114</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
-        <v>0.72875000000000012</v>
+        <v>0.77357142857142858</v>
       </c>
       <c r="D26" s="43">
         <f>Exams!B26</f>
@@ -7110,7 +7338,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>2.18249358974359</v>
+        <v>2.2286825396825396</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -7127,11 +7355,11 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.55384615384615388</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
-        <v>0.91500000000000004</v>
+        <v>0.92892857142857133</v>
       </c>
       <c r="D27" s="43">
         <f>Exams!B27</f>
@@ -7143,7 +7371,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>2.2008461538461539</v>
+        <v>2.2209285714285714</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -7160,11 +7388,11 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.47179487179487178</v>
+        <v>0.4622222222222222</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
-        <v>0.625</v>
+        <v>0.68035714285714277</v>
       </c>
       <c r="D28" s="43">
         <f>Exams!B28</f>
@@ -7176,7 +7404,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.756794871794872</v>
+        <v>1.8025793650793651</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -7193,11 +7421,11 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.50769230769230766</v>
+        <v>0.45777777777777778</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
-        <v>0.57874999999999999</v>
+        <v>0.49607142857142861</v>
       </c>
       <c r="D29" s="43">
         <f>Exams!B29</f>
@@ -7209,11 +7437,11 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.3504423076923076</v>
+        <v>1.2178492063492063</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H29" s="51">
         <f t="shared" si="7"/>
@@ -7226,11 +7454,11 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.47692307692307695</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
-        <v>1.0287500000000001</v>
+        <v>1.0264285714285715</v>
       </c>
       <c r="D30" s="43">
         <f>Exams!B30</f>
@@ -7242,7 +7470,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>2.1296730769230772</v>
+        <v>2.1170952380952381</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -7259,11 +7487,11 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.50256410256410255</v>
+        <v>0.47555555555555556</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
-        <v>1.2537499999999999</v>
+        <v>1.2428571428571427</v>
       </c>
       <c r="D31" s="43">
         <f>Exams!B31</f>
@@ -7275,7 +7503,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>2.3443141025641028</v>
+        <v>2.3064126984126982</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -7292,11 +7520,11 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.67179487179487174</v>
+        <v>0.66222222222222227</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
-        <v>1.2224999999999999</v>
+        <v>1.2546428571428569</v>
       </c>
       <c r="D32" s="43">
         <f>Exams!B32</f>
@@ -7308,7 +7536,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>3.154294871794872</v>
+        <v>3.1768650793650792</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -7325,11 +7553,11 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.41538461538461541</v>
+        <v>0.4</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
-        <v>0.75249999999999995</v>
+        <v>0.78857142857142848</v>
       </c>
       <c r="D33" s="43">
         <f>Exams!B33</f>
@@ -7341,11 +7569,11 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>2.2358846153846157</v>
+        <v>2.2565714285714287</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H33" s="51">
         <f>IF(G33&gt;4.75,1,0)</f>
@@ -7358,11 +7586,11 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.67692307692307696</v>
+        <v>0.71111111111111114</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
-        <v>0.24749999999999997</v>
+        <v>0.21214285714285713</v>
       </c>
       <c r="D34" s="43">
         <f>Exams!B34</f>
@@ -7374,7 +7602,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>2.3884230769230768</v>
+        <v>2.387253968253968</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -7391,11 +7619,11 @@
       </c>
       <c r="B35" s="34">
         <f>Quiz!W35</f>
-        <v>0.88717948717948714</v>
+        <v>0.90222222222222226</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
-        <v>1.4087500000000002</v>
+        <v>1.4207142857142858</v>
       </c>
       <c r="D35" s="43">
         <f>Exams!B35</f>
@@ -7407,7 +7635,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>5.2119294871794875</v>
+        <v>5.2389365079365078</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -7424,11 +7652,11 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.55384615384615388</v>
+        <v>0.57333333333333336</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
-        <v>0.95374999999999999</v>
+        <v>0.9910714285714286</v>
       </c>
       <c r="D36" s="43">
         <f>Exams!B36</f>
@@ -7440,7 +7668,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>2.2875961538461542</v>
+        <v>2.3444047619047623</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -7457,11 +7685,11 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.6974358974358974</v>
+        <v>0.6711111111111111</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
-        <v>0.64375000000000004</v>
+        <v>0.68035714285714288</v>
       </c>
       <c r="D37" s="43">
         <f>Exams!B37</f>
@@ -7473,7 +7701,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>2.7931858974358974</v>
+        <v>2.8034682539682541</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -7490,11 +7718,11 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.24615384615384617</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
-        <v>0.45999999999999996</v>
+        <v>0.43928571428571422</v>
       </c>
       <c r="D38" s="43">
         <f>Exams!B38</f>
@@ -7506,7 +7734,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.97015384615384614</v>
+        <v>0.98328571428571432</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -7523,11 +7751,11 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.43076923076923079</v>
+        <v>0.4</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
-        <v>0.72499999999999998</v>
+        <v>0.71464285714285702</v>
       </c>
       <c r="D39" s="43">
         <f>Exams!B39</f>
@@ -7539,7 +7767,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.6597692307692307</v>
+        <v>1.618642857142857</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -7596,11 +7824,11 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.55168690958164635</v>
+        <v>0.54105263157894723</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
-        <v>0.9228947368421051</v>
+        <v>0.93662593984962406</v>
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
@@ -7612,11 +7840,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6092921727395417</v>
+        <v>2.6123890977443609</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>2.5921052631578947</v>
+        <v>2.6052631578947367</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -7629,11 +7857,11 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.20396981157228605</v>
+        <v>0.20614952692648508</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
-        <v>0.38653215064864166</v>
+        <v>0.3895527200344181</v>
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
@@ -7645,11 +7873,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>1.058233848322593</v>
+        <v>1.0708896075331786</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0581425794050294</v>
+        <v>1.072745245297632</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -7662,11 +7890,11 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.5410256410256411</v>
+        <v>0.52</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
-        <v>0.96187500000000004</v>
+        <v>0.96589285714285711</v>
       </c>
       <c r="D44" s="30">
         <f t="shared" si="11"/>
@@ -7678,7 +7906,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>2.3663685897435895</v>
+        <v>2.3658293650793651</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC44FEB-5BD9-5A4B-8AF9-FDD4E9ACCAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D0126D-4CF4-C644-B14C-DE04B34B764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="1940" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Quiz Total</t>
   </si>
@@ -182,9 +182,6 @@
   </si>
   <si>
     <t>Hm 10</t>
-  </si>
-  <si>
-    <t>\15</t>
   </si>
 </sst>
 </file>
@@ -968,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -2191,8 +2188,8 @@
       <c r="N20" s="18">
         <v>15</v>
       </c>
-      <c r="O20" s="18" t="s">
-        <v>47</v>
+      <c r="O20" s="18">
+        <v>15</v>
       </c>
       <c r="P20" s="18">
         <v>9</v>
@@ -2207,7 +2204,7 @@
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.70222222222222219</v>
+        <v>0.76888888888888884</v>
       </c>
       <c r="X20"/>
     </row>
@@ -3526,7 +3523,7 @@
       </c>
       <c r="O42" s="30">
         <f t="shared" si="1"/>
-        <v>7.7027027027027026</v>
+        <v>7.8947368421052628</v>
       </c>
       <c r="P42" s="30">
         <f t="shared" si="1"/>
@@ -3558,7 +3555,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.54105263157894723</v>
+        <v>0.54280701754385963</v>
       </c>
       <c r="X42"/>
     </row>
@@ -3620,7 +3617,7 @@
       </c>
       <c r="O43" s="30">
         <f t="shared" si="2"/>
-        <v>5.7680386848798326</v>
+        <v>5.8114029272569203</v>
       </c>
       <c r="P43" s="30">
         <f t="shared" si="2"/>
@@ -3652,7 +3649,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.20614952692648508</v>
+        <v>0.20783497740749596</v>
       </c>
       <c r="X43"/>
     </row>
@@ -7124,7 +7121,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.70222222222222219</v>
+        <v>0.76888888888888884</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
@@ -7140,7 +7137,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>3.4594365079365077</v>
+        <v>3.5261031746031746</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -7824,7 +7821,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.54105263157894723</v>
+        <v>0.54280701754385963</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
@@ -7840,7 +7837,7 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6123890977443609</v>
+        <v>2.6141434837092734</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
@@ -7857,7 +7854,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.20614952692648508</v>
+        <v>0.20783497740749596</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
@@ -7873,7 +7870,7 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0708896075331786</v>
+        <v>1.0723683759262412</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D0126D-4CF4-C644-B14C-DE04B34B764B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A9993-660D-ED42-A459-31C252E11677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1940" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="1940" windowWidth="32920" windowHeight="19260" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
@@ -4134,8 +4134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4208,12 +4208,14 @@
       <c r="H2" s="54">
         <v>96</v>
       </c>
-      <c r="I2" s="52"/>
+      <c r="I2" s="54">
+        <v>89</v>
+      </c>
       <c r="J2" s="52"/>
       <c r="K2" s="52"/>
       <c r="L2" s="34">
         <f>IF(SUM($B$45:$I$45)&gt;0,1.5*(B2/$B$41+C2/$C$41+D2/$D$41+E2/$E$41+F2/$F$41+G2/$G$41+H2/$H$41+I2/$I$41+J2/$J$41+K2/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>1.2342857142857144</v>
+        <v>1.2468750000000002</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4241,12 +4243,14 @@
       <c r="H3" s="54">
         <v>56</v>
       </c>
-      <c r="I3" s="52"/>
+      <c r="I3" s="54">
+        <v>0</v>
+      </c>
       <c r="J3" s="52"/>
       <c r="K3" s="52"/>
       <c r="L3" s="34">
         <f t="shared" ref="L3:L39" si="0">IF(SUM($B$45:$I$45)&gt;0,1.5*(B3/$B$41+C3/$C$41+D3/$D$41+E3/$E$41+F3/$F$41+G3/$G$41+H3/$H$41+I3/$I$41+J3/$J$41+K3/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>0.69107142857142867</v>
+        <v>0.60468750000000004</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4274,12 +4278,14 @@
       <c r="H4" s="54">
         <v>97.5</v>
       </c>
-      <c r="I4" s="52"/>
+      <c r="I4" s="54">
+        <v>94</v>
+      </c>
       <c r="J4" s="52"/>
       <c r="K4" s="52"/>
       <c r="L4" s="34">
         <f t="shared" si="0"/>
-        <v>1.195714285714286</v>
+        <v>1.2224999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4307,12 +4313,14 @@
       <c r="H5" s="54">
         <v>76.5</v>
       </c>
-      <c r="I5" s="52"/>
+      <c r="I5" s="54">
+        <v>42</v>
+      </c>
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
       <c r="L5" s="34">
         <f t="shared" si="0"/>
-        <v>0.93214285714285705</v>
+        <v>0.89437499999999992</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4340,12 +4348,14 @@
       <c r="H6" s="54">
         <v>99.5</v>
       </c>
-      <c r="I6" s="52"/>
+      <c r="I6" s="54">
+        <v>95</v>
+      </c>
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
       <c r="L6" s="34">
         <f t="shared" si="0"/>
-        <v>1.1871428571428573</v>
+        <v>1.2168749999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4373,12 +4383,14 @@
       <c r="H7" s="54">
         <v>83.5</v>
       </c>
-      <c r="I7" s="52"/>
+      <c r="I7" s="54">
+        <v>80</v>
+      </c>
       <c r="J7" s="52"/>
       <c r="K7" s="52"/>
       <c r="L7" s="34">
         <f t="shared" si="0"/>
-        <v>0.30321428571428571</v>
+        <v>0.41531249999999997</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4406,12 +4418,14 @@
       <c r="H8" s="54">
         <v>99</v>
       </c>
-      <c r="I8" s="52"/>
+      <c r="I8" s="54">
+        <v>78</v>
+      </c>
       <c r="J8" s="52"/>
       <c r="K8" s="52"/>
       <c r="L8" s="34">
         <f t="shared" si="0"/>
-        <v>1.3210714285714287</v>
+        <v>1.3021875000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4439,12 +4453,14 @@
       <c r="H9" s="54">
         <v>99.5</v>
       </c>
-      <c r="I9" s="52"/>
+      <c r="I9" s="54">
+        <v>100</v>
+      </c>
       <c r="J9" s="52"/>
       <c r="K9" s="52"/>
       <c r="L9" s="34">
         <f t="shared" si="0"/>
-        <v>1.4475</v>
+        <v>1.4540625</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4472,12 +4488,14 @@
       <c r="H10" s="54">
         <v>96</v>
       </c>
-      <c r="I10" s="52"/>
+      <c r="I10" s="54">
+        <v>47</v>
+      </c>
       <c r="J10" s="52"/>
       <c r="K10" s="52"/>
       <c r="L10" s="34">
         <f t="shared" si="0"/>
-        <v>1.285714285714286</v>
+        <v>1.2131250000000002</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4505,12 +4523,14 @@
       <c r="H11" s="54">
         <v>28.5</v>
       </c>
-      <c r="I11" s="52"/>
+      <c r="I11" s="54">
+        <v>53</v>
+      </c>
       <c r="J11" s="52"/>
       <c r="K11" s="52"/>
       <c r="L11" s="34">
         <f t="shared" si="0"/>
-        <v>0.2946428571428571</v>
+        <v>0.35718749999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4538,12 +4558,14 @@
       <c r="H12" s="54">
         <v>41</v>
       </c>
-      <c r="I12" s="52"/>
+      <c r="I12" s="54">
+        <v>10</v>
+      </c>
       <c r="J12" s="52"/>
       <c r="K12" s="52"/>
       <c r="L12" s="34">
         <f t="shared" si="0"/>
-        <v>0.54</v>
+        <v>0.49125000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4571,12 +4593,14 @@
       <c r="H13" s="54">
         <v>90</v>
       </c>
-      <c r="I13" s="52"/>
+      <c r="I13" s="54">
+        <v>96</v>
+      </c>
       <c r="J13" s="52"/>
       <c r="K13" s="52"/>
       <c r="L13" s="34">
         <f t="shared" si="0"/>
-        <v>1.4078571428571429</v>
+        <v>1.411875</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4604,12 +4628,14 @@
       <c r="H14" s="54">
         <v>92</v>
       </c>
-      <c r="I14" s="52"/>
+      <c r="I14" s="54">
+        <v>88</v>
+      </c>
       <c r="J14" s="52"/>
       <c r="K14" s="52"/>
       <c r="L14" s="34">
         <f t="shared" si="0"/>
-        <v>1.2449999999999999</v>
+        <v>1.254375</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4637,12 +4663,14 @@
       <c r="H15" s="54">
         <v>0</v>
       </c>
-      <c r="I15" s="52"/>
+      <c r="I15" s="54">
+        <v>0</v>
+      </c>
       <c r="J15" s="52"/>
       <c r="K15" s="52"/>
       <c r="L15" s="34">
         <f t="shared" si="0"/>
-        <v>7.6071428571428568E-2</v>
+        <v>6.6562499999999997E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4670,12 +4698,14 @@
       <c r="H16" s="54">
         <v>98.5</v>
       </c>
-      <c r="I16" s="52"/>
+      <c r="I16" s="54">
+        <v>94</v>
+      </c>
       <c r="J16" s="52"/>
       <c r="K16" s="52"/>
       <c r="L16" s="34">
         <f t="shared" si="0"/>
-        <v>1.4217857142857144</v>
+        <v>1.4203124999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4703,12 +4733,14 @@
       <c r="H17" s="54">
         <v>94</v>
       </c>
-      <c r="I17" s="52"/>
+      <c r="I17" s="54">
+        <v>93</v>
+      </c>
       <c r="J17" s="52"/>
       <c r="K17" s="52"/>
       <c r="L17" s="34">
         <f t="shared" si="0"/>
-        <v>1.2407142857142854</v>
+        <v>1.2599999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4736,12 +4768,14 @@
       <c r="H18" s="54">
         <v>39</v>
       </c>
-      <c r="I18" s="52"/>
+      <c r="I18" s="54">
+        <v>67</v>
+      </c>
       <c r="J18" s="52"/>
       <c r="K18" s="52"/>
       <c r="L18" s="34">
         <f t="shared" si="0"/>
-        <v>0.82928571428571429</v>
+        <v>0.85125000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4769,12 +4803,14 @@
       <c r="H19" s="54">
         <v>98.5</v>
       </c>
-      <c r="I19" s="52"/>
+      <c r="I19" s="54">
+        <v>100</v>
+      </c>
       <c r="J19" s="52"/>
       <c r="K19" s="52"/>
       <c r="L19" s="34">
         <f t="shared" si="0"/>
-        <v>1.2932142857142854</v>
+        <v>1.3190624999999998</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4802,12 +4838,14 @@
       <c r="H20" s="54">
         <v>99.5</v>
       </c>
-      <c r="I20" s="52"/>
+      <c r="I20" s="54">
+        <v>100</v>
+      </c>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
       <c r="L20" s="34">
         <f t="shared" si="0"/>
-        <v>1.2932142857142856</v>
+        <v>1.3190625</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4835,12 +4873,14 @@
       <c r="H21" s="54">
         <v>0</v>
       </c>
-      <c r="I21" s="52"/>
+      <c r="I21" s="54">
+        <v>0</v>
+      </c>
       <c r="J21" s="52"/>
       <c r="K21" s="52"/>
       <c r="L21" s="34">
         <f t="shared" si="0"/>
-        <v>0.52392857142857141</v>
+        <v>0.45843749999999994</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4868,12 +4908,14 @@
       <c r="H22" s="54">
         <v>99.5</v>
       </c>
-      <c r="I22" s="52"/>
+      <c r="I22" s="54">
+        <v>93</v>
+      </c>
       <c r="J22" s="52"/>
       <c r="K22" s="52"/>
       <c r="L22" s="34">
         <f t="shared" si="0"/>
-        <v>1.4024999999999999</v>
+        <v>1.4015624999999998</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4901,12 +4943,14 @@
       <c r="H23" s="54">
         <v>77.5</v>
       </c>
-      <c r="I23" s="52"/>
+      <c r="I23" s="54">
+        <v>90</v>
+      </c>
       <c r="J23" s="52"/>
       <c r="K23" s="52"/>
       <c r="L23" s="34">
         <f t="shared" si="0"/>
-        <v>1.1999999999999997</v>
+        <v>1.21875</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4934,12 +4978,14 @@
       <c r="H24" s="54">
         <v>50</v>
       </c>
-      <c r="I24" s="52"/>
+      <c r="I24" s="54">
+        <v>0</v>
+      </c>
       <c r="J24" s="52"/>
       <c r="K24" s="52"/>
       <c r="L24" s="34">
         <f t="shared" si="0"/>
-        <v>0.63535714285714284</v>
+        <v>0.55593749999999997</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4967,12 +5013,14 @@
       <c r="H25" s="54">
         <v>51</v>
       </c>
-      <c r="I25" s="52"/>
+      <c r="I25" s="54">
+        <v>61</v>
+      </c>
       <c r="J25" s="52"/>
       <c r="K25" s="52"/>
       <c r="L25" s="34">
         <f t="shared" si="0"/>
-        <v>0.94071428571428561</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5000,12 +5048,14 @@
       <c r="H26" s="54">
         <v>69.5</v>
       </c>
-      <c r="I26" s="52"/>
+      <c r="I26" s="54">
+        <v>71</v>
+      </c>
       <c r="J26" s="52"/>
       <c r="K26" s="52"/>
       <c r="L26" s="34">
         <f t="shared" si="0"/>
-        <v>0.77357142857142858</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5033,12 +5083,14 @@
       <c r="H27" s="54">
         <v>67.5</v>
       </c>
-      <c r="I27" s="52"/>
+      <c r="I27" s="54">
+        <v>75</v>
+      </c>
       <c r="J27" s="52"/>
       <c r="K27" s="52"/>
       <c r="L27" s="34">
         <f t="shared" si="0"/>
-        <v>0.92892857142857133</v>
+        <v>0.95343749999999994</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5066,12 +5118,14 @@
       <c r="H28" s="54">
         <v>67.5</v>
       </c>
-      <c r="I28" s="52"/>
+      <c r="I28" s="54">
+        <v>70</v>
+      </c>
       <c r="J28" s="52"/>
       <c r="K28" s="52"/>
       <c r="L28" s="34">
         <f t="shared" si="0"/>
-        <v>0.68035714285714277</v>
+        <v>0.7265625</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5099,12 +5153,14 @@
       <c r="H29" s="54">
         <v>0</v>
       </c>
-      <c r="I29" s="52"/>
+      <c r="I29" s="54">
+        <v>0</v>
+      </c>
       <c r="J29" s="52"/>
       <c r="K29" s="52"/>
       <c r="L29" s="34">
         <f t="shared" si="0"/>
-        <v>0.49607142857142861</v>
+        <v>0.43406250000000002</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5132,12 +5188,14 @@
       <c r="H30" s="54">
         <v>67.5</v>
       </c>
-      <c r="I30" s="52"/>
+      <c r="I30" s="54">
+        <v>82</v>
+      </c>
       <c r="J30" s="52"/>
       <c r="K30" s="52"/>
       <c r="L30" s="34">
         <f t="shared" si="0"/>
-        <v>1.0264285714285715</v>
+        <v>1.0518750000000001</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5165,12 +5223,14 @@
       <c r="H31" s="54">
         <v>78.5</v>
       </c>
-      <c r="I31" s="52"/>
+      <c r="I31" s="54">
+        <v>77</v>
+      </c>
       <c r="J31" s="52"/>
       <c r="K31" s="52"/>
       <c r="L31" s="34">
         <f t="shared" si="0"/>
-        <v>1.2428571428571427</v>
+        <v>1.2318750000000001</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5198,12 +5258,14 @@
       <c r="H32" s="54">
         <v>96.5</v>
       </c>
-      <c r="I32" s="52"/>
+      <c r="I32" s="54">
+        <v>98</v>
+      </c>
       <c r="J32" s="52"/>
       <c r="K32" s="52"/>
       <c r="L32" s="34">
         <f t="shared" si="0"/>
-        <v>1.2546428571428569</v>
+        <v>1.2815624999999997</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5231,12 +5293,14 @@
       <c r="H33" s="54">
         <v>67</v>
       </c>
-      <c r="I33" s="52"/>
+      <c r="I33" s="54">
+        <v>83</v>
+      </c>
       <c r="J33" s="52"/>
       <c r="K33" s="52"/>
       <c r="L33" s="34">
         <f t="shared" si="0"/>
-        <v>0.78857142857142848</v>
+        <v>0.84562499999999996</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5264,12 +5328,14 @@
       <c r="H34" s="54">
         <v>0</v>
       </c>
-      <c r="I34" s="52"/>
+      <c r="I34" s="54">
+        <v>0</v>
+      </c>
       <c r="J34" s="52"/>
       <c r="K34" s="52"/>
       <c r="L34" s="34">
         <f t="shared" si="0"/>
-        <v>0.21214285714285713</v>
+        <v>0.18562499999999998</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5297,12 +5363,14 @@
       <c r="H35" s="54">
         <v>99.5</v>
       </c>
-      <c r="I35" s="52"/>
+      <c r="I35" s="54">
+        <v>84</v>
+      </c>
       <c r="J35" s="52"/>
       <c r="K35" s="52"/>
       <c r="L35" s="34">
         <f t="shared" si="0"/>
-        <v>1.4207142857142858</v>
+        <v>1.400625</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5330,12 +5398,14 @@
       <c r="H36" s="54">
         <v>81</v>
       </c>
-      <c r="I36" s="52"/>
+      <c r="I36" s="54">
+        <v>82</v>
+      </c>
       <c r="J36" s="52"/>
       <c r="K36" s="52"/>
       <c r="L36" s="34">
         <f t="shared" si="0"/>
-        <v>0.9910714285714286</v>
+        <v>1.0209375000000001</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5363,12 +5433,14 @@
       <c r="H37" s="54">
         <v>60</v>
       </c>
-      <c r="I37" s="52"/>
+      <c r="I37" s="54">
+        <v>65</v>
+      </c>
       <c r="J37" s="52"/>
       <c r="K37" s="52"/>
       <c r="L37" s="34">
         <f t="shared" si="0"/>
-        <v>0.68035714285714288</v>
+        <v>0.71718750000000009</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5396,12 +5468,14 @@
       <c r="H38" s="54">
         <v>21</v>
       </c>
-      <c r="I38" s="52"/>
+      <c r="I38" s="54">
+        <v>84</v>
+      </c>
       <c r="J38" s="52"/>
       <c r="K38" s="52"/>
       <c r="L38" s="34">
         <f t="shared" si="0"/>
-        <v>0.43928571428571422</v>
+        <v>0.54187499999999988</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5429,12 +5503,14 @@
       <c r="H39" s="54">
         <v>43.5</v>
       </c>
-      <c r="I39" s="52"/>
+      <c r="I39" s="54">
+        <v>67</v>
+      </c>
       <c r="J39" s="52"/>
       <c r="K39" s="52"/>
       <c r="L39" s="34">
         <f t="shared" si="0"/>
-        <v>0.71464285714285702</v>
+        <v>0.75093750000000004</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5520,9 +5596,9 @@
         <f t="shared" si="1"/>
         <v>67.934210526315795</v>
       </c>
-      <c r="I42" s="30" t="e">
+      <c r="I42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>66</v>
       </c>
       <c r="J42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -5534,7 +5610,7 @@
       </c>
       <c r="L42" s="30">
         <f t="shared" si="1"/>
-        <v>0.93662593984962406</v>
+        <v>0.94329769736842084</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5569,9 +5645,9 @@
         <f t="shared" si="2"/>
         <v>32.345928156087979</v>
       </c>
-      <c r="I43" s="30" t="e">
+      <c r="I43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>34.203682431748369</v>
       </c>
       <c r="J43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -5583,7 +5659,7 @@
       </c>
       <c r="L43" s="30">
         <f t="shared" si="2"/>
-        <v>0.3895527200344181</v>
+        <v>0.38930324824622492</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5618,9 +5694,9 @@
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="I44" s="30" t="e">
+      <c r="I44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>79</v>
       </c>
       <c r="J44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -5632,7 +5708,7 @@
       </c>
       <c r="L44" s="30">
         <f t="shared" si="3"/>
-        <v>0.96589285714285711</v>
+        <v>0.9871875</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5669,7 +5745,7 @@
       </c>
       <c r="I45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="33">
         <f t="shared" ref="J45:K45" si="5">IF(SUM(J2:J39)&gt;0,1,0)</f>
@@ -6530,7 +6606,7 @@
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
-        <v>1.2342857142857144</v>
+        <v>1.2468750000000002</v>
       </c>
       <c r="D2" s="43">
         <f>Exams!B2</f>
@@ -6542,7 +6618,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>2.7720634920634923</v>
+        <v>2.7846527777777781</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -6564,7 +6640,7 @@
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
-        <v>0.69107142857142867</v>
+        <v>0.60468750000000004</v>
       </c>
       <c r="D3" s="43">
         <f>Exams!B3</f>
@@ -6576,7 +6652,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.9990714285714288</v>
+        <v>1.9126875000000001</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6597,7 +6673,7 @@
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
-        <v>1.195714285714286</v>
+        <v>1.2224999999999999</v>
       </c>
       <c r="D4" s="43">
         <f>Exams!B4</f>
@@ -6609,7 +6685,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.8632698412698416</v>
+        <v>2.8900555555555556</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -6630,7 +6706,7 @@
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
-        <v>0.93214285714285705</v>
+        <v>0.89437499999999992</v>
       </c>
       <c r="D5" s="43">
         <f>Exams!B5</f>
@@ -6642,7 +6718,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>2.7983650793650794</v>
+        <v>2.7605972222222221</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -6663,7 +6739,7 @@
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
-        <v>1.1871428571428573</v>
+        <v>1.2168749999999999</v>
       </c>
       <c r="D6" s="43">
         <f>Exams!B6</f>
@@ -6675,7 +6751,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>2.8262539682539685</v>
+        <v>2.8559861111111111</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -6696,7 +6772,7 @@
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
-        <v>0.30321428571428571</v>
+        <v>0.41531249999999997</v>
       </c>
       <c r="D7" s="43">
         <f>Exams!B7</f>
@@ -6708,7 +6784,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>1.9432142857142858</v>
+        <v>2.0553125000000003</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -6729,7 +6805,7 @@
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
-        <v>1.3210714285714287</v>
+        <v>1.3021875000000001</v>
       </c>
       <c r="D8" s="43">
         <f>Exams!B8</f>
@@ -6741,7 +6817,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>3.0215158730158733</v>
+        <v>3.0026319444444445</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -6762,7 +6838,7 @@
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
-        <v>1.4475</v>
+        <v>1.4540625</v>
       </c>
       <c r="D9" s="43">
         <f>Exams!B9</f>
@@ -6774,7 +6850,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>3.4590555555555556</v>
+        <v>3.4656180555555558</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -6795,7 +6871,7 @@
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
-        <v>1.285714285714286</v>
+        <v>1.2131250000000002</v>
       </c>
       <c r="D10" s="43">
         <f>Exams!B10</f>
@@ -6807,7 +6883,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>2.1603809523809527</v>
+        <v>2.0877916666666669</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -6828,7 +6904,7 @@
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
-        <v>0.2946428571428571</v>
+        <v>0.35718749999999999</v>
       </c>
       <c r="D11" s="43">
         <f>Exams!B11</f>
@@ -6840,7 +6916,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.5101984126984127</v>
+        <v>1.5727430555555557</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -6861,7 +6937,7 @@
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
-        <v>0.54</v>
+        <v>0.49125000000000002</v>
       </c>
       <c r="D12" s="43">
         <f>Exams!B12</f>
@@ -6873,7 +6949,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>2.1755555555555555</v>
+        <v>2.1268055555555554</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -6894,7 +6970,7 @@
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
-        <v>1.4078571428571429</v>
+        <v>1.411875</v>
       </c>
       <c r="D13" s="43">
         <f>Exams!B13</f>
@@ -6906,7 +6982,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>5.0878571428571426</v>
+        <v>5.0918749999999999</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -6927,7 +7003,7 @@
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
-        <v>1.2449999999999999</v>
+        <v>1.254375</v>
       </c>
       <c r="D14" s="43">
         <f>Exams!B14</f>
@@ -6939,7 +7015,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>3.3183333333333334</v>
+        <v>3.3277083333333337</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -6960,7 +7036,7 @@
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
-        <v>7.6071428571428568E-2</v>
+        <v>6.6562499999999997E-2</v>
       </c>
       <c r="D15" s="43">
         <f>Exams!B15</f>
@@ -6972,7 +7048,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.13384920634920633</v>
+        <v>0.12434027777777777</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -6993,7 +7069,7 @@
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
-        <v>1.4217857142857144</v>
+        <v>1.4203124999999999</v>
       </c>
       <c r="D16" s="43">
         <f>Exams!B16</f>
@@ -7005,7 +7081,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>4.6484523809523814</v>
+        <v>4.6469791666666671</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -7026,7 +7102,7 @@
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
-        <v>1.2407142857142854</v>
+        <v>1.2599999999999998</v>
       </c>
       <c r="D17" s="43">
         <f>Exams!B17</f>
@@ -7038,7 +7114,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>2.4362698412698407</v>
+        <v>2.4555555555555553</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -7059,7 +7135,7 @@
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
-        <v>0.82928571428571429</v>
+        <v>0.85125000000000006</v>
       </c>
       <c r="D18" s="43">
         <f>Exams!B18</f>
@@ -7071,7 +7147,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>2.1598412698412699</v>
+        <v>2.1818055555555556</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -7092,7 +7168,7 @@
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
-        <v>1.2932142857142854</v>
+        <v>1.3190624999999998</v>
       </c>
       <c r="D19" s="43">
         <f>Exams!B19</f>
@@ -7104,7 +7180,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>3.4483253968253962</v>
+        <v>3.4741736111111106</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -7125,7 +7201,7 @@
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
-        <v>1.2932142857142856</v>
+        <v>1.3190625</v>
       </c>
       <c r="D20" s="43">
         <f>Exams!B20</f>
@@ -7137,7 +7213,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>3.5261031746031746</v>
+        <v>3.5519513888888889</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -7158,7 +7234,7 @@
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
-        <v>0.52392857142857141</v>
+        <v>0.45843749999999994</v>
       </c>
       <c r="D21" s="43">
         <f>Exams!B21</f>
@@ -7170,7 +7246,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.5999285714285714</v>
+        <v>1.5344374999999999</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -7191,7 +7267,7 @@
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
-        <v>1.4024999999999999</v>
+        <v>1.4015624999999998</v>
       </c>
       <c r="D22" s="43">
         <f>Exams!B22</f>
@@ -7203,7 +7279,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>4.7469444444444449</v>
+        <v>4.7460069444444439</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
@@ -7224,7 +7300,7 @@
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
-        <v>1.1999999999999997</v>
+        <v>1.21875</v>
       </c>
       <c r="D23" s="43">
         <f>Exams!B23</f>
@@ -7236,7 +7312,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.8639999999999999</v>
+        <v>2.8827499999999997</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -7257,7 +7333,7 @@
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
-        <v>0.63535714285714284</v>
+        <v>0.55593749999999997</v>
       </c>
       <c r="D24" s="43">
         <f>Exams!B24</f>
@@ -7269,7 +7345,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>2.9829126984126981</v>
+        <v>2.9034930555555554</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -7290,7 +7366,7 @@
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
-        <v>0.94071428571428561</v>
+        <v>0.9375</v>
       </c>
       <c r="D25" s="43">
         <f>Exams!B25</f>
@@ -7302,7 +7378,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>2.1527142857142856</v>
+        <v>2.1495000000000002</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -7323,7 +7399,7 @@
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
-        <v>0.77357142857142858</v>
+        <v>0.81</v>
       </c>
       <c r="D26" s="43">
         <f>Exams!B26</f>
@@ -7335,11 +7411,11 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>2.2286825396825396</v>
+        <v>2.2651111111111111</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H26" s="51">
         <f t="shared" ref="H26:H32" si="7">IF(G26&gt;4.75,1,0)</f>
@@ -7356,7 +7432,7 @@
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
-        <v>0.92892857142857133</v>
+        <v>0.95343749999999994</v>
       </c>
       <c r="D27" s="43">
         <f>Exams!B27</f>
@@ -7368,7 +7444,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>2.2209285714285714</v>
+        <v>2.2454375</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -7389,7 +7465,7 @@
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
-        <v>0.68035714285714277</v>
+        <v>0.7265625</v>
       </c>
       <c r="D28" s="43">
         <f>Exams!B28</f>
@@ -7401,7 +7477,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.8025793650793651</v>
+        <v>1.8487847222222222</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -7422,7 +7498,7 @@
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
-        <v>0.49607142857142861</v>
+        <v>0.43406250000000002</v>
       </c>
       <c r="D29" s="43">
         <f>Exams!B29</f>
@@ -7434,7 +7510,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.2178492063492063</v>
+        <v>1.1558402777777779</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -7455,7 +7531,7 @@
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
-        <v>1.0264285714285715</v>
+        <v>1.0518750000000001</v>
       </c>
       <c r="D30" s="43">
         <f>Exams!B30</f>
@@ -7467,7 +7543,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>2.1170952380952381</v>
+        <v>2.1425416666666668</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -7488,7 +7564,7 @@
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
-        <v>1.2428571428571427</v>
+        <v>1.2318750000000001</v>
       </c>
       <c r="D31" s="43">
         <f>Exams!B31</f>
@@ -7500,7 +7576,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>2.3064126984126982</v>
+        <v>2.2954305555555559</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -7521,7 +7597,7 @@
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
-        <v>1.2546428571428569</v>
+        <v>1.2815624999999997</v>
       </c>
       <c r="D32" s="43">
         <f>Exams!B32</f>
@@ -7533,7 +7609,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>3.1768650793650792</v>
+        <v>3.2037847222222222</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -7554,7 +7630,7 @@
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
-        <v>0.78857142857142848</v>
+        <v>0.84562499999999996</v>
       </c>
       <c r="D33" s="43">
         <f>Exams!B33</f>
@@ -7566,7 +7642,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>2.2565714285714287</v>
+        <v>2.313625</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -7587,7 +7663,7 @@
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
-        <v>0.21214285714285713</v>
+        <v>0.18562499999999998</v>
       </c>
       <c r="D34" s="43">
         <f>Exams!B34</f>
@@ -7599,7 +7675,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>2.387253968253968</v>
+        <v>2.3607361111111111</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -7620,7 +7696,7 @@
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
-        <v>1.4207142857142858</v>
+        <v>1.400625</v>
       </c>
       <c r="D35" s="43">
         <f>Exams!B35</f>
@@ -7632,7 +7708,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>5.2389365079365078</v>
+        <v>5.2188472222222222</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -7653,7 +7729,7 @@
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
-        <v>0.9910714285714286</v>
+        <v>1.0209375000000001</v>
       </c>
       <c r="D36" s="43">
         <f>Exams!B36</f>
@@ -7665,7 +7741,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>2.3444047619047623</v>
+        <v>2.3742708333333331</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -7686,7 +7762,7 @@
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
-        <v>0.68035714285714288</v>
+        <v>0.71718750000000009</v>
       </c>
       <c r="D37" s="43">
         <f>Exams!B37</f>
@@ -7698,7 +7774,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>2.8034682539682541</v>
+        <v>2.8402986111111113</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -7719,7 +7795,7 @@
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
-        <v>0.43928571428571422</v>
+        <v>0.54187499999999988</v>
       </c>
       <c r="D38" s="43">
         <f>Exams!B38</f>
@@ -7731,7 +7807,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>0.98328571428571432</v>
+        <v>1.0858749999999999</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -7752,7 +7828,7 @@
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
-        <v>0.71464285714285702</v>
+        <v>0.75093750000000004</v>
       </c>
       <c r="D39" s="43">
         <f>Exams!B39</f>
@@ -7764,7 +7840,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.618642857142857</v>
+        <v>1.6549375</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -7825,7 +7901,7 @@
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
-        <v>0.93662593984962406</v>
+        <v>0.94329769736842084</v>
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
@@ -7837,11 +7913,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6141434837092734</v>
+        <v>2.6208152412280707</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6052631578947367</v>
+        <v>2.6184210526315788</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -7858,7 +7934,7 @@
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
-        <v>0.3895527200344181</v>
+        <v>0.38930324824622492</v>
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
@@ -7870,11 +7946,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0723683759262412</v>
+        <v>1.0692437454034138</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>1.072745245297632</v>
+        <v>1.0681773471433542</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -7891,7 +7967,7 @@
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
-        <v>0.96589285714285711</v>
+        <v>0.9871875</v>
       </c>
       <c r="D44" s="30">
         <f t="shared" si="11"/>
@@ -7903,7 +7979,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>2.3658293650793651</v>
+        <v>2.3675034722222223</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00A9993-660D-ED42-A459-31C252E11677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9085DDCB-137D-664E-9650-99C3AE435903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1940" windowWidth="32920" windowHeight="19260" tabRatio="334" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="1940" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -965,13 +965,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X140"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="5" customWidth="1"/>
     <col min="3" max="22" width="11.83203125" style="6" customWidth="1"/>
     <col min="23" max="23" width="14.83203125" style="6" customWidth="1"/>
@@ -1100,14 +1100,16 @@
       <c r="Q2" s="18">
         <v>6</v>
       </c>
-      <c r="R2" s="18"/>
+      <c r="R2" s="18">
+        <v>3</v>
+      </c>
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.45777777777777778</v>
+        <v>0.44166666666666665</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1161,14 +1163,16 @@
       <c r="Q3" s="18">
         <v>0</v>
       </c>
-      <c r="R3" s="18"/>
+      <c r="R3" s="18">
+        <v>0</v>
+      </c>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="34">
         <f t="shared" si="0"/>
-        <v>0.12</v>
+        <v>0.1125</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1222,14 +1226,16 @@
       <c r="Q4" s="18">
         <v>12</v>
       </c>
-      <c r="R4" s="18"/>
+      <c r="R4" s="18">
+        <v>3</v>
+      </c>
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.51555555555555554</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1283,14 +1289,16 @@
       <c r="Q5" s="18">
         <v>6</v>
       </c>
-      <c r="R5" s="18"/>
+      <c r="R5" s="18">
+        <v>3</v>
+      </c>
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.5822222222222222</v>
+        <v>0.55833333333333335</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1344,14 +1352,16 @@
       <c r="Q6" s="18">
         <v>9</v>
       </c>
-      <c r="R6" s="18"/>
+      <c r="R6" s="18">
+        <v>9</v>
+      </c>
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.51111111111111107</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1405,14 +1415,16 @@
       <c r="Q7" s="18">
         <v>0</v>
       </c>
-      <c r="R7" s="18"/>
+      <c r="R7" s="18">
+        <v>0</v>
+      </c>
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1466,14 +1478,16 @@
       <c r="Q8" s="18">
         <v>5</v>
       </c>
-      <c r="R8" s="18"/>
+      <c r="R8" s="18">
+        <v>3</v>
+      </c>
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.52444444444444449</v>
+        <v>0.50416666666666665</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1527,14 +1541,16 @@
       <c r="Q9" s="18">
         <v>8</v>
       </c>
-      <c r="R9" s="18"/>
+      <c r="R9" s="18">
+        <v>9</v>
+      </c>
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.47555555555555556</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1588,14 +1604,16 @@
       <c r="Q10" s="18">
         <v>4</v>
       </c>
-      <c r="R10" s="18"/>
+      <c r="R10" s="18">
+        <v>15</v>
+      </c>
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1649,14 +1667,16 @@
       <c r="Q11" s="18">
         <v>0</v>
       </c>
-      <c r="R11" s="18"/>
+      <c r="R11" s="18">
+        <v>0</v>
+      </c>
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.19555555555555557</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1710,14 +1730,16 @@
       <c r="Q12" s="18">
         <v>9</v>
       </c>
-      <c r="R12" s="18"/>
+      <c r="R12" s="18">
+        <v>9</v>
+      </c>
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.55555555555555558</v>
+        <v>0.55833333333333335</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1771,14 +1793,16 @@
       <c r="Q13" s="18">
         <v>15</v>
       </c>
-      <c r="R13" s="18"/>
+      <c r="R13" s="18">
+        <v>15</v>
+      </c>
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>0.92</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1832,14 +1856,16 @@
       <c r="Q14" s="18">
         <v>12</v>
       </c>
-      <c r="R14" s="18"/>
+      <c r="R14" s="18">
+        <v>15</v>
+      </c>
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.81333333333333335</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1892,14 +1918,16 @@
       <c r="Q15" s="18">
         <v>0</v>
       </c>
-      <c r="R15" s="18"/>
+      <c r="R15" s="18">
+        <v>0</v>
+      </c>
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>5.7777777777777775E-2</v>
+        <v>5.4166666666666669E-2</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1953,14 +1981,16 @@
       <c r="Q16" s="18">
         <v>15</v>
       </c>
-      <c r="R16" s="18"/>
+      <c r="R16" s="18">
+        <v>15</v>
+      </c>
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
       <c r="U16" s="18"/>
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>0.82666666666666666</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="X16"/>
     </row>
@@ -2014,14 +2044,16 @@
       <c r="Q17" s="18">
         <v>6</v>
       </c>
-      <c r="R17" s="18"/>
+      <c r="R17" s="18">
+        <v>12</v>
+      </c>
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.47555555555555556</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="X17"/>
     </row>
@@ -2073,16 +2105,18 @@
         <v>9</v>
       </c>
       <c r="Q18" s="18">
-        <v>0</v>
-      </c>
-      <c r="R18" s="18"/>
+        <v>15</v>
+      </c>
+      <c r="R18" s="18">
+        <v>9</v>
+      </c>
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.47555555555555556</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="X18"/>
     </row>
@@ -2136,14 +2170,16 @@
       <c r="Q19" s="18">
         <v>9</v>
       </c>
-      <c r="R19" s="18"/>
+      <c r="R19" s="18">
+        <v>15</v>
+      </c>
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.75111111111111106</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="X19"/>
     </row>
@@ -2197,14 +2233,16 @@
       <c r="Q20" s="18">
         <v>12</v>
       </c>
-      <c r="R20" s="18"/>
+      <c r="R20" s="18">
+        <v>15</v>
+      </c>
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
       <c r="U20" s="18"/>
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.76888888888888884</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="X20"/>
     </row>
@@ -2258,14 +2296,16 @@
       <c r="Q21" s="18">
         <v>0</v>
       </c>
-      <c r="R21" s="18"/>
+      <c r="R21" s="18">
+        <v>0</v>
+      </c>
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
       <c r="X21"/>
     </row>
@@ -2319,14 +2359,16 @@
       <c r="Q22" s="18">
         <v>13</v>
       </c>
-      <c r="R22" s="18"/>
+      <c r="R22" s="18">
+        <v>15</v>
+      </c>
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
       <c r="U22" s="18"/>
       <c r="V22" s="18"/>
       <c r="W22" s="34">
         <f t="shared" si="0"/>
-        <v>0.88444444444444448</v>
+        <v>0.89166666666666672</v>
       </c>
       <c r="X22"/>
     </row>
@@ -2380,14 +2422,16 @@
       <c r="Q23" s="18">
         <v>12</v>
       </c>
-      <c r="R23" s="18"/>
+      <c r="R23" s="18">
+        <v>15</v>
+      </c>
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="X23"/>
     </row>
@@ -2441,14 +2485,16 @@
       <c r="Q24" s="18">
         <v>11</v>
       </c>
-      <c r="R24" s="18"/>
+      <c r="R24" s="18">
+        <v>12</v>
+      </c>
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.5955555555555555</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="X24"/>
     </row>
@@ -2502,7 +2548,9 @@
       <c r="Q25" s="18">
         <v>0</v>
       </c>
-      <c r="R25" s="18"/>
+      <c r="R25" s="18">
+        <v>9</v>
+      </c>
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
       <c r="U25" s="18"/>
@@ -2563,14 +2611,16 @@
       <c r="Q26" s="18">
         <v>9</v>
       </c>
-      <c r="R26" s="18"/>
+      <c r="R26" s="18">
+        <v>15</v>
+      </c>
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.59111111111111114</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2624,14 +2674,16 @@
       <c r="Q27" s="18">
         <v>9</v>
       </c>
-      <c r="R27" s="18"/>
+      <c r="R27" s="18">
+        <v>12</v>
+      </c>
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2685,14 +2737,16 @@
       <c r="Q28" s="18">
         <v>6</v>
       </c>
-      <c r="R28" s="18"/>
+      <c r="R28" s="18">
+        <v>12</v>
+      </c>
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
       <c r="U28" s="18"/>
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.4622222222222222</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2746,14 +2800,16 @@
       <c r="Q29" s="18">
         <v>4</v>
       </c>
-      <c r="R29" s="18"/>
+      <c r="R29" s="18">
+        <v>3</v>
+      </c>
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.45777777777777778</v>
+        <v>0.44166666666666665</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2807,14 +2863,16 @@
       <c r="Q30" s="18">
         <v>6</v>
       </c>
-      <c r="R30" s="18"/>
+      <c r="R30" s="18">
+        <v>9</v>
+      </c>
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
       <c r="U30" s="18"/>
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2868,14 +2926,16 @@
       <c r="Q31" s="18">
         <v>0</v>
       </c>
-      <c r="R31" s="18"/>
+      <c r="R31" s="18">
+        <v>9</v>
+      </c>
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
       <c r="U31" s="18"/>
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.47555555555555556</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="X31"/>
     </row>
@@ -2929,14 +2989,16 @@
       <c r="Q32" s="18">
         <v>9</v>
       </c>
-      <c r="R32" s="18"/>
+      <c r="R32" s="18">
+        <v>9</v>
+      </c>
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
       <c r="U32" s="18"/>
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.66222222222222227</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="X32"/>
     </row>
@@ -2990,14 +3052,16 @@
       <c r="Q33" s="18">
         <v>6</v>
       </c>
-      <c r="R33" s="18"/>
+      <c r="R33" s="18">
+        <v>9</v>
+      </c>
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
       <c r="U33" s="18"/>
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="X33"/>
     </row>
@@ -3051,14 +3115,16 @@
       <c r="Q34" s="18">
         <v>15</v>
       </c>
-      <c r="R34" s="18"/>
+      <c r="R34" s="18">
+        <v>15</v>
+      </c>
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
       <c r="U34" s="18"/>
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.71111111111111114</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="X34"/>
     </row>
@@ -3112,14 +3178,16 @@
       <c r="Q35" s="18">
         <v>15</v>
       </c>
-      <c r="R35" s="18"/>
+      <c r="R35" s="18">
+        <v>15</v>
+      </c>
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
       <c r="U35" s="18"/>
       <c r="V35" s="18"/>
       <c r="W35" s="34">
         <f t="shared" si="0"/>
-        <v>0.90222222222222226</v>
+        <v>0.90833333333333333</v>
       </c>
       <c r="X35"/>
     </row>
@@ -3173,14 +3241,16 @@
       <c r="Q36" s="18">
         <v>12</v>
       </c>
-      <c r="R36" s="18"/>
+      <c r="R36" s="18">
+        <v>15</v>
+      </c>
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
       <c r="U36" s="18"/>
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.57333333333333336</v>
+        <v>0.6</v>
       </c>
       <c r="X36"/>
     </row>
@@ -3234,14 +3304,16 @@
       <c r="Q37" s="18">
         <v>6</v>
       </c>
-      <c r="R37" s="18"/>
+      <c r="R37" s="18">
+        <v>15</v>
+      </c>
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
       <c r="U37" s="18"/>
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.6711111111111111</v>
+        <v>0.69166666666666665</v>
       </c>
       <c r="X37"/>
     </row>
@@ -3295,14 +3367,16 @@
       <c r="Q38" s="18">
         <v>9</v>
       </c>
-      <c r="R38" s="18"/>
+      <c r="R38" s="18">
+        <v>9</v>
+      </c>
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
       <c r="U38" s="18"/>
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="X38"/>
     </row>
@@ -3356,14 +3430,16 @@
       <c r="Q39" s="18">
         <v>6</v>
       </c>
-      <c r="R39" s="18"/>
+      <c r="R39" s="18">
+        <v>9</v>
+      </c>
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.4</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="X39"/>
     </row>
@@ -3531,11 +3607,11 @@
       </c>
       <c r="Q42" s="30">
         <f t="shared" si="1"/>
-        <v>7.2631578947368425</v>
-      </c>
-      <c r="R42" s="30" t="e">
+        <v>7.6578947368421053</v>
+      </c>
+      <c r="R42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.3947368421052637</v>
       </c>
       <c r="S42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -3555,7 +3631,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.54280701754385963</v>
+        <v>0.54967105263157923</v>
       </c>
       <c r="X42"/>
     </row>
@@ -3625,11 +3701,11 @@
       </c>
       <c r="Q43" s="30">
         <f t="shared" si="2"/>
-        <v>4.8806524293948259</v>
-      </c>
-      <c r="R43" s="30" t="e">
+        <v>4.8839301619144839</v>
+      </c>
+      <c r="R43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.4103977656850981</v>
       </c>
       <c r="S43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -3649,7 +3725,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.20783497740749596</v>
+        <v>0.21233627675149519</v>
       </c>
       <c r="X43"/>
     </row>
@@ -3719,11 +3795,11 @@
       </c>
       <c r="Q44" s="30">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-      <c r="R44" s="30" t="e">
+        <v>8.5</v>
+      </c>
+      <c r="R44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>9</v>
       </c>
       <c r="S44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -3743,7 +3819,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.52</v>
+        <v>0.53125</v>
       </c>
       <c r="X44"/>
     </row>
@@ -3817,7 +3893,7 @@
       </c>
       <c r="R45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" s="33">
         <f t="shared" si="4"/>
@@ -4134,7 +4210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -6602,7 +6678,7 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.45777777777777778</v>
+        <v>0.44166666666666665</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
@@ -6618,7 +6694,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>2.7846527777777781</v>
+        <v>2.7685416666666667</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -6636,7 +6712,7 @@
       </c>
       <c r="B3" s="34">
         <f>Quiz!W3</f>
-        <v>0.12</v>
+        <v>0.1125</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
@@ -6652,7 +6728,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.9126875000000001</v>
+        <v>1.9051875000000003</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6669,7 +6745,7 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.51555555555555554</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
@@ -6685,7 +6761,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.8900555555555556</v>
+        <v>2.8703333333333334</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -6702,7 +6778,7 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.5822222222222222</v>
+        <v>0.55833333333333335</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
@@ -6718,11 +6794,11 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>2.7605972222222221</v>
+        <v>2.7367083333333335</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="H5" s="51">
         <f t="shared" si="2"/>
@@ -6735,7 +6811,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.51111111111111107</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
@@ -6751,7 +6827,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>2.8559861111111111</v>
+        <v>2.8615416666666667</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -6768,7 +6844,7 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.44</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
@@ -6784,7 +6860,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>2.0553125000000003</v>
+        <v>2.0278125</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -6801,7 +6877,7 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.52444444444444449</v>
+        <v>0.50416666666666665</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
@@ -6817,7 +6893,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>3.0026319444444445</v>
+        <v>2.9823541666666671</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -6834,7 +6910,7 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.47555555555555556</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
@@ -6850,7 +6926,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>3.4656180555555558</v>
+        <v>3.4733958333333335</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -6867,7 +6943,7 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.46666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
@@ -6883,7 +6959,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>2.0877916666666669</v>
+        <v>2.1211250000000001</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -6900,7 +6976,7 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.19555555555555557</v>
+        <v>0.18333333333333332</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
@@ -6916,7 +6992,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.5727430555555557</v>
+        <v>1.5605208333333334</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -6933,7 +7009,7 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.55555555555555558</v>
+        <v>0.55833333333333335</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
@@ -6949,7 +7025,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>2.1268055555555554</v>
+        <v>2.1295833333333336</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -6966,7 +7042,7 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>0.92</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
@@ -6982,7 +7058,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>5.0918749999999999</v>
+        <v>5.0968750000000007</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -6999,7 +7075,7 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.81333333333333335</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
@@ -7015,7 +7091,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>3.3277083333333337</v>
+        <v>3.3393749999999995</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -7032,7 +7108,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>5.7777777777777775E-2</v>
+        <v>5.4166666666666669E-2</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
@@ -7048,7 +7124,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.12434027777777777</v>
+        <v>0.12072916666666667</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -7065,7 +7141,7 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>0.82666666666666666</v>
+        <v>0.83750000000000002</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
@@ -7081,7 +7157,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>4.6469791666666671</v>
+        <v>4.6578125000000004</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -7098,7 +7174,7 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.47555555555555556</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
@@ -7114,7 +7190,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>2.4555555555555553</v>
+        <v>2.4758333333333331</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -7131,7 +7207,7 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.47555555555555556</v>
+        <v>0.54583333333333328</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
@@ -7147,11 +7223,11 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>2.1818055555555556</v>
+        <v>2.2520833333333332</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H18" s="51">
         <f t="shared" si="2"/>
@@ -7164,7 +7240,7 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.75111111111111106</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
@@ -7180,7 +7256,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>3.4741736111111106</v>
+        <v>3.4897291666666668</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -7197,7 +7273,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.76888888888888884</v>
+        <v>0.78333333333333333</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
@@ -7213,7 +7289,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>3.5519513888888889</v>
+        <v>3.5663958333333334</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -7230,7 +7306,7 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.2</v>
+        <v>0.1875</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
@@ -7246,7 +7322,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.5344374999999999</v>
+        <v>1.5219374999999999</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -7263,7 +7339,7 @@
       </c>
       <c r="B22" s="34">
         <f>Quiz!W22</f>
-        <v>0.88444444444444448</v>
+        <v>0.89166666666666672</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
@@ -7279,15 +7355,15 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>4.7460069444444439</v>
+        <v>4.7532291666666664</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H22" s="51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7296,7 +7372,7 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
@@ -7312,7 +7388,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.8827499999999997</v>
+        <v>2.8952499999999999</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -7329,7 +7405,7 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.5955555555555555</v>
+        <v>0.60833333333333328</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
@@ -7345,7 +7421,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>2.9034930555555554</v>
+        <v>2.9162708333333329</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -7395,7 +7471,7 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.59111111111111114</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
@@ -7411,7 +7487,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>2.2651111111111111</v>
+        <v>2.2906666666666666</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -7428,7 +7504,7 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.56000000000000005</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
@@ -7444,11 +7520,11 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>2.2454375</v>
+        <v>2.2604375000000001</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H27" s="51">
         <f t="shared" si="7"/>
@@ -7461,7 +7537,7 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.4622222222222222</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
@@ -7477,7 +7553,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.8487847222222222</v>
+        <v>1.8698958333333335</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -7494,7 +7570,7 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.45777777777777778</v>
+        <v>0.44166666666666665</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
@@ -7510,7 +7586,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.1558402777777779</v>
+        <v>1.1397291666666667</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -7527,7 +7603,7 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.46666666666666667</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
@@ -7543,7 +7619,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>2.1425416666666668</v>
+        <v>2.1508750000000001</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -7560,7 +7636,7 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.47555555555555556</v>
+        <v>0.48333333333333334</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
@@ -7576,7 +7652,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>2.2954305555555559</v>
+        <v>2.3032083333333335</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -7593,7 +7669,7 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.66222222222222227</v>
+        <v>0.65833333333333333</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
@@ -7609,7 +7685,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>3.2037847222222222</v>
+        <v>3.1998958333333327</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -7626,7 +7702,7 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.4</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
@@ -7642,7 +7718,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>2.313625</v>
+        <v>2.3261250000000002</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -7659,7 +7735,7 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.71111111111111114</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
@@ -7675,7 +7751,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>2.3607361111111111</v>
+        <v>2.3787916666666664</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -7692,7 +7768,7 @@
       </c>
       <c r="B35" s="34">
         <f>Quiz!W35</f>
-        <v>0.90222222222222226</v>
+        <v>0.90833333333333333</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
@@ -7708,7 +7784,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>5.2188472222222222</v>
+        <v>5.2249583333333334</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -7725,7 +7801,7 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.57333333333333336</v>
+        <v>0.6</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
@@ -7741,7 +7817,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>2.3742708333333331</v>
+        <v>2.4009375000000004</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -7758,7 +7834,7 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.6711111111111111</v>
+        <v>0.69166666666666665</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
@@ -7774,7 +7850,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>2.8402986111111113</v>
+        <v>2.8608541666666669</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -7791,7 +7867,7 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
@@ -7807,7 +7883,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>1.0858749999999999</v>
+        <v>1.1058749999999999</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -7824,7 +7900,7 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.4</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
@@ -7840,7 +7916,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.6549375</v>
+        <v>1.6674375000000001</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -7888,7 +7964,7 @@
       </c>
       <c r="H41" s="40">
         <f>SUM(H2:H33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7897,7 +7973,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.54280701754385963</v>
+        <v>0.54967105263157923</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
@@ -7913,15 +7989,15 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6208152412280707</v>
+        <v>2.6276792763157895</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6184210526315788</v>
+        <v>2.6447368421052633</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
-        <v>5.2631578947368418E-2</v>
+        <v>7.8947368421052627E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7930,7 +8006,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.20783497740749596</v>
+        <v>0.21233627675149519</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
@@ -7946,15 +8022,15 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0692437454034138</v>
+        <v>1.0701500751467559</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0681773471433542</v>
+        <v>1.0837116821172159</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
-        <v>0.22629428592141426</v>
+        <v>0.27327631273309388</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7963,7 +8039,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.52</v>
+        <v>0.53125</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
@@ -7979,7 +8055,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>2.3675034722222223</v>
+        <v>2.3898645833333334</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9085DDCB-137D-664E-9650-99C3AE435903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73C7D39-B3D1-B34E-9D70-165481F98CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="1940" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1103,13 +1103,15 @@
       <c r="R2" s="18">
         <v>3</v>
       </c>
-      <c r="S2" s="18"/>
+      <c r="S2" s="18">
+        <v>9</v>
+      </c>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.44166666666666665</v>
+        <v>0.45098039215686275</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1166,13 +1168,15 @@
       <c r="R3" s="18">
         <v>0</v>
       </c>
-      <c r="S3" s="18"/>
+      <c r="S3" s="18">
+        <v>0</v>
+      </c>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="34">
         <f t="shared" si="0"/>
-        <v>0.1125</v>
+        <v>0.10588235294117647</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1229,13 +1233,15 @@
       <c r="R4" s="18">
         <v>3</v>
       </c>
-      <c r="S4" s="18"/>
+      <c r="S4" s="18">
+        <v>9</v>
+      </c>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.49583333333333335</v>
+        <v>0.50196078431372548</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1292,13 +1298,15 @@
       <c r="R5" s="18">
         <v>3</v>
       </c>
-      <c r="S5" s="18"/>
+      <c r="S5" s="18">
+        <v>0</v>
+      </c>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.55833333333333335</v>
+        <v>0.52549019607843139</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1355,13 +1363,15 @@
       <c r="R6" s="18">
         <v>9</v>
       </c>
-      <c r="S6" s="18"/>
+      <c r="S6" s="18">
+        <v>9</v>
+      </c>
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.51666666666666672</v>
+        <v>0.52156862745098043</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1418,13 +1428,15 @@
       <c r="R7" s="18">
         <v>0</v>
       </c>
-      <c r="S7" s="18"/>
+      <c r="S7" s="18">
+        <v>0</v>
+      </c>
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.41249999999999998</v>
+        <v>0.38823529411764707</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1481,13 +1493,15 @@
       <c r="R8" s="18">
         <v>3</v>
       </c>
-      <c r="S8" s="18"/>
+      <c r="S8" s="18">
+        <v>3</v>
+      </c>
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.50416666666666665</v>
+        <v>0.48627450980392156</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1544,13 +1558,15 @@
       <c r="R9" s="18">
         <v>9</v>
       </c>
-      <c r="S9" s="18"/>
+      <c r="S9" s="18">
+        <v>9</v>
+      </c>
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.48333333333333334</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1607,13 +1623,15 @@
       <c r="R10" s="18">
         <v>15</v>
       </c>
-      <c r="S10" s="18"/>
+      <c r="S10" s="18">
+        <v>3</v>
+      </c>
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1670,13 +1688,15 @@
       <c r="R11" s="18">
         <v>0</v>
       </c>
-      <c r="S11" s="18"/>
+      <c r="S11" s="18">
+        <v>0</v>
+      </c>
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.18333333333333332</v>
+        <v>0.17254901960784313</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1733,13 +1753,15 @@
       <c r="R12" s="18">
         <v>9</v>
       </c>
-      <c r="S12" s="18"/>
+      <c r="S12" s="18">
+        <v>3</v>
+      </c>
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.55833333333333335</v>
+        <v>0.53725490196078429</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1796,13 +1818,15 @@
       <c r="R13" s="18">
         <v>15</v>
       </c>
-      <c r="S13" s="18"/>
+      <c r="S13" s="18">
+        <v>15</v>
+      </c>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>0.92500000000000004</v>
+        <v>0.92941176470588238</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1859,13 +1883,15 @@
       <c r="R14" s="18">
         <v>15</v>
       </c>
-      <c r="S14" s="18"/>
+      <c r="S14" s="18">
+        <v>15</v>
+      </c>
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.82499999999999996</v>
+        <v>0.83529411764705885</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1921,13 +1947,15 @@
       <c r="R15" s="18">
         <v>0</v>
       </c>
-      <c r="S15" s="18"/>
+      <c r="S15" s="18">
+        <v>0</v>
+      </c>
       <c r="T15" s="18"/>
       <c r="U15" s="18"/>
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>5.4166666666666669E-2</v>
+        <v>5.0980392156862744E-2</v>
       </c>
       <c r="X15"/>
     </row>
@@ -1984,13 +2012,15 @@
       <c r="R16" s="18">
         <v>15</v>
       </c>
-      <c r="S16" s="18"/>
+      <c r="S16" s="18">
+        <v>15</v>
+      </c>
       <c r="T16" s="18"/>
       <c r="U16" s="18"/>
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>0.83750000000000002</v>
+        <v>0.84705882352941175</v>
       </c>
       <c r="X16"/>
     </row>
@@ -2047,13 +2077,15 @@
       <c r="R17" s="18">
         <v>12</v>
       </c>
-      <c r="S17" s="18"/>
+      <c r="S17" s="18">
+        <v>3</v>
+      </c>
       <c r="T17" s="18"/>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.49583333333333335</v>
+        <v>0.47843137254901963</v>
       </c>
       <c r="X17"/>
     </row>
@@ -2110,13 +2142,15 @@
       <c r="R18" s="18">
         <v>9</v>
       </c>
-      <c r="S18" s="18"/>
+      <c r="S18" s="18">
+        <v>3</v>
+      </c>
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.54583333333333328</v>
+        <v>0.52549019607843139</v>
       </c>
       <c r="X18"/>
     </row>
@@ -2173,13 +2207,15 @@
       <c r="R19" s="18">
         <v>15</v>
       </c>
-      <c r="S19" s="18"/>
+      <c r="S19" s="18">
+        <v>10</v>
+      </c>
       <c r="T19" s="18"/>
       <c r="U19" s="18"/>
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.76666666666666672</v>
+        <v>0.76078431372549016</v>
       </c>
       <c r="X19"/>
     </row>
@@ -2236,13 +2272,15 @@
       <c r="R20" s="18">
         <v>15</v>
       </c>
-      <c r="S20" s="18"/>
+      <c r="S20" s="18">
+        <v>12</v>
+      </c>
       <c r="T20" s="18"/>
       <c r="U20" s="18"/>
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.78333333333333333</v>
+        <v>0.78431372549019607</v>
       </c>
       <c r="X20"/>
     </row>
@@ -2299,13 +2337,15 @@
       <c r="R21" s="18">
         <v>0</v>
       </c>
-      <c r="S21" s="18"/>
+      <c r="S21" s="18">
+        <v>0</v>
+      </c>
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.1875</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="X21"/>
     </row>
@@ -2362,13 +2402,15 @@
       <c r="R22" s="18">
         <v>15</v>
       </c>
-      <c r="S22" s="18"/>
+      <c r="S22" s="18">
+        <v>15</v>
+      </c>
       <c r="T22" s="18"/>
       <c r="U22" s="18"/>
       <c r="V22" s="18"/>
       <c r="W22" s="34">
         <f t="shared" si="0"/>
-        <v>0.89166666666666672</v>
+        <v>0.89803921568627454</v>
       </c>
       <c r="X22"/>
     </row>
@@ -2425,13 +2467,15 @@
       <c r="R23" s="18">
         <v>15</v>
       </c>
-      <c r="S23" s="18"/>
+      <c r="S23" s="18">
+        <v>10</v>
+      </c>
       <c r="T23" s="18"/>
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.8125</v>
+        <v>0.80392156862745101</v>
       </c>
       <c r="X23"/>
     </row>
@@ -2488,13 +2532,15 @@
       <c r="R24" s="18">
         <v>12</v>
       </c>
-      <c r="S24" s="18"/>
+      <c r="S24" s="18">
+        <v>3</v>
+      </c>
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.60833333333333328</v>
+        <v>0.58431372549019611</v>
       </c>
       <c r="X24"/>
     </row>
@@ -2551,13 +2597,15 @@
       <c r="R25" s="18">
         <v>9</v>
       </c>
-      <c r="S25" s="18"/>
+      <c r="S25" s="18">
+        <v>10</v>
+      </c>
       <c r="T25" s="18"/>
       <c r="U25" s="18"/>
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.60392156862745094</v>
       </c>
       <c r="X25"/>
     </row>
@@ -2614,13 +2662,15 @@
       <c r="R26" s="18">
         <v>15</v>
       </c>
-      <c r="S26" s="18"/>
+      <c r="S26" s="18">
+        <v>9</v>
+      </c>
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.6166666666666667</v>
+        <v>0.61568627450980395</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2677,13 +2727,15 @@
       <c r="R27" s="18">
         <v>12</v>
       </c>
-      <c r="S27" s="18"/>
+      <c r="S27" s="18">
+        <v>10</v>
+      </c>
       <c r="T27" s="18"/>
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.57499999999999996</v>
+        <v>0.58039215686274515</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2740,13 +2792,15 @@
       <c r="R28" s="18">
         <v>12</v>
       </c>
-      <c r="S28" s="18"/>
+      <c r="S28" s="18">
+        <v>0</v>
+      </c>
       <c r="T28" s="18"/>
       <c r="U28" s="18"/>
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.48333333333333334</v>
+        <v>0.45490196078431372</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2803,13 +2857,15 @@
       <c r="R29" s="18">
         <v>3</v>
       </c>
-      <c r="S29" s="18"/>
+      <c r="S29" s="18">
+        <v>9</v>
+      </c>
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.44166666666666665</v>
+        <v>0.45098039215686275</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2866,13 +2922,15 @@
       <c r="R30" s="18">
         <v>9</v>
       </c>
-      <c r="S30" s="18"/>
+      <c r="S30" s="18">
+        <v>9</v>
+      </c>
       <c r="T30" s="18"/>
       <c r="U30" s="18"/>
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.47499999999999998</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2929,13 +2987,15 @@
       <c r="R31" s="18">
         <v>9</v>
       </c>
-      <c r="S31" s="18"/>
+      <c r="S31" s="18">
+        <v>3</v>
+      </c>
       <c r="T31" s="18"/>
       <c r="U31" s="18"/>
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.48333333333333334</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="X31"/>
     </row>
@@ -2992,13 +3052,15 @@
       <c r="R32" s="18">
         <v>9</v>
       </c>
-      <c r="S32" s="18"/>
+      <c r="S32" s="18">
+        <v>10</v>
+      </c>
       <c r="T32" s="18"/>
       <c r="U32" s="18"/>
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.65833333333333333</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="X32"/>
     </row>
@@ -3055,13 +3117,15 @@
       <c r="R33" s="18">
         <v>9</v>
       </c>
-      <c r="S33" s="18"/>
+      <c r="S33" s="18">
+        <v>9</v>
+      </c>
       <c r="T33" s="18"/>
       <c r="U33" s="18"/>
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.41249999999999998</v>
+        <v>0.42352941176470588</v>
       </c>
       <c r="X33"/>
     </row>
@@ -3118,13 +3182,15 @@
       <c r="R34" s="18">
         <v>15</v>
       </c>
-      <c r="S34" s="18"/>
+      <c r="S34" s="18">
+        <v>7</v>
+      </c>
       <c r="T34" s="18"/>
       <c r="U34" s="18"/>
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.72916666666666663</v>
+        <v>0.71372549019607845</v>
       </c>
       <c r="X34"/>
     </row>
@@ -3181,13 +3247,15 @@
       <c r="R35" s="18">
         <v>15</v>
       </c>
-      <c r="S35" s="18"/>
+      <c r="S35" s="18">
+        <v>15</v>
+      </c>
       <c r="T35" s="18"/>
       <c r="U35" s="18"/>
       <c r="V35" s="18"/>
       <c r="W35" s="34">
         <f t="shared" si="0"/>
-        <v>0.90833333333333333</v>
+        <v>0.9137254901960784</v>
       </c>
       <c r="X35"/>
     </row>
@@ -3244,13 +3312,15 @@
       <c r="R36" s="18">
         <v>15</v>
       </c>
-      <c r="S36" s="18"/>
+      <c r="S36" s="18">
+        <v>0</v>
+      </c>
       <c r="T36" s="18"/>
       <c r="U36" s="18"/>
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.6</v>
+        <v>0.56470588235294117</v>
       </c>
       <c r="X36"/>
     </row>
@@ -3307,13 +3377,15 @@
       <c r="R37" s="18">
         <v>15</v>
       </c>
-      <c r="S37" s="18"/>
+      <c r="S37" s="18">
+        <v>9</v>
+      </c>
       <c r="T37" s="18"/>
       <c r="U37" s="18"/>
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.69166666666666665</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="X37"/>
     </row>
@@ -3370,13 +3442,15 @@
       <c r="R38" s="18">
         <v>9</v>
       </c>
-      <c r="S38" s="18"/>
+      <c r="S38" s="18">
+        <v>3</v>
+      </c>
       <c r="T38" s="18"/>
       <c r="U38" s="18"/>
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.3</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="X38"/>
     </row>
@@ -3433,13 +3507,15 @@
       <c r="R39" s="18">
         <v>9</v>
       </c>
-      <c r="S39" s="18"/>
+      <c r="S39" s="18">
+        <v>0</v>
+      </c>
       <c r="T39" s="18"/>
       <c r="U39" s="18"/>
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.41249999999999998</v>
+        <v>0.38823529411764707</v>
       </c>
       <c r="X39"/>
     </row>
@@ -3613,9 +3689,9 @@
         <f t="shared" si="1"/>
         <v>9.3947368421052637</v>
       </c>
-      <c r="S42" s="30" t="e">
+      <c r="S42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.5526315789473681</v>
       </c>
       <c r="T42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -3631,7 +3707,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.54967105263157923</v>
+        <v>0.54303405572755425</v>
       </c>
       <c r="X42"/>
     </row>
@@ -3707,9 +3783,9 @@
         <f t="shared" si="2"/>
         <v>5.4103977656850981</v>
       </c>
-      <c r="S43" s="30" t="e">
+      <c r="S43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.1658827163395626</v>
       </c>
       <c r="T43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -3725,7 +3801,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.21233627675149519</v>
+        <v>0.21559421235528914</v>
       </c>
       <c r="X43"/>
     </row>
@@ -3801,9 +3877,9 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="S44" s="30" t="e">
+      <c r="S44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>9</v>
       </c>
       <c r="T44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -3819,7 +3895,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.53125</v>
+        <v>0.52352941176470591</v>
       </c>
       <c r="X44"/>
     </row>
@@ -3897,7 +3973,7 @@
       </c>
       <c r="S45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" s="33">
         <f t="shared" si="4"/>
@@ -4667,7 +4743,7 @@
         <v>92</v>
       </c>
       <c r="H13" s="54">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I13" s="54">
         <v>96</v>
@@ -4676,7 +4752,7 @@
       <c r="K13" s="52"/>
       <c r="L13" s="34">
         <f t="shared" si="0"/>
-        <v>1.411875</v>
+        <v>1.42875</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5670,7 +5746,7 @@
       </c>
       <c r="H42" s="30">
         <f t="shared" si="1"/>
-        <v>67.934210526315795</v>
+        <v>68.171052631578945</v>
       </c>
       <c r="I42" s="30">
         <f t="shared" si="1"/>
@@ -5686,7 +5762,7 @@
       </c>
       <c r="L42" s="30">
         <f t="shared" si="1"/>
-        <v>0.94329769736842084</v>
+        <v>0.94374177631578937</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5719,7 +5795,7 @@
       </c>
       <c r="H43" s="30">
         <f t="shared" si="2"/>
-        <v>32.345928156087979</v>
+        <v>32.54420617588908</v>
       </c>
       <c r="I43" s="30">
         <f t="shared" si="2"/>
@@ -5735,7 +5811,7 @@
       </c>
       <c r="L43" s="30">
         <f t="shared" si="2"/>
-        <v>0.38930324824622492</v>
+        <v>0.38986142591029282</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6678,7 +6754,7 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.44166666666666665</v>
+        <v>0.45098039215686275</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
@@ -6694,7 +6770,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>2.7685416666666667</v>
+        <v>2.7778553921568632</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -6712,7 +6788,7 @@
       </c>
       <c r="B3" s="34">
         <f>Quiz!W3</f>
-        <v>0.1125</v>
+        <v>0.10588235294117647</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
@@ -6728,7 +6804,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.9051875000000003</v>
+        <v>1.8985698529411765</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6745,7 +6821,7 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.49583333333333335</v>
+        <v>0.50196078431372548</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
@@ -6761,7 +6837,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.8703333333333334</v>
+        <v>2.8764607843137258</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -6778,7 +6854,7 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.55833333333333335</v>
+        <v>0.52549019607843139</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
@@ -6794,7 +6870,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>2.7367083333333335</v>
+        <v>2.7038651960784312</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -6811,7 +6887,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.51666666666666672</v>
+        <v>0.52156862745098043</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
@@ -6827,7 +6903,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>2.8615416666666667</v>
+        <v>2.8664436274509804</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -6844,7 +6920,7 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.41249999999999998</v>
+        <v>0.38823529411764707</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
@@ -6860,7 +6936,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>2.0278125</v>
+        <v>2.0035477941176474</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -6877,7 +6953,7 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.50416666666666665</v>
+        <v>0.48627450980392156</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
@@ -6893,7 +6969,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>2.9823541666666671</v>
+        <v>2.9644620098039218</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -6910,7 +6986,7 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.48333333333333334</v>
+        <v>0.49019607843137253</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
@@ -6926,7 +7002,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>3.4733958333333335</v>
+        <v>3.4802585784313727</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -6943,7 +7019,7 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.5</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
@@ -6959,7 +7035,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>2.1211250000000001</v>
+        <v>2.1034779411764708</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -6976,7 +7052,7 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.18333333333333332</v>
+        <v>0.17254901960784313</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
@@ -6992,7 +7068,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.5605208333333334</v>
+        <v>1.5497365196078432</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -7009,7 +7085,7 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.55833333333333335</v>
+        <v>0.53725490196078429</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
@@ -7025,7 +7101,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>2.1295833333333336</v>
+        <v>2.1085049019607842</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -7042,11 +7118,11 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>0.92500000000000004</v>
+        <v>0.92941176470588238</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
-        <v>1.411875</v>
+        <v>1.42875</v>
       </c>
       <c r="D13" s="43">
         <f>Exams!B13</f>
@@ -7058,7 +7134,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>5.0968750000000007</v>
+        <v>5.1181617647058832</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -7075,7 +7151,7 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.82499999999999996</v>
+        <v>0.83529411764705885</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
@@ -7091,7 +7167,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>3.3393749999999995</v>
+        <v>3.3496691176470588</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -7108,7 +7184,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>5.4166666666666669E-2</v>
+        <v>5.0980392156862744E-2</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
@@ -7124,7 +7200,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.12072916666666667</v>
+        <v>0.11754289215686274</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -7141,7 +7217,7 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>0.83750000000000002</v>
+        <v>0.84705882352941175</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
@@ -7157,7 +7233,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>4.6578125000000004</v>
+        <v>4.6673713235294123</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -7174,7 +7250,7 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.49583333333333335</v>
+        <v>0.47843137254901963</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
@@ -7190,7 +7266,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>2.4758333333333331</v>
+        <v>2.4584313725490192</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -7207,7 +7283,7 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.54583333333333328</v>
+        <v>0.52549019607843139</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
@@ -7223,11 +7299,11 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>2.2520833333333332</v>
+        <v>2.2317401960784315</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H18" s="51">
         <f t="shared" si="2"/>
@@ -7240,7 +7316,7 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.76666666666666672</v>
+        <v>0.76078431372549016</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
@@ -7256,7 +7332,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>3.4897291666666668</v>
+        <v>3.4838468137254903</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -7273,7 +7349,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.78333333333333333</v>
+        <v>0.78431372549019607</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
@@ -7289,7 +7365,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>3.5663958333333334</v>
+        <v>3.5673762254901962</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -7306,7 +7382,7 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.1875</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
@@ -7322,7 +7398,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.5219374999999999</v>
+        <v>1.5109080882352939</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -7339,7 +7415,7 @@
       </c>
       <c r="B22" s="34">
         <f>Quiz!W22</f>
-        <v>0.89166666666666672</v>
+        <v>0.89803921568627454</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
@@ -7355,7 +7431,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>4.7532291666666664</v>
+        <v>4.7596017156862747</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
@@ -7372,7 +7448,7 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.8125</v>
+        <v>0.80392156862745101</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
@@ -7388,7 +7464,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.8952499999999999</v>
+        <v>2.8866715686274507</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -7405,7 +7481,7 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.60833333333333328</v>
+        <v>0.58431372549019611</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
@@ -7421,7 +7497,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>2.9162708333333329</v>
+        <v>2.8922512254901958</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -7438,7 +7514,7 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.6</v>
+        <v>0.60392156862745094</v>
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
@@ -7454,7 +7530,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>2.1495000000000002</v>
+        <v>2.1534215686274512</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -7471,7 +7547,7 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.6166666666666667</v>
+        <v>0.61568627450980395</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
@@ -7487,7 +7563,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>2.2906666666666666</v>
+        <v>2.2896862745098039</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -7504,7 +7580,7 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.57499999999999996</v>
+        <v>0.58039215686274515</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
@@ -7520,7 +7596,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>2.2604375000000001</v>
+        <v>2.2658296568627447</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -7537,7 +7613,7 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.48333333333333334</v>
+        <v>0.45490196078431372</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
@@ -7553,7 +7629,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.8698958333333335</v>
+        <v>1.8414644607843136</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -7570,7 +7646,7 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.44166666666666665</v>
+        <v>0.45098039215686275</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
@@ -7586,7 +7662,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.1397291666666667</v>
+        <v>1.1490428921568627</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -7603,7 +7679,7 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.47499999999999998</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
@@ -7619,7 +7695,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>2.1508750000000001</v>
+        <v>2.1582279411764707</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -7636,7 +7712,7 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.48333333333333334</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
@@ -7652,7 +7728,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>2.3032083333333335</v>
+        <v>2.2865416666666669</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -7669,7 +7745,7 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.65833333333333333</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
@@ -7685,7 +7761,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>3.1998958333333327</v>
+        <v>3.2003860294117645</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -7702,7 +7778,7 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.41249999999999998</v>
+        <v>0.42352941176470588</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
@@ -7718,7 +7794,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>2.3261250000000002</v>
+        <v>2.3371544117647058</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -7735,7 +7811,7 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.72916666666666663</v>
+        <v>0.71372549019607845</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
@@ -7751,7 +7827,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>2.3787916666666664</v>
+        <v>2.3633504901960785</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -7768,7 +7844,7 @@
       </c>
       <c r="B35" s="34">
         <f>Quiz!W35</f>
-        <v>0.90833333333333333</v>
+        <v>0.9137254901960784</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
@@ -7784,7 +7860,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>5.2249583333333334</v>
+        <v>5.2303504901960789</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -7801,7 +7877,7 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.6</v>
+        <v>0.56470588235294117</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
@@ -7817,7 +7893,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>2.4009375000000004</v>
+        <v>2.3656433823529412</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -7834,7 +7910,7 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.69166666666666665</v>
+        <v>0.68627450980392157</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
@@ -7850,7 +7926,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>2.8608541666666669</v>
+        <v>2.8554620098039214</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -7867,7 +7943,7 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.3</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
@@ -7883,7 +7959,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>1.1058749999999999</v>
+        <v>1.0999926470588235</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -7900,7 +7976,7 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.41249999999999998</v>
+        <v>0.38823529411764707</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
@@ -7916,7 +7992,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.6674375000000001</v>
+        <v>1.6431727941176471</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -7973,11 +8049,11 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.54967105263157923</v>
+        <v>0.54303405572755425</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
-        <v>0.94329769736842084</v>
+        <v>0.94374177631578937</v>
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
@@ -7989,11 +8065,11 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6276792763157895</v>
+        <v>2.621486358359133</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6447368421052633</v>
+        <v>2.6315789473684212</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
@@ -8006,11 +8082,11 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.21233627675149519</v>
+        <v>0.21559421235528914</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
-        <v>0.38930324824622492</v>
+        <v>0.38986142591029282</v>
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
@@ -8022,11 +8098,11 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0701500751467559</v>
+        <v>1.0757825991571317</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0837116821172159</v>
+        <v>1.0885411172156672</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
@@ -8039,7 +8115,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.53125</v>
+        <v>0.52352941176470591</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
@@ -8055,7 +8131,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>2.3898645833333334</v>
+        <v>2.3644969362745099</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73C7D39-B3D1-B34E-9D70-165481F98CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5724428B-F9C9-3F4D-8838-98897496F6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="1940" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -551,6 +551,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1106,12 +1109,14 @@
       <c r="S2" s="18">
         <v>9</v>
       </c>
-      <c r="T2" s="18"/>
+      <c r="T2" s="18">
+        <v>3</v>
+      </c>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.45098039215686275</v>
+        <v>0.43703703703703706</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1171,12 +1176,14 @@
       <c r="S3" s="18">
         <v>0</v>
       </c>
-      <c r="T3" s="18"/>
+      <c r="T3" s="57">
+        <v>0</v>
+      </c>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
       <c r="W3" s="34">
         <f t="shared" si="0"/>
-        <v>0.10588235294117647</v>
+        <v>0.1</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1236,12 +1243,14 @@
       <c r="S4" s="18">
         <v>9</v>
       </c>
-      <c r="T4" s="18"/>
+      <c r="T4" s="18">
+        <v>3</v>
+      </c>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.50196078431372548</v>
+        <v>0.48518518518518516</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1301,12 +1310,14 @@
       <c r="S5" s="18">
         <v>0</v>
       </c>
-      <c r="T5" s="18"/>
+      <c r="T5" s="18">
+        <v>0</v>
+      </c>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.52549019607843139</v>
+        <v>0.49629629629629629</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1366,12 +1377,14 @@
       <c r="S6" s="18">
         <v>9</v>
       </c>
-      <c r="T6" s="18"/>
+      <c r="T6" s="18">
+        <v>3</v>
+      </c>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.52156862745098043</v>
+        <v>0.50370370370370365</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1431,12 +1444,14 @@
       <c r="S7" s="18">
         <v>0</v>
       </c>
-      <c r="T7" s="18"/>
+      <c r="T7" s="18">
+        <v>0</v>
+      </c>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.38823529411764707</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1496,12 +1511,14 @@
       <c r="S8" s="18">
         <v>3</v>
       </c>
-      <c r="T8" s="18"/>
+      <c r="T8" s="18">
+        <v>9</v>
+      </c>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.48627450980392156</v>
+        <v>0.49259259259259258</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1561,12 +1578,14 @@
       <c r="S9" s="18">
         <v>9</v>
       </c>
-      <c r="T9" s="18"/>
+      <c r="T9" s="18">
+        <v>3</v>
+      </c>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.49019607843137253</v>
+        <v>0.47407407407407409</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1626,12 +1645,14 @@
       <c r="S10" s="18">
         <v>3</v>
       </c>
-      <c r="T10" s="18"/>
+      <c r="T10" s="18">
+        <v>9</v>
+      </c>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.4823529411764706</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1691,12 +1712,14 @@
       <c r="S11" s="18">
         <v>0</v>
       </c>
-      <c r="T11" s="18"/>
+      <c r="T11" s="18">
+        <v>0</v>
+      </c>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.17254901960784313</v>
+        <v>0.16296296296296298</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1756,12 +1779,14 @@
       <c r="S12" s="18">
         <v>3</v>
       </c>
-      <c r="T12" s="18"/>
+      <c r="T12" s="18">
+        <v>0</v>
+      </c>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.53725490196078429</v>
+        <v>0.50740740740740742</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1821,12 +1846,14 @@
       <c r="S13" s="18">
         <v>15</v>
       </c>
-      <c r="T13" s="18"/>
+      <c r="T13" s="18">
+        <v>9</v>
+      </c>
       <c r="U13" s="18"/>
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>0.92941176470588238</v>
+        <v>0.91111111111111109</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1886,12 +1913,14 @@
       <c r="S14" s="18">
         <v>15</v>
       </c>
-      <c r="T14" s="18"/>
+      <c r="T14" s="18">
+        <v>9</v>
+      </c>
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.83529411764705885</v>
+        <v>0.82222222222222219</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1950,12 +1979,14 @@
       <c r="S15" s="18">
         <v>0</v>
       </c>
-      <c r="T15" s="18"/>
+      <c r="T15" s="18">
+        <v>0</v>
+      </c>
       <c r="U15" s="18"/>
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>5.0980392156862744E-2</v>
+        <v>4.8148148148148148E-2</v>
       </c>
       <c r="X15"/>
     </row>
@@ -2015,12 +2046,14 @@
       <c r="S16" s="18">
         <v>15</v>
       </c>
-      <c r="T16" s="18"/>
+      <c r="T16" s="18">
+        <v>9</v>
+      </c>
       <c r="U16" s="18"/>
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>0.84705882352941175</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="X16"/>
     </row>
@@ -2080,12 +2113,14 @@
       <c r="S17" s="18">
         <v>3</v>
       </c>
-      <c r="T17" s="18"/>
+      <c r="T17" s="18">
+        <v>3</v>
+      </c>
       <c r="U17" s="18"/>
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.47843137254901963</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="X17"/>
     </row>
@@ -2145,12 +2180,14 @@
       <c r="S18" s="18">
         <v>3</v>
       </c>
-      <c r="T18" s="18"/>
+      <c r="T18" s="18">
+        <v>9</v>
+      </c>
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.52549019607843139</v>
+        <v>0.52962962962962967</v>
       </c>
       <c r="X18"/>
     </row>
@@ -2210,12 +2247,14 @@
       <c r="S19" s="18">
         <v>10</v>
       </c>
-      <c r="T19" s="18"/>
+      <c r="T19" s="18">
+        <v>9</v>
+      </c>
       <c r="U19" s="18"/>
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.76078431372549016</v>
+        <v>0.75185185185185188</v>
       </c>
       <c r="X19"/>
     </row>
@@ -2275,12 +2314,14 @@
       <c r="S20" s="18">
         <v>12</v>
       </c>
-      <c r="T20" s="18"/>
+      <c r="T20" s="18">
+        <v>9</v>
+      </c>
       <c r="U20" s="18"/>
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.78431372549019607</v>
+        <v>0.77407407407407403</v>
       </c>
       <c r="X20"/>
     </row>
@@ -2340,12 +2381,14 @@
       <c r="S21" s="18">
         <v>0</v>
       </c>
-      <c r="T21" s="18"/>
+      <c r="T21" s="18">
+        <v>0</v>
+      </c>
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.17647058823529413</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="X21"/>
     </row>
@@ -2405,12 +2448,14 @@
       <c r="S22" s="18">
         <v>15</v>
       </c>
-      <c r="T22" s="18"/>
+      <c r="T22" s="18">
+        <v>9</v>
+      </c>
       <c r="U22" s="18"/>
       <c r="V22" s="18"/>
       <c r="W22" s="34">
         <f t="shared" si="0"/>
-        <v>0.89803921568627454</v>
+        <v>0.88148148148148153</v>
       </c>
       <c r="X22"/>
     </row>
@@ -2470,12 +2515,14 @@
       <c r="S23" s="18">
         <v>10</v>
       </c>
-      <c r="T23" s="18"/>
+      <c r="T23" s="18">
+        <v>9</v>
+      </c>
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.80392156862745101</v>
+        <v>0.79259259259259263</v>
       </c>
       <c r="X23"/>
     </row>
@@ -2535,12 +2582,14 @@
       <c r="S24" s="18">
         <v>3</v>
       </c>
-      <c r="T24" s="18"/>
+      <c r="T24" s="18">
+        <v>11</v>
+      </c>
       <c r="U24" s="18"/>
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.58431372549019611</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="X24"/>
     </row>
@@ -2600,12 +2649,14 @@
       <c r="S25" s="18">
         <v>10</v>
       </c>
-      <c r="T25" s="18"/>
+      <c r="T25" s="18">
+        <v>9</v>
+      </c>
       <c r="U25" s="18"/>
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.60392156862745094</v>
+        <v>0.60370370370370374</v>
       </c>
       <c r="X25"/>
     </row>
@@ -2665,12 +2716,14 @@
       <c r="S26" s="18">
         <v>9</v>
       </c>
-      <c r="T26" s="18"/>
+      <c r="T26" s="18">
+        <v>9</v>
+      </c>
       <c r="U26" s="18"/>
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.61568627450980395</v>
+        <v>0.61481481481481481</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2730,12 +2783,14 @@
       <c r="S27" s="18">
         <v>10</v>
       </c>
-      <c r="T27" s="18"/>
+      <c r="T27" s="18">
+        <v>9</v>
+      </c>
       <c r="U27" s="18"/>
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.58039215686274515</v>
+        <v>0.58148148148148149</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2795,12 +2850,14 @@
       <c r="S28" s="18">
         <v>0</v>
       </c>
-      <c r="T28" s="18"/>
+      <c r="T28" s="18">
+        <v>3</v>
+      </c>
       <c r="U28" s="18"/>
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.45490196078431372</v>
+        <v>0.44074074074074077</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2860,12 +2917,14 @@
       <c r="S29" s="18">
         <v>9</v>
       </c>
-      <c r="T29" s="18"/>
+      <c r="T29" s="18">
+        <v>9</v>
+      </c>
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.45098039215686275</v>
+        <v>0.45925925925925926</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2925,12 +2984,14 @@
       <c r="S30" s="18">
         <v>9</v>
       </c>
-      <c r="T30" s="18"/>
+      <c r="T30" s="18">
+        <v>3</v>
+      </c>
       <c r="U30" s="18"/>
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.4823529411764706</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="X30"/>
     </row>
@@ -2990,12 +3051,14 @@
       <c r="S31" s="18">
         <v>3</v>
       </c>
-      <c r="T31" s="18"/>
+      <c r="T31" s="18">
+        <v>9</v>
+      </c>
       <c r="U31" s="18"/>
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.47407407407407409</v>
       </c>
       <c r="X31"/>
     </row>
@@ -3055,12 +3118,14 @@
       <c r="S32" s="18">
         <v>10</v>
       </c>
-      <c r="T32" s="18"/>
+      <c r="T32" s="18">
+        <v>9</v>
+      </c>
       <c r="U32" s="18"/>
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.6588235294117647</v>
+        <v>0.65555555555555556</v>
       </c>
       <c r="X32"/>
     </row>
@@ -3120,12 +3185,14 @@
       <c r="S33" s="18">
         <v>9</v>
       </c>
-      <c r="T33" s="18"/>
+      <c r="T33" s="18">
+        <v>9</v>
+      </c>
       <c r="U33" s="18"/>
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.42352941176470588</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="X33"/>
     </row>
@@ -3185,12 +3252,14 @@
       <c r="S34" s="18">
         <v>7</v>
       </c>
-      <c r="T34" s="18"/>
+      <c r="T34" s="18">
+        <v>9</v>
+      </c>
       <c r="U34" s="18"/>
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.71372549019607845</v>
+        <v>0.70740740740740737</v>
       </c>
       <c r="X34"/>
     </row>
@@ -3250,12 +3319,14 @@
       <c r="S35" s="18">
         <v>15</v>
       </c>
-      <c r="T35" s="18"/>
+      <c r="T35" s="18">
+        <v>9</v>
+      </c>
       <c r="U35" s="18"/>
       <c r="V35" s="18"/>
       <c r="W35" s="34">
         <f t="shared" si="0"/>
-        <v>0.9137254901960784</v>
+        <v>0.89629629629629626</v>
       </c>
       <c r="X35"/>
     </row>
@@ -3315,12 +3386,14 @@
       <c r="S36" s="18">
         <v>0</v>
       </c>
-      <c r="T36" s="18"/>
+      <c r="T36" s="18">
+        <v>9</v>
+      </c>
       <c r="U36" s="18"/>
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.56470588235294117</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="X36"/>
     </row>
@@ -3380,12 +3453,14 @@
       <c r="S37" s="18">
         <v>9</v>
       </c>
-      <c r="T37" s="18"/>
+      <c r="T37" s="18">
+        <v>3</v>
+      </c>
       <c r="U37" s="18"/>
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.68627450980392157</v>
+        <v>0.65925925925925921</v>
       </c>
       <c r="X37"/>
     </row>
@@ -3445,12 +3520,14 @@
       <c r="S38" s="18">
         <v>3</v>
       </c>
-      <c r="T38" s="18"/>
+      <c r="T38" s="18">
+        <v>0</v>
+      </c>
       <c r="U38" s="18"/>
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.29411764705882354</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="X38"/>
     </row>
@@ -3510,12 +3587,14 @@
       <c r="S39" s="18">
         <v>0</v>
       </c>
-      <c r="T39" s="18"/>
+      <c r="T39" s="18">
+        <v>0</v>
+      </c>
       <c r="U39" s="18"/>
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.38823529411764707</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="X39"/>
     </row>
@@ -3693,9 +3772,9 @@
         <f t="shared" si="1"/>
         <v>6.5526315789473681</v>
       </c>
-      <c r="T42" s="30" t="e">
+      <c r="T42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5.6578947368421053</v>
       </c>
       <c r="U42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -3707,7 +3786,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.54303405572755425</v>
+        <v>0.5338206627680312</v>
       </c>
       <c r="X42"/>
     </row>
@@ -3787,9 +3866,9 @@
         <f t="shared" si="2"/>
         <v>5.1658827163395626</v>
       </c>
-      <c r="T43" s="30" t="e">
+      <c r="T43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>4.0153510552289573</v>
       </c>
       <c r="U43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -3801,7 +3880,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.21559421235528914</v>
+        <v>0.21409594786369904</v>
       </c>
       <c r="X43"/>
     </row>
@@ -3881,9 +3960,9 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="T44" s="30" t="e">
+      <c r="T44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>9</v>
       </c>
       <c r="U44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -3895,7 +3974,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.52352941176470591</v>
+        <v>0.5</v>
       </c>
       <c r="X44"/>
     </row>
@@ -3977,7 +4056,7 @@
       </c>
       <c r="T45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" s="33">
         <f t="shared" si="4"/>
@@ -6754,7 +6833,7 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.45098039215686275</v>
+        <v>0.43703703703703706</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
@@ -6770,7 +6849,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>2.7778553921568632</v>
+        <v>2.7639120370370374</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -6788,7 +6867,7 @@
       </c>
       <c r="B3" s="34">
         <f>Quiz!W3</f>
-        <v>0.10588235294117647</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
@@ -6804,7 +6883,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.8985698529411765</v>
+        <v>1.8926875000000001</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6821,7 +6900,7 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.50196078431372548</v>
+        <v>0.48518518518518516</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
@@ -6837,7 +6916,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.8764607843137258</v>
+        <v>2.8596851851851852</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -6854,7 +6933,7 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.52549019607843139</v>
+        <v>0.49629629629629629</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
@@ -6870,7 +6949,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>2.7038651960784312</v>
+        <v>2.674671296296296</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -6887,7 +6966,7 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.52156862745098043</v>
+        <v>0.50370370370370365</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
@@ -6903,7 +6982,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>2.8664436274509804</v>
+        <v>2.8485787037037036</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -6920,7 +6999,7 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.38823529411764707</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
@@ -6936,7 +7015,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>2.0035477941176474</v>
+        <v>1.9819791666666668</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -6953,7 +7032,7 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.48627450980392156</v>
+        <v>0.49259259259259258</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
@@ -6969,7 +7048,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>2.9644620098039218</v>
+        <v>2.9707800925925927</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -6986,7 +7065,7 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.49019607843137253</v>
+        <v>0.47407407407407409</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
@@ -7002,7 +7081,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>3.4802585784313727</v>
+        <v>3.4641365740740744</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -7019,7 +7098,7 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.4823529411764706</v>
+        <v>0.48888888888888887</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
@@ -7035,7 +7114,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>2.1034779411764708</v>
+        <v>2.1100138888888891</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -7052,7 +7131,7 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.17254901960784313</v>
+        <v>0.16296296296296298</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
@@ -7068,7 +7147,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.5497365196078432</v>
+        <v>1.540150462962963</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -7085,7 +7164,7 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.53725490196078429</v>
+        <v>0.50740740740740742</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
@@ -7101,7 +7180,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>2.1085049019607842</v>
+        <v>2.0786574074074076</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -7118,7 +7197,7 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>0.92941176470588238</v>
+        <v>0.91111111111111109</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
@@ -7134,7 +7213,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>5.1181617647058832</v>
+        <v>5.0998611111111112</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -7151,7 +7230,7 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.83529411764705885</v>
+        <v>0.82222222222222219</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
@@ -7167,7 +7246,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>3.3496691176470588</v>
+        <v>3.3365972222222222</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -7184,7 +7263,7 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>5.0980392156862744E-2</v>
+        <v>4.8148148148148148E-2</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
@@ -7200,7 +7279,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.11754289215686274</v>
+        <v>0.11471064814814814</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -7217,7 +7296,7 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>0.84705882352941175</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
@@ -7233,7 +7312,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>4.6673713235294123</v>
+        <v>4.6536458333333339</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -7250,7 +7329,7 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.47843137254901963</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
@@ -7266,7 +7345,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>2.4584313725490192</v>
+        <v>2.4429629629629628</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -7283,7 +7362,7 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.52549019607843139</v>
+        <v>0.52962962962962967</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
@@ -7299,7 +7378,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>2.2317401960784315</v>
+        <v>2.2358796296296299</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -7316,7 +7395,7 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.76078431372549016</v>
+        <v>0.75185185185185188</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
@@ -7332,7 +7411,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>3.4838468137254903</v>
+        <v>3.4749143518518517</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -7349,7 +7428,7 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.78431372549019607</v>
+        <v>0.77407407407407403</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
@@ -7365,7 +7444,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>3.5673762254901962</v>
+        <v>3.5571365740740739</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -7382,7 +7461,7 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.17647058823529413</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
@@ -7398,7 +7477,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.5109080882352939</v>
+        <v>1.5011041666666665</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -7415,7 +7494,7 @@
       </c>
       <c r="B22" s="34">
         <f>Quiz!W22</f>
-        <v>0.89803921568627454</v>
+        <v>0.88148148148148153</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
@@ -7431,15 +7510,15 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>4.7596017156862747</v>
+        <v>4.7430439814814811</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="H22" s="51">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7448,7 +7527,7 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.80392156862745101</v>
+        <v>0.79259259259259263</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
@@ -7464,7 +7543,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.8866715686274507</v>
+        <v>2.8753425925925926</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -7481,7 +7560,7 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.58431372549019611</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
@@ -7497,7 +7576,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>2.8922512254901958</v>
+        <v>2.9005300925925921</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -7514,7 +7593,7 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.60392156862745094</v>
+        <v>0.60370370370370374</v>
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
@@ -7530,7 +7609,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>2.1534215686274512</v>
+        <v>2.1532037037037037</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -7547,7 +7626,7 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.61568627450980395</v>
+        <v>0.61481481481481481</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
@@ -7563,7 +7642,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>2.2896862745098039</v>
+        <v>2.2888148148148146</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -7580,7 +7659,7 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.58039215686274515</v>
+        <v>0.58148148148148149</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
@@ -7596,7 +7675,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>2.2658296568627447</v>
+        <v>2.2669189814814814</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -7613,7 +7692,7 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.45490196078431372</v>
+        <v>0.44074074074074077</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
@@ -7629,7 +7708,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.8414644607843136</v>
+        <v>1.8273032407407408</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -7646,7 +7725,7 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.45098039215686275</v>
+        <v>0.45925925925925926</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
@@ -7662,7 +7741,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.1490428921568627</v>
+        <v>1.1573217592592593</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -7679,7 +7758,7 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.4823529411764706</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
@@ -7695,7 +7774,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>2.1582279411764707</v>
+        <v>2.1425416666666668</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -7712,7 +7791,7 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.46666666666666667</v>
+        <v>0.47407407407407409</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
@@ -7728,7 +7807,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>2.2865416666666669</v>
+        <v>2.2939490740740744</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -7745,7 +7824,7 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.6588235294117647</v>
+        <v>0.65555555555555556</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
@@ -7761,7 +7840,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>3.2003860294117645</v>
+        <v>3.1971180555555554</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -7778,7 +7857,7 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.42352941176470588</v>
+        <v>0.43333333333333335</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
@@ -7794,7 +7873,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>2.3371544117647058</v>
+        <v>2.3469583333333333</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -7811,7 +7890,7 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.71372549019607845</v>
+        <v>0.70740740740740737</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
@@ -7827,7 +7906,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>2.3633504901960785</v>
+        <v>2.3570324074074076</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -7844,7 +7923,7 @@
       </c>
       <c r="B35" s="34">
         <f>Quiz!W35</f>
-        <v>0.9137254901960784</v>
+        <v>0.89629629629629626</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
@@ -7860,7 +7939,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>5.2303504901960789</v>
+        <v>5.2129212962962956</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -7877,7 +7956,7 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.56470588235294117</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
@@ -7893,7 +7972,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>2.3656433823529412</v>
+        <v>2.3676041666666667</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -7910,7 +7989,7 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.68627450980392157</v>
+        <v>0.65925925925925921</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
@@ -7926,7 +8005,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>2.8554620098039214</v>
+        <v>2.8284467592592595</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -7943,7 +8022,7 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.29411764705882354</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
@@ -7959,7 +8038,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>1.0999926470588235</v>
+        <v>1.0836527777777776</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -7976,7 +8055,7 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.38823529411764707</v>
+        <v>0.36666666666666664</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
@@ -7992,7 +8071,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.6431727941176471</v>
+        <v>1.6216041666666667</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -8040,7 +8119,7 @@
       </c>
       <c r="H41" s="40">
         <f>SUM(H2:H33)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -8049,7 +8128,7 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.54303405572755425</v>
+        <v>0.5338206627680312</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
@@ -8065,15 +8144,15 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>2.621486358359133</v>
+        <v>2.6122729653996108</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6315789473684212</v>
+        <v>2.6184210526315788</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
-        <v>7.8947368421052627E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -8082,7 +8161,7 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.21559421235528914</v>
+        <v>0.21409594786369904</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
@@ -8098,15 +8177,15 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0757825991571317</v>
+        <v>1.0731010383932014</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0885411172156672</v>
+        <v>1.0618330054376255</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
-        <v>0.27327631273309388</v>
+        <v>0.22629428592141426</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -8115,7 +8194,7 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.52352941176470591</v>
+        <v>0.5</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
@@ -8131,7 +8210,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>2.3644969362745099</v>
+        <v>2.3623182870370369</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5724428B-F9C9-3F4D-8838-98897496F6A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743D219D-6EF6-9740-A3DE-8BA2A18A6EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="1940" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1112,11 +1112,13 @@
       <c r="T2" s="18">
         <v>3</v>
       </c>
-      <c r="U2" s="18"/>
+      <c r="U2" s="18">
+        <v>6</v>
+      </c>
       <c r="V2" s="18"/>
       <c r="W2" s="34">
         <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
-        <v>0.43703703703703706</v>
+        <v>0.43508771929824563</v>
       </c>
       <c r="X2"/>
     </row>
@@ -1179,11 +1181,13 @@
       <c r="T3" s="57">
         <v>0</v>
       </c>
-      <c r="U3" s="18"/>
+      <c r="U3" s="18">
+        <v>0</v>
+      </c>
       <c r="V3" s="18"/>
       <c r="W3" s="34">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>9.4736842105263161E-2</v>
       </c>
       <c r="X3"/>
     </row>
@@ -1246,11 +1250,13 @@
       <c r="T4" s="18">
         <v>3</v>
       </c>
-      <c r="U4" s="18"/>
+      <c r="U4" s="18">
+        <v>6</v>
+      </c>
       <c r="V4" s="18"/>
       <c r="W4" s="34">
         <f t="shared" si="0"/>
-        <v>0.48518518518518516</v>
+        <v>0.48070175438596491</v>
       </c>
       <c r="X4"/>
     </row>
@@ -1313,11 +1319,13 @@
       <c r="T5" s="18">
         <v>0</v>
       </c>
-      <c r="U5" s="18"/>
+      <c r="U5" s="18">
+        <v>0</v>
+      </c>
       <c r="V5" s="18"/>
       <c r="W5" s="34">
         <f t="shared" si="0"/>
-        <v>0.49629629629629629</v>
+        <v>0.47017543859649125</v>
       </c>
       <c r="X5"/>
     </row>
@@ -1380,11 +1388,13 @@
       <c r="T6" s="18">
         <v>3</v>
       </c>
-      <c r="U6" s="18"/>
+      <c r="U6" s="18">
+        <v>0</v>
+      </c>
       <c r="V6" s="18"/>
       <c r="W6" s="34">
         <f t="shared" si="0"/>
-        <v>0.50370370370370365</v>
+        <v>0.47719298245614034</v>
       </c>
       <c r="X6"/>
     </row>
@@ -1447,11 +1457,13 @@
       <c r="T7" s="18">
         <v>0</v>
       </c>
-      <c r="U7" s="18"/>
+      <c r="U7" s="18">
+        <v>0</v>
+      </c>
       <c r="V7" s="18"/>
       <c r="W7" s="34">
         <f t="shared" si="0"/>
-        <v>0.36666666666666664</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="X7"/>
     </row>
@@ -1514,11 +1526,13 @@
       <c r="T8" s="18">
         <v>9</v>
       </c>
-      <c r="U8" s="18"/>
+      <c r="U8" s="18">
+        <v>12</v>
+      </c>
       <c r="V8" s="18"/>
       <c r="W8" s="34">
         <f t="shared" si="0"/>
-        <v>0.49259259259259258</v>
+        <v>0.50877192982456143</v>
       </c>
       <c r="X8"/>
     </row>
@@ -1581,11 +1595,13 @@
       <c r="T9" s="18">
         <v>3</v>
       </c>
-      <c r="U9" s="18"/>
+      <c r="U9" s="18">
+        <v>5</v>
+      </c>
       <c r="V9" s="18"/>
       <c r="W9" s="34">
         <f t="shared" si="0"/>
-        <v>0.47407407407407409</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="X9"/>
     </row>
@@ -1648,11 +1664,13 @@
       <c r="T10" s="18">
         <v>9</v>
       </c>
-      <c r="U10" s="18"/>
+      <c r="U10" s="18">
+        <v>9</v>
+      </c>
       <c r="V10" s="18"/>
       <c r="W10" s="34">
         <f t="shared" si="0"/>
-        <v>0.48888888888888887</v>
+        <v>0.49473684210526314</v>
       </c>
       <c r="X10"/>
     </row>
@@ -1715,11 +1733,13 @@
       <c r="T11" s="18">
         <v>0</v>
       </c>
-      <c r="U11" s="18"/>
+      <c r="U11" s="18">
+        <v>0</v>
+      </c>
       <c r="V11" s="18"/>
       <c r="W11" s="34">
         <f t="shared" si="0"/>
-        <v>0.16296296296296298</v>
+        <v>0.15438596491228071</v>
       </c>
       <c r="X11"/>
     </row>
@@ -1782,11 +1802,13 @@
       <c r="T12" s="18">
         <v>0</v>
       </c>
-      <c r="U12" s="18"/>
+      <c r="U12" s="18">
+        <v>9</v>
+      </c>
       <c r="V12" s="18"/>
       <c r="W12" s="34">
         <f t="shared" si="0"/>
-        <v>0.50740740740740742</v>
+        <v>0.512280701754386</v>
       </c>
       <c r="X12"/>
     </row>
@@ -1849,11 +1871,13 @@
       <c r="T13" s="18">
         <v>9</v>
       </c>
-      <c r="U13" s="18"/>
+      <c r="U13" s="18">
+        <v>15</v>
+      </c>
       <c r="V13" s="18"/>
       <c r="W13" s="34">
         <f t="shared" si="0"/>
-        <v>0.91111111111111109</v>
+        <v>0.91578947368421049</v>
       </c>
       <c r="X13"/>
     </row>
@@ -1916,11 +1940,13 @@
       <c r="T14" s="18">
         <v>9</v>
       </c>
-      <c r="U14" s="18"/>
+      <c r="U14" s="18">
+        <v>15</v>
+      </c>
       <c r="V14" s="18"/>
       <c r="W14" s="34">
         <f t="shared" si="0"/>
-        <v>0.82222222222222219</v>
+        <v>0.83157894736842108</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -1982,11 +2008,13 @@
       <c r="T15" s="18">
         <v>0</v>
       </c>
-      <c r="U15" s="18"/>
+      <c r="U15" s="18">
+        <v>0</v>
+      </c>
       <c r="V15" s="18"/>
       <c r="W15" s="34">
         <f t="shared" si="0"/>
-        <v>4.8148148148148148E-2</v>
+        <v>4.5614035087719301E-2</v>
       </c>
       <c r="X15"/>
     </row>
@@ -2049,11 +2077,13 @@
       <c r="T16" s="18">
         <v>9</v>
       </c>
-      <c r="U16" s="18"/>
+      <c r="U16" s="18">
+        <v>15</v>
+      </c>
       <c r="V16" s="18"/>
       <c r="W16" s="34">
         <f t="shared" si="0"/>
-        <v>0.83333333333333337</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="X16"/>
     </row>
@@ -2116,11 +2146,13 @@
       <c r="T17" s="18">
         <v>3</v>
       </c>
-      <c r="U17" s="18"/>
+      <c r="U17" s="18">
+        <v>6</v>
+      </c>
       <c r="V17" s="18"/>
       <c r="W17" s="34">
         <f t="shared" si="0"/>
-        <v>0.46296296296296297</v>
+        <v>0.45964912280701753</v>
       </c>
       <c r="X17"/>
     </row>
@@ -2183,11 +2215,13 @@
       <c r="T18" s="18">
         <v>9</v>
       </c>
-      <c r="U18" s="18"/>
+      <c r="U18" s="18">
+        <v>0</v>
+      </c>
       <c r="V18" s="18"/>
       <c r="W18" s="34">
         <f t="shared" si="0"/>
-        <v>0.52962962962962967</v>
+        <v>0.50175438596491229</v>
       </c>
       <c r="X18"/>
     </row>
@@ -2250,11 +2284,13 @@
       <c r="T19" s="18">
         <v>9</v>
       </c>
-      <c r="U19" s="18"/>
+      <c r="U19" s="18">
+        <v>15</v>
+      </c>
       <c r="V19" s="18"/>
       <c r="W19" s="34">
         <f t="shared" si="0"/>
-        <v>0.75185185185185188</v>
+        <v>0.76491228070175443</v>
       </c>
       <c r="X19"/>
     </row>
@@ -2317,11 +2353,13 @@
       <c r="T20" s="18">
         <v>9</v>
       </c>
-      <c r="U20" s="18"/>
+      <c r="U20" s="18">
+        <v>15</v>
+      </c>
       <c r="V20" s="18"/>
       <c r="W20" s="34">
         <f t="shared" si="0"/>
-        <v>0.77407407407407403</v>
+        <v>0.78596491228070176</v>
       </c>
       <c r="X20"/>
     </row>
@@ -2384,11 +2422,13 @@
       <c r="T21" s="18">
         <v>0</v>
       </c>
-      <c r="U21" s="18"/>
+      <c r="U21" s="18">
+        <v>0</v>
+      </c>
       <c r="V21" s="18"/>
       <c r="W21" s="34">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="X21"/>
     </row>
@@ -2451,11 +2491,13 @@
       <c r="T22" s="18">
         <v>9</v>
       </c>
-      <c r="U22" s="18"/>
+      <c r="U22" s="18">
+        <v>15</v>
+      </c>
       <c r="V22" s="18"/>
       <c r="W22" s="34">
         <f t="shared" si="0"/>
-        <v>0.88148148148148153</v>
+        <v>0.88771929824561402</v>
       </c>
       <c r="X22"/>
     </row>
@@ -2518,11 +2560,13 @@
       <c r="T23" s="18">
         <v>9</v>
       </c>
-      <c r="U23" s="18"/>
+      <c r="U23" s="18">
+        <v>15</v>
+      </c>
       <c r="V23" s="18"/>
       <c r="W23" s="34">
         <f t="shared" si="0"/>
-        <v>0.79259259259259263</v>
+        <v>0.80350877192982462</v>
       </c>
       <c r="X23"/>
     </row>
@@ -2585,11 +2629,13 @@
       <c r="T24" s="18">
         <v>11</v>
       </c>
-      <c r="U24" s="18"/>
+      <c r="U24" s="18">
+        <v>6</v>
+      </c>
       <c r="V24" s="18"/>
       <c r="W24" s="34">
         <f t="shared" si="0"/>
-        <v>0.59259259259259256</v>
+        <v>0.58245614035087723</v>
       </c>
       <c r="X24"/>
     </row>
@@ -2652,11 +2698,13 @@
       <c r="T25" s="18">
         <v>9</v>
       </c>
-      <c r="U25" s="18"/>
+      <c r="U25" s="18">
+        <v>12</v>
+      </c>
       <c r="V25" s="18"/>
       <c r="W25" s="34">
         <f t="shared" si="0"/>
-        <v>0.60370370370370374</v>
+        <v>0.61403508771929827</v>
       </c>
       <c r="X25"/>
     </row>
@@ -2719,11 +2767,13 @@
       <c r="T26" s="18">
         <v>9</v>
       </c>
-      <c r="U26" s="18"/>
+      <c r="U26" s="18">
+        <v>15</v>
+      </c>
       <c r="V26" s="18"/>
       <c r="W26" s="34">
         <f t="shared" si="0"/>
-        <v>0.61481481481481481</v>
+        <v>0.63508771929824559</v>
       </c>
       <c r="X26"/>
     </row>
@@ -2786,11 +2836,13 @@
       <c r="T27" s="18">
         <v>9</v>
       </c>
-      <c r="U27" s="18"/>
+      <c r="U27" s="18">
+        <v>6</v>
+      </c>
       <c r="V27" s="18"/>
       <c r="W27" s="34">
         <f t="shared" si="0"/>
-        <v>0.58148148148148149</v>
+        <v>0.57192982456140351</v>
       </c>
       <c r="X27"/>
     </row>
@@ -2853,11 +2905,13 @@
       <c r="T28" s="18">
         <v>3</v>
       </c>
-      <c r="U28" s="18"/>
+      <c r="U28" s="18">
+        <v>6</v>
+      </c>
       <c r="V28" s="18"/>
       <c r="W28" s="34">
         <f t="shared" si="0"/>
-        <v>0.44074074074074077</v>
+        <v>0.43859649122807015</v>
       </c>
       <c r="X28"/>
     </row>
@@ -2920,11 +2974,13 @@
       <c r="T29" s="18">
         <v>9</v>
       </c>
-      <c r="U29" s="18"/>
+      <c r="U29" s="18">
+        <v>9</v>
+      </c>
       <c r="V29" s="18"/>
       <c r="W29" s="34">
         <f t="shared" si="0"/>
-        <v>0.45925925925925926</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="X29"/>
     </row>
@@ -2987,11 +3043,13 @@
       <c r="T30" s="18">
         <v>3</v>
       </c>
-      <c r="U30" s="18"/>
+      <c r="U30" s="18">
+        <v>6</v>
+      </c>
       <c r="V30" s="18"/>
       <c r="W30" s="34">
         <f t="shared" si="0"/>
-        <v>0.46666666666666667</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="X30"/>
     </row>
@@ -3043,7 +3101,7 @@
         <v>9</v>
       </c>
       <c r="Q31" s="18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R31" s="18">
         <v>9</v>
@@ -3054,11 +3112,13 @@
       <c r="T31" s="18">
         <v>9</v>
       </c>
-      <c r="U31" s="18"/>
+      <c r="U31" s="18">
+        <v>3</v>
+      </c>
       <c r="V31" s="18"/>
       <c r="W31" s="34">
         <f t="shared" si="0"/>
-        <v>0.47407407407407409</v>
+        <v>0.47017543859649125</v>
       </c>
       <c r="X31"/>
     </row>
@@ -3121,11 +3181,13 @@
       <c r="T32" s="18">
         <v>9</v>
       </c>
-      <c r="U32" s="18"/>
+      <c r="U32" s="18">
+        <v>6</v>
+      </c>
       <c r="V32" s="18"/>
       <c r="W32" s="34">
         <f t="shared" si="0"/>
-        <v>0.65555555555555556</v>
+        <v>0.64210526315789473</v>
       </c>
       <c r="X32"/>
     </row>
@@ -3188,11 +3250,13 @@
       <c r="T33" s="18">
         <v>9</v>
       </c>
-      <c r="U33" s="18"/>
+      <c r="U33" s="18">
+        <v>6</v>
+      </c>
       <c r="V33" s="18"/>
       <c r="W33" s="34">
         <f t="shared" si="0"/>
-        <v>0.43333333333333335</v>
+        <v>0.43157894736842106</v>
       </c>
       <c r="X33"/>
     </row>
@@ -3255,11 +3319,13 @@
       <c r="T34" s="18">
         <v>9</v>
       </c>
-      <c r="U34" s="18"/>
+      <c r="U34" s="18">
+        <v>15</v>
+      </c>
       <c r="V34" s="18"/>
       <c r="W34" s="34">
         <f t="shared" si="0"/>
-        <v>0.70740740740740737</v>
+        <v>0.72280701754385968</v>
       </c>
       <c r="X34"/>
     </row>
@@ -3322,11 +3388,13 @@
       <c r="T35" s="18">
         <v>9</v>
       </c>
-      <c r="U35" s="18"/>
+      <c r="U35" s="18">
+        <v>15</v>
+      </c>
       <c r="V35" s="18"/>
       <c r="W35" s="34">
         <f t="shared" si="0"/>
-        <v>0.89629629629629626</v>
+        <v>0.90175438596491231</v>
       </c>
       <c r="X35"/>
     </row>
@@ -3389,11 +3457,13 @@
       <c r="T36" s="18">
         <v>9</v>
       </c>
-      <c r="U36" s="18"/>
+      <c r="U36" s="18">
+        <v>15</v>
+      </c>
       <c r="V36" s="18"/>
       <c r="W36" s="34">
         <f t="shared" si="0"/>
-        <v>0.56666666666666665</v>
+        <v>0.58947368421052626</v>
       </c>
       <c r="X36"/>
     </row>
@@ -3456,11 +3526,13 @@
       <c r="T37" s="18">
         <v>3</v>
       </c>
-      <c r="U37" s="18"/>
+      <c r="U37" s="18">
+        <v>9</v>
+      </c>
       <c r="V37" s="18"/>
       <c r="W37" s="34">
         <f t="shared" si="0"/>
-        <v>0.65925925925925921</v>
+        <v>0.65614035087719302</v>
       </c>
       <c r="X37"/>
     </row>
@@ -3523,11 +3595,13 @@
       <c r="T38" s="18">
         <v>0</v>
       </c>
-      <c r="U38" s="18"/>
+      <c r="U38" s="18">
+        <v>0</v>
+      </c>
       <c r="V38" s="18"/>
       <c r="W38" s="34">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="X38"/>
     </row>
@@ -3590,11 +3664,13 @@
       <c r="T39" s="18">
         <v>0</v>
       </c>
-      <c r="U39" s="18"/>
+      <c r="U39" s="18">
+        <v>0</v>
+      </c>
       <c r="V39" s="18"/>
       <c r="W39" s="34">
         <f t="shared" si="0"/>
-        <v>0.36666666666666664</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="X39"/>
     </row>
@@ -3762,7 +3838,7 @@
       </c>
       <c r="Q42" s="30">
         <f t="shared" si="1"/>
-        <v>7.6578947368421053</v>
+        <v>7.7368421052631575</v>
       </c>
       <c r="R42" s="30">
         <f t="shared" si="1"/>
@@ -3776,9 +3852,9 @@
         <f t="shared" si="1"/>
         <v>5.6578947368421053</v>
       </c>
-      <c r="U42" s="30" t="e">
+      <c r="U42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7.5526315789473681</v>
       </c>
       <c r="V42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -3786,7 +3862,7 @@
       </c>
       <c r="W42" s="30">
         <f t="shared" si="1"/>
-        <v>0.5338206627680312</v>
+        <v>0.5325023084025855</v>
       </c>
       <c r="X42"/>
     </row>
@@ -3856,7 +3932,7 @@
       </c>
       <c r="Q43" s="30">
         <f t="shared" si="2"/>
-        <v>4.8839301619144839</v>
+        <v>4.7799367321738311</v>
       </c>
       <c r="R43" s="30">
         <f t="shared" si="2"/>
@@ -3870,9 +3946,9 @@
         <f t="shared" si="2"/>
         <v>4.0153510552289573</v>
       </c>
-      <c r="U43" s="30" t="e">
+      <c r="U43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>5.8757282167246005</v>
       </c>
       <c r="V43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -3880,7 +3956,7 @@
       </c>
       <c r="W43" s="30">
         <f t="shared" si="2"/>
-        <v>0.21409594786369904</v>
+        <v>0.22005227857473506</v>
       </c>
       <c r="X43"/>
     </row>
@@ -3964,9 +4040,9 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="U44" s="30" t="e">
+      <c r="U44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>6</v>
       </c>
       <c r="V44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -3974,7 +4050,7 @@
       </c>
       <c r="W44" s="30">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.49824561403508771</v>
       </c>
       <c r="X44"/>
     </row>
@@ -4060,7 +4136,7 @@
       </c>
       <c r="U45" s="33">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" s="33">
         <f t="shared" si="4"/>
@@ -4366,7 +4442,7 @@
   <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4442,11 +4518,13 @@
       <c r="I2" s="54">
         <v>89</v>
       </c>
-      <c r="J2" s="52"/>
+      <c r="J2" s="52">
+        <v>90</v>
+      </c>
       <c r="K2" s="52"/>
       <c r="L2" s="34">
         <f>IF(SUM($B$45:$I$45)&gt;0,1.5*(B2/$B$41+C2/$C$41+D2/$D$41+E2/$E$41+F2/$F$41+G2/$G$41+H2/$H$41+I2/$I$41+J2/$J$41+K2/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>1.2468750000000002</v>
+        <v>1.2583333333333335</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4477,11 +4555,13 @@
       <c r="I3" s="54">
         <v>0</v>
       </c>
-      <c r="J3" s="52"/>
+      <c r="J3" s="52">
+        <v>81</v>
+      </c>
       <c r="K3" s="52"/>
       <c r="L3" s="34">
         <f t="shared" ref="L3:L39" si="0">IF(SUM($B$45:$I$45)&gt;0,1.5*(B3/$B$41+C3/$C$41+D3/$D$41+E3/$E$41+F3/$F$41+G3/$G$41+H3/$H$41+I3/$I$41+J3/$J$41+K3/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>0.60468750000000004</v>
+        <v>0.67249999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4512,11 +4592,13 @@
       <c r="I4" s="54">
         <v>94</v>
       </c>
-      <c r="J4" s="52"/>
+      <c r="J4" s="52">
+        <v>97</v>
+      </c>
       <c r="K4" s="52"/>
       <c r="L4" s="34">
         <f t="shared" si="0"/>
-        <v>1.2224999999999999</v>
+        <v>1.2483333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4547,11 +4629,13 @@
       <c r="I5" s="54">
         <v>42</v>
       </c>
-      <c r="J5" s="52"/>
+      <c r="J5" s="52">
+        <v>0</v>
+      </c>
       <c r="K5" s="52"/>
       <c r="L5" s="34">
         <f t="shared" si="0"/>
-        <v>0.89437499999999992</v>
+        <v>0.79499999999999993</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4582,11 +4666,13 @@
       <c r="I6" s="54">
         <v>95</v>
       </c>
-      <c r="J6" s="52"/>
+      <c r="J6" s="52">
+        <v>96.5</v>
+      </c>
       <c r="K6" s="52"/>
       <c r="L6" s="34">
         <f t="shared" si="0"/>
-        <v>1.2168749999999999</v>
+        <v>1.2425000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4617,11 +4703,13 @@
       <c r="I7" s="54">
         <v>80</v>
       </c>
-      <c r="J7" s="52"/>
+      <c r="J7" s="52">
+        <v>93</v>
+      </c>
       <c r="K7" s="52"/>
       <c r="L7" s="34">
         <f t="shared" si="0"/>
-        <v>0.41531249999999997</v>
+        <v>0.52416666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4652,11 +4740,13 @@
       <c r="I8" s="54">
         <v>78</v>
       </c>
-      <c r="J8" s="52"/>
+      <c r="J8" s="52">
+        <v>0</v>
+      </c>
       <c r="K8" s="52"/>
       <c r="L8" s="34">
         <f t="shared" si="0"/>
-        <v>1.3021875000000001</v>
+        <v>1.1575</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4687,11 +4777,13 @@
       <c r="I9" s="54">
         <v>100</v>
       </c>
-      <c r="J9" s="52"/>
+      <c r="J9" s="52">
+        <v>99</v>
+      </c>
       <c r="K9" s="52"/>
       <c r="L9" s="34">
         <f t="shared" si="0"/>
-        <v>1.4540625</v>
+        <v>1.4575</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4722,11 +4814,13 @@
       <c r="I10" s="54">
         <v>47</v>
       </c>
-      <c r="J10" s="52"/>
+      <c r="J10" s="52">
+        <v>81.5</v>
+      </c>
       <c r="K10" s="52"/>
       <c r="L10" s="34">
         <f t="shared" si="0"/>
-        <v>1.2131250000000002</v>
+        <v>1.2141666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4757,11 +4851,13 @@
       <c r="I11" s="54">
         <v>53</v>
       </c>
-      <c r="J11" s="52"/>
+      <c r="J11" s="52">
+        <v>69</v>
+      </c>
       <c r="K11" s="52"/>
       <c r="L11" s="34">
         <f t="shared" si="0"/>
-        <v>0.35718749999999999</v>
+        <v>0.43249999999999994</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4792,11 +4888,13 @@
       <c r="I12" s="54">
         <v>10</v>
       </c>
-      <c r="J12" s="52"/>
+      <c r="J12" s="52">
+        <v>54</v>
+      </c>
       <c r="K12" s="52"/>
       <c r="L12" s="34">
         <f t="shared" si="0"/>
-        <v>0.49125000000000002</v>
+        <v>0.52666666666666673</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4827,11 +4925,13 @@
       <c r="I13" s="54">
         <v>96</v>
       </c>
-      <c r="J13" s="52"/>
+      <c r="J13" s="52">
+        <v>100</v>
+      </c>
       <c r="K13" s="52"/>
       <c r="L13" s="34">
         <f t="shared" si="0"/>
-        <v>1.42875</v>
+        <v>1.4366666666666668</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4862,11 +4962,13 @@
       <c r="I14" s="54">
         <v>88</v>
       </c>
-      <c r="J14" s="52"/>
+      <c r="J14" s="52">
+        <v>97.5</v>
+      </c>
       <c r="K14" s="52"/>
       <c r="L14" s="34">
         <f t="shared" si="0"/>
-        <v>1.254375</v>
+        <v>1.2774999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4897,11 +4999,13 @@
       <c r="I15" s="54">
         <v>0</v>
       </c>
-      <c r="J15" s="52"/>
+      <c r="J15" s="52">
+        <v>0</v>
+      </c>
       <c r="K15" s="52"/>
       <c r="L15" s="34">
         <f t="shared" si="0"/>
-        <v>6.6562499999999997E-2</v>
+        <v>5.9166666666666666E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4932,11 +5036,13 @@
       <c r="I16" s="54">
         <v>94</v>
       </c>
-      <c r="J16" s="52"/>
+      <c r="J16" s="52">
+        <v>100</v>
+      </c>
       <c r="K16" s="52"/>
       <c r="L16" s="34">
         <f t="shared" si="0"/>
-        <v>1.4203124999999999</v>
+        <v>1.4291666666666665</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4967,11 +5073,13 @@
       <c r="I17" s="54">
         <v>93</v>
       </c>
-      <c r="J17" s="52"/>
+      <c r="J17" s="52">
+        <v>96.5</v>
+      </c>
       <c r="K17" s="52"/>
       <c r="L17" s="34">
         <f t="shared" si="0"/>
-        <v>1.2599999999999998</v>
+        <v>1.280833333333333</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5002,11 +5110,13 @@
       <c r="I18" s="54">
         <v>67</v>
       </c>
-      <c r="J18" s="52"/>
+      <c r="J18" s="52">
+        <v>68</v>
+      </c>
       <c r="K18" s="52"/>
       <c r="L18" s="34">
         <f t="shared" si="0"/>
-        <v>0.85125000000000006</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5037,11 +5147,13 @@
       <c r="I19" s="54">
         <v>100</v>
       </c>
-      <c r="J19" s="52"/>
+      <c r="J19" s="52">
+        <v>100</v>
+      </c>
       <c r="K19" s="52"/>
       <c r="L19" s="34">
         <f t="shared" si="0"/>
-        <v>1.3190624999999998</v>
+        <v>1.3391666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5072,11 +5184,13 @@
       <c r="I20" s="54">
         <v>100</v>
       </c>
-      <c r="J20" s="52"/>
+      <c r="J20" s="52">
+        <v>100</v>
+      </c>
       <c r="K20" s="52"/>
       <c r="L20" s="34">
         <f t="shared" si="0"/>
-        <v>1.3190625</v>
+        <v>1.3391666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5107,11 +5221,13 @@
       <c r="I21" s="54">
         <v>0</v>
       </c>
-      <c r="J21" s="52"/>
+      <c r="J21" s="52">
+        <v>0</v>
+      </c>
       <c r="K21" s="52"/>
       <c r="L21" s="34">
         <f t="shared" si="0"/>
-        <v>0.45843749999999994</v>
+        <v>0.40749999999999997</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5142,11 +5258,13 @@
       <c r="I22" s="54">
         <v>93</v>
       </c>
-      <c r="J22" s="52"/>
+      <c r="J22" s="52">
+        <v>100</v>
+      </c>
       <c r="K22" s="52"/>
       <c r="L22" s="34">
         <f t="shared" si="0"/>
-        <v>1.4015624999999998</v>
+        <v>1.4124999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5177,11 +5295,13 @@
       <c r="I23" s="54">
         <v>90</v>
       </c>
-      <c r="J23" s="52"/>
+      <c r="J23" s="52">
+        <v>98</v>
+      </c>
       <c r="K23" s="52"/>
       <c r="L23" s="34">
         <f t="shared" si="0"/>
-        <v>1.21875</v>
+        <v>1.2466666666666668</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5212,11 +5332,13 @@
       <c r="I24" s="54">
         <v>0</v>
       </c>
-      <c r="J24" s="52"/>
+      <c r="J24" s="52">
+        <v>20.5</v>
+      </c>
       <c r="K24" s="52"/>
       <c r="L24" s="34">
         <f t="shared" si="0"/>
-        <v>0.55593749999999997</v>
+        <v>0.52833333333333332</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5247,11 +5369,13 @@
       <c r="I25" s="54">
         <v>61</v>
       </c>
-      <c r="J25" s="52"/>
+      <c r="J25" s="52">
+        <v>97.5</v>
+      </c>
       <c r="K25" s="52"/>
       <c r="L25" s="34">
         <f t="shared" si="0"/>
-        <v>0.9375</v>
+        <v>0.99583333333333313</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5282,11 +5406,13 @@
       <c r="I26" s="54">
         <v>71</v>
       </c>
-      <c r="J26" s="52"/>
+      <c r="J26" s="52">
+        <v>83.5</v>
+      </c>
       <c r="K26" s="52"/>
       <c r="L26" s="34">
         <f t="shared" si="0"/>
-        <v>0.81</v>
+        <v>0.85916666666666663</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5317,11 +5443,13 @@
       <c r="I27" s="54">
         <v>75</v>
       </c>
-      <c r="J27" s="52"/>
+      <c r="J27" s="52">
+        <v>81</v>
+      </c>
       <c r="K27" s="52"/>
       <c r="L27" s="34">
         <f t="shared" si="0"/>
-        <v>0.95343749999999994</v>
+        <v>0.98249999999999993</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5352,11 +5480,13 @@
       <c r="I28" s="54">
         <v>70</v>
       </c>
-      <c r="J28" s="52"/>
+      <c r="J28" s="52">
+        <v>54</v>
+      </c>
       <c r="K28" s="52"/>
       <c r="L28" s="34">
         <f t="shared" si="0"/>
-        <v>0.7265625</v>
+        <v>0.73583333333333334</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5387,11 +5517,13 @@
       <c r="I29" s="54">
         <v>0</v>
       </c>
-      <c r="J29" s="52"/>
+      <c r="J29" s="52">
+        <v>0</v>
+      </c>
       <c r="K29" s="52"/>
       <c r="L29" s="34">
         <f t="shared" si="0"/>
-        <v>0.43406250000000002</v>
+        <v>0.38583333333333336</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5422,11 +5554,13 @@
       <c r="I30" s="54">
         <v>82</v>
       </c>
-      <c r="J30" s="52"/>
+      <c r="J30" s="52">
+        <v>83</v>
+      </c>
       <c r="K30" s="52"/>
       <c r="L30" s="34">
         <f t="shared" si="0"/>
-        <v>1.0518750000000001</v>
+        <v>1.0733333333333333</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5457,11 +5591,13 @@
       <c r="I31" s="54">
         <v>77</v>
       </c>
-      <c r="J31" s="52"/>
+      <c r="J31" s="52">
+        <v>99</v>
+      </c>
       <c r="K31" s="52"/>
       <c r="L31" s="34">
         <f t="shared" si="0"/>
-        <v>1.2318750000000001</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5492,11 +5628,13 @@
       <c r="I32" s="54">
         <v>98</v>
       </c>
-      <c r="J32" s="52"/>
+      <c r="J32" s="52">
+        <v>100</v>
+      </c>
       <c r="K32" s="52"/>
       <c r="L32" s="34">
         <f t="shared" si="0"/>
-        <v>1.2815624999999997</v>
+        <v>1.3058333333333332</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5527,11 +5665,13 @@
       <c r="I33" s="54">
         <v>83</v>
       </c>
-      <c r="J33" s="52"/>
+      <c r="J33" s="52">
+        <v>83</v>
+      </c>
       <c r="K33" s="52"/>
       <c r="L33" s="34">
         <f t="shared" si="0"/>
-        <v>0.84562499999999996</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5562,11 +5702,13 @@
       <c r="I34" s="54">
         <v>0</v>
       </c>
-      <c r="J34" s="52"/>
+      <c r="J34" s="52">
+        <v>0</v>
+      </c>
       <c r="K34" s="52"/>
       <c r="L34" s="34">
         <f t="shared" si="0"/>
-        <v>0.18562499999999998</v>
+        <v>0.16499999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5597,11 +5739,13 @@
       <c r="I35" s="54">
         <v>84</v>
       </c>
-      <c r="J35" s="52"/>
+      <c r="J35" s="52">
+        <v>100</v>
+      </c>
       <c r="K35" s="52"/>
       <c r="L35" s="34">
         <f t="shared" si="0"/>
-        <v>1.400625</v>
+        <v>1.4116666666666664</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5632,11 +5776,13 @@
       <c r="I36" s="54">
         <v>82</v>
       </c>
-      <c r="J36" s="52"/>
+      <c r="J36" s="52">
+        <v>88.5</v>
+      </c>
       <c r="K36" s="52"/>
       <c r="L36" s="34">
         <f t="shared" si="0"/>
-        <v>1.0209375000000001</v>
+        <v>1.0550000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5667,11 +5813,13 @@
       <c r="I37" s="54">
         <v>65</v>
       </c>
-      <c r="J37" s="52"/>
+      <c r="J37" s="52">
+        <v>87</v>
+      </c>
       <c r="K37" s="52"/>
       <c r="L37" s="34">
         <f t="shared" si="0"/>
-        <v>0.71718750000000009</v>
+        <v>0.78250000000000008</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5702,11 +5850,13 @@
       <c r="I38" s="54">
         <v>84</v>
       </c>
-      <c r="J38" s="52"/>
+      <c r="J38" s="52">
+        <v>0</v>
+      </c>
       <c r="K38" s="52"/>
       <c r="L38" s="34">
         <f t="shared" si="0"/>
-        <v>0.54187499999999988</v>
+        <v>0.48166666666666658</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5737,11 +5887,13 @@
       <c r="I39" s="54">
         <v>67</v>
       </c>
-      <c r="J39" s="52"/>
+      <c r="J39" s="52">
+        <v>79</v>
+      </c>
       <c r="K39" s="52"/>
       <c r="L39" s="34">
         <f t="shared" si="0"/>
-        <v>0.75093750000000004</v>
+        <v>0.79916666666666669</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5831,9 +5983,9 @@
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="J42" s="30" t="e">
+      <c r="J42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>70.44736842105263</v>
       </c>
       <c r="K42" s="30" t="e">
         <f t="shared" si="1"/>
@@ -5841,7 +5993,7 @@
       </c>
       <c r="L42" s="30">
         <f t="shared" si="1"/>
-        <v>0.94374177631578937</v>
+        <v>0.95629385964912272</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5880,9 +6032,9 @@
         <f t="shared" si="2"/>
         <v>34.203682431748369</v>
       </c>
-      <c r="J43" s="30" t="e">
+      <c r="J43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>37.563421949594797</v>
       </c>
       <c r="K43" s="30" t="e">
         <f t="shared" si="2"/>
@@ -5890,7 +6042,7 @@
       </c>
       <c r="L43" s="30">
         <f t="shared" si="2"/>
-        <v>0.38986142591029282</v>
+        <v>0.39096495014714505</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5929,9 +6081,9 @@
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="J44" s="30" t="e">
+      <c r="J44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>85.25</v>
       </c>
       <c r="K44" s="30" t="e">
         <f t="shared" si="3"/>
@@ -5939,7 +6091,7 @@
       </c>
       <c r="L44" s="30">
         <f t="shared" si="3"/>
-        <v>0.9871875</v>
+        <v>1.0254166666666666</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5980,7 +6132,7 @@
       </c>
       <c r="J45" s="33">
         <f t="shared" ref="J45:K45" si="5">IF(SUM(J2:J39)&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="33">
         <f t="shared" si="5"/>
@@ -6833,11 +6985,11 @@
       </c>
       <c r="B2" s="34">
         <f>Quiz!W2</f>
-        <v>0.43703703703703706</v>
+        <v>0.43508771929824563</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
-        <v>1.2468750000000002</v>
+        <v>1.2583333333333335</v>
       </c>
       <c r="D2" s="43">
         <f>Exams!B2</f>
@@ -6849,7 +7001,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>2.7639120370370374</v>
+        <v>2.773421052631579</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -6867,11 +7019,11 @@
       </c>
       <c r="B3" s="34">
         <f>Quiz!W3</f>
-        <v>0.1</v>
+        <v>9.4736842105263161E-2</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
-        <v>0.60468750000000004</v>
+        <v>0.67249999999999999</v>
       </c>
       <c r="D3" s="43">
         <f>Exams!B3</f>
@@ -6883,7 +7035,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.8926875000000001</v>
+        <v>1.9552368421052633</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -6900,11 +7052,11 @@
       </c>
       <c r="B4" s="34">
         <f>Quiz!W4</f>
-        <v>0.48518518518518516</v>
+        <v>0.48070175438596491</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
-        <v>1.2224999999999999</v>
+        <v>1.2483333333333333</v>
       </c>
       <c r="D4" s="43">
         <f>Exams!B4</f>
@@ -6916,7 +7068,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.8596851851851852</v>
+        <v>2.8810350877192983</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -6933,11 +7085,11 @@
       </c>
       <c r="B5" s="34">
         <f>Quiz!W5</f>
-        <v>0.49629629629629629</v>
+        <v>0.47017543859649125</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
-        <v>0.89437499999999992</v>
+        <v>0.79499999999999993</v>
       </c>
       <c r="D5" s="43">
         <f>Exams!B5</f>
@@ -6949,7 +7101,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>2.674671296296296</v>
+        <v>2.5491754385964915</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -6966,11 +7118,11 @@
       </c>
       <c r="B6" s="34">
         <f>Quiz!W6</f>
-        <v>0.50370370370370365</v>
+        <v>0.47719298245614034</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
-        <v>1.2168749999999999</v>
+        <v>1.2425000000000002</v>
       </c>
       <c r="D6" s="43">
         <f>Exams!B6</f>
@@ -6982,7 +7134,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>2.8485787037037036</v>
+        <v>2.8476929824561408</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -6999,11 +7151,11 @@
       </c>
       <c r="B7" s="34">
         <f>Quiz!W7</f>
-        <v>0.36666666666666664</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
-        <v>0.41531249999999997</v>
+        <v>0.52416666666666667</v>
       </c>
       <c r="D7" s="43">
         <f>Exams!B7</f>
@@ -7015,7 +7167,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>1.9819791666666668</v>
+        <v>2.0715350877192984</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -7032,11 +7184,11 @@
       </c>
       <c r="B8" s="34">
         <f>Quiz!W8</f>
-        <v>0.49259259259259258</v>
+        <v>0.50877192982456143</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
-        <v>1.3021875000000001</v>
+        <v>1.1575</v>
       </c>
       <c r="D8" s="43">
         <f>Exams!B8</f>
@@ -7048,7 +7200,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>2.9707800925925927</v>
+        <v>2.8422719298245616</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -7065,11 +7217,11 @@
       </c>
       <c r="B9" s="34">
         <f>Quiz!W9</f>
-        <v>0.47407407407407409</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
-        <v>1.4540625</v>
+        <v>1.4575</v>
       </c>
       <c r="D9" s="43">
         <f>Exams!B9</f>
@@ -7081,7 +7233,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>3.4641365740740744</v>
+        <v>3.4601666666666668</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -7098,11 +7250,11 @@
       </c>
       <c r="B10" s="34">
         <f>Quiz!W10</f>
-        <v>0.48888888888888887</v>
+        <v>0.49473684210526314</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
-        <v>1.2131250000000002</v>
+        <v>1.2141666666666666</v>
       </c>
       <c r="D10" s="43">
         <f>Exams!B10</f>
@@ -7114,7 +7266,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>2.1100138888888891</v>
+        <v>2.1169035087719297</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -7131,11 +7283,11 @@
       </c>
       <c r="B11" s="34">
         <f>Quiz!W11</f>
-        <v>0.16296296296296298</v>
+        <v>0.15438596491228071</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
-        <v>0.35718749999999999</v>
+        <v>0.43249999999999994</v>
       </c>
       <c r="D11" s="43">
         <f>Exams!B11</f>
@@ -7147,7 +7299,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.540150462962963</v>
+        <v>1.6068859649122806</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -7164,11 +7316,11 @@
       </c>
       <c r="B12" s="34">
         <f>Quiz!W12</f>
-        <v>0.50740740740740742</v>
+        <v>0.512280701754386</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
-        <v>0.49125000000000002</v>
+        <v>0.52666666666666673</v>
       </c>
       <c r="D12" s="43">
         <f>Exams!B12</f>
@@ -7180,7 +7332,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>2.0786574074074076</v>
+        <v>2.1189473684210527</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -7197,11 +7349,11 @@
       </c>
       <c r="B13" s="34">
         <f>Quiz!W13</f>
-        <v>0.91111111111111109</v>
+        <v>0.91578947368421049</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
-        <v>1.42875</v>
+        <v>1.4366666666666668</v>
       </c>
       <c r="D13" s="43">
         <f>Exams!B13</f>
@@ -7213,7 +7365,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>5.0998611111111112</v>
+        <v>5.1124561403508775</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -7230,11 +7382,11 @@
       </c>
       <c r="B14" s="34">
         <f>Quiz!W14</f>
-        <v>0.82222222222222219</v>
+        <v>0.83157894736842108</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
-        <v>1.254375</v>
+        <v>1.2774999999999999</v>
       </c>
       <c r="D14" s="43">
         <f>Exams!B14</f>
@@ -7246,7 +7398,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>3.3365972222222222</v>
+        <v>3.3690789473684211</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -7263,11 +7415,11 @@
       </c>
       <c r="B15" s="34">
         <f>Quiz!W15</f>
-        <v>4.8148148148148148E-2</v>
+        <v>4.5614035087719301E-2</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
-        <v>6.6562499999999997E-2</v>
+        <v>5.9166666666666666E-2</v>
       </c>
       <c r="D15" s="43">
         <f>Exams!B15</f>
@@ -7279,7 +7431,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.11471064814814814</v>
+        <v>0.10478070175438597</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -7296,11 +7448,11 @@
       </c>
       <c r="B16" s="34">
         <f>Quiz!W16</f>
-        <v>0.83333333333333337</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
-        <v>1.4203124999999999</v>
+        <v>1.4291666666666665</v>
       </c>
       <c r="D16" s="43">
         <f>Exams!B16</f>
@@ -7312,7 +7464,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>4.6536458333333339</v>
+        <v>4.6712719298245613</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -7329,11 +7481,11 @@
       </c>
       <c r="B17" s="34">
         <f>Quiz!W17</f>
-        <v>0.46296296296296297</v>
+        <v>0.45964912280701753</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
-        <v>1.2599999999999998</v>
+        <v>1.280833333333333</v>
       </c>
       <c r="D17" s="43">
         <f>Exams!B17</f>
@@ -7345,7 +7497,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>2.4429629629629628</v>
+        <v>2.4604824561403502</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -7362,11 +7514,11 @@
       </c>
       <c r="B18" s="34">
         <f>Quiz!W18</f>
-        <v>0.52962962962962967</v>
+        <v>0.50175438596491229</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
-        <v>0.85125000000000006</v>
+        <v>0.87</v>
       </c>
       <c r="D18" s="43">
         <f>Exams!B18</f>
@@ -7378,7 +7530,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>2.2358796296296299</v>
+        <v>2.2267543859649122</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -7395,11 +7547,11 @@
       </c>
       <c r="B19" s="34">
         <f>Quiz!W19</f>
-        <v>0.75185185185185188</v>
+        <v>0.76491228070175443</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
-        <v>1.3190624999999998</v>
+        <v>1.3391666666666666</v>
       </c>
       <c r="D19" s="43">
         <f>Exams!B19</f>
@@ -7411,7 +7563,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>3.4749143518518517</v>
+        <v>3.5080789473684213</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -7428,11 +7580,11 @@
       </c>
       <c r="B20" s="34">
         <f>Quiz!W20</f>
-        <v>0.77407407407407403</v>
+        <v>0.78596491228070176</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
-        <v>1.3190625</v>
+        <v>1.3391666666666666</v>
       </c>
       <c r="D20" s="43">
         <f>Exams!B20</f>
@@ -7444,7 +7596,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>3.5571365740740739</v>
+        <v>3.5891315789473683</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -7461,11 +7613,11 @@
       </c>
       <c r="B21" s="34">
         <f>Quiz!W21</f>
-        <v>0.16666666666666666</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
-        <v>0.45843749999999994</v>
+        <v>0.40749999999999997</v>
       </c>
       <c r="D21" s="43">
         <f>Exams!B21</f>
@@ -7477,7 +7629,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.5011041666666665</v>
+        <v>1.4413947368421052</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -7494,11 +7646,11 @@
       </c>
       <c r="B22" s="34">
         <f>Quiz!W22</f>
-        <v>0.88148148148148153</v>
+        <v>0.88771929824561402</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
-        <v>1.4015624999999998</v>
+        <v>1.4124999999999999</v>
       </c>
       <c r="D22" s="43">
         <f>Exams!B22</f>
@@ -7510,15 +7662,15 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>4.7430439814814811</v>
+        <v>4.7602192982456142</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H22" s="51">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7527,11 +7679,11 @@
       </c>
       <c r="B23" s="34">
         <f>Quiz!W23</f>
-        <v>0.79259259259259263</v>
+        <v>0.80350877192982462</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
-        <v>1.21875</v>
+        <v>1.2466666666666668</v>
       </c>
       <c r="D23" s="43">
         <f>Exams!B23</f>
@@ -7543,7 +7695,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.8753425925925926</v>
+        <v>2.9141754385964913</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -7560,11 +7712,11 @@
       </c>
       <c r="B24" s="34">
         <f>Quiz!W24</f>
-        <v>0.59259259259259256</v>
+        <v>0.58245614035087723</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
-        <v>0.55593749999999997</v>
+        <v>0.52833333333333332</v>
       </c>
       <c r="D24" s="43">
         <f>Exams!B24</f>
@@ -7576,7 +7728,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>2.9005300925925921</v>
+        <v>2.8627894736842103</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -7593,11 +7745,11 @@
       </c>
       <c r="B25" s="34">
         <f>Quiz!W25</f>
-        <v>0.60370370370370374</v>
+        <v>0.61403508771929827</v>
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
-        <v>0.9375</v>
+        <v>0.99583333333333313</v>
       </c>
       <c r="D25" s="43">
         <f>Exams!B25</f>
@@ -7609,7 +7761,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>2.1532037037037037</v>
+        <v>2.2218684210526316</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -7626,11 +7778,11 @@
       </c>
       <c r="B26" s="34">
         <f>Quiz!W26</f>
-        <v>0.61481481481481481</v>
+        <v>0.63508771929824559</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
-        <v>0.81</v>
+        <v>0.85916666666666663</v>
       </c>
       <c r="D26" s="43">
         <f>Exams!B26</f>
@@ -7642,7 +7794,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>2.2888148148148146</v>
+        <v>2.3582543859649121</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -7659,11 +7811,11 @@
       </c>
       <c r="B27" s="34">
         <f>Quiz!W27</f>
-        <v>0.58148148148148149</v>
+        <v>0.57192982456140351</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
-        <v>0.95343749999999994</v>
+        <v>0.98249999999999993</v>
       </c>
       <c r="D27" s="43">
         <f>Exams!B27</f>
@@ -7675,7 +7827,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>2.2669189814814814</v>
+        <v>2.2864298245614032</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -7692,11 +7844,11 @@
       </c>
       <c r="B28" s="34">
         <f>Quiz!W28</f>
-        <v>0.44074074074074077</v>
+        <v>0.43859649122807015</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
-        <v>0.7265625</v>
+        <v>0.73583333333333334</v>
       </c>
       <c r="D28" s="43">
         <f>Exams!B28</f>
@@ -7708,7 +7860,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.8273032407407408</v>
+        <v>1.8344298245614037</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -7725,11 +7877,11 @@
       </c>
       <c r="B29" s="34">
         <f>Quiz!W29</f>
-        <v>0.45925925925925926</v>
+        <v>0.46666666666666667</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
-        <v>0.43406250000000002</v>
+        <v>0.38583333333333336</v>
       </c>
       <c r="D29" s="43">
         <f>Exams!B29</f>
@@ -7741,7 +7893,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.1573217592592593</v>
+        <v>1.1165</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -7758,11 +7910,11 @@
       </c>
       <c r="B30" s="34">
         <f>Quiz!W30</f>
-        <v>0.46666666666666667</v>
+        <v>0.4631578947368421</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
-        <v>1.0518750000000001</v>
+        <v>1.0733333333333333</v>
       </c>
       <c r="D30" s="43">
         <f>Exams!B30</f>
@@ -7774,7 +7926,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>2.1425416666666668</v>
+        <v>2.1604912280701756</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -7791,11 +7943,11 @@
       </c>
       <c r="B31" s="34">
         <f>Quiz!W31</f>
-        <v>0.47407407407407409</v>
+        <v>0.47017543859649125</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
-        <v>1.2318750000000001</v>
+        <v>1.26</v>
       </c>
       <c r="D31" s="43">
         <f>Exams!B31</f>
@@ -7807,7 +7959,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>2.2939490740740744</v>
+        <v>2.3181754385964912</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -7824,11 +7976,11 @@
       </c>
       <c r="B32" s="34">
         <f>Quiz!W32</f>
-        <v>0.65555555555555556</v>
+        <v>0.64210526315789473</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
-        <v>1.2815624999999997</v>
+        <v>1.3058333333333332</v>
       </c>
       <c r="D32" s="43">
         <f>Exams!B32</f>
@@ -7840,7 +7992,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>3.1971180555555554</v>
+        <v>3.2079385964912279</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -7857,11 +8009,11 @@
       </c>
       <c r="B33" s="34">
         <f>Quiz!W33</f>
-        <v>0.43333333333333335</v>
+        <v>0.43157894736842106</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
-        <v>0.84562499999999996</v>
+        <v>0.89</v>
       </c>
       <c r="D33" s="43">
         <f>Exams!B33</f>
@@ -7873,7 +8025,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>2.3469583333333333</v>
+        <v>2.3895789473684212</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -7890,11 +8042,11 @@
       </c>
       <c r="B34" s="34">
         <f>Quiz!W34</f>
-        <v>0.70740740740740737</v>
+        <v>0.72280701754385968</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
-        <v>0.18562499999999998</v>
+        <v>0.16499999999999998</v>
       </c>
       <c r="D34" s="43">
         <f>Exams!B34</f>
@@ -7906,7 +8058,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>2.3570324074074076</v>
+        <v>2.3518070175438597</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -7923,11 +8075,11 @@
       </c>
       <c r="B35" s="34">
         <f>Quiz!W35</f>
-        <v>0.89629629629629626</v>
+        <v>0.90175438596491231</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
-        <v>1.400625</v>
+        <v>1.4116666666666664</v>
       </c>
       <c r="D35" s="43">
         <f>Exams!B35</f>
@@ -7939,7 +8091,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>5.2129212962962956</v>
+        <v>5.2294210526315785</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -7956,11 +8108,11 @@
       </c>
       <c r="B36" s="34">
         <f>Quiz!W36</f>
-        <v>0.56666666666666665</v>
+        <v>0.58947368421052626</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
-        <v>1.0209375000000001</v>
+        <v>1.0550000000000002</v>
       </c>
       <c r="D36" s="43">
         <f>Exams!B36</f>
@@ -7972,7 +8124,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>2.3676041666666667</v>
+        <v>2.4244736842105263</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -7989,11 +8141,11 @@
       </c>
       <c r="B37" s="34">
         <f>Quiz!W37</f>
-        <v>0.65925925925925921</v>
+        <v>0.65614035087719302</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
-        <v>0.71718750000000009</v>
+        <v>0.78250000000000008</v>
       </c>
       <c r="D37" s="43">
         <f>Exams!B37</f>
@@ -8005,7 +8157,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>2.8284467592592595</v>
+        <v>2.890640350877193</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -8022,11 +8174,11 @@
       </c>
       <c r="B38" s="34">
         <f>Quiz!W38</f>
-        <v>0.27777777777777779</v>
+        <v>0.26315789473684209</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
-        <v>0.54187499999999988</v>
+        <v>0.48166666666666658</v>
       </c>
       <c r="D38" s="43">
         <f>Exams!B38</f>
@@ -8038,7 +8190,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>1.0836527777777776</v>
+        <v>1.0088245614035087</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -8055,11 +8207,11 @@
       </c>
       <c r="B39" s="34">
         <f>Quiz!W39</f>
-        <v>0.36666666666666664</v>
+        <v>0.3473684210526316</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
-        <v>0.75093750000000004</v>
+        <v>0.79916666666666669</v>
       </c>
       <c r="D39" s="43">
         <f>Exams!B39</f>
@@ -8071,7 +8223,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.6216041666666667</v>
+        <v>1.6505350877192984</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -8119,7 +8271,7 @@
       </c>
       <c r="H41" s="40">
         <f>SUM(H2:H33)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -8128,11 +8280,11 @@
       </c>
       <c r="B42" s="30">
         <f>AVERAGE(B$2:B$39)</f>
-        <v>0.5338206627680312</v>
+        <v>0.5325023084025855</v>
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
-        <v>0.94374177631578937</v>
+        <v>0.95629385964912272</v>
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
@@ -8144,15 +8296,15 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6122729653996108</v>
+        <v>2.6235066943674981</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6184210526315788</v>
+        <v>2.6315789473684212</v>
       </c>
       <c r="H42" s="30">
         <f t="shared" si="9"/>
-        <v>5.2631578947368418E-2</v>
+        <v>7.8947368421052627E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -8161,11 +8313,11 @@
       </c>
       <c r="B43" s="30">
         <f>STDEV(B$2:B$39)</f>
-        <v>0.21409594786369904</v>
+        <v>0.22005227857473506</v>
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
-        <v>0.38986142591029282</v>
+        <v>0.39096495014714505</v>
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
@@ -8177,15 +8329,15 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0731010383932014</v>
+        <v>1.0774397551428996</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0618330054376255</v>
+        <v>1.0885411172156672</v>
       </c>
       <c r="H43" s="30">
         <f t="shared" si="10"/>
-        <v>0.22629428592141426</v>
+        <v>0.27327631273309388</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -8194,11 +8346,11 @@
       </c>
       <c r="B44" s="30">
         <f>MEDIAN(B$2:B$39)</f>
-        <v>0.5</v>
+        <v>0.49824561403508771</v>
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
-        <v>0.9871875</v>
+        <v>1.0254166666666666</v>
       </c>
       <c r="D44" s="30">
         <f t="shared" si="11"/>
@@ -8210,7 +8362,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>2.3623182870370369</v>
+        <v>2.4070263157894738</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{743D219D-6EF6-9740-A3DE-8BA2A18A6EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CD5FB-537A-F545-895C-CCB261EA40B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2920" yWindow="1940" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Quiz Total</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Quiz 20</t>
-  </si>
-  <si>
-    <t>Quiz 21</t>
   </si>
   <si>
     <t>Hm 9</t>
@@ -966,22 +963,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X140"/>
+  <dimension ref="A1:W140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="5" customWidth="1"/>
-    <col min="3" max="22" width="11.83203125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="14.83203125" style="6" customWidth="1"/>
-    <col min="24" max="24" width="15.1640625" style="7" customWidth="1"/>
+    <col min="3" max="21" width="11.83203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="14.83203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="15.1640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
         <v>5</v>
       </c>
@@ -1045,15 +1042,12 @@
       <c r="U1" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="38" t="s">
+      <c r="V1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="X1"/>
-    </row>
-    <row r="2" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W1"/>
+    </row>
+    <row r="2" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="25">
         <v>49156</v>
       </c>
@@ -1115,14 +1109,13 @@
       <c r="U2" s="18">
         <v>6</v>
       </c>
-      <c r="V2" s="18"/>
-      <c r="W2" s="34">
-        <f t="shared" ref="W2:W39" si="0">$W$41 * ( (SUM(B2:V2))/((SUM($B$45:$V$45))*$B$41) )</f>
+      <c r="V2" s="34">
+        <f>$V$41 * ( (SUM(B2:U2))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.43508771929824563</v>
       </c>
-      <c r="X2"/>
-    </row>
-    <row r="3" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W2"/>
+    </row>
+    <row r="3" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="25">
         <v>54695</v>
       </c>
@@ -1184,14 +1177,13 @@
       <c r="U3" s="18">
         <v>0</v>
       </c>
-      <c r="V3" s="18"/>
-      <c r="W3" s="34">
-        <f t="shared" si="0"/>
+      <c r="V3" s="34">
+        <f>$V$41 * ( (SUM(B3:U3))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>9.4736842105263161E-2</v>
       </c>
-      <c r="X3"/>
-    </row>
-    <row r="4" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="25">
         <v>54699</v>
       </c>
@@ -1253,14 +1245,13 @@
       <c r="U4" s="18">
         <v>6</v>
       </c>
-      <c r="V4" s="18"/>
-      <c r="W4" s="34">
-        <f t="shared" si="0"/>
+      <c r="V4" s="34">
+        <f>$V$41 * ( (SUM(B4:U4))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.48070175438596491</v>
       </c>
-      <c r="X4"/>
-    </row>
-    <row r="5" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W4"/>
+    </row>
+    <row r="5" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="25">
         <v>56054</v>
       </c>
@@ -1322,14 +1313,13 @@
       <c r="U5" s="18">
         <v>0</v>
       </c>
-      <c r="V5" s="18"/>
-      <c r="W5" s="34">
-        <f t="shared" si="0"/>
+      <c r="V5" s="34">
+        <f>$V$41 * ( (SUM(B5:U5))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.47017543859649125</v>
       </c>
-      <c r="X5"/>
-    </row>
-    <row r="6" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W5"/>
+    </row>
+    <row r="6" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="25">
         <v>56196</v>
       </c>
@@ -1391,14 +1381,13 @@
       <c r="U6" s="18">
         <v>0</v>
       </c>
-      <c r="V6" s="18"/>
-      <c r="W6" s="34">
-        <f t="shared" si="0"/>
+      <c r="V6" s="34">
+        <f>$V$41 * ( (SUM(B6:U6))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.47719298245614034</v>
       </c>
-      <c r="X6"/>
-    </row>
-    <row r="7" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W6"/>
+    </row>
+    <row r="7" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="25">
         <v>58426</v>
       </c>
@@ -1460,14 +1449,13 @@
       <c r="U7" s="18">
         <v>0</v>
       </c>
-      <c r="V7" s="18"/>
-      <c r="W7" s="34">
-        <f t="shared" si="0"/>
+      <c r="V7" s="34">
+        <f>$V$41 * ( (SUM(B7:U7))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.3473684210526316</v>
       </c>
-      <c r="X7"/>
-    </row>
-    <row r="8" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W7"/>
+    </row>
+    <row r="8" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="25">
         <v>63795</v>
       </c>
@@ -1529,14 +1517,13 @@
       <c r="U8" s="18">
         <v>12</v>
       </c>
-      <c r="V8" s="18"/>
-      <c r="W8" s="34">
-        <f t="shared" si="0"/>
+      <c r="V8" s="34">
+        <f>$V$41 * ( (SUM(B8:U8))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.50877192982456143</v>
       </c>
-      <c r="X8"/>
-    </row>
-    <row r="9" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W8"/>
+    </row>
+    <row r="9" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="25">
         <v>66015</v>
       </c>
@@ -1598,14 +1585,13 @@
       <c r="U9" s="18">
         <v>5</v>
       </c>
-      <c r="V9" s="18"/>
-      <c r="W9" s="34">
-        <f t="shared" si="0"/>
+      <c r="V9" s="34">
+        <f>$V$41 * ( (SUM(B9:U9))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="X9"/>
-    </row>
-    <row r="10" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W9"/>
+    </row>
+    <row r="10" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="25">
         <v>67210</v>
       </c>
@@ -1667,14 +1653,13 @@
       <c r="U10" s="18">
         <v>9</v>
       </c>
-      <c r="V10" s="18"/>
-      <c r="W10" s="34">
-        <f t="shared" si="0"/>
+      <c r="V10" s="34">
+        <f>$V$41 * ( (SUM(B10:U10))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.49473684210526314</v>
       </c>
-      <c r="X10"/>
-    </row>
-    <row r="11" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W10"/>
+    </row>
+    <row r="11" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="25">
         <v>68473</v>
       </c>
@@ -1736,14 +1721,13 @@
       <c r="U11" s="18">
         <v>0</v>
       </c>
-      <c r="V11" s="18"/>
-      <c r="W11" s="34">
-        <f t="shared" si="0"/>
+      <c r="V11" s="34">
+        <f>$V$41 * ( (SUM(B11:U11))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.15438596491228071</v>
       </c>
-      <c r="X11"/>
-    </row>
-    <row r="12" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W11"/>
+    </row>
+    <row r="12" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="25">
         <v>69408</v>
       </c>
@@ -1805,14 +1789,13 @@
       <c r="U12" s="18">
         <v>9</v>
       </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="34">
-        <f t="shared" si="0"/>
+      <c r="V12" s="34">
+        <f>$V$41 * ( (SUM(B12:U12))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.512280701754386</v>
       </c>
-      <c r="X12"/>
-    </row>
-    <row r="13" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W12"/>
+    </row>
+    <row r="13" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="25">
         <v>69764</v>
       </c>
@@ -1874,14 +1857,13 @@
       <c r="U13" s="18">
         <v>15</v>
       </c>
-      <c r="V13" s="18"/>
-      <c r="W13" s="34">
-        <f t="shared" si="0"/>
+      <c r="V13" s="34">
+        <f>$V$41 * ( (SUM(B13:U13))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.91578947368421049</v>
       </c>
-      <c r="X13"/>
-    </row>
-    <row r="14" spans="1:24" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W13"/>
+    </row>
+    <row r="14" spans="1:23" s="2" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="25">
         <v>69810</v>
       </c>
@@ -1943,13 +1925,12 @@
       <c r="U14" s="18">
         <v>15</v>
       </c>
-      <c r="V14" s="18"/>
-      <c r="W14" s="34">
-        <f t="shared" si="0"/>
+      <c r="V14" s="34">
+        <f>$V$41 * ( (SUM(B14:U14))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.83157894736842108</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="25">
         <v>69951</v>
       </c>
@@ -2011,14 +1992,13 @@
       <c r="U15" s="18">
         <v>0</v>
       </c>
-      <c r="V15" s="18"/>
-      <c r="W15" s="34">
-        <f t="shared" si="0"/>
+      <c r="V15" s="34">
+        <f>$V$41 * ( (SUM(B15:U15))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>4.5614035087719301E-2</v>
       </c>
-      <c r="X15"/>
-    </row>
-    <row r="16" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W15"/>
+    </row>
+    <row r="16" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="25">
         <v>69999</v>
       </c>
@@ -2080,14 +2060,13 @@
       <c r="U16" s="18">
         <v>15</v>
       </c>
-      <c r="V16" s="18"/>
-      <c r="W16" s="34">
-        <f t="shared" si="0"/>
+      <c r="V16" s="34">
+        <f>$V$41 * ( (SUM(B16:U16))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.84210526315789469</v>
       </c>
-      <c r="X16"/>
-    </row>
-    <row r="17" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W16"/>
+    </row>
+    <row r="17" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="25">
         <v>70050</v>
       </c>
@@ -2149,14 +2128,13 @@
       <c r="U17" s="18">
         <v>6</v>
       </c>
-      <c r="V17" s="18"/>
-      <c r="W17" s="34">
-        <f t="shared" si="0"/>
+      <c r="V17" s="34">
+        <f>$V$41 * ( (SUM(B17:U17))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.45964912280701753</v>
       </c>
-      <c r="X17"/>
-    </row>
-    <row r="18" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W17"/>
+    </row>
+    <row r="18" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="25">
         <v>70065</v>
       </c>
@@ -2218,14 +2196,13 @@
       <c r="U18" s="18">
         <v>0</v>
       </c>
-      <c r="V18" s="18"/>
-      <c r="W18" s="34">
-        <f t="shared" si="0"/>
+      <c r="V18" s="34">
+        <f>$V$41 * ( (SUM(B18:U18))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.50175438596491229</v>
       </c>
-      <c r="X18"/>
-    </row>
-    <row r="19" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W18"/>
+    </row>
+    <row r="19" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="25">
         <v>70173</v>
       </c>
@@ -2287,14 +2264,13 @@
       <c r="U19" s="18">
         <v>15</v>
       </c>
-      <c r="V19" s="18"/>
-      <c r="W19" s="34">
-        <f t="shared" si="0"/>
+      <c r="V19" s="34">
+        <f>$V$41 * ( (SUM(B19:U19))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.76491228070175443</v>
       </c>
-      <c r="X19"/>
-    </row>
-    <row r="20" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W19"/>
+    </row>
+    <row r="20" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="25">
         <v>70179</v>
       </c>
@@ -2356,14 +2332,13 @@
       <c r="U20" s="18">
         <v>15</v>
       </c>
-      <c r="V20" s="18"/>
-      <c r="W20" s="34">
-        <f t="shared" si="0"/>
+      <c r="V20" s="34">
+        <f>$V$41 * ( (SUM(B20:U20))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.78596491228070176</v>
       </c>
-      <c r="X20"/>
-    </row>
-    <row r="21" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W20"/>
+    </row>
+    <row r="21" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="25">
         <v>70267</v>
       </c>
@@ -2425,14 +2400,13 @@
       <c r="U21" s="18">
         <v>0</v>
       </c>
-      <c r="V21" s="18"/>
-      <c r="W21" s="34">
-        <f t="shared" si="0"/>
+      <c r="V21" s="34">
+        <f>$V$41 * ( (SUM(B21:U21))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="X21"/>
-    </row>
-    <row r="22" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W21"/>
+    </row>
+    <row r="22" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="25">
         <v>70299</v>
       </c>
@@ -2494,14 +2468,13 @@
       <c r="U22" s="18">
         <v>15</v>
       </c>
-      <c r="V22" s="18"/>
-      <c r="W22" s="34">
-        <f t="shared" si="0"/>
+      <c r="V22" s="34">
+        <f>$V$41 * ( (SUM(B22:U22))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.88771929824561402</v>
       </c>
-      <c r="X22"/>
-    </row>
-    <row r="23" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W22"/>
+    </row>
+    <row r="23" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="25">
         <v>70339</v>
       </c>
@@ -2563,14 +2536,13 @@
       <c r="U23" s="18">
         <v>15</v>
       </c>
-      <c r="V23" s="18"/>
-      <c r="W23" s="34">
-        <f t="shared" si="0"/>
+      <c r="V23" s="34">
+        <f>$V$41 * ( (SUM(B23:U23))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.80350877192982462</v>
       </c>
-      <c r="X23"/>
-    </row>
-    <row r="24" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W23"/>
+    </row>
+    <row r="24" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="25">
         <v>70503</v>
       </c>
@@ -2632,14 +2604,13 @@
       <c r="U24" s="18">
         <v>6</v>
       </c>
-      <c r="V24" s="18"/>
-      <c r="W24" s="34">
-        <f t="shared" si="0"/>
+      <c r="V24" s="34">
+        <f>$V$41 * ( (SUM(B24:U24))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.58245614035087723</v>
       </c>
-      <c r="X24"/>
-    </row>
-    <row r="25" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W24"/>
+    </row>
+    <row r="25" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="25">
         <v>70556</v>
       </c>
@@ -2701,14 +2672,13 @@
       <c r="U25" s="18">
         <v>12</v>
       </c>
-      <c r="V25" s="18"/>
-      <c r="W25" s="34">
-        <f t="shared" si="0"/>
+      <c r="V25" s="34">
+        <f>$V$41 * ( (SUM(B25:U25))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.61403508771929827</v>
       </c>
-      <c r="X25"/>
-    </row>
-    <row r="26" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W25"/>
+    </row>
+    <row r="26" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="25">
         <v>70632</v>
       </c>
@@ -2770,14 +2740,13 @@
       <c r="U26" s="18">
         <v>15</v>
       </c>
-      <c r="V26" s="18"/>
-      <c r="W26" s="34">
-        <f t="shared" si="0"/>
+      <c r="V26" s="34">
+        <f>$V$41 * ( (SUM(B26:U26))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.63508771929824559</v>
       </c>
-      <c r="X26"/>
-    </row>
-    <row r="27" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W26"/>
+    </row>
+    <row r="27" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="25">
         <v>70734</v>
       </c>
@@ -2839,14 +2808,13 @@
       <c r="U27" s="18">
         <v>6</v>
       </c>
-      <c r="V27" s="18"/>
-      <c r="W27" s="34">
-        <f t="shared" si="0"/>
+      <c r="V27" s="34">
+        <f>$V$41 * ( (SUM(B27:U27))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.57192982456140351</v>
       </c>
-      <c r="X27"/>
-    </row>
-    <row r="28" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W27"/>
+    </row>
+    <row r="28" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="25">
         <v>70896</v>
       </c>
@@ -2908,14 +2876,13 @@
       <c r="U28" s="18">
         <v>6</v>
       </c>
-      <c r="V28" s="18"/>
-      <c r="W28" s="34">
-        <f t="shared" si="0"/>
+      <c r="V28" s="34">
+        <f>$V$41 * ( (SUM(B28:U28))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.43859649122807015</v>
       </c>
-      <c r="X28"/>
-    </row>
-    <row r="29" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W28"/>
+    </row>
+    <row r="29" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="25">
         <v>71032</v>
       </c>
@@ -2977,14 +2944,13 @@
       <c r="U29" s="18">
         <v>9</v>
       </c>
-      <c r="V29" s="18"/>
-      <c r="W29" s="34">
-        <f t="shared" si="0"/>
+      <c r="V29" s="34">
+        <f>$V$41 * ( (SUM(B29:U29))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.46666666666666667</v>
       </c>
-      <c r="X29"/>
-    </row>
-    <row r="30" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W29"/>
+    </row>
+    <row r="30" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="25">
         <v>71099</v>
       </c>
@@ -3046,14 +3012,13 @@
       <c r="U30" s="18">
         <v>6</v>
       </c>
-      <c r="V30" s="18"/>
-      <c r="W30" s="34">
-        <f t="shared" si="0"/>
+      <c r="V30" s="34">
+        <f>$V$41 * ( (SUM(B30:U30))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.4631578947368421</v>
       </c>
-      <c r="X30"/>
-    </row>
-    <row r="31" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W30"/>
+    </row>
+    <row r="31" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="25">
         <v>71304</v>
       </c>
@@ -3115,14 +3080,13 @@
       <c r="U31" s="18">
         <v>3</v>
       </c>
-      <c r="V31" s="18"/>
-      <c r="W31" s="34">
-        <f t="shared" si="0"/>
+      <c r="V31" s="34">
+        <f>$V$41 * ( (SUM(B31:U31))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.47017543859649125</v>
       </c>
-      <c r="X31"/>
-    </row>
-    <row r="32" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W31"/>
+    </row>
+    <row r="32" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="25">
         <v>71308</v>
       </c>
@@ -3184,14 +3148,13 @@
       <c r="U32" s="18">
         <v>6</v>
       </c>
-      <c r="V32" s="18"/>
-      <c r="W32" s="34">
-        <f t="shared" si="0"/>
+      <c r="V32" s="34">
+        <f>$V$41 * ( (SUM(B32:U32))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.64210526315789473</v>
       </c>
-      <c r="X32"/>
-    </row>
-    <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W32"/>
+    </row>
+    <row r="33" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="25">
         <v>71312</v>
       </c>
@@ -3253,14 +3216,13 @@
       <c r="U33" s="18">
         <v>6</v>
       </c>
-      <c r="V33" s="18"/>
-      <c r="W33" s="34">
-        <f t="shared" si="0"/>
+      <c r="V33" s="34">
+        <f>$V$41 * ( (SUM(B33:U33))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.43157894736842106</v>
       </c>
-      <c r="X33"/>
-    </row>
-    <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W33"/>
+    </row>
+    <row r="34" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="25">
         <v>71340</v>
       </c>
@@ -3322,14 +3284,13 @@
       <c r="U34" s="18">
         <v>15</v>
       </c>
-      <c r="V34" s="18"/>
-      <c r="W34" s="34">
-        <f t="shared" si="0"/>
+      <c r="V34" s="34">
+        <f>$V$41 * ( (SUM(B34:U34))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.72280701754385968</v>
       </c>
-      <c r="X34"/>
-    </row>
-    <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W34"/>
+    </row>
+    <row r="35" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="25">
         <v>71428</v>
       </c>
@@ -3391,14 +3352,13 @@
       <c r="U35" s="18">
         <v>15</v>
       </c>
-      <c r="V35" s="18"/>
-      <c r="W35" s="34">
-        <f t="shared" si="0"/>
+      <c r="V35" s="34">
+        <f>$V$41 * ( (SUM(B35:U35))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.90175438596491231</v>
       </c>
-      <c r="X35"/>
-    </row>
-    <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W35"/>
+    </row>
+    <row r="36" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="25">
         <v>71431</v>
       </c>
@@ -3460,14 +3420,13 @@
       <c r="U36" s="18">
         <v>15</v>
       </c>
-      <c r="V36" s="18"/>
-      <c r="W36" s="34">
-        <f t="shared" si="0"/>
+      <c r="V36" s="34">
+        <f>$V$41 * ( (SUM(B36:U36))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.58947368421052626</v>
       </c>
-      <c r="X36"/>
-    </row>
-    <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W36"/>
+    </row>
+    <row r="37" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="25">
         <v>71474</v>
       </c>
@@ -3529,14 +3488,13 @@
       <c r="U37" s="18">
         <v>9</v>
       </c>
-      <c r="V37" s="18"/>
-      <c r="W37" s="34">
-        <f t="shared" si="0"/>
+      <c r="V37" s="34">
+        <f>$V$41 * ( (SUM(B37:U37))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.65614035087719302</v>
       </c>
-      <c r="X37"/>
-    </row>
-    <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W37"/>
+    </row>
+    <row r="38" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="25">
         <v>71553</v>
       </c>
@@ -3598,14 +3556,13 @@
       <c r="U38" s="18">
         <v>0</v>
       </c>
-      <c r="V38" s="18"/>
-      <c r="W38" s="34">
-        <f t="shared" si="0"/>
+      <c r="V38" s="34">
+        <f>$V$41 * ( (SUM(B38:U38))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.26315789473684209</v>
       </c>
-      <c r="X38"/>
-    </row>
-    <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W38"/>
+    </row>
+    <row r="39" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="25">
         <v>71671</v>
       </c>
@@ -3667,14 +3624,13 @@
       <c r="U39" s="18">
         <v>0</v>
       </c>
-      <c r="V39" s="18"/>
-      <c r="W39" s="34">
-        <f t="shared" si="0"/>
+      <c r="V39" s="34">
+        <f>$V$41 * ( (SUM(B39:U39))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.3473684210526316</v>
       </c>
-      <c r="X39"/>
-    </row>
-    <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W39"/>
+    </row>
+    <row r="40" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="12"/>
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
@@ -3697,10 +3653,9 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40"/>
-    </row>
-    <row r="41" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W40"/>
+    </row>
+    <row r="41" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="26" t="s">
         <v>32</v>
       </c>
@@ -3764,15 +3719,12 @@
       <c r="U41" s="27">
         <v>15</v>
       </c>
-      <c r="V41" s="27">
-        <v>15</v>
-      </c>
-      <c r="W41" s="28">
+      <c r="V41" s="28">
         <v>1</v>
       </c>
-      <c r="X41"/>
-    </row>
-    <row r="42" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W41"/>
+    </row>
+    <row r="42" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="29" t="s">
         <v>33</v>
       </c>
@@ -3781,92 +3733,88 @@
         <v>11.342105263157896</v>
       </c>
       <c r="C42" s="30">
-        <f t="shared" ref="C42:W42" si="1">AVERAGE(C$2:C$39)</f>
+        <f t="shared" ref="C42:V42" si="0">AVERAGE(C$2:C$39)</f>
         <v>10.736842105263158</v>
       </c>
       <c r="D42" s="30" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.421052631578947</v>
       </c>
       <c r="F42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12.631578947368421</v>
       </c>
       <c r="G42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6052631578947372</v>
       </c>
       <c r="H42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.6842105263157894</v>
       </c>
       <c r="I42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7631578947368425</v>
       </c>
       <c r="J42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.9210526315789478</v>
       </c>
       <c r="K42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.1052631578947372</v>
       </c>
       <c r="L42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.3421052631578947</v>
       </c>
       <c r="M42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.4473684210526319</v>
       </c>
       <c r="N42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.0789473684210531</v>
       </c>
       <c r="O42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.8947368421052628</v>
       </c>
       <c r="P42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.8947368421052628</v>
       </c>
       <c r="Q42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.7368421052631575</v>
       </c>
       <c r="R42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.3947368421052637</v>
       </c>
       <c r="S42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.5526315789473681</v>
       </c>
       <c r="T42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.6578947368421053</v>
       </c>
       <c r="U42" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5526315789473681</v>
       </c>
-      <c r="V42" s="30" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W42" s="30">
-        <f t="shared" si="1"/>
+      <c r="V42" s="30">
+        <f t="shared" si="0"/>
         <v>0.5325023084025855</v>
       </c>
-      <c r="X42"/>
-    </row>
-    <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W42"/>
+    </row>
+    <row r="43" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="31" t="s">
         <v>34</v>
       </c>
@@ -3875,92 +3823,88 @@
         <v>5.0845623043147032</v>
       </c>
       <c r="C43" s="30">
-        <f t="shared" ref="C43:W43" si="2">STDEV(C$2:C$39)</f>
+        <f t="shared" ref="C43:V43" si="1">STDEV(C$2:C$39)</f>
         <v>5.1079387630264215</v>
       </c>
       <c r="D43" s="30" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.3967529723487706</v>
       </c>
       <c r="F43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.3584094087958203</v>
       </c>
       <c r="G43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0859609296105388</v>
       </c>
       <c r="H43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.6679196312929951</v>
       </c>
       <c r="I43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.432278472849144</v>
       </c>
       <c r="J43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.8623294325527313</v>
       </c>
       <c r="K43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.0522898010358226</v>
       </c>
       <c r="L43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.478588868369318</v>
       </c>
       <c r="M43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.6847845319782611</v>
       </c>
       <c r="N43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0197044865394469</v>
       </c>
       <c r="O43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.8114029272569203</v>
       </c>
       <c r="P43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0553128258015922</v>
       </c>
       <c r="Q43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.7799367321738311</v>
       </c>
       <c r="R43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4103977656850981</v>
       </c>
       <c r="S43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.1658827163395626</v>
       </c>
       <c r="T43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.0153510552289573</v>
       </c>
       <c r="U43" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.8757282167246005</v>
       </c>
-      <c r="V43" s="30" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W43" s="30">
-        <f t="shared" si="2"/>
+      <c r="V43" s="30">
+        <f t="shared" si="1"/>
         <v>0.22005227857473506</v>
       </c>
-      <c r="X43"/>
-    </row>
-    <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W43"/>
+    </row>
+    <row r="44" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="31" t="s">
         <v>35</v>
       </c>
@@ -3969,92 +3913,88 @@
         <v>15</v>
       </c>
       <c r="C44" s="30">
-        <f t="shared" ref="C44:W44" si="3">MEDIAN(C$2:C$39)</f>
+        <f t="shared" ref="C44:V44" si="2">MEDIAN(C$2:C$39)</f>
         <v>12</v>
       </c>
       <c r="D44" s="30" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
       <c r="E44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="F44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="G44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="K44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="L44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="M44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="N44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="O44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="P44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="Q44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8.5</v>
       </c>
       <c r="R44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="S44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="T44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="U44" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="V44" s="30" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="W44" s="30">
-        <f t="shared" si="3"/>
+      <c r="V44" s="30">
+        <f t="shared" si="2"/>
         <v>0.49824561403508771</v>
       </c>
-      <c r="X44"/>
-    </row>
-    <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W44"/>
+    </row>
+    <row r="45" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="32" t="s">
         <v>36</v>
       </c>
@@ -4063,93 +4003,89 @@
         <v>1</v>
       </c>
       <c r="C45" s="33">
-        <f t="shared" ref="C45:V45" si="4">IF(SUM(C2:C39)&gt;0,1,0)</f>
+        <f t="shared" ref="C45:U45" si="3">IF(SUM(C2:C39)&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="D45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="I45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="N45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="P45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U45" s="33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V45" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W45" s="33"/>
-      <c r="X45"/>
-    </row>
-    <row r="46" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V45" s="33"/>
+      <c r="W45"/>
+    </row>
+    <row r="46" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46"/>
     </row>
-    <row r="47" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:23" ht="29" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" spans="2:2" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49"/>
     </row>
@@ -4442,7 +4378,7 @@
   <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4481,10 +4417,10 @@
         <v>30</v>
       </c>
       <c r="J1" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="37" t="s">
         <v>45</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>46</v>
       </c>
       <c r="L1" s="38" t="s">
         <v>31</v>
@@ -4521,10 +4457,12 @@
       <c r="J2" s="52">
         <v>90</v>
       </c>
-      <c r="K2" s="52"/>
+      <c r="K2" s="54">
+        <v>86</v>
+      </c>
       <c r="L2" s="34">
         <f>IF(SUM($B$45:$I$45)&gt;0,1.5*(B2/$B$41+C2/$C$41+D2/$D$41+E2/$E$41+F2/$F$41+G2/$G$41+H2/$H$41+I2/$I$41+J2/$J$41+K2/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>1.2583333333333335</v>
+        <v>1.2615000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4558,10 +4496,12 @@
       <c r="J3" s="52">
         <v>81</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="54">
+        <v>63</v>
+      </c>
       <c r="L3" s="34">
         <f t="shared" ref="L3:L39" si="0">IF(SUM($B$45:$I$45)&gt;0,1.5*(B3/$B$41+C3/$C$41+D3/$D$41+E3/$E$41+F3/$F$41+G3/$G$41+H3/$H$41+I3/$I$41+J3/$J$41+K3/$K$41)/SUM($B$45:$K$45),0)</f>
-        <v>0.67249999999999999</v>
+        <v>0.69975000000000009</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4595,10 +4535,12 @@
       <c r="J4" s="52">
         <v>97</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="54">
+        <v>97</v>
+      </c>
       <c r="L4" s="34">
         <f t="shared" si="0"/>
-        <v>1.2483333333333333</v>
+        <v>1.2689999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4632,10 +4574,12 @@
       <c r="J5" s="52">
         <v>0</v>
       </c>
-      <c r="K5" s="52"/>
+      <c r="K5" s="54">
+        <v>0</v>
+      </c>
       <c r="L5" s="34">
         <f t="shared" si="0"/>
-        <v>0.79499999999999993</v>
+        <v>0.71549999999999991</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4669,10 +4613,12 @@
       <c r="J6" s="52">
         <v>96.5</v>
       </c>
-      <c r="K6" s="52"/>
+      <c r="K6" s="54">
+        <v>98</v>
+      </c>
       <c r="L6" s="34">
         <f t="shared" si="0"/>
-        <v>1.2425000000000002</v>
+        <v>1.26525</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4706,10 +4652,12 @@
       <c r="J7" s="52">
         <v>93</v>
       </c>
-      <c r="K7" s="52"/>
+      <c r="K7" s="54">
+        <v>96</v>
+      </c>
       <c r="L7" s="34">
         <f t="shared" si="0"/>
-        <v>0.52416666666666667</v>
+        <v>0.61575000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4743,10 +4691,12 @@
       <c r="J8" s="52">
         <v>0</v>
       </c>
-      <c r="K8" s="52"/>
+      <c r="K8" s="54">
+        <v>45</v>
+      </c>
       <c r="L8" s="34">
         <f t="shared" si="0"/>
-        <v>1.1575</v>
+        <v>1.1092500000000001</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4780,10 +4730,12 @@
       <c r="J9" s="52">
         <v>99</v>
       </c>
-      <c r="K9" s="52"/>
+      <c r="K9" s="54">
+        <v>97</v>
+      </c>
       <c r="L9" s="34">
         <f t="shared" si="0"/>
-        <v>1.4575</v>
+        <v>1.4572499999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4817,10 +4769,12 @@
       <c r="J10" s="52">
         <v>81.5</v>
       </c>
-      <c r="K10" s="52"/>
+      <c r="K10" s="54">
+        <v>0</v>
+      </c>
       <c r="L10" s="34">
         <f t="shared" si="0"/>
-        <v>1.2141666666666666</v>
+        <v>1.0927500000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4854,10 +4808,12 @@
       <c r="J11" s="52">
         <v>69</v>
       </c>
-      <c r="K11" s="52"/>
+      <c r="K11" s="54">
+        <v>0</v>
+      </c>
       <c r="L11" s="34">
         <f t="shared" si="0"/>
-        <v>0.43249999999999994</v>
+        <v>0.38924999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4891,10 +4847,12 @@
       <c r="J12" s="52">
         <v>54</v>
       </c>
-      <c r="K12" s="52"/>
+      <c r="K12" s="54">
+        <v>0</v>
+      </c>
       <c r="L12" s="34">
         <f t="shared" si="0"/>
-        <v>0.52666666666666673</v>
+        <v>0.47400000000000003</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4928,10 +4886,12 @@
       <c r="J13" s="52">
         <v>100</v>
       </c>
-      <c r="K13" s="52"/>
+      <c r="K13" s="54">
+        <v>100</v>
+      </c>
       <c r="L13" s="34">
         <f t="shared" si="0"/>
-        <v>1.4366666666666668</v>
+        <v>1.4430000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -4965,10 +4925,12 @@
       <c r="J14" s="52">
         <v>97.5</v>
       </c>
-      <c r="K14" s="52"/>
+      <c r="K14" s="54">
+        <v>100</v>
+      </c>
       <c r="L14" s="34">
         <f t="shared" si="0"/>
-        <v>1.2774999999999999</v>
+        <v>1.29975</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5002,10 +4964,12 @@
       <c r="J15" s="52">
         <v>0</v>
       </c>
-      <c r="K15" s="52"/>
+      <c r="K15" s="54">
+        <v>0</v>
+      </c>
       <c r="L15" s="34">
         <f t="shared" si="0"/>
-        <v>5.9166666666666666E-2</v>
+        <v>5.3249999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5039,10 +5003,12 @@
       <c r="J16" s="52">
         <v>100</v>
       </c>
-      <c r="K16" s="52"/>
+      <c r="K16" s="54">
+        <v>100</v>
+      </c>
       <c r="L16" s="34">
         <f t="shared" si="0"/>
-        <v>1.4291666666666665</v>
+        <v>1.4362499999999998</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5076,10 +5042,12 @@
       <c r="J17" s="52">
         <v>96.5</v>
       </c>
-      <c r="K17" s="52"/>
+      <c r="K17" s="54">
+        <v>99</v>
+      </c>
       <c r="L17" s="34">
         <f t="shared" si="0"/>
-        <v>1.280833333333333</v>
+        <v>1.30125</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5113,10 +5081,12 @@
       <c r="J18" s="52">
         <v>68</v>
       </c>
-      <c r="K18" s="52"/>
+      <c r="K18" s="54">
+        <v>0</v>
+      </c>
       <c r="L18" s="34">
         <f t="shared" si="0"/>
-        <v>0.87</v>
+        <v>0.78300000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5150,10 +5120,12 @@
       <c r="J19" s="52">
         <v>100</v>
       </c>
-      <c r="K19" s="52"/>
+      <c r="K19" s="54">
+        <v>100</v>
+      </c>
       <c r="L19" s="34">
         <f t="shared" si="0"/>
-        <v>1.3391666666666666</v>
+        <v>1.3552500000000001</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5187,10 +5159,12 @@
       <c r="J20" s="52">
         <v>100</v>
       </c>
-      <c r="K20" s="52"/>
+      <c r="K20" s="54">
+        <v>100</v>
+      </c>
       <c r="L20" s="34">
         <f t="shared" si="0"/>
-        <v>1.3391666666666666</v>
+        <v>1.3552500000000001</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5224,10 +5198,12 @@
       <c r="J21" s="52">
         <v>0</v>
       </c>
-      <c r="K21" s="52"/>
+      <c r="K21" s="54">
+        <v>0</v>
+      </c>
       <c r="L21" s="34">
         <f t="shared" si="0"/>
-        <v>0.40749999999999997</v>
+        <v>0.36674999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5261,10 +5237,12 @@
       <c r="J22" s="52">
         <v>100</v>
       </c>
-      <c r="K22" s="52"/>
+      <c r="K22" s="54">
+        <v>100</v>
+      </c>
       <c r="L22" s="34">
         <f t="shared" si="0"/>
-        <v>1.4124999999999999</v>
+        <v>1.4212499999999999</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5298,10 +5276,12 @@
       <c r="J23" s="52">
         <v>98</v>
       </c>
-      <c r="K23" s="52"/>
+      <c r="K23" s="54">
+        <v>100</v>
+      </c>
       <c r="L23" s="34">
         <f t="shared" si="0"/>
-        <v>1.2466666666666668</v>
+        <v>1.272</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5335,10 +5315,12 @@
       <c r="J24" s="52">
         <v>20.5</v>
       </c>
-      <c r="K24" s="52"/>
+      <c r="K24" s="54">
+        <v>29</v>
+      </c>
       <c r="L24" s="34">
         <f t="shared" si="0"/>
-        <v>0.52833333333333332</v>
+        <v>0.51899999999999991</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5372,10 +5354,12 @@
       <c r="J25" s="52">
         <v>97.5</v>
       </c>
-      <c r="K25" s="52"/>
+      <c r="K25" s="54">
+        <v>78</v>
+      </c>
       <c r="L25" s="34">
         <f t="shared" si="0"/>
-        <v>0.99583333333333313</v>
+        <v>1.01325</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5409,10 +5393,12 @@
       <c r="J26" s="52">
         <v>83.5</v>
       </c>
-      <c r="K26" s="52"/>
+      <c r="K26" s="54">
+        <v>77</v>
+      </c>
       <c r="L26" s="34">
         <f t="shared" si="0"/>
-        <v>0.85916666666666663</v>
+        <v>0.88875000000000015</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5446,10 +5432,12 @@
       <c r="J27" s="52">
         <v>81</v>
       </c>
-      <c r="K27" s="52"/>
+      <c r="K27" s="54">
+        <v>90</v>
+      </c>
       <c r="L27" s="34">
         <f t="shared" si="0"/>
-        <v>0.98249999999999993</v>
+        <v>1.01925</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5483,10 +5471,12 @@
       <c r="J28" s="52">
         <v>54</v>
       </c>
-      <c r="K28" s="52"/>
+      <c r="K28" s="54">
+        <v>56</v>
+      </c>
       <c r="L28" s="34">
         <f t="shared" si="0"/>
-        <v>0.73583333333333334</v>
+        <v>0.74624999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5520,10 +5510,12 @@
       <c r="J29" s="52">
         <v>0</v>
       </c>
-      <c r="K29" s="52"/>
+      <c r="K29" s="54">
+        <v>0</v>
+      </c>
       <c r="L29" s="34">
         <f t="shared" si="0"/>
-        <v>0.38583333333333336</v>
+        <v>0.34725</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5557,10 +5549,12 @@
       <c r="J30" s="52">
         <v>83</v>
       </c>
-      <c r="K30" s="52"/>
+      <c r="K30" s="54">
+        <v>79</v>
+      </c>
       <c r="L30" s="34">
         <f t="shared" si="0"/>
-        <v>1.0733333333333333</v>
+        <v>1.0845</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5594,10 +5588,12 @@
       <c r="J31" s="52">
         <v>99</v>
       </c>
-      <c r="K31" s="52"/>
+      <c r="K31" s="54">
+        <v>92</v>
+      </c>
       <c r="L31" s="34">
         <f t="shared" si="0"/>
-        <v>1.26</v>
+        <v>1.272</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5631,10 +5627,12 @@
       <c r="J32" s="52">
         <v>100</v>
       </c>
-      <c r="K32" s="52"/>
+      <c r="K32" s="54">
+        <v>88</v>
+      </c>
       <c r="L32" s="34">
         <f t="shared" si="0"/>
-        <v>1.3058333333333332</v>
+        <v>1.30725</v>
       </c>
     </row>
     <row r="33" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5668,10 +5666,12 @@
       <c r="J33" s="52">
         <v>83</v>
       </c>
-      <c r="K33" s="52"/>
+      <c r="K33" s="54">
+        <v>77</v>
+      </c>
       <c r="L33" s="34">
         <f t="shared" si="0"/>
-        <v>0.89</v>
+        <v>0.91649999999999987</v>
       </c>
     </row>
     <row r="34" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5705,10 +5705,12 @@
       <c r="J34" s="52">
         <v>0</v>
       </c>
-      <c r="K34" s="52"/>
+      <c r="K34" s="54">
+        <v>0</v>
+      </c>
       <c r="L34" s="34">
         <f t="shared" si="0"/>
-        <v>0.16499999999999998</v>
+        <v>0.14849999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5742,10 +5744,12 @@
       <c r="J35" s="52">
         <v>100</v>
       </c>
-      <c r="K35" s="52"/>
+      <c r="K35" s="54">
+        <v>100</v>
+      </c>
       <c r="L35" s="34">
         <f t="shared" si="0"/>
-        <v>1.4116666666666664</v>
+        <v>1.4204999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5779,10 +5783,12 @@
       <c r="J36" s="52">
         <v>88.5</v>
       </c>
-      <c r="K36" s="52"/>
+      <c r="K36" s="54">
+        <v>0</v>
+      </c>
       <c r="L36" s="34">
         <f t="shared" si="0"/>
-        <v>1.0550000000000002</v>
+        <v>0.94950000000000012</v>
       </c>
     </row>
     <row r="37" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5816,10 +5822,12 @@
       <c r="J37" s="52">
         <v>87</v>
       </c>
-      <c r="K37" s="52"/>
+      <c r="K37" s="54">
+        <v>53</v>
+      </c>
       <c r="L37" s="34">
         <f t="shared" si="0"/>
-        <v>0.78250000000000008</v>
+        <v>0.78375000000000006</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5853,10 +5861,12 @@
       <c r="J38" s="52">
         <v>0</v>
       </c>
-      <c r="K38" s="52"/>
+      <c r="K38" s="54">
+        <v>0</v>
+      </c>
       <c r="L38" s="34">
         <f t="shared" si="0"/>
-        <v>0.48166666666666658</v>
+        <v>0.43349999999999989</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5890,10 +5900,12 @@
       <c r="J39" s="52">
         <v>79</v>
       </c>
-      <c r="K39" s="52"/>
+      <c r="K39" s="54">
+        <v>64</v>
+      </c>
       <c r="L39" s="34">
         <f t="shared" si="0"/>
-        <v>0.79916666666666669</v>
+        <v>0.81525000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -5987,13 +5999,13 @@
         <f t="shared" si="1"/>
         <v>70.44736842105263</v>
       </c>
-      <c r="K42" s="30" t="e">
+      <c r="K42" s="30">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>59.578947368421055</v>
       </c>
       <c r="L42" s="30">
         <f t="shared" si="1"/>
-        <v>0.95629385964912272</v>
+        <v>0.95003289473684194</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6036,13 +6048,13 @@
         <f t="shared" si="2"/>
         <v>37.563421949594797</v>
       </c>
-      <c r="K43" s="30" t="e">
+      <c r="K43" s="30">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>42.015204184268867</v>
       </c>
       <c r="L43" s="30">
         <f t="shared" si="2"/>
-        <v>0.39096495014714505</v>
+        <v>0.4011201510493847</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6085,13 +6097,13 @@
         <f t="shared" si="3"/>
         <v>85.25</v>
       </c>
-      <c r="K44" s="30" t="e">
+      <c r="K44" s="30">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
+        <v>77.5</v>
       </c>
       <c r="L44" s="30">
         <f t="shared" si="3"/>
-        <v>1.0254166666666666</v>
+        <v>1.0162499999999999</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6136,7 +6148,7 @@
       </c>
       <c r="K45" s="33">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" s="40"/>
       <c r="M45" s="16"/>
@@ -6984,12 +6996,12 @@
         <v>49156</v>
       </c>
       <c r="B2" s="34">
-        <f>Quiz!W2</f>
+        <f>Quiz!V2</f>
         <v>0.43508771929824563</v>
       </c>
       <c r="C2" s="50">
         <f>Homework!L2</f>
-        <v>1.2583333333333335</v>
+        <v>1.2615000000000001</v>
       </c>
       <c r="D2" s="43">
         <f>Exams!B2</f>
@@ -7001,7 +7013,7 @@
       </c>
       <c r="F2" s="34">
         <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>2.773421052631579</v>
+        <v>2.776587719298246</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
@@ -7018,12 +7030,12 @@
         <v>54695</v>
       </c>
       <c r="B3" s="34">
-        <f>Quiz!W3</f>
+        <f>Quiz!V3</f>
         <v>9.4736842105263161E-2</v>
       </c>
       <c r="C3" s="50">
         <f>Homework!L3</f>
-        <v>0.67249999999999999</v>
+        <v>0.69975000000000009</v>
       </c>
       <c r="D3" s="43">
         <f>Exams!B3</f>
@@ -7035,7 +7047,7 @@
       </c>
       <c r="F3" s="34">
         <f t="shared" si="0"/>
-        <v>1.9552368421052633</v>
+        <v>1.9824868421052635</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
@@ -7051,12 +7063,12 @@
         <v>54699</v>
       </c>
       <c r="B4" s="34">
-        <f>Quiz!W4</f>
+        <f>Quiz!V4</f>
         <v>0.48070175438596491</v>
       </c>
       <c r="C4" s="50">
         <f>Homework!L4</f>
-        <v>1.2483333333333333</v>
+        <v>1.2689999999999997</v>
       </c>
       <c r="D4" s="43">
         <f>Exams!B4</f>
@@ -7068,7 +7080,7 @@
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.8810350877192983</v>
+        <v>2.9017017543859644</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
@@ -7084,12 +7096,12 @@
         <v>56054</v>
       </c>
       <c r="B5" s="34">
-        <f>Quiz!W5</f>
+        <f>Quiz!V5</f>
         <v>0.47017543859649125</v>
       </c>
       <c r="C5" s="50">
         <f>Homework!L5</f>
-        <v>0.79499999999999993</v>
+        <v>0.71549999999999991</v>
       </c>
       <c r="D5" s="43">
         <f>Exams!B5</f>
@@ -7101,7 +7113,7 @@
       </c>
       <c r="F5" s="34">
         <f t="shared" si="0"/>
-        <v>2.5491754385964915</v>
+        <v>2.4696754385964912</v>
       </c>
       <c r="G5" s="34">
         <f t="shared" si="1"/>
@@ -7117,12 +7129,12 @@
         <v>56196</v>
       </c>
       <c r="B6" s="34">
-        <f>Quiz!W6</f>
+        <f>Quiz!V6</f>
         <v>0.47719298245614034</v>
       </c>
       <c r="C6" s="50">
         <f>Homework!L6</f>
-        <v>1.2425000000000002</v>
+        <v>1.26525</v>
       </c>
       <c r="D6" s="43">
         <f>Exams!B6</f>
@@ -7134,7 +7146,7 @@
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>2.8476929824561408</v>
+        <v>2.8704429824561402</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
@@ -7150,12 +7162,12 @@
         <v>58426</v>
       </c>
       <c r="B7" s="34">
-        <f>Quiz!W7</f>
+        <f>Quiz!V7</f>
         <v>0.3473684210526316</v>
       </c>
       <c r="C7" s="50">
         <f>Homework!L7</f>
-        <v>0.52416666666666667</v>
+        <v>0.61575000000000002</v>
       </c>
       <c r="D7" s="43">
         <f>Exams!B7</f>
@@ -7167,7 +7179,7 @@
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>2.0715350877192984</v>
+        <v>2.1631184210526317</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
@@ -7183,12 +7195,12 @@
         <v>63795</v>
       </c>
       <c r="B8" s="34">
-        <f>Quiz!W8</f>
+        <f>Quiz!V8</f>
         <v>0.50877192982456143</v>
       </c>
       <c r="C8" s="50">
         <f>Homework!L8</f>
-        <v>1.1575</v>
+        <v>1.1092500000000001</v>
       </c>
       <c r="D8" s="43">
         <f>Exams!B8</f>
@@ -7200,7 +7212,7 @@
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>2.8422719298245616</v>
+        <v>2.7940219298245617</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
@@ -7216,12 +7228,12 @@
         <v>66015</v>
       </c>
       <c r="B9" s="34">
-        <f>Quiz!W9</f>
+        <f>Quiz!V9</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="C9" s="50">
         <f>Homework!L9</f>
-        <v>1.4575</v>
+        <v>1.4572499999999999</v>
       </c>
       <c r="D9" s="43">
         <f>Exams!B9</f>
@@ -7233,7 +7245,7 @@
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>3.4601666666666668</v>
+        <v>3.4599166666666665</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
@@ -7249,12 +7261,12 @@
         <v>67210</v>
       </c>
       <c r="B10" s="34">
-        <f>Quiz!W10</f>
+        <f>Quiz!V10</f>
         <v>0.49473684210526314</v>
       </c>
       <c r="C10" s="50">
         <f>Homework!L10</f>
-        <v>1.2141666666666666</v>
+        <v>1.0927500000000001</v>
       </c>
       <c r="D10" s="43">
         <f>Exams!B10</f>
@@ -7266,7 +7278,7 @@
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>2.1169035087719297</v>
+        <v>1.9954868421052634</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
@@ -7282,12 +7294,12 @@
         <v>68473</v>
       </c>
       <c r="B11" s="34">
-        <f>Quiz!W11</f>
+        <f>Quiz!V11</f>
         <v>0.15438596491228071</v>
       </c>
       <c r="C11" s="50">
         <f>Homework!L11</f>
-        <v>0.43249999999999994</v>
+        <v>0.38924999999999998</v>
       </c>
       <c r="D11" s="43">
         <f>Exams!B11</f>
@@ -7299,7 +7311,7 @@
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.6068859649122806</v>
+        <v>1.5636359649122809</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
@@ -7315,12 +7327,12 @@
         <v>69408</v>
       </c>
       <c r="B12" s="34">
-        <f>Quiz!W12</f>
+        <f>Quiz!V12</f>
         <v>0.512280701754386</v>
       </c>
       <c r="C12" s="50">
         <f>Homework!L12</f>
-        <v>0.52666666666666673</v>
+        <v>0.47400000000000003</v>
       </c>
       <c r="D12" s="43">
         <f>Exams!B12</f>
@@ -7332,7 +7344,7 @@
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>2.1189473684210527</v>
+        <v>2.0662807017543861</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
@@ -7348,12 +7360,12 @@
         <v>69764</v>
       </c>
       <c r="B13" s="34">
-        <f>Quiz!W13</f>
+        <f>Quiz!V13</f>
         <v>0.91578947368421049</v>
       </c>
       <c r="C13" s="50">
         <f>Homework!L13</f>
-        <v>1.4366666666666668</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="D13" s="43">
         <f>Exams!B13</f>
@@ -7365,7 +7377,7 @@
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>5.1124561403508775</v>
+        <v>5.1187894736842114</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
@@ -7381,12 +7393,12 @@
         <v>69810</v>
       </c>
       <c r="B14" s="34">
-        <f>Quiz!W14</f>
+        <f>Quiz!V14</f>
         <v>0.83157894736842108</v>
       </c>
       <c r="C14" s="50">
         <f>Homework!L14</f>
-        <v>1.2774999999999999</v>
+        <v>1.29975</v>
       </c>
       <c r="D14" s="43">
         <f>Exams!B14</f>
@@ -7398,7 +7410,7 @@
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>3.3690789473684211</v>
+        <v>3.3913289473684207</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
@@ -7414,12 +7426,12 @@
         <v>69951</v>
       </c>
       <c r="B15" s="34">
-        <f>Quiz!W15</f>
+        <f>Quiz!V15</f>
         <v>4.5614035087719301E-2</v>
       </c>
       <c r="C15" s="50">
         <f>Homework!L15</f>
-        <v>5.9166666666666666E-2</v>
+        <v>5.3249999999999999E-2</v>
       </c>
       <c r="D15" s="43">
         <f>Exams!B15</f>
@@ -7431,7 +7443,7 @@
       </c>
       <c r="F15" s="34">
         <f t="shared" si="0"/>
-        <v>0.10478070175438597</v>
+        <v>9.8864035087719293E-2</v>
       </c>
       <c r="G15" s="34">
         <f t="shared" si="1"/>
@@ -7447,12 +7459,12 @@
         <v>69999</v>
       </c>
       <c r="B16" s="34">
-        <f>Quiz!W16</f>
+        <f>Quiz!V16</f>
         <v>0.84210526315789469</v>
       </c>
       <c r="C16" s="50">
         <f>Homework!L16</f>
-        <v>1.4291666666666665</v>
+        <v>1.4362499999999998</v>
       </c>
       <c r="D16" s="43">
         <f>Exams!B16</f>
@@ -7464,7 +7476,7 @@
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>4.6712719298245613</v>
+        <v>4.6783552631578953</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
@@ -7480,12 +7492,12 @@
         <v>70050</v>
       </c>
       <c r="B17" s="34">
-        <f>Quiz!W17</f>
+        <f>Quiz!V17</f>
         <v>0.45964912280701753</v>
       </c>
       <c r="C17" s="50">
         <f>Homework!L17</f>
-        <v>1.280833333333333</v>
+        <v>1.30125</v>
       </c>
       <c r="D17" s="43">
         <f>Exams!B17</f>
@@ -7497,7 +7509,7 @@
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>2.4604824561403502</v>
+        <v>2.4808991228070179</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
@@ -7513,12 +7525,12 @@
         <v>70065</v>
       </c>
       <c r="B18" s="34">
-        <f>Quiz!W18</f>
+        <f>Quiz!V18</f>
         <v>0.50175438596491229</v>
       </c>
       <c r="C18" s="50">
         <f>Homework!L18</f>
-        <v>0.87</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="D18" s="43">
         <f>Exams!B18</f>
@@ -7530,7 +7542,7 @@
       </c>
       <c r="F18" s="34">
         <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>2.2267543859649122</v>
+        <v>2.1397543859649124</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
@@ -7546,12 +7558,12 @@
         <v>70173</v>
       </c>
       <c r="B19" s="34">
-        <f>Quiz!W19</f>
+        <f>Quiz!V19</f>
         <v>0.76491228070175443</v>
       </c>
       <c r="C19" s="50">
         <f>Homework!L19</f>
-        <v>1.3391666666666666</v>
+        <v>1.3552500000000001</v>
       </c>
       <c r="D19" s="43">
         <f>Exams!B19</f>
@@ -7563,7 +7575,7 @@
       </c>
       <c r="F19" s="34">
         <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>3.5080789473684213</v>
+        <v>3.5241622807017547</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
@@ -7579,12 +7591,12 @@
         <v>70179</v>
       </c>
       <c r="B20" s="34">
-        <f>Quiz!W20</f>
+        <f>Quiz!V20</f>
         <v>0.78596491228070176</v>
       </c>
       <c r="C20" s="50">
         <f>Homework!L20</f>
-        <v>1.3391666666666666</v>
+        <v>1.3552500000000001</v>
       </c>
       <c r="D20" s="43">
         <f>Exams!B20</f>
@@ -7596,7 +7608,7 @@
       </c>
       <c r="F20" s="34">
         <f t="shared" si="3"/>
-        <v>3.5891315789473683</v>
+        <v>3.6052149122807018</v>
       </c>
       <c r="G20" s="34">
         <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
@@ -7612,12 +7624,12 @@
         <v>70267</v>
       </c>
       <c r="B21" s="34">
-        <f>Quiz!W21</f>
+        <f>Quiz!V21</f>
         <v>0.15789473684210525</v>
       </c>
       <c r="C21" s="50">
         <f>Homework!L21</f>
-        <v>0.40749999999999997</v>
+        <v>0.36674999999999996</v>
       </c>
       <c r="D21" s="43">
         <f>Exams!B21</f>
@@ -7629,7 +7641,7 @@
       </c>
       <c r="F21" s="34">
         <f t="shared" si="3"/>
-        <v>1.4413947368421052</v>
+        <v>1.4006447368421051</v>
       </c>
       <c r="G21" s="34">
         <f t="shared" si="4"/>
@@ -7645,12 +7657,12 @@
         <v>70299</v>
       </c>
       <c r="B22" s="34">
-        <f>Quiz!W22</f>
+        <f>Quiz!V22</f>
         <v>0.88771929824561402</v>
       </c>
       <c r="C22" s="50">
         <f>Homework!L22</f>
-        <v>1.4124999999999999</v>
+        <v>1.4212499999999999</v>
       </c>
       <c r="D22" s="43">
         <f>Exams!B22</f>
@@ -7662,7 +7674,7 @@
       </c>
       <c r="F22" s="34">
         <f t="shared" si="3"/>
-        <v>4.7602192982456142</v>
+        <v>4.7689692982456133</v>
       </c>
       <c r="G22" s="34">
         <f t="shared" si="4"/>
@@ -7678,12 +7690,12 @@
         <v>70339</v>
       </c>
       <c r="B23" s="34">
-        <f>Quiz!W23</f>
+        <f>Quiz!V23</f>
         <v>0.80350877192982462</v>
       </c>
       <c r="C23" s="50">
         <f>Homework!L23</f>
-        <v>1.2466666666666668</v>
+        <v>1.272</v>
       </c>
       <c r="D23" s="43">
         <f>Exams!B23</f>
@@ -7695,7 +7707,7 @@
       </c>
       <c r="F23" s="34">
         <f t="shared" si="3"/>
-        <v>2.9141754385964913</v>
+        <v>2.9395087719298245</v>
       </c>
       <c r="G23" s="34">
         <f t="shared" si="4"/>
@@ -7711,12 +7723,12 @@
         <v>70503</v>
       </c>
       <c r="B24" s="34">
-        <f>Quiz!W24</f>
+        <f>Quiz!V24</f>
         <v>0.58245614035087723</v>
       </c>
       <c r="C24" s="50">
         <f>Homework!L24</f>
-        <v>0.52833333333333332</v>
+        <v>0.51899999999999991</v>
       </c>
       <c r="D24" s="43">
         <f>Exams!B24</f>
@@ -7728,7 +7740,7 @@
       </c>
       <c r="F24" s="34">
         <f t="shared" si="3"/>
-        <v>2.8627894736842103</v>
+        <v>2.8534561403508771</v>
       </c>
       <c r="G24" s="34">
         <f t="shared" si="4"/>
@@ -7744,12 +7756,12 @@
         <v>70556</v>
       </c>
       <c r="B25" s="34">
-        <f>Quiz!W25</f>
+        <f>Quiz!V25</f>
         <v>0.61403508771929827</v>
       </c>
       <c r="C25" s="50">
         <f>Homework!L25</f>
-        <v>0.99583333333333313</v>
+        <v>1.01325</v>
       </c>
       <c r="D25" s="43">
         <f>Exams!B25</f>
@@ -7761,7 +7773,7 @@
       </c>
       <c r="F25" s="34">
         <f t="shared" si="3"/>
-        <v>2.2218684210526316</v>
+        <v>2.2392850877192982</v>
       </c>
       <c r="G25" s="34">
         <f t="shared" si="4"/>
@@ -7777,12 +7789,12 @@
         <v>70632</v>
       </c>
       <c r="B26" s="34">
-        <f>Quiz!W26</f>
+        <f>Quiz!V26</f>
         <v>0.63508771929824559</v>
       </c>
       <c r="C26" s="50">
         <f>Homework!L26</f>
-        <v>0.85916666666666663</v>
+        <v>0.88875000000000015</v>
       </c>
       <c r="D26" s="43">
         <f>Exams!B26</f>
@@ -7794,7 +7806,7 @@
       </c>
       <c r="F26" s="34">
         <f t="shared" si="3"/>
-        <v>2.3582543859649121</v>
+        <v>2.3878377192982456</v>
       </c>
       <c r="G26" s="34">
         <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
@@ -7810,12 +7822,12 @@
         <v>70734</v>
       </c>
       <c r="B27" s="34">
-        <f>Quiz!W27</f>
+        <f>Quiz!V27</f>
         <v>0.57192982456140351</v>
       </c>
       <c r="C27" s="50">
         <f>Homework!L27</f>
-        <v>0.98249999999999993</v>
+        <v>1.01925</v>
       </c>
       <c r="D27" s="43">
         <f>Exams!B27</f>
@@ -7827,7 +7839,7 @@
       </c>
       <c r="F27" s="34">
         <f t="shared" si="3"/>
-        <v>2.2864298245614032</v>
+        <v>2.3231798245614037</v>
       </c>
       <c r="G27" s="34">
         <f t="shared" si="6"/>
@@ -7843,12 +7855,12 @@
         <v>70896</v>
       </c>
       <c r="B28" s="34">
-        <f>Quiz!W28</f>
+        <f>Quiz!V28</f>
         <v>0.43859649122807015</v>
       </c>
       <c r="C28" s="50">
         <f>Homework!L28</f>
-        <v>0.73583333333333334</v>
+        <v>0.74624999999999997</v>
       </c>
       <c r="D28" s="43">
         <f>Exams!B28</f>
@@ -7860,7 +7872,7 @@
       </c>
       <c r="F28" s="34">
         <f t="shared" si="3"/>
-        <v>1.8344298245614037</v>
+        <v>1.8448464912280702</v>
       </c>
       <c r="G28" s="34">
         <f t="shared" si="6"/>
@@ -7876,12 +7888,12 @@
         <v>71032</v>
       </c>
       <c r="B29" s="34">
-        <f>Quiz!W29</f>
+        <f>Quiz!V29</f>
         <v>0.46666666666666667</v>
       </c>
       <c r="C29" s="50">
         <f>Homework!L29</f>
-        <v>0.38583333333333336</v>
+        <v>0.34725</v>
       </c>
       <c r="D29" s="43">
         <f>Exams!B29</f>
@@ -7893,7 +7905,7 @@
       </c>
       <c r="F29" s="34">
         <f t="shared" si="3"/>
-        <v>1.1165</v>
+        <v>1.0779166666666666</v>
       </c>
       <c r="G29" s="34">
         <f t="shared" si="6"/>
@@ -7909,12 +7921,12 @@
         <v>71099</v>
       </c>
       <c r="B30" s="34">
-        <f>Quiz!W30</f>
+        <f>Quiz!V30</f>
         <v>0.4631578947368421</v>
       </c>
       <c r="C30" s="50">
         <f>Homework!L30</f>
-        <v>1.0733333333333333</v>
+        <v>1.0845</v>
       </c>
       <c r="D30" s="43">
         <f>Exams!B30</f>
@@ -7926,7 +7938,7 @@
       </c>
       <c r="F30" s="34">
         <f t="shared" si="3"/>
-        <v>2.1604912280701756</v>
+        <v>2.1716578947368421</v>
       </c>
       <c r="G30" s="34">
         <f t="shared" si="6"/>
@@ -7942,12 +7954,12 @@
         <v>71304</v>
       </c>
       <c r="B31" s="34">
-        <f>Quiz!W31</f>
+        <f>Quiz!V31</f>
         <v>0.47017543859649125</v>
       </c>
       <c r="C31" s="50">
         <f>Homework!L31</f>
-        <v>1.26</v>
+        <v>1.272</v>
       </c>
       <c r="D31" s="43">
         <f>Exams!B31</f>
@@ -7959,7 +7971,7 @@
       </c>
       <c r="F31" s="34">
         <f t="shared" si="3"/>
-        <v>2.3181754385964912</v>
+        <v>2.3301754385964912</v>
       </c>
       <c r="G31" s="34">
         <f t="shared" si="6"/>
@@ -7975,12 +7987,12 @@
         <v>71308</v>
       </c>
       <c r="B32" s="34">
-        <f>Quiz!W32</f>
+        <f>Quiz!V32</f>
         <v>0.64210526315789473</v>
       </c>
       <c r="C32" s="50">
         <f>Homework!L32</f>
-        <v>1.3058333333333332</v>
+        <v>1.30725</v>
       </c>
       <c r="D32" s="43">
         <f>Exams!B32</f>
@@ -7992,7 +8004,7 @@
       </c>
       <c r="F32" s="34">
         <f t="shared" si="3"/>
-        <v>3.2079385964912279</v>
+        <v>3.209355263157895</v>
       </c>
       <c r="G32" s="34">
         <f t="shared" si="6"/>
@@ -8008,12 +8020,12 @@
         <v>71312</v>
       </c>
       <c r="B33" s="34">
-        <f>Quiz!W33</f>
+        <f>Quiz!V33</f>
         <v>0.43157894736842106</v>
       </c>
       <c r="C33" s="50">
         <f>Homework!L33</f>
-        <v>0.89</v>
+        <v>0.91649999999999987</v>
       </c>
       <c r="D33" s="43">
         <f>Exams!B33</f>
@@ -8025,7 +8037,7 @@
       </c>
       <c r="F33" s="34">
         <f t="shared" si="3"/>
-        <v>2.3895789473684212</v>
+        <v>2.4160789473684208</v>
       </c>
       <c r="G33" s="34">
         <f t="shared" si="6"/>
@@ -8041,12 +8053,12 @@
         <v>71340</v>
       </c>
       <c r="B34" s="34">
-        <f>Quiz!W34</f>
+        <f>Quiz!V34</f>
         <v>0.72280701754385968</v>
       </c>
       <c r="C34" s="50">
         <f>Homework!L34</f>
-        <v>0.16499999999999998</v>
+        <v>0.14849999999999999</v>
       </c>
       <c r="D34" s="43">
         <f>Exams!B34</f>
@@ -8058,7 +8070,7 @@
       </c>
       <c r="F34" s="34">
         <f t="shared" si="3"/>
-        <v>2.3518070175438597</v>
+        <v>2.3353070175438595</v>
       </c>
       <c r="G34" s="34">
         <f t="shared" si="6"/>
@@ -8074,12 +8086,12 @@
         <v>71428</v>
       </c>
       <c r="B35" s="34">
-        <f>Quiz!W35</f>
+        <f>Quiz!V35</f>
         <v>0.90175438596491231</v>
       </c>
       <c r="C35" s="50">
         <f>Homework!L35</f>
-        <v>1.4116666666666664</v>
+        <v>1.4204999999999999</v>
       </c>
       <c r="D35" s="43">
         <f>Exams!B35</f>
@@ -8091,7 +8103,7 @@
       </c>
       <c r="F35" s="34">
         <f t="shared" si="3"/>
-        <v>5.2294210526315785</v>
+        <v>5.238254385964912</v>
       </c>
       <c r="G35" s="34">
         <f t="shared" si="6"/>
@@ -8107,12 +8119,12 @@
         <v>71431</v>
       </c>
       <c r="B36" s="34">
-        <f>Quiz!W36</f>
+        <f>Quiz!V36</f>
         <v>0.58947368421052626</v>
       </c>
       <c r="C36" s="50">
         <f>Homework!L36</f>
-        <v>1.0550000000000002</v>
+        <v>0.94950000000000012</v>
       </c>
       <c r="D36" s="43">
         <f>Exams!B36</f>
@@ -8124,7 +8136,7 @@
       </c>
       <c r="F36" s="34">
         <f t="shared" si="3"/>
-        <v>2.4244736842105263</v>
+        <v>2.3189736842105262</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="6"/>
@@ -8140,12 +8152,12 @@
         <v>71474</v>
       </c>
       <c r="B37" s="34">
-        <f>Quiz!W37</f>
+        <f>Quiz!V37</f>
         <v>0.65614035087719302</v>
       </c>
       <c r="C37" s="50">
         <f>Homework!L37</f>
-        <v>0.78250000000000008</v>
+        <v>0.78375000000000006</v>
       </c>
       <c r="D37" s="43">
         <f>Exams!B37</f>
@@ -8157,7 +8169,7 @@
       </c>
       <c r="F37" s="34">
         <f t="shared" si="3"/>
-        <v>2.890640350877193</v>
+        <v>2.8918903508771931</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="6"/>
@@ -8173,12 +8185,12 @@
         <v>71553</v>
       </c>
       <c r="B38" s="34">
-        <f>Quiz!W38</f>
+        <f>Quiz!V38</f>
         <v>0.26315789473684209</v>
       </c>
       <c r="C38" s="50">
         <f>Homework!L38</f>
-        <v>0.48166666666666658</v>
+        <v>0.43349999999999989</v>
       </c>
       <c r="D38" s="43">
         <f>Exams!B38</f>
@@ -8190,7 +8202,7 @@
       </c>
       <c r="F38" s="34">
         <f t="shared" si="3"/>
-        <v>1.0088245614035087</v>
+        <v>0.96065789473684204</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="6"/>
@@ -8206,12 +8218,12 @@
         <v>71671</v>
       </c>
       <c r="B39" s="34">
-        <f>Quiz!W39</f>
+        <f>Quiz!V39</f>
         <v>0.3473684210526316</v>
       </c>
       <c r="C39" s="50">
         <f>Homework!L39</f>
-        <v>0.79916666666666669</v>
+        <v>0.81525000000000003</v>
       </c>
       <c r="D39" s="43">
         <f>Exams!B39</f>
@@ -8223,7 +8235,7 @@
       </c>
       <c r="F39" s="34">
         <f t="shared" si="3"/>
-        <v>1.6505350877192984</v>
+        <v>1.6666184210526316</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="6"/>
@@ -8249,7 +8261,7 @@
         <v>32</v>
       </c>
       <c r="B41" s="45">
-        <f>Quiz!W41</f>
+        <f>Quiz!V41</f>
         <v>1</v>
       </c>
       <c r="C41" s="45">
@@ -8284,7 +8296,7 @@
       </c>
       <c r="C42" s="30">
         <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
-        <v>0.95629385964912272</v>
+        <v>0.95003289473684194</v>
       </c>
       <c r="D42" s="30">
         <f t="shared" si="9"/>
@@ -8296,7 +8308,7 @@
       </c>
       <c r="F42" s="30">
         <f t="shared" si="9"/>
-        <v>2.6235066943674981</v>
+        <v>2.6172457294552163</v>
       </c>
       <c r="G42" s="30">
         <f t="shared" si="9"/>
@@ -8317,7 +8329,7 @@
       </c>
       <c r="C43" s="30">
         <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
-        <v>0.39096495014714505</v>
+        <v>0.4011201510493847</v>
       </c>
       <c r="D43" s="30">
         <f t="shared" si="10"/>
@@ -8329,7 +8341,7 @@
       </c>
       <c r="F43" s="30">
         <f t="shared" si="10"/>
-        <v>1.0774397551428996</v>
+        <v>1.0878540633658045</v>
       </c>
       <c r="G43" s="30">
         <f t="shared" si="10"/>
@@ -8350,7 +8362,7 @@
       </c>
       <c r="C44" s="30">
         <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
-        <v>1.0254166666666666</v>
+        <v>1.0162499999999999</v>
       </c>
       <c r="D44" s="30">
         <f t="shared" si="11"/>
@@ -8362,7 +8374,7 @@
       </c>
       <c r="F44" s="30">
         <f t="shared" si="11"/>
-        <v>2.4070263157894738</v>
+        <v>2.401958333333333</v>
       </c>
       <c r="G44" s="30">
         <f t="shared" si="11"/>

--- a/phy112/Grades/grades_report_2024.xlsx
+++ b/phy112/Grades/grades_report_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS112/2024/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CD5FB-537A-F545-895C-CCB261EA40B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36A699A0-05D3-C54E-8C3E-387F1399A397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2920" yWindow="1940" windowWidth="32920" windowHeight="19260" tabRatio="334" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2920" yWindow="1940" windowWidth="32920" windowHeight="19260" tabRatio="334" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Quiz" sheetId="1" r:id="rId1"/>
@@ -965,7 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
@@ -1110,7 +1110,7 @@
         <v>6</v>
       </c>
       <c r="V2" s="34">
-        <f>$V$41 * ( (SUM(B2:U2))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" ref="V2:V39" si="0">$V$41 * ( (SUM(B2:U2))/((SUM($B$45:$U$45))*$B$41) )</f>
         <v>0.43508771929824563</v>
       </c>
       <c r="W2"/>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="34">
-        <f>$V$41 * ( (SUM(B3:U3))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>9.4736842105263161E-2</v>
       </c>
       <c r="W3"/>
@@ -1246,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="V4" s="34">
-        <f>$V$41 * ( (SUM(B4:U4))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.48070175438596491</v>
       </c>
       <c r="W4"/>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="34">
-        <f>$V$41 * ( (SUM(B5:U5))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.47017543859649125</v>
       </c>
       <c r="W5"/>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="34">
-        <f>$V$41 * ( (SUM(B6:U6))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.47719298245614034</v>
       </c>
       <c r="W6"/>
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="34">
-        <f>$V$41 * ( (SUM(B7:U7))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.3473684210526316</v>
       </c>
       <c r="W7"/>
@@ -1518,7 +1518,7 @@
         <v>12</v>
       </c>
       <c r="V8" s="34">
-        <f>$V$41 * ( (SUM(B8:U8))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.50877192982456143</v>
       </c>
       <c r="W8"/>
@@ -1586,7 +1586,7 @@
         <v>5</v>
       </c>
       <c r="V9" s="34">
-        <f>$V$41 * ( (SUM(B9:U9))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="W9"/>
@@ -1654,7 +1654,7 @@
         <v>9</v>
       </c>
       <c r="V10" s="34">
-        <f>$V$41 * ( (SUM(B10:U10))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.49473684210526314</v>
       </c>
       <c r="W10"/>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="34">
-        <f>$V$41 * ( (SUM(B11:U11))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.15438596491228071</v>
       </c>
       <c r="W11"/>
@@ -1790,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="V12" s="34">
-        <f>$V$41 * ( (SUM(B12:U12))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.512280701754386</v>
       </c>
       <c r="W12"/>
@@ -1858,7 +1858,7 @@
         <v>15</v>
       </c>
       <c r="V13" s="34">
-        <f>$V$41 * ( (SUM(B13:U13))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.91578947368421049</v>
       </c>
       <c r="W13"/>
@@ -1926,7 +1926,7 @@
         <v>15</v>
       </c>
       <c r="V14" s="34">
-        <f>$V$41 * ( (SUM(B14:U14))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.83157894736842108</v>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="34">
-        <f>$V$41 * ( (SUM(B15:U15))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>4.5614035087719301E-2</v>
       </c>
       <c r="W15"/>
@@ -2061,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="V16" s="34">
-        <f>$V$41 * ( (SUM(B16:U16))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.84210526315789469</v>
       </c>
       <c r="W16"/>
@@ -2129,7 +2129,7 @@
         <v>6</v>
       </c>
       <c r="V17" s="34">
-        <f>$V$41 * ( (SUM(B17:U17))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.45964912280701753</v>
       </c>
       <c r="W17"/>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="V18" s="34">
-        <f>$V$41 * ( (SUM(B18:U18))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.50175438596491229</v>
       </c>
       <c r="W18"/>
@@ -2265,7 +2265,7 @@
         <v>15</v>
       </c>
       <c r="V19" s="34">
-        <f>$V$41 * ( (SUM(B19:U19))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.76491228070175443</v>
       </c>
       <c r="W19"/>
@@ -2333,7 +2333,7 @@
         <v>15</v>
       </c>
       <c r="V20" s="34">
-        <f>$V$41 * ( (SUM(B20:U20))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.78596491228070176</v>
       </c>
       <c r="W20"/>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="V21" s="34">
-        <f>$V$41 * ( (SUM(B21:U21))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.15789473684210525</v>
       </c>
       <c r="W21"/>
@@ -2469,7 +2469,7 @@
         <v>15</v>
       </c>
       <c r="V22" s="34">
-        <f>$V$41 * ( (SUM(B22:U22))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.88771929824561402</v>
       </c>
       <c r="W22"/>
@@ -2537,7 +2537,7 @@
         <v>15</v>
       </c>
       <c r="V23" s="34">
-        <f>$V$41 * ( (SUM(B23:U23))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.80350877192982462</v>
       </c>
       <c r="W23"/>
@@ -2605,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="V24" s="34">
-        <f>$V$41 * ( (SUM(B24:U24))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.58245614035087723</v>
       </c>
       <c r="W24"/>
@@ -2673,7 +2673,7 @@
         <v>12</v>
       </c>
       <c r="V25" s="34">
-        <f>$V$41 * ( (SUM(B25:U25))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.61403508771929827</v>
       </c>
       <c r="W25"/>
@@ -2741,7 +2741,7 @@
         <v>15</v>
       </c>
       <c r="V26" s="34">
-        <f>$V$41 * ( (SUM(B26:U26))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.63508771929824559</v>
       </c>
       <c r="W26"/>
@@ -2809,7 +2809,7 @@
         <v>6</v>
       </c>
       <c r="V27" s="34">
-        <f>$V$41 * ( (SUM(B27:U27))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.57192982456140351</v>
       </c>
       <c r="W27"/>
@@ -2877,7 +2877,7 @@
         <v>6</v>
       </c>
       <c r="V28" s="34">
-        <f>$V$41 * ( (SUM(B28:U28))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.43859649122807015</v>
       </c>
       <c r="W28"/>
@@ -2945,7 +2945,7 @@
         <v>9</v>
       </c>
       <c r="V29" s="34">
-        <f>$V$41 * ( (SUM(B29:U29))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
       <c r="W29"/>
@@ -3013,7 +3013,7 @@
         <v>6</v>
       </c>
       <c r="V30" s="34">
-        <f>$V$41 * ( (SUM(B30:U30))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.4631578947368421</v>
       </c>
       <c r="W30"/>
@@ -3081,7 +3081,7 @@
         <v>3</v>
       </c>
       <c r="V31" s="34">
-        <f>$V$41 * ( (SUM(B31:U31))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.47017543859649125</v>
       </c>
       <c r="W31"/>
@@ -3149,7 +3149,7 @@
         <v>6</v>
       </c>
       <c r="V32" s="34">
-        <f>$V$41 * ( (SUM(B32:U32))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.64210526315789473</v>
       </c>
       <c r="W32"/>
@@ -3217,7 +3217,7 @@
         <v>6</v>
       </c>
       <c r="V33" s="34">
-        <f>$V$41 * ( (SUM(B33:U33))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.43157894736842106</v>
       </c>
       <c r="W33"/>
@@ -3285,7 +3285,7 @@
         <v>15</v>
       </c>
       <c r="V34" s="34">
-        <f>$V$41 * ( (SUM(B34:U34))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.72280701754385968</v>
       </c>
       <c r="W34"/>
@@ -3353,7 +3353,7 @@
         <v>15</v>
       </c>
       <c r="V35" s="34">
-        <f>$V$41 * ( (SUM(B35:U35))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.90175438596491231</v>
       </c>
       <c r="W35"/>
@@ -3421,7 +3421,7 @@
         <v>15</v>
       </c>
       <c r="V36" s="34">
-        <f>$V$41 * ( (SUM(B36:U36))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.58947368421052626</v>
       </c>
       <c r="W36"/>
@@ -3489,7 +3489,7 @@
         <v>9</v>
       </c>
       <c r="V37" s="34">
-        <f>$V$41 * ( (SUM(B37:U37))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.65614035087719302</v>
       </c>
       <c r="W37"/>
@@ -3557,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="V38" s="34">
-        <f>$V$41 * ( (SUM(B38:U38))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.26315789473684209</v>
       </c>
       <c r="W38"/>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="34">
-        <f>$V$41 * ( (SUM(B39:U39))/((SUM($B$45:$U$45))*$B$41) )</f>
+        <f t="shared" si="0"/>
         <v>0.3473684210526316</v>
       </c>
       <c r="W39"/>
@@ -3733,83 +3733,83 @@
         <v>11.342105263157896</v>
       </c>
       <c r="C42" s="30">
-        <f t="shared" ref="C42:V42" si="0">AVERAGE(C$2:C$39)</f>
+        <f t="shared" ref="C42:V42" si="1">AVERAGE(C$2:C$39)</f>
         <v>10.736842105263158</v>
       </c>
       <c r="D42" s="30" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10.421052631578947</v>
       </c>
       <c r="F42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12.631578947368421</v>
       </c>
       <c r="G42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6052631578947372</v>
       </c>
       <c r="H42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6842105263157894</v>
       </c>
       <c r="I42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7631578947368425</v>
       </c>
       <c r="J42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9210526315789478</v>
       </c>
       <c r="K42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1052631578947372</v>
       </c>
       <c r="L42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3421052631578947</v>
       </c>
       <c r="M42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.4473684210526319</v>
       </c>
       <c r="N42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0789473684210531</v>
       </c>
       <c r="O42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8947368421052628</v>
       </c>
       <c r="P42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8947368421052628</v>
       </c>
       <c r="Q42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.7368421052631575</v>
       </c>
       <c r="R42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3947368421052637</v>
       </c>
       <c r="S42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.5526315789473681</v>
       </c>
       <c r="T42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.6578947368421053</v>
       </c>
       <c r="U42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5526315789473681</v>
       </c>
       <c r="V42" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5325023084025855</v>
       </c>
       <c r="W42"/>
@@ -3823,83 +3823,83 @@
         <v>5.0845623043147032</v>
       </c>
       <c r="C43" s="30">
-        <f t="shared" ref="C43:V43" si="1">STDEV(C$2:C$39)</f>
+        <f t="shared" ref="C43:V43" si="2">STDEV(C$2:C$39)</f>
         <v>5.1079387630264215</v>
       </c>
       <c r="D43" s="30" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3967529723487706</v>
       </c>
       <c r="F43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.3584094087958203</v>
       </c>
       <c r="G43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0859609296105388</v>
       </c>
       <c r="H43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.6679196312929951</v>
       </c>
       <c r="I43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.432278472849144</v>
       </c>
       <c r="J43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.8623294325527313</v>
       </c>
       <c r="K43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0522898010358226</v>
       </c>
       <c r="L43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.478588868369318</v>
       </c>
       <c r="M43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.6847845319782611</v>
       </c>
       <c r="N43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.0197044865394469</v>
       </c>
       <c r="O43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8114029272569203</v>
       </c>
       <c r="P43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.0553128258015922</v>
       </c>
       <c r="Q43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7799367321738311</v>
       </c>
       <c r="R43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.4103977656850981</v>
       </c>
       <c r="S43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.1658827163395626</v>
       </c>
       <c r="T43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.0153510552289573</v>
       </c>
       <c r="U43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8757282167246005</v>
       </c>
       <c r="V43" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.22005227857473506</v>
       </c>
       <c r="W43"/>
@@ -3913,83 +3913,83 @@
         <v>15</v>
       </c>
       <c r="C44" s="30">
-        <f t="shared" ref="C44:V44" si="2">MEDIAN(C$2:C$39)</f>
+        <f t="shared" ref="C44:V44" si="3">MEDIAN(C$2:C$39)</f>
         <v>12</v>
       </c>
       <c r="D44" s="30" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
       <c r="E44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="F44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="G44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="I44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="J44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="K44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="M44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="N44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="O44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="P44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
       <c r="Q44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
       <c r="R44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="S44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="T44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="U44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="V44" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.49824561403508771</v>
       </c>
       <c r="W44"/>
@@ -4003,79 +4003,79 @@
         <v>1</v>
       </c>
       <c r="C45" s="33">
-        <f t="shared" ref="C45:U45" si="3">IF(SUM(C2:C39)&gt;0,1,0)</f>
+        <f t="shared" ref="C45:U45" si="4">IF(SUM(C2:C39)&gt;0,1,0)</f>
         <v>1</v>
       </c>
       <c r="D45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="H45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="K45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="M45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="O45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="P45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="Q45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="S45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U45" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="V45" s="33"/>
@@ -6194,8 +6194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -6228,7 +6228,9 @@
         <f>20+22+3+0</f>
         <v>45</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="54">
+        <v>37</v>
+      </c>
       <c r="D2" s="19"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
@@ -6241,7 +6243,9 @@
         <f>12.5+22+15+0</f>
         <v>49.5</v>
       </c>
-      <c r="C3" s="18"/>
+      <c r="C3" s="54">
+        <v>115</v>
+      </c>
       <c r="D3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
@@ -6254,7 +6258,9 @@
         <f>20+23+5+0</f>
         <v>48</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="54">
+        <v>65</v>
+      </c>
       <c r="D4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="19"/>
@@ -6267,7 +6273,7 @@
         <f>27.5+15+11+0</f>
         <v>53.5</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
@@ -6280,7 +6286,9 @@
         <f>20+12+5+10</f>
         <v>47</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="54">
+        <v>42</v>
+      </c>
       <c r="D6" s="19"/>
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
@@ -6293,7 +6301,9 @@
         <f>30+13+2+5</f>
         <v>50</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="54">
+        <v>53</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="F7" s="19"/>
       <c r="G7" s="19"/>
@@ -6306,7 +6316,9 @@
         <f>25+7+5+12</f>
         <v>49</v>
       </c>
-      <c r="C8" s="18"/>
+      <c r="C8" s="54">
+        <v>41</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
@@ -6319,7 +6331,9 @@
         <f>25+22+7+10</f>
         <v>64</v>
       </c>
-      <c r="C9" s="18"/>
+      <c r="C9" s="54">
+        <v>114</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="F9" s="19"/>
       <c r="G9" s="19"/>
@@ -6332,7 +6346,9 @@
         <f>10+7+0+0</f>
         <v>17</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="54">
+        <v>41</v>
+      </c>
       <c r="D10" s="19"/>
       <c r="F10" s="19"/>
       <c r="G10" s="19"/>
@@ -6345,7 +6361,9 @@
         <f>17.5+15+1+9</f>
         <v>42.5</v>
       </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="54">
+        <v>86</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -6358,7 +6376,9 @@
         <f>25+14+0+6</f>
         <v>45</v>
       </c>
-      <c r="C12" s="18"/>
+      <c r="C12" s="54">
+        <v>98</v>
+      </c>
       <c r="D12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -6371,7 +6391,9 @@
         <f>(45+22+23+25)</f>
         <v>115</v>
       </c>
-      <c r="C13" s="18"/>
+      <c r="C13" s="54">
+        <v>150</v>
+      </c>
       <c r="D13" s="19"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -6384,7 +6406,9 @@
         <f>27.5+11+7+7</f>
         <v>52.5</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="54">
+        <v>68</v>
+      </c>
       <c r="D14" s="19"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -6394,7 +6418,7 @@
         <v>69951</v>
       </c>
       <c r="B15" s="43"/>
-      <c r="C15" s="18"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -6410,7 +6434,9 @@
         <f>40+20+21+19</f>
         <v>100</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="54">
+        <v>146</v>
+      </c>
       <c r="D16" s="19"/>
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
@@ -6423,7 +6449,9 @@
         <f>20+9+1+0</f>
         <v>30</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="54">
+        <v>38</v>
+      </c>
       <c r="D17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
@@ -6436,7 +6464,9 @@
         <f>12.5+16+0+0</f>
         <v>28.5</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="54">
+        <v>50</v>
+      </c>
       <c r="D18" s="19"/>
     </row>
     <row r="19" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6447,7 +6477,9 @@
         <f>32.5+15+3+8</f>
         <v>58.5</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="54">
+        <v>81</v>
+      </c>
       <c r="D19" s="19"/>
     </row>
     <row r="20" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6458,7 +6490,9 @@
         <f>30+13+2+16</f>
         <v>61</v>
       </c>
-      <c r="C20" s="18"/>
+      <c r="C20" s="54">
+        <v>57</v>
+      </c>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6469,7 +6503,9 @@
         <f>22.5+1+0+13</f>
         <v>36.5</v>
       </c>
-      <c r="C21" s="18"/>
+      <c r="C21" s="54">
+        <v>10</v>
+      </c>
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6480,7 +6516,9 @@
         <f>32.5+25+20+25</f>
         <v>102.5</v>
       </c>
-      <c r="C22" s="18"/>
+      <c r="C22" s="54">
+        <v>140</v>
+      </c>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6491,7 +6529,9 @@
         <f>25+9+1+1</f>
         <v>36</v>
       </c>
-      <c r="C23" s="18"/>
+      <c r="C23" s="54">
+        <v>40</v>
+      </c>
       <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6502,7 +6542,9 @@
         <f>35+23+9+6</f>
         <v>73</v>
       </c>
-      <c r="C24" s="18"/>
+      <c r="C24" s="54">
+        <v>94</v>
+      </c>
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6513,7 +6555,9 @@
         <f>12.5+11+1+1</f>
         <v>25.5</v>
       </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="54">
+        <v>54</v>
+      </c>
       <c r="D25" s="19"/>
     </row>
     <row r="26" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6524,7 +6568,9 @@
         <f>20+12+1+3</f>
         <v>36</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="54">
+        <v>81</v>
+      </c>
       <c r="D26" s="19"/>
     </row>
     <row r="27" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6535,7 +6581,9 @@
         <f>12.5+13+3+2</f>
         <v>30.5</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="54">
+        <v>49</v>
+      </c>
       <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6546,7 +6594,9 @@
         <f>7.5+10+1+9</f>
         <v>27.5</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="54">
+        <v>20</v>
+      </c>
       <c r="D28" s="19"/>
     </row>
     <row r="29" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6557,7 +6607,9 @@
         <f>10+1+0+0</f>
         <v>11</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="54">
+        <v>4</v>
+      </c>
       <c r="D29" s="19"/>
     </row>
     <row r="30" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6568,7 +6620,9 @@
         <f>15+8+3+0</f>
         <v>26</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="54">
+        <v>52</v>
+      </c>
       <c r="D30" s="19"/>
     </row>
     <row r="31" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6579,7 +6633,9 @@
         <f>17.5+7+0+0</f>
         <v>24.5</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="54">
+        <v>72</v>
+      </c>
       <c r="D31" s="19"/>
     </row>
     <row r="32" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6590,7 +6646,9 @@
         <f>27.5+23+2+0</f>
         <v>52.5</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="54">
+        <v>53</v>
+      </c>
       <c r="D32" s="19"/>
     </row>
     <row r="33" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6601,7 +6659,9 @@
         <f>22.5+14+0+8</f>
         <v>44.5</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="54">
+        <v>52</v>
+      </c>
       <c r="D33" s="19"/>
     </row>
     <row r="34" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6612,7 +6672,9 @@
         <f>25+20+0+16</f>
         <v>61</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="54">
+        <v>59</v>
+      </c>
       <c r="D34" s="19"/>
     </row>
     <row r="35" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6623,7 +6685,9 @@
         <f>47.5+25+24+25</f>
         <v>121.5</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="54">
+        <v>150</v>
+      </c>
       <c r="D35" s="19"/>
     </row>
     <row r="36" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6634,7 +6698,9 @@
         <f>22.5+9+1+0</f>
         <v>32.5</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="54">
+        <v>22</v>
+      </c>
       <c r="D36" s="19"/>
     </row>
     <row r="37" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6645,7 +6711,9 @@
         <f>27.5+17+5+11</f>
         <v>60.5</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="54">
+        <v>64</v>
+      </c>
       <c r="D37" s="19"/>
     </row>
     <row r="38" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6656,7 +6724,9 @@
         <f>10+0+1+0</f>
         <v>11</v>
       </c>
-      <c r="C38" s="18"/>
+      <c r="C38" s="54">
+        <v>22</v>
+      </c>
       <c r="D38" s="19"/>
     </row>
     <row r="39" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -6667,7 +6737,9 @@
         <f>10+9+1+1</f>
         <v>21</v>
       </c>
-      <c r="C39" s="18"/>
+      <c r="C39" s="54">
+        <v>43</v>
+      </c>
       <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:25" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -6684,7 +6756,7 @@
         <v>125</v>
       </c>
       <c r="C41" s="41">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D41" s="19"/>
     </row>
@@ -6696,9 +6768,9 @@
         <f>AVERAGE(B$2:B$39)</f>
         <v>48.364864864864863</v>
       </c>
-      <c r="C42" s="42" t="e">
+      <c r="C42" s="42">
         <f t="shared" ref="C42" si="0">AVERAGE(C$2:C$39)</f>
-        <v>#DIV/0!</v>
+        <v>65.638888888888886</v>
       </c>
       <c r="D42" s="19"/>
     </row>
@@ -6710,9 +6782,9 @@
         <f>STDEV(B$2:B$39)</f>
         <v>26.482344393285207</v>
       </c>
-      <c r="C43" s="42" t="e">
+      <c r="C43" s="42">
         <f t="shared" ref="C43" si="1">STDEV(C$2:C$39)</f>
-        <v>#DIV/0!</v>
+        <v>38.753545664716945</v>
       </c>
       <c r="D43" s="19"/>
     </row>
@@ -6724,9 +6796,9 @@
         <f>MEDIAN(B$2:B$39)</f>
         <v>45</v>
       </c>
-      <c r="C44" s="42" t="e">
+      <c r="C44" s="42">
         <f t="shared" ref="C44" si="2">MEDIAN(C$2:C$39)</f>
-        <v>#NUM!</v>
+        <v>53.5</v>
       </c>
       <c r="D44" s="19"/>
     </row>
@@ -6949,7 +7021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -7009,15 +7081,15 @@
       </c>
       <c r="E2" s="44">
         <f>Exams!C2</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F2" s="34">
-        <f t="shared" ref="F2:F17" si="0">$B2+$C2+($D2/$D$41)*3+($E2/$E$41)*4.5</f>
-        <v>2.776587719298246</v>
+        <f>$B2+$C2+IF( ($E2/$E$41)&gt;($D2/$D$41), ($E2/$E$41)*7.5, ($D2/$D$41)*3+($E2/$E$41)*4.5)</f>
+        <v>3.8865877192982463</v>
       </c>
       <c r="G2" s="34">
         <f>0.5*INT(F2/0.5)+INT( ((F2-INT(F2/0.5)*0.5)/0.25))*0.5</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H2" s="51">
         <f>IF(G2&gt;4.75,1,0)</f>
@@ -7043,19 +7115,19 @@
       </c>
       <c r="E3" s="44">
         <f>Exams!C3</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F3" s="34">
-        <f t="shared" si="0"/>
-        <v>1.9824868421052635</v>
+        <f t="shared" ref="F3:F39" si="0">$B3+$C3+IF( ($E3/$E$41)&gt;($D3/$D$41), ($E3/$E$41)*7.5, ($D3/$D$41)*3+($E3/$E$41)*4.5)</f>
+        <v>6.5444868421052629</v>
       </c>
       <c r="G3" s="34">
         <f t="shared" ref="G3:G19" si="1">0.5*INT(F3/0.5)+INT( ((F3-INT(F3/0.5)*0.5)/0.25))*0.5</f>
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="H3" s="51">
         <f t="shared" ref="H3:H19" si="2">IF(G3&gt;4.75,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7076,19 +7148,19 @@
       </c>
       <c r="E4" s="44">
         <f>Exams!C4</f>
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F4" s="34">
         <f t="shared" si="0"/>
-        <v>2.9017017543859644</v>
+        <v>4.9997017543859643</v>
       </c>
       <c r="G4" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7142,15 +7214,15 @@
       </c>
       <c r="E6" s="44">
         <f>Exams!C6</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F6" s="34">
         <f t="shared" si="0"/>
-        <v>2.8704429824561402</v>
+        <v>4.1304429824561408</v>
       </c>
       <c r="G6" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" s="51">
         <f t="shared" si="2"/>
@@ -7175,15 +7247,15 @@
       </c>
       <c r="E7" s="44">
         <f>Exams!C7</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F7" s="34">
         <f t="shared" si="0"/>
-        <v>2.1631184210526317</v>
+        <v>3.7531184210526316</v>
       </c>
       <c r="G7" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7" s="51">
         <f t="shared" si="2"/>
@@ -7208,15 +7280,15 @@
       </c>
       <c r="E8" s="44">
         <f>Exams!C8</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F8" s="34">
         <f t="shared" si="0"/>
-        <v>2.7940219298245617</v>
+        <v>4.0240219298245616</v>
       </c>
       <c r="G8" s="34">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" s="51">
         <f t="shared" si="2"/>
@@ -7241,19 +7313,19 @@
       </c>
       <c r="E9" s="44">
         <f>Exams!C9</f>
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F9" s="34">
         <f t="shared" si="0"/>
-        <v>3.4599166666666665</v>
+        <v>7.6239166666666662</v>
       </c>
       <c r="G9" s="34">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="H9" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7274,15 +7346,15 @@
       </c>
       <c r="E10" s="44">
         <f>Exams!C10</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F10" s="34">
         <f t="shared" si="0"/>
-        <v>1.9954868421052634</v>
+        <v>3.6374868421052629</v>
       </c>
       <c r="G10" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H10" s="51">
         <f t="shared" si="2"/>
@@ -7307,19 +7379,19 @@
       </c>
       <c r="E11" s="44">
         <f>Exams!C11</f>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F11" s="34">
         <f t="shared" si="0"/>
-        <v>1.5636359649122809</v>
+        <v>4.8436359649122807</v>
       </c>
       <c r="G11" s="34">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H11" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7340,19 +7412,19 @@
       </c>
       <c r="E12" s="44">
         <f>Exams!C12</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F12" s="34">
         <f t="shared" si="0"/>
-        <v>2.0662807017543861</v>
+        <v>5.8862807017543863</v>
       </c>
       <c r="G12" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H12" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7373,15 +7445,15 @@
       </c>
       <c r="E13" s="44">
         <f>Exams!C13</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F13" s="34">
         <f t="shared" si="0"/>
-        <v>5.1187894736842114</v>
+        <v>9.8587894736842117</v>
       </c>
       <c r="G13" s="34">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H13" s="51">
         <f t="shared" si="2"/>
@@ -7406,19 +7478,19 @@
       </c>
       <c r="E14" s="44">
         <f>Exams!C14</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F14" s="34">
         <f t="shared" si="0"/>
-        <v>3.3913289473684207</v>
+        <v>5.5313289473684204</v>
       </c>
       <c r="G14" s="34">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H14" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7472,19 +7544,19 @@
       </c>
       <c r="E16" s="44">
         <f>Exams!C16</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="F16" s="34">
         <f t="shared" si="0"/>
-        <v>4.6783552631578953</v>
+        <v>9.5783552631578956</v>
       </c>
       <c r="G16" s="34">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="H16" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7505,15 +7577,15 @@
       </c>
       <c r="E17" s="44">
         <f>Exams!C17</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F17" s="34">
         <f t="shared" si="0"/>
-        <v>2.4808991228070179</v>
+        <v>3.6608991228070176</v>
       </c>
       <c r="G17" s="34">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H17" s="51">
         <f t="shared" si="2"/>
@@ -7538,15 +7610,15 @@
       </c>
       <c r="E18" s="44">
         <f>Exams!C18</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F18" s="34">
-        <f>$B18+$C18+($D18/100)*3+($E18/$E$41)*4.5</f>
-        <v>2.1397543859649124</v>
+        <f t="shared" si="0"/>
+        <v>3.7847543859649124</v>
       </c>
       <c r="G18" s="34">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" s="51">
         <f t="shared" si="2"/>
@@ -7571,19 +7643,19 @@
       </c>
       <c r="E19" s="44">
         <f>Exams!C19</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F19" s="34">
-        <f t="shared" ref="F19:F39" si="3">$B19+$C19+($D19/$D$41)*3+($E19/$E$41)*4.5</f>
-        <v>3.5241622807017547</v>
+        <f t="shared" si="0"/>
+        <v>6.1701622807017547</v>
       </c>
       <c r="G19" s="34">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="H19" s="51">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7604,19 +7676,19 @@
       </c>
       <c r="E20" s="44">
         <f>Exams!C20</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F20" s="34">
-        <f t="shared" si="3"/>
-        <v>3.6052149122807018</v>
+        <f t="shared" si="0"/>
+        <v>5.3152149122807018</v>
       </c>
       <c r="G20" s="34">
-        <f t="shared" ref="G20:G25" si="4">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
-        <v>3.5</v>
+        <f t="shared" ref="G20:G25" si="3">0.5*INT(F20/0.5)+INT( ((F20-INT(F20/0.5)*0.5)/0.25))*0.5</f>
+        <v>5.5</v>
       </c>
       <c r="H20" s="51">
-        <f t="shared" ref="H20:H25" si="5">IF(G20&gt;4.75,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="H20:H25" si="4">IF(G20&gt;4.75,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7637,18 +7709,18 @@
       </c>
       <c r="E21" s="44">
         <f>Exams!C21</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F21" s="34">
+        <f t="shared" si="0"/>
+        <v>1.7006447368421052</v>
+      </c>
+      <c r="G21" s="34">
         <f t="shared" si="3"/>
-        <v>1.4006447368421051</v>
-      </c>
-      <c r="G21" s="34">
+        <v>1.5</v>
+      </c>
+      <c r="H21" s="51">
         <f t="shared" si="4"/>
-        <v>1.5</v>
-      </c>
-      <c r="H21" s="51">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7670,18 +7742,18 @@
       </c>
       <c r="E22" s="44">
         <f>Exams!C22</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="F22" s="34">
+        <f t="shared" si="0"/>
+        <v>9.3089692982456143</v>
+      </c>
+      <c r="G22" s="34">
         <f t="shared" si="3"/>
-        <v>4.7689692982456133</v>
-      </c>
-      <c r="G22" s="34">
+        <v>9.5</v>
+      </c>
+      <c r="H22" s="51">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="H22" s="51">
-        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -7703,18 +7775,18 @@
       </c>
       <c r="E23" s="44">
         <f>Exams!C23</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F23" s="34">
+        <f t="shared" si="0"/>
+        <v>4.1395087719298242</v>
+      </c>
+      <c r="G23" s="34">
         <f t="shared" si="3"/>
-        <v>2.9395087719298245</v>
-      </c>
-      <c r="G23" s="34">
+        <v>4</v>
+      </c>
+      <c r="H23" s="51">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H23" s="51">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7736,19 +7808,19 @@
       </c>
       <c r="E24" s="44">
         <f>Exams!C24</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="F24" s="34">
+        <f t="shared" si="0"/>
+        <v>5.8014561403508775</v>
+      </c>
+      <c r="G24" s="34">
         <f t="shared" si="3"/>
-        <v>2.8534561403508771</v>
-      </c>
-      <c r="G24" s="34">
+        <v>6</v>
+      </c>
+      <c r="H24" s="51">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="H24" s="51">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7769,18 +7841,18 @@
       </c>
       <c r="E25" s="44">
         <f>Exams!C25</f>
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="F25" s="34">
+        <f t="shared" si="0"/>
+        <v>4.3272850877192983</v>
+      </c>
+      <c r="G25" s="34">
         <f t="shared" si="3"/>
-        <v>2.2392850877192982</v>
-      </c>
-      <c r="G25" s="34">
+        <v>4.5</v>
+      </c>
+      <c r="H25" s="51">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="H25" s="51">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -7802,19 +7874,19 @@
       </c>
       <c r="E26" s="44">
         <f>Exams!C26</f>
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="F26" s="34">
-        <f t="shared" si="3"/>
-        <v>2.3878377192982456</v>
+        <f t="shared" si="0"/>
+        <v>5.5738377192982469</v>
       </c>
       <c r="G26" s="34">
-        <f t="shared" ref="G26:G39" si="6">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
-        <v>2.5</v>
+        <f t="shared" ref="G26:G39" si="5">0.5*INT(F26/0.5)+INT( ((F26-INT(F26/0.5)*0.5)/0.25))*0.5</f>
+        <v>5.5</v>
       </c>
       <c r="H26" s="51">
-        <f t="shared" ref="H26:H32" si="7">IF(G26&gt;4.75,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="H26:H32" si="6">IF(G26&gt;4.75,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -7835,18 +7907,18 @@
       </c>
       <c r="E27" s="44">
         <f>Exams!C27</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F27" s="34">
-        <f t="shared" si="3"/>
-        <v>2.3231798245614037</v>
+        <f t="shared" si="0"/>
+        <v>4.0411798245614037</v>
       </c>
       <c r="G27" s="34">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H27" s="51">
         <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-      <c r="H27" s="51">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7868,18 +7940,18 @@
       </c>
       <c r="E28" s="44">
         <f>Exams!C28</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F28" s="34">
-        <f t="shared" si="3"/>
-        <v>1.8448464912280702</v>
+        <f t="shared" si="0"/>
+        <v>2.4448464912280699</v>
       </c>
       <c r="G28" s="34">
+        <f t="shared" si="5"/>
+        <v>2.5</v>
+      </c>
+      <c r="H28" s="51">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H28" s="51">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7901,18 +7973,18 @@
       </c>
       <c r="E29" s="44">
         <f>Exams!C29</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" s="34">
-        <f t="shared" si="3"/>
-        <v>1.0779166666666666</v>
+        <f t="shared" si="0"/>
+        <v>1.1979166666666665</v>
       </c>
       <c r="G29" s="34">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H29" s="51">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="H29" s="51">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7934,18 +8006,18 @@
       </c>
       <c r="E30" s="44">
         <f>Exams!C30</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F30" s="34">
-        <f t="shared" si="3"/>
-        <v>2.1716578947368421</v>
+        <f t="shared" si="0"/>
+        <v>4.1476578947368417</v>
       </c>
       <c r="G30" s="34">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="H30" s="51">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="H30" s="51">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -7967,19 +8039,19 @@
       </c>
       <c r="E31" s="44">
         <f>Exams!C31</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="F31" s="34">
-        <f t="shared" si="3"/>
-        <v>2.3301754385964912</v>
+        <f t="shared" si="0"/>
+        <v>5.3421754385964908</v>
       </c>
       <c r="G31" s="34">
+        <f t="shared" si="5"/>
+        <v>5.5</v>
+      </c>
+      <c r="H31" s="51">
         <f t="shared" si="6"/>
-        <v>2.5</v>
-      </c>
-      <c r="H31" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -8000,19 +8072,19 @@
       </c>
       <c r="E32" s="44">
         <f>Exams!C32</f>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F32" s="34">
-        <f t="shared" si="3"/>
-        <v>3.209355263157895</v>
+        <f t="shared" si="0"/>
+        <v>4.7993552631578948</v>
       </c>
       <c r="G32" s="34">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="H32" s="51">
         <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="H32" s="51">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -8033,15 +8105,15 @@
       </c>
       <c r="E33" s="44">
         <f>Exams!C33</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F33" s="34">
-        <f t="shared" si="3"/>
-        <v>2.4160789473684208</v>
+        <f t="shared" si="0"/>
+        <v>3.9760789473684213</v>
       </c>
       <c r="G33" s="34">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="H33" s="51">
         <f>IF(G33&gt;4.75,1,0)</f>
@@ -8066,18 +8138,18 @@
       </c>
       <c r="E34" s="44">
         <f>Exams!C34</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="F34" s="34">
-        <f t="shared" si="3"/>
-        <v>2.3353070175438595</v>
+        <f t="shared" si="0"/>
+        <v>4.1053070175438595</v>
       </c>
       <c r="G34" s="34">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
+        <f t="shared" si="5"/>
+        <v>4</v>
       </c>
       <c r="H34" s="51">
-        <f t="shared" ref="H34:H39" si="8">IF(G34&gt;4.75,1,0)</f>
+        <f t="shared" ref="H34:H39" si="7">IF(G34&gt;4.75,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8099,18 +8171,18 @@
       </c>
       <c r="E35" s="44">
         <f>Exams!C35</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F35" s="34">
-        <f t="shared" si="3"/>
-        <v>5.238254385964912</v>
+        <f t="shared" si="0"/>
+        <v>9.8222543859649125</v>
       </c>
       <c r="G35" s="34">
-        <f t="shared" si="6"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
       <c r="H35" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -8132,18 +8204,18 @@
       </c>
       <c r="E36" s="44">
         <f>Exams!C36</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F36" s="34">
-        <f t="shared" si="3"/>
-        <v>2.3189736842105262</v>
+        <f t="shared" si="0"/>
+        <v>2.9789736842105263</v>
       </c>
       <c r="G36" s="34">
-        <f t="shared" si="6"/>
-        <v>2.5</v>
+        <f t="shared" si="5"/>
+        <v>3</v>
       </c>
       <c r="H36" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8165,19 +8237,19 @@
       </c>
       <c r="E37" s="44">
         <f>Exams!C37</f>
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F37" s="34">
-        <f t="shared" si="3"/>
-        <v>2.8918903508771931</v>
+        <f t="shared" si="0"/>
+        <v>4.8118903508771931</v>
       </c>
       <c r="G37" s="34">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="5"/>
+        <v>5</v>
       </c>
       <c r="H37" s="51">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -8198,18 +8270,18 @@
       </c>
       <c r="E38" s="44">
         <f>Exams!C38</f>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F38" s="34">
-        <f t="shared" si="3"/>
-        <v>0.96065789473684204</v>
+        <f t="shared" si="0"/>
+        <v>1.7966578947368421</v>
       </c>
       <c r="G38" s="34">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>2</v>
       </c>
       <c r="H38" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8231,18 +8303,18 @@
       </c>
       <c r="E39" s="44">
         <f>Exams!C39</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F39" s="34">
-        <f t="shared" si="3"/>
-        <v>1.6666184210526316</v>
+        <f t="shared" si="0"/>
+        <v>3.3126184210526315</v>
       </c>
       <c r="G39" s="34">
-        <f t="shared" si="6"/>
-        <v>1.5</v>
+        <f t="shared" si="5"/>
+        <v>3.5</v>
       </c>
       <c r="H39" s="51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -8273,7 +8345,7 @@
         <v>125</v>
       </c>
       <c r="E41" s="40">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F41" s="40">
         <v>10</v>
@@ -8282,8 +8354,8 @@
         <v>10</v>
       </c>
       <c r="H41" s="40">
-        <f>SUM(H2:H33)</f>
-        <v>2</v>
+        <f>SUM(H2:H39)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -8295,28 +8367,28 @@
         <v>0.5325023084025855</v>
       </c>
       <c r="C42" s="30">
-        <f t="shared" ref="C42:H42" si="9">AVERAGE(C$2:C$39)</f>
+        <f t="shared" ref="C42:H42" si="8">AVERAGE(C$2:C$39)</f>
         <v>0.95003289473684194</v>
       </c>
       <c r="D42" s="30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>47.092105263157897</v>
       </c>
       <c r="E42" s="30">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>62.184210526315788</v>
       </c>
       <c r="F42" s="30">
-        <f t="shared" si="9"/>
-        <v>2.6172457294552163</v>
+        <f t="shared" si="8"/>
+        <v>4.7217457294552183</v>
       </c>
       <c r="G42" s="30">
-        <f t="shared" si="9"/>
-        <v>2.6315789473684212</v>
+        <f t="shared" si="8"/>
+        <v>4.75</v>
       </c>
       <c r="H42" s="30">
-        <f t="shared" si="9"/>
-        <v>7.8947368421052627E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.44736842105263158</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -8328,28 +8400,28 @@
         <v>0.22005227857473506</v>
       </c>
       <c r="C43" s="30">
-        <f t="shared" ref="C43:H43" si="10">STDEV(C$2:C$39)</f>
+        <f t="shared" ref="C43:H43" si="9">STDEV(C$2:C$39)</f>
         <v>0.4011201510493847</v>
       </c>
       <c r="D43" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>27.274841209723792</v>
       </c>
       <c r="E43" s="30">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>40.512830975929226</v>
       </c>
       <c r="F43" s="30">
-        <f t="shared" si="10"/>
-        <v>1.0878540633658045</v>
+        <f t="shared" si="9"/>
+        <v>2.2675649252936227</v>
       </c>
       <c r="G43" s="30">
-        <f t="shared" si="10"/>
-        <v>1.0885411172156672</v>
+        <f t="shared" si="9"/>
+        <v>2.3037865422891142</v>
       </c>
       <c r="H43" s="30">
-        <f t="shared" si="10"/>
-        <v>0.27327631273309388</v>
+        <f t="shared" si="9"/>
+        <v>0.50389662287356674</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.15">
@@ -8361,27 +8433,27 @@
         <v>0.49824561403508771</v>
       </c>
       <c r="C44" s="30">
-        <f t="shared" ref="C44:H44" si="11">MEDIAN(C$2:C$39)</f>
+        <f t="shared" ref="C44:H44" si="10">MEDIAN(C$2:C$39)</f>
         <v>1.0162499999999999</v>
       </c>
       <c r="D44" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="E44" s="30">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>53</v>
       </c>
       <c r="F44" s="30">
-        <f t="shared" si="11"/>
-        <v>2.401958333333333</v>
+        <f t="shared" si="10"/>
+        <v>4.143583333333333</v>
       </c>
       <c r="G44" s="30">
-        <f t="shared" si="11"/>
-        <v>2.5</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="H44" s="30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -8681,8 +8753,5 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
-  <ignoredErrors>
-    <ignoredError sqref="F18" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>